--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_tk\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FA7001-CEC6-4F04-9273-2E48409BD7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C65AE6-7F21-4BC8-AC4E-1AE9984DCD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2175" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29745" yWindow="1050" windowWidth="21825" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -30,8 +30,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{89166F7D-1A88-4585-8059-BAA7A0557A19}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">最终伤害会因受攻击的建筑的种类影响，请根据以下分类填写该项系数
+- 火陷阱倍率1.6
+- 内政设施倍率1.1
+- 箭楼，连弩楼，投石台，石兵八阵倍率分别为1.0，0.7，1.0，1.0
+- 土墙，石墙倍率0.9，0.7
+- 港口，城池，关卡倍率0.8，0.7, 0.6
+- 阵，砦，城塞倍率0.8, 0.7，0.6
+- 堤防，落石倍率为0.7，1.0
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="200">
   <si>
     <t>0</t>
   </si>
@@ -659,6 +692,45 @@
   </si>
   <si>
     <t>是否内政建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageBounds</t>
+  </si>
+  <si>
+    <t>耐久被伤害系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +738,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,6 +785,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -783,7 +863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -828,6 +908,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,11 +1222,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:U120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
+  <dimension ref="A1:W120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1152,19 +1235,19 @@
     <col min="2" max="3" width="9" style="2"/>
     <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="10" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="71.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="6" max="9" width="19.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17" style="2" customWidth="1"/>
+    <col min="11" max="12" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="71.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1179,45 +1262,51 @@
         <v>65</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="9"/>
       <c r="S1" s="7"/>
       <c r="T1" s="9"/>
       <c r="U1" s="7"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V1" s="9"/>
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1228,21 +1317,23 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="O2"/>
+      <c r="P2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1258,46 +1349,52 @@
       <c r="E3" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4" spans="1:23" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1314,40 +1411,46 @@
         <v>6</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>175</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1361,38 +1464,44 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
         <v>500</v>
       </c>
-      <c r="J5" s="4">
+      <c r="L5" s="4">
         <v>10000</v>
       </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4"/>
       <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1407,38 +1516,44 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
         <v>500</v>
       </c>
-      <c r="J6" s="4">
+      <c r="L6" s="4">
         <v>10000</v>
       </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4"/>
       <c r="M6" s="4">
         <v>0</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1452,43 +1567,49 @@
         <v>186</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
         <v>25000</v>
       </c>
-      <c r="K7" s="4">
+      <c r="M7" s="4">
         <v>0.01</v>
       </c>
-      <c r="L7" s="4">
+      <c r="N7" s="4">
         <v>1200</v>
       </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1502,43 +1623,49 @@
         <v>186</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
+      <c r="J8" s="6">
+        <v>1</v>
       </c>
       <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
         <v>0.05</v>
       </c>
-      <c r="L8" s="4">
+      <c r="N8" s="4">
         <v>2000</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>3</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1552,43 +1679,49 @@
         <v>186</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
         <v>100</v>
       </c>
-      <c r="J9" s="4">
+      <c r="L9" s="4">
         <v>10000</v>
       </c>
-      <c r="K9" s="4">
+      <c r="M9" s="4">
         <v>0.2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="N9" s="4">
         <v>3000</v>
       </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1602,43 +1735,49 @@
         <v>186</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
         <v>250</v>
       </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
         <v>0.01</v>
       </c>
-      <c r="L10" s="4">
+      <c r="N10" s="4">
         <v>1500</v>
       </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1652,43 +1791,49 @@
         <v>186</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
         <v>150</v>
       </c>
-      <c r="J11" s="4">
+      <c r="L11" s="4">
         <v>20000</v>
       </c>
-      <c r="K11" s="4">
+      <c r="M11" s="4">
         <v>0.03</v>
       </c>
-      <c r="L11" s="4">
+      <c r="N11" s="4">
         <v>2600</v>
       </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1702,70 +1847,76 @@
         <v>186</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
         <v>-100</v>
       </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
       <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
         <v>2500</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>2</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V12" s="4"/>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.15">
       <c r="D65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.15">
       <c r="D66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.15">
       <c r="D67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>8</v>
       </c>
@@ -1778,36 +1929,36 @@
       <c r="E68" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H68" s="6">
-        <v>1</v>
-      </c>
-      <c r="I68" s="4">
-        <v>0</v>
-      </c>
-      <c r="J68" s="4">
-        <v>0</v>
-      </c>
-      <c r="K68" s="4"/>
+      <c r="J68" s="6">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
       <c r="L68" s="4">
+        <v>0</v>
+      </c>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4">
         <v>600</v>
       </c>
-      <c r="M68" s="4">
-        <v>0</v>
-      </c>
-      <c r="N68" s="4" t="s">
+      <c r="O68" s="4">
+        <v>0</v>
+      </c>
+      <c r="P68" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O68" s="2" t="s">
+      <c r="Q68" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="R68" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
       <c r="T68" s="4"/>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V68" s="4"/>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
         <v>9</v>
       </c>
@@ -1820,36 +1971,36 @@
       <c r="E69" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H69" s="6">
-        <v>1</v>
-      </c>
-      <c r="I69" s="4">
-        <v>0</v>
-      </c>
-      <c r="J69" s="4">
-        <v>0</v>
-      </c>
-      <c r="K69" s="4"/>
+      <c r="J69" s="6">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
       <c r="L69" s="4">
+        <v>0</v>
+      </c>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4">
         <v>300</v>
       </c>
-      <c r="M69" s="4">
-        <v>0</v>
-      </c>
-      <c r="N69" s="4" t="s">
+      <c r="O69" s="4">
+        <v>0</v>
+      </c>
+      <c r="P69" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O69" s="2" t="s">
+      <c r="Q69" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="R69" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
       <c r="T69" s="4"/>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V69" s="4"/>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B70" s="4">
         <v>10</v>
       </c>
@@ -1862,36 +2013,36 @@
       <c r="E70" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H70" s="6">
-        <v>1</v>
-      </c>
-      <c r="I70" s="4">
-        <v>0</v>
-      </c>
-      <c r="J70" s="4">
-        <v>0</v>
-      </c>
-      <c r="K70" s="4"/>
+      <c r="J70" s="6">
+        <v>1</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0</v>
+      </c>
       <c r="L70" s="4">
+        <v>0</v>
+      </c>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4">
         <v>300</v>
       </c>
-      <c r="M70" s="4">
-        <v>0</v>
-      </c>
-      <c r="N70" s="4" t="s">
+      <c r="O70" s="4">
+        <v>0</v>
+      </c>
+      <c r="P70" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O70" s="2" t="s">
+      <c r="Q70" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P70" s="2" t="s">
+      <c r="R70" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
       <c r="T70" s="4"/>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V70" s="4"/>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B71" s="4">
         <v>11</v>
       </c>
@@ -1904,36 +2055,36 @@
       <c r="E71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H71" s="6">
-        <v>1</v>
-      </c>
-      <c r="I71" s="4">
-        <v>0</v>
-      </c>
-      <c r="J71" s="4">
-        <v>0</v>
-      </c>
-      <c r="K71" s="4"/>
+      <c r="J71" s="6">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
       <c r="L71" s="4">
+        <v>0</v>
+      </c>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4">
         <v>800</v>
       </c>
-      <c r="M71" s="4">
-        <v>0</v>
-      </c>
-      <c r="N71" s="4" t="s">
+      <c r="O71" s="4">
+        <v>0</v>
+      </c>
+      <c r="P71" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="O71" s="2" t="s">
+      <c r="Q71" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="R71" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
       <c r="T71" s="4"/>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V71" s="4"/>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B72" s="4">
         <v>12</v>
       </c>
@@ -1946,36 +2097,36 @@
       <c r="E72" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H72" s="6">
-        <v>1</v>
-      </c>
-      <c r="I72" s="4">
-        <v>0</v>
-      </c>
-      <c r="J72" s="4">
-        <v>0</v>
-      </c>
-      <c r="K72" s="4"/>
+      <c r="J72" s="6">
+        <v>1</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0</v>
+      </c>
       <c r="L72" s="4">
+        <v>0</v>
+      </c>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4">
         <v>500</v>
       </c>
-      <c r="M72" s="4">
-        <v>0</v>
-      </c>
-      <c r="N72" s="4" t="s">
+      <c r="O72" s="4">
+        <v>0</v>
+      </c>
+      <c r="P72" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="O72" s="2" t="s">
+      <c r="Q72" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P72" s="2" t="s">
+      <c r="R72" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
       <c r="T72" s="4"/>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V72" s="4"/>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B73" s="4">
         <v>13</v>
       </c>
@@ -1988,36 +2139,36 @@
       <c r="E73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H73" s="6">
-        <v>1</v>
-      </c>
-      <c r="I73" s="4">
-        <v>0</v>
-      </c>
-      <c r="J73" s="4">
-        <v>0</v>
-      </c>
-      <c r="K73" s="4"/>
+      <c r="J73" s="6">
+        <v>1</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
       <c r="L73" s="4">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4">
         <v>800</v>
       </c>
-      <c r="M73" s="4">
-        <v>0</v>
-      </c>
-      <c r="N73" s="4" t="s">
+      <c r="O73" s="4">
+        <v>0</v>
+      </c>
+      <c r="P73" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="O73" s="2" t="s">
+      <c r="Q73" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="R73" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
       <c r="T73" s="4"/>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V73" s="4"/>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
         <v>14</v>
       </c>
@@ -2030,36 +2181,36 @@
       <c r="E74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H74" s="6">
-        <v>1</v>
-      </c>
-      <c r="I74" s="4">
-        <v>0</v>
-      </c>
-      <c r="J74" s="4">
-        <v>0</v>
-      </c>
-      <c r="K74" s="4"/>
+      <c r="J74" s="6">
+        <v>1</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0</v>
+      </c>
       <c r="L74" s="4">
+        <v>0</v>
+      </c>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4">
         <v>1200</v>
       </c>
-      <c r="M74" s="4">
-        <v>0</v>
-      </c>
-      <c r="N74" s="4" t="s">
+      <c r="O74" s="4">
+        <v>0</v>
+      </c>
+      <c r="P74" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="O74" s="2" t="s">
+      <c r="Q74" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="R74" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
       <c r="T74" s="4"/>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V74" s="4"/>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
         <v>15</v>
       </c>
@@ -2072,31 +2223,31 @@
       <c r="E75" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H75" s="6">
-        <v>1</v>
-      </c>
-      <c r="I75" s="4">
-        <v>0</v>
-      </c>
-      <c r="J75" s="4">
-        <v>0</v>
-      </c>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4">
-        <v>0</v>
-      </c>
-      <c r="N75" s="4" t="s">
+      <c r="J75" s="6">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0</v>
+      </c>
+      <c r="L75" s="4">
+        <v>0</v>
+      </c>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4">
+        <v>0</v>
+      </c>
+      <c r="P75" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="P75" s="2" t="s">
+      <c r="R75" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
       <c r="T75" s="4"/>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V75" s="4"/>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
         <v>16</v>
       </c>
@@ -2109,31 +2260,31 @@
       <c r="E76" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H76" s="6">
-        <v>1</v>
-      </c>
-      <c r="I76" s="4">
-        <v>0</v>
-      </c>
-      <c r="J76" s="4">
-        <v>0</v>
-      </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4">
-        <v>0</v>
-      </c>
-      <c r="N76" s="4" t="s">
+      <c r="J76" s="6">
+        <v>1</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0</v>
+      </c>
+      <c r="L76" s="4">
+        <v>0</v>
+      </c>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4">
+        <v>0</v>
+      </c>
+      <c r="P76" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="P76" s="2" t="s">
+      <c r="R76" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
       <c r="T76" s="4"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V76" s="4"/>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
         <v>17</v>
       </c>
@@ -2146,36 +2297,36 @@
       <c r="E77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H77" s="6">
-        <v>1</v>
-      </c>
-      <c r="I77" s="4">
-        <v>0</v>
-      </c>
-      <c r="J77" s="4">
-        <v>0</v>
-      </c>
-      <c r="K77" s="4"/>
+      <c r="J77" s="6">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4">
+        <v>0</v>
+      </c>
       <c r="L77" s="4">
+        <v>0</v>
+      </c>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4">
         <v>200</v>
       </c>
-      <c r="M77" s="4">
-        <v>0</v>
-      </c>
-      <c r="N77" s="4" t="s">
+      <c r="O77" s="4">
+        <v>0</v>
+      </c>
+      <c r="P77" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="O77" s="2" t="s">
+      <c r="Q77" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="P77" s="2" t="s">
+      <c r="R77" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
       <c r="T77" s="4"/>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V77" s="4"/>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B78" s="4">
         <v>18</v>
       </c>
@@ -2188,36 +2339,36 @@
       <c r="E78" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H78" s="6">
-        <v>1</v>
-      </c>
-      <c r="I78" s="4">
-        <v>0</v>
-      </c>
-      <c r="J78" s="4">
-        <v>0</v>
-      </c>
-      <c r="K78" s="4"/>
+      <c r="J78" s="6">
+        <v>1</v>
+      </c>
+      <c r="K78" s="4">
+        <v>0</v>
+      </c>
       <c r="L78" s="4">
+        <v>0</v>
+      </c>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4">
         <v>200</v>
       </c>
-      <c r="M78" s="4">
-        <v>0</v>
-      </c>
-      <c r="N78" s="4" t="s">
+      <c r="O78" s="4">
+        <v>0</v>
+      </c>
+      <c r="P78" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O78" s="2" t="s">
+      <c r="Q78" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P78" s="2" t="s">
+      <c r="R78" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
       <c r="T78" s="4"/>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V78" s="4"/>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B79" s="4">
         <v>19</v>
       </c>
@@ -2230,36 +2381,36 @@
       <c r="E79" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H79" s="6">
-        <v>1</v>
-      </c>
-      <c r="I79" s="4">
-        <v>0</v>
-      </c>
-      <c r="J79" s="4">
-        <v>0</v>
-      </c>
-      <c r="K79" s="4"/>
+      <c r="J79" s="6">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4">
+        <v>0</v>
+      </c>
       <c r="L79" s="4">
+        <v>0</v>
+      </c>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4">
         <v>200</v>
       </c>
-      <c r="M79" s="4">
-        <v>0</v>
-      </c>
-      <c r="N79" s="4" t="s">
+      <c r="O79" s="4">
+        <v>0</v>
+      </c>
+      <c r="P79" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="O79" s="2" t="s">
+      <c r="Q79" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="P79" s="2" t="s">
+      <c r="R79" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
       <c r="T79" s="4"/>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V79" s="4"/>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B80" s="4">
         <v>20</v>
       </c>
@@ -2272,36 +2423,36 @@
       <c r="E80" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H80" s="6">
-        <v>1</v>
-      </c>
-      <c r="I80" s="4">
-        <v>0</v>
-      </c>
-      <c r="J80" s="4">
-        <v>0</v>
-      </c>
-      <c r="K80" s="4"/>
+      <c r="J80" s="6">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4">
+        <v>0</v>
+      </c>
       <c r="L80" s="4">
+        <v>0</v>
+      </c>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4">
         <v>200</v>
       </c>
-      <c r="M80" s="4">
-        <v>0</v>
-      </c>
-      <c r="N80" s="4" t="s">
+      <c r="O80" s="4">
+        <v>0</v>
+      </c>
+      <c r="P80" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O80" s="2" t="s">
+      <c r="Q80" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="P80" s="2" t="s">
+      <c r="R80" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
       <c r="T80" s="4"/>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V80" s="4"/>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B81" s="4">
         <v>21</v>
       </c>
@@ -2314,36 +2465,36 @@
       <c r="E81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H81" s="6">
-        <v>1</v>
-      </c>
-      <c r="I81" s="4">
-        <v>0</v>
-      </c>
-      <c r="J81" s="4">
-        <v>0</v>
-      </c>
-      <c r="K81" s="4"/>
+      <c r="J81" s="6">
+        <v>1</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0</v>
+      </c>
       <c r="L81" s="4">
+        <v>0</v>
+      </c>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4">
         <v>200</v>
       </c>
-      <c r="M81" s="4">
-        <v>0</v>
-      </c>
-      <c r="N81" s="4" t="s">
+      <c r="O81" s="4">
+        <v>0</v>
+      </c>
+      <c r="P81" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O81" s="2" t="s">
+      <c r="Q81" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P81" s="2" t="s">
+      <c r="R81" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
       <c r="T81" s="4"/>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V81" s="4"/>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B82" s="4">
         <v>22</v>
       </c>
@@ -2356,36 +2507,36 @@
       <c r="E82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H82" s="6">
-        <v>1</v>
-      </c>
-      <c r="I82" s="4">
-        <v>0</v>
-      </c>
-      <c r="J82" s="4">
-        <v>0</v>
-      </c>
-      <c r="K82" s="4"/>
+      <c r="J82" s="6">
+        <v>1</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0</v>
+      </c>
       <c r="L82" s="4">
+        <v>0</v>
+      </c>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4">
         <v>200</v>
       </c>
-      <c r="M82" s="4">
-        <v>0</v>
-      </c>
-      <c r="N82" s="4" t="s">
+      <c r="O82" s="4">
+        <v>0</v>
+      </c>
+      <c r="P82" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O82" s="2" t="s">
+      <c r="Q82" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P82" s="2" t="s">
+      <c r="R82" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
       <c r="T82" s="4"/>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V82" s="4"/>
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B83" s="4">
         <v>23</v>
       </c>
@@ -2398,36 +2549,36 @@
       <c r="E83" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H83" s="6">
-        <v>1</v>
-      </c>
-      <c r="I83" s="4">
-        <v>0</v>
-      </c>
-      <c r="J83" s="4">
-        <v>0</v>
-      </c>
-      <c r="K83" s="4"/>
+      <c r="J83" s="6">
+        <v>1</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0</v>
+      </c>
       <c r="L83" s="4">
+        <v>0</v>
+      </c>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4">
         <v>200</v>
       </c>
-      <c r="M83" s="4">
-        <v>0</v>
-      </c>
-      <c r="N83" s="4" t="s">
+      <c r="O83" s="4">
+        <v>0</v>
+      </c>
+      <c r="P83" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="O83" s="2" t="s">
+      <c r="Q83" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P83" s="2" t="s">
+      <c r="R83" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
       <c r="T83" s="4"/>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V83" s="4"/>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B84" s="4">
         <v>24</v>
       </c>
@@ -2440,31 +2591,31 @@
       <c r="E84" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H84" s="6">
-        <v>1</v>
-      </c>
-      <c r="I84" s="4">
-        <v>0</v>
-      </c>
-      <c r="J84" s="4">
-        <v>0</v>
-      </c>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4">
-        <v>0</v>
-      </c>
-      <c r="N84" s="4" t="s">
+      <c r="J84" s="6">
+        <v>1</v>
+      </c>
+      <c r="K84" s="4">
+        <v>0</v>
+      </c>
+      <c r="L84" s="4">
+        <v>0</v>
+      </c>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4">
+        <v>0</v>
+      </c>
+      <c r="P84" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P84" s="2" t="s">
+      <c r="R84" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
       <c r="T84" s="4"/>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V84" s="4"/>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B85" s="4">
         <v>25</v>
       </c>
@@ -2477,31 +2628,31 @@
       <c r="E85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H85" s="6">
-        <v>1</v>
-      </c>
-      <c r="I85" s="4">
-        <v>0</v>
-      </c>
-      <c r="J85" s="4">
-        <v>0</v>
-      </c>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4">
-        <v>0</v>
-      </c>
-      <c r="N85" s="4" t="s">
+      <c r="J85" s="6">
+        <v>1</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0</v>
+      </c>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4">
+        <v>0</v>
+      </c>
+      <c r="P85" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="P85" s="2" t="s">
+      <c r="R85" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
       <c r="T85" s="4"/>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V85" s="4"/>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B86" s="4">
         <v>26</v>
       </c>
@@ -2514,31 +2665,31 @@
       <c r="E86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H86" s="6">
-        <v>1</v>
-      </c>
-      <c r="I86" s="4">
-        <v>0</v>
-      </c>
-      <c r="J86" s="4">
-        <v>0</v>
-      </c>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4">
-        <v>0</v>
-      </c>
-      <c r="N86" s="4" t="s">
+      <c r="J86" s="6">
+        <v>1</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0</v>
+      </c>
+      <c r="L86" s="4">
+        <v>0</v>
+      </c>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4">
+        <v>0</v>
+      </c>
+      <c r="P86" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="2" t="s">
+      <c r="R86" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
       <c r="T86" s="4"/>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V86" s="4"/>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B87" s="4">
         <v>27</v>
       </c>
@@ -2551,31 +2702,31 @@
       <c r="E87" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H87" s="6">
-        <v>1</v>
-      </c>
-      <c r="I87" s="4">
-        <v>0</v>
-      </c>
-      <c r="J87" s="4">
-        <v>0</v>
-      </c>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4">
-        <v>0</v>
-      </c>
-      <c r="N87" s="4" t="s">
+      <c r="J87" s="6">
+        <v>1</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0</v>
+      </c>
+      <c r="L87" s="4">
+        <v>0</v>
+      </c>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4">
+        <v>0</v>
+      </c>
+      <c r="P87" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="P87" s="2" t="s">
+      <c r="R87" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
       <c r="T87" s="4"/>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V87" s="4"/>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B88" s="4">
         <v>28</v>
       </c>
@@ -2588,31 +2739,31 @@
       <c r="E88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H88" s="6">
-        <v>1</v>
-      </c>
-      <c r="I88" s="4">
-        <v>0</v>
-      </c>
-      <c r="J88" s="4">
-        <v>0</v>
-      </c>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4">
-        <v>0</v>
-      </c>
-      <c r="N88" s="4" t="s">
+      <c r="J88" s="6">
+        <v>1</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0</v>
+      </c>
+      <c r="L88" s="4">
+        <v>0</v>
+      </c>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4">
+        <v>0</v>
+      </c>
+      <c r="P88" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="P88" s="2" t="s">
+      <c r="R88" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
       <c r="T88" s="4"/>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V88" s="4"/>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B89" s="4">
         <v>29</v>
       </c>
@@ -2625,31 +2776,31 @@
       <c r="E89" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H89" s="6">
-        <v>1</v>
-      </c>
-      <c r="I89" s="4">
-        <v>0</v>
-      </c>
-      <c r="J89" s="4">
-        <v>0</v>
-      </c>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4">
-        <v>0</v>
-      </c>
-      <c r="N89" s="4" t="s">
+      <c r="J89" s="6">
+        <v>1</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0</v>
+      </c>
+      <c r="L89" s="4">
+        <v>0</v>
+      </c>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4">
+        <v>0</v>
+      </c>
+      <c r="P89" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P89" s="2" t="s">
+      <c r="R89" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
       <c r="T89" s="4"/>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V89" s="4"/>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B90" s="4">
         <v>30</v>
       </c>
@@ -2662,31 +2813,31 @@
       <c r="E90" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H90" s="6">
-        <v>1</v>
-      </c>
-      <c r="I90" s="4">
-        <v>0</v>
-      </c>
-      <c r="J90" s="4">
-        <v>0</v>
-      </c>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4">
-        <v>0</v>
-      </c>
-      <c r="N90" s="4" t="s">
+      <c r="J90" s="6">
+        <v>1</v>
+      </c>
+      <c r="K90" s="4">
+        <v>0</v>
+      </c>
+      <c r="L90" s="4">
+        <v>0</v>
+      </c>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4">
+        <v>0</v>
+      </c>
+      <c r="P90" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P90" s="2" t="s">
+      <c r="R90" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
       <c r="T90" s="4"/>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V90" s="4"/>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B91" s="4">
         <v>31</v>
       </c>
@@ -2699,33 +2850,33 @@
       <c r="E91" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H91" s="6">
-        <v>1</v>
-      </c>
-      <c r="I91" s="4">
+      <c r="J91" s="6">
+        <v>1</v>
+      </c>
+      <c r="K91" s="4">
         <v>10</v>
       </c>
-      <c r="J91" s="4">
+      <c r="L91" s="4">
         <v>10</v>
       </c>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4">
+      <c r="M91" s="4"/>
+      <c r="N91" s="4">
         <v>1500</v>
       </c>
-      <c r="M91" s="4">
-        <v>0</v>
-      </c>
-      <c r="N91" s="4" t="s">
+      <c r="O91" s="4">
+        <v>0</v>
+      </c>
+      <c r="P91" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="P91" s="2" t="s">
+      <c r="R91" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
       <c r="T91" s="4"/>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V91" s="4"/>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B92" s="4">
         <v>32</v>
       </c>
@@ -2738,36 +2889,36 @@
       <c r="E92" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H92" s="6">
-        <v>1</v>
-      </c>
-      <c r="I92" s="4">
+      <c r="J92" s="6">
+        <v>1</v>
+      </c>
+      <c r="K92" s="4">
         <v>1000</v>
       </c>
-      <c r="J92" s="4">
-        <v>0</v>
-      </c>
-      <c r="K92" s="4"/>
       <c r="L92" s="4">
+        <v>0</v>
+      </c>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4">
         <v>200</v>
       </c>
-      <c r="M92" s="4">
-        <v>0</v>
-      </c>
-      <c r="N92" s="4" t="s">
+      <c r="O92" s="4">
+        <v>0</v>
+      </c>
+      <c r="P92" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="O92" s="2" t="s">
+      <c r="Q92" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="P92" s="2">
+      <c r="R92" s="2">
         <v>362</v>
       </c>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
       <c r="T92" s="4"/>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V92" s="4"/>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B93" s="4">
         <v>33</v>
       </c>
@@ -2777,33 +2928,33 @@
       <c r="D93" s="4">
         <v>5</v>
       </c>
-      <c r="I93" s="4">
-        <v>0</v>
-      </c>
-      <c r="J93" s="4">
+      <c r="K93" s="4">
+        <v>0</v>
+      </c>
+      <c r="L93" s="4">
         <v>10000</v>
       </c>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4">
+      <c r="M93" s="4"/>
+      <c r="N93" s="4">
         <v>200</v>
       </c>
-      <c r="M93" s="4">
-        <v>0</v>
-      </c>
-      <c r="N93" s="4" t="s">
+      <c r="O93" s="4">
+        <v>0</v>
+      </c>
+      <c r="P93" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="O93" s="2" t="s">
+      <c r="Q93" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P93" s="2">
+      <c r="R93" s="2">
         <v>376</v>
       </c>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
       <c r="T93" s="4"/>
-    </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V93" s="4"/>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B94" s="2">
         <v>34</v>
       </c>
@@ -2813,34 +2964,34 @@
       <c r="D94" s="4">
         <v>5</v>
       </c>
-      <c r="H94" s="6"/>
-      <c r="I94" s="4">
-        <v>0</v>
-      </c>
-      <c r="J94" s="4">
-        <v>0</v>
-      </c>
-      <c r="K94" s="4"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="4">
+        <v>0</v>
+      </c>
       <c r="L94" s="4">
+        <v>0</v>
+      </c>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4">
         <v>300</v>
       </c>
-      <c r="M94" s="4">
-        <v>0</v>
-      </c>
-      <c r="N94" s="4" t="s">
+      <c r="O94" s="4">
+        <v>0</v>
+      </c>
+      <c r="P94" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="O94" s="2" t="s">
+      <c r="Q94" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P94" s="2">
+      <c r="R94" s="2">
         <v>360</v>
       </c>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
       <c r="T94" s="4"/>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V94" s="4"/>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B95" s="2">
         <v>35</v>
       </c>
@@ -2850,34 +3001,34 @@
       <c r="D95" s="4">
         <v>5</v>
       </c>
-      <c r="H95" s="6"/>
-      <c r="I95" s="4">
-        <v>0</v>
-      </c>
-      <c r="J95" s="4">
+      <c r="J95" s="6"/>
+      <c r="K95" s="4">
+        <v>0</v>
+      </c>
+      <c r="L95" s="4">
         <v>1000</v>
       </c>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4">
+      <c r="M95" s="4"/>
+      <c r="N95" s="4">
         <v>300</v>
       </c>
-      <c r="M95" s="4">
-        <v>0</v>
-      </c>
-      <c r="N95" s="4" t="s">
+      <c r="O95" s="4">
+        <v>0</v>
+      </c>
+      <c r="P95" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O95" s="2" t="s">
+      <c r="Q95" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P95" s="2">
+      <c r="R95" s="2">
         <v>364</v>
       </c>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
       <c r="T95" s="4"/>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V95" s="4"/>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B96" s="2">
         <v>36</v>
       </c>
@@ -2887,34 +3038,34 @@
       <c r="D96" s="4">
         <v>5</v>
       </c>
-      <c r="H96" s="6"/>
-      <c r="I96" s="4">
+      <c r="J96" s="6"/>
+      <c r="K96" s="4">
         <v>1000</v>
       </c>
-      <c r="J96" s="4">
+      <c r="L96" s="4">
         <v>1000</v>
       </c>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4">
+      <c r="M96" s="4"/>
+      <c r="N96" s="4">
         <v>300</v>
       </c>
-      <c r="M96" s="4">
-        <v>0</v>
-      </c>
-      <c r="N96" s="4" t="s">
+      <c r="O96" s="4">
+        <v>0</v>
+      </c>
+      <c r="P96" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O96" s="2" t="s">
+      <c r="Q96" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P96" s="2">
+      <c r="R96" s="2">
         <v>370</v>
       </c>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
       <c r="T96" s="4"/>
-    </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V96" s="4"/>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B97" s="2">
         <v>37</v>
       </c>
@@ -2924,34 +3075,34 @@
       <c r="D97" s="4">
         <v>5</v>
       </c>
-      <c r="H97" s="6"/>
-      <c r="I97" s="4">
-        <v>1</v>
-      </c>
-      <c r="J97" s="4">
-        <v>1</v>
-      </c>
-      <c r="K97" s="4"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="4">
+        <v>1</v>
+      </c>
       <c r="L97" s="4">
+        <v>1</v>
+      </c>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4">
         <v>300</v>
       </c>
-      <c r="M97" s="4">
-        <v>0</v>
-      </c>
-      <c r="N97" s="4" t="s">
+      <c r="O97" s="4">
+        <v>0</v>
+      </c>
+      <c r="P97" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O97" s="2" t="s">
+      <c r="Q97" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P97" s="2">
+      <c r="R97" s="2">
         <v>368</v>
       </c>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
       <c r="T97" s="4"/>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V97" s="4"/>
+    </row>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B98" s="2">
         <v>38</v>
       </c>
@@ -2961,34 +3112,34 @@
       <c r="D98" s="4">
         <v>5</v>
       </c>
-      <c r="H98" s="6"/>
-      <c r="I98" s="4">
-        <v>1</v>
-      </c>
-      <c r="J98" s="4">
-        <v>1</v>
-      </c>
-      <c r="K98" s="4"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="4">
+        <v>1</v>
+      </c>
       <c r="L98" s="4">
+        <v>1</v>
+      </c>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4">
         <v>300</v>
       </c>
-      <c r="M98" s="4">
-        <v>0</v>
-      </c>
-      <c r="N98" s="4" t="s">
+      <c r="O98" s="4">
+        <v>0</v>
+      </c>
+      <c r="P98" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O98" s="2" t="s">
+      <c r="Q98" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P98" s="2">
+      <c r="R98" s="2">
         <v>380</v>
       </c>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
       <c r="T98" s="4"/>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V98" s="4"/>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B99" s="2">
         <v>39</v>
       </c>
@@ -2998,34 +3149,34 @@
       <c r="D99" s="4">
         <v>5</v>
       </c>
-      <c r="H99" s="6"/>
-      <c r="I99" s="4">
-        <v>1</v>
-      </c>
-      <c r="J99" s="4">
-        <v>1</v>
-      </c>
-      <c r="K99" s="4"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="4">
+        <v>1</v>
+      </c>
       <c r="L99" s="4">
+        <v>1</v>
+      </c>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4">
         <v>400</v>
       </c>
-      <c r="M99" s="4">
-        <v>0</v>
-      </c>
-      <c r="N99" s="4" t="s">
+      <c r="O99" s="4">
+        <v>0</v>
+      </c>
+      <c r="P99" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O99" s="2" t="s">
+      <c r="Q99" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="P99" s="2">
+      <c r="R99" s="2">
         <v>378</v>
       </c>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
       <c r="T99" s="4"/>
-    </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V99" s="4"/>
+    </row>
+    <row r="100" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B100" s="2">
         <v>40</v>
       </c>
@@ -3035,34 +3186,34 @@
       <c r="D100" s="4">
         <v>5</v>
       </c>
-      <c r="H100" s="6"/>
-      <c r="I100" s="4">
-        <v>1</v>
-      </c>
-      <c r="J100" s="4">
-        <v>1</v>
-      </c>
-      <c r="K100" s="4"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="4">
+        <v>1</v>
+      </c>
       <c r="L100" s="4">
+        <v>1</v>
+      </c>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4">
         <v>400</v>
       </c>
-      <c r="M100" s="4">
-        <v>0</v>
-      </c>
-      <c r="N100" s="4" t="s">
+      <c r="O100" s="4">
+        <v>0</v>
+      </c>
+      <c r="P100" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="O100" s="2" t="s">
+      <c r="Q100" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P100" s="2">
+      <c r="R100" s="2">
         <v>366</v>
       </c>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
       <c r="T100" s="4"/>
-    </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V100" s="4"/>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B101" s="2">
         <v>41</v>
       </c>
@@ -3072,34 +3223,34 @@
       <c r="D101" s="4">
         <v>5</v>
       </c>
-      <c r="H101" s="6"/>
-      <c r="I101" s="4">
-        <v>1</v>
-      </c>
-      <c r="J101" s="4">
-        <v>1</v>
-      </c>
-      <c r="K101" s="4"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="4">
+        <v>1</v>
+      </c>
       <c r="L101" s="4">
+        <v>1</v>
+      </c>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4">
         <v>200</v>
       </c>
-      <c r="M101" s="4">
-        <v>0</v>
-      </c>
-      <c r="N101" s="4" t="s">
+      <c r="O101" s="4">
+        <v>0</v>
+      </c>
+      <c r="P101" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="O101" s="2" t="s">
+      <c r="Q101" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P101" s="2">
+      <c r="R101" s="2">
         <v>406</v>
       </c>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
       <c r="T101" s="4"/>
-    </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V101" s="4"/>
+    </row>
+    <row r="102" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B102" s="2">
         <v>42</v>
       </c>
@@ -3109,33 +3260,33 @@
       <c r="D102" s="4">
         <v>5</v>
       </c>
-      <c r="H102" s="6"/>
-      <c r="I102" s="4">
-        <v>1</v>
-      </c>
-      <c r="J102" s="4">
-        <v>1</v>
-      </c>
-      <c r="K102" s="4"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="4">
+        <v>1</v>
+      </c>
       <c r="L102" s="4">
+        <v>1</v>
+      </c>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4">
         <v>200</v>
       </c>
-      <c r="M102" s="4">
-        <v>0</v>
-      </c>
-      <c r="N102" s="4" t="s">
+      <c r="O102" s="4">
+        <v>0</v>
+      </c>
+      <c r="P102" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="O102" s="2" t="s">
+      <c r="Q102" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P102" s="2">
+      <c r="R102" s="2">
         <v>408</v>
       </c>
-      <c r="R102" s="4"/>
       <c r="T102" s="4"/>
-    </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="V102" s="4"/>
+    </row>
+    <row r="103" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B103" s="2">
         <v>43</v>
       </c>
@@ -3145,30 +3296,30 @@
       <c r="D103" s="4">
         <v>5</v>
       </c>
-      <c r="I103" s="4">
-        <v>1</v>
-      </c>
-      <c r="J103" s="4">
-        <v>1</v>
-      </c>
-      <c r="K103" s="4"/>
+      <c r="K103" s="4">
+        <v>1</v>
+      </c>
       <c r="L103" s="4">
+        <v>1</v>
+      </c>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4">
         <v>200</v>
       </c>
-      <c r="M103" s="4">
-        <v>0</v>
-      </c>
-      <c r="N103" s="4" t="s">
+      <c r="O103" s="4">
+        <v>0</v>
+      </c>
+      <c r="P103" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="O103" s="2" t="s">
+      <c r="Q103" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P103" s="2">
+      <c r="R103" s="2">
         <v>410</v>
       </c>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B104" s="2">
         <v>44</v>
       </c>
@@ -3178,30 +3329,30 @@
       <c r="D104" s="4">
         <v>5</v>
       </c>
-      <c r="I104" s="4">
-        <v>1</v>
-      </c>
-      <c r="J104" s="4">
-        <v>1</v>
-      </c>
-      <c r="K104" s="4"/>
+      <c r="K104" s="4">
+        <v>1</v>
+      </c>
       <c r="L104" s="4">
+        <v>1</v>
+      </c>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4">
         <v>200</v>
       </c>
-      <c r="M104" s="4">
-        <v>0</v>
-      </c>
-      <c r="N104" s="4" t="s">
+      <c r="O104" s="4">
+        <v>0</v>
+      </c>
+      <c r="P104" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="O104" s="2" t="s">
+      <c r="Q104" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P104" s="2">
+      <c r="R104" s="2">
         <v>412</v>
       </c>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B105" s="2">
         <v>45</v>
       </c>
@@ -3211,30 +3362,30 @@
       <c r="D105" s="4">
         <v>5</v>
       </c>
-      <c r="I105" s="4">
-        <v>1</v>
-      </c>
-      <c r="J105" s="4">
-        <v>1</v>
-      </c>
-      <c r="K105" s="4"/>
+      <c r="K105" s="4">
+        <v>1</v>
+      </c>
       <c r="L105" s="4">
+        <v>1</v>
+      </c>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4">
         <v>200</v>
       </c>
-      <c r="M105" s="4">
-        <v>0</v>
-      </c>
-      <c r="N105" s="4" t="s">
+      <c r="O105" s="4">
+        <v>0</v>
+      </c>
+      <c r="P105" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="O105" s="2" t="s">
+      <c r="Q105" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="P105" s="2">
+      <c r="R105" s="2">
         <v>414</v>
       </c>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B106" s="2">
         <v>46</v>
       </c>
@@ -3244,30 +3395,30 @@
       <c r="D106" s="4">
         <v>5</v>
       </c>
-      <c r="I106" s="4">
-        <v>1</v>
-      </c>
-      <c r="J106" s="4">
-        <v>1</v>
-      </c>
-      <c r="K106" s="4"/>
+      <c r="K106" s="4">
+        <v>1</v>
+      </c>
       <c r="L106" s="4">
+        <v>1</v>
+      </c>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4">
         <v>200</v>
       </c>
-      <c r="M106" s="4">
-        <v>0</v>
-      </c>
-      <c r="N106" s="4" t="s">
+      <c r="O106" s="4">
+        <v>0</v>
+      </c>
+      <c r="P106" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="O106" s="2" t="s">
+      <c r="Q106" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="P106" s="2">
+      <c r="R106" s="2">
         <v>416</v>
       </c>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B107" s="2">
         <v>47</v>
       </c>
@@ -3277,30 +3428,30 @@
       <c r="D107" s="4">
         <v>5</v>
       </c>
-      <c r="I107" s="4">
+      <c r="K107" s="4">
         <v>240</v>
       </c>
-      <c r="J107" s="4">
+      <c r="L107" s="4">
         <v>240</v>
       </c>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4">
+      <c r="M107" s="4"/>
+      <c r="N107" s="4">
         <v>400</v>
       </c>
-      <c r="M107" s="4">
-        <v>0</v>
-      </c>
-      <c r="N107" s="4" t="s">
+      <c r="O107" s="4">
+        <v>0</v>
+      </c>
+      <c r="P107" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="O107" s="2" t="s">
+      <c r="Q107" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="P107" s="2">
+      <c r="R107" s="2">
         <v>418</v>
       </c>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B108" s="2">
         <v>48</v>
       </c>
@@ -3310,30 +3461,30 @@
       <c r="D108" s="4">
         <v>5</v>
       </c>
-      <c r="I108" s="4">
+      <c r="K108" s="4">
         <v>180</v>
       </c>
-      <c r="J108" s="4">
+      <c r="L108" s="4">
         <v>180</v>
       </c>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4">
+      <c r="M108" s="4"/>
+      <c r="N108" s="4">
         <v>400</v>
       </c>
-      <c r="M108" s="4">
-        <v>0</v>
-      </c>
-      <c r="N108" s="4" t="s">
+      <c r="O108" s="4">
+        <v>0</v>
+      </c>
+      <c r="P108" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="O108" s="2" t="s">
+      <c r="Q108" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P108" s="2">
+      <c r="R108" s="2">
         <v>420</v>
       </c>
     </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B109" s="2">
         <v>49</v>
       </c>
@@ -3343,30 +3494,30 @@
       <c r="D109" s="4">
         <v>5</v>
       </c>
-      <c r="I109" s="4">
+      <c r="K109" s="4">
         <v>100</v>
       </c>
-      <c r="J109" s="4">
+      <c r="L109" s="4">
         <v>100</v>
       </c>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4">
+      <c r="M109" s="4"/>
+      <c r="N109" s="4">
         <v>50</v>
       </c>
-      <c r="M109" s="4">
-        <v>0</v>
-      </c>
-      <c r="N109" s="4" t="s">
+      <c r="O109" s="4">
+        <v>0</v>
+      </c>
+      <c r="P109" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="O109" s="2" t="s">
+      <c r="Q109" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="P109" s="2">
+      <c r="R109" s="2">
         <v>422</v>
       </c>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B110" s="2">
         <v>50</v>
       </c>
@@ -3376,30 +3527,30 @@
       <c r="D110" s="4">
         <v>5</v>
       </c>
-      <c r="I110" s="4">
+      <c r="K110" s="4">
         <v>1600</v>
       </c>
-      <c r="J110" s="4">
+      <c r="L110" s="4">
         <v>1600</v>
       </c>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4">
+      <c r="M110" s="4"/>
+      <c r="N110" s="4">
         <v>400</v>
       </c>
-      <c r="M110" s="4">
-        <v>0</v>
-      </c>
-      <c r="N110" s="4" t="s">
+      <c r="O110" s="4">
+        <v>0</v>
+      </c>
+      <c r="P110" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O110" s="2" t="s">
+      <c r="Q110" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="P110" s="2">
+      <c r="R110" s="2">
         <v>424</v>
       </c>
     </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B111" s="2">
         <v>51</v>
       </c>
@@ -3409,27 +3560,27 @@
       <c r="D111" s="4">
         <v>5</v>
       </c>
-      <c r="I111" s="4">
+      <c r="K111" s="4">
         <v>90</v>
       </c>
-      <c r="J111" s="4">
+      <c r="L111" s="4">
         <v>90</v>
       </c>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4">
+      <c r="M111" s="4"/>
+      <c r="N111" s="4">
         <v>100</v>
       </c>
-      <c r="M111" s="4">
-        <v>0</v>
-      </c>
-      <c r="N111" s="4" t="s">
+      <c r="O111" s="4">
+        <v>0</v>
+      </c>
+      <c r="P111" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P111" s="2">
+      <c r="R111" s="2">
         <v>426</v>
       </c>
     </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B112" s="2">
         <v>52</v>
       </c>
@@ -3439,27 +3590,27 @@
       <c r="D112" s="4">
         <v>5</v>
       </c>
-      <c r="I112" s="4">
+      <c r="K112" s="4">
         <v>120</v>
       </c>
-      <c r="J112" s="4">
+      <c r="L112" s="4">
         <v>120</v>
       </c>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4">
+      <c r="M112" s="4"/>
+      <c r="N112" s="4">
         <v>100</v>
       </c>
-      <c r="M112" s="4">
-        <v>0</v>
-      </c>
-      <c r="N112" s="4" t="s">
+      <c r="O112" s="4">
+        <v>0</v>
+      </c>
+      <c r="P112" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P112" s="2">
+      <c r="R112" s="2">
         <v>426</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B113" s="2">
         <v>53</v>
       </c>
@@ -3469,27 +3620,27 @@
       <c r="D113" s="4">
         <v>5</v>
       </c>
-      <c r="I113" s="4">
+      <c r="K113" s="4">
         <v>1200</v>
       </c>
-      <c r="J113" s="4">
+      <c r="L113" s="4">
         <v>1200</v>
       </c>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4">
+      <c r="M113" s="4"/>
+      <c r="N113" s="4">
         <v>100</v>
       </c>
-      <c r="M113" s="4">
-        <v>0</v>
-      </c>
-      <c r="N113" s="4" t="s">
+      <c r="O113" s="4">
+        <v>0</v>
+      </c>
+      <c r="P113" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P113" s="2">
+      <c r="R113" s="2">
         <v>428</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B114" s="2">
         <v>54</v>
       </c>
@@ -3499,27 +3650,27 @@
       <c r="D114" s="4">
         <v>5</v>
       </c>
-      <c r="I114" s="4">
+      <c r="K114" s="4">
         <v>1600</v>
       </c>
-      <c r="J114" s="4">
+      <c r="L114" s="4">
         <v>1600</v>
       </c>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4">
+      <c r="M114" s="4"/>
+      <c r="N114" s="4">
         <v>100</v>
       </c>
-      <c r="M114" s="4">
-        <v>0</v>
-      </c>
-      <c r="N114" s="4" t="s">
+      <c r="O114" s="4">
+        <v>0</v>
+      </c>
+      <c r="P114" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P114" s="2">
+      <c r="R114" s="2">
         <v>428</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B115" s="2">
         <v>55</v>
       </c>
@@ -3529,27 +3680,27 @@
       <c r="D115" s="4">
         <v>5</v>
       </c>
-      <c r="I115" s="4">
-        <v>1</v>
-      </c>
-      <c r="J115" s="4">
-        <v>1</v>
-      </c>
-      <c r="K115" s="4"/>
+      <c r="K115" s="4">
+        <v>1</v>
+      </c>
       <c r="L115" s="4">
+        <v>1</v>
+      </c>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4">
         <v>100</v>
       </c>
-      <c r="M115" s="4">
-        <v>0</v>
-      </c>
-      <c r="N115" s="4" t="s">
+      <c r="O115" s="4">
+        <v>0</v>
+      </c>
+      <c r="P115" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P115" s="2">
+      <c r="R115" s="2">
         <v>430</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B116" s="2">
         <v>56</v>
       </c>
@@ -3559,27 +3710,27 @@
       <c r="D116" s="4">
         <v>5</v>
       </c>
-      <c r="I116" s="4">
-        <v>1</v>
-      </c>
-      <c r="J116" s="4">
-        <v>1</v>
-      </c>
-      <c r="K116" s="4"/>
+      <c r="K116" s="4">
+        <v>1</v>
+      </c>
       <c r="L116" s="4">
+        <v>1</v>
+      </c>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4">
         <v>100</v>
       </c>
-      <c r="M116" s="4">
-        <v>0</v>
-      </c>
-      <c r="N116" s="4" t="s">
+      <c r="O116" s="4">
+        <v>0</v>
+      </c>
+      <c r="P116" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P116" s="2">
+      <c r="R116" s="2">
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B117" s="2">
         <v>57</v>
       </c>
@@ -3589,27 +3740,27 @@
       <c r="D117" s="4">
         <v>5</v>
       </c>
-      <c r="I117" s="4">
-        <v>1</v>
-      </c>
-      <c r="J117" s="4">
-        <v>1</v>
-      </c>
-      <c r="K117" s="4"/>
+      <c r="K117" s="4">
+        <v>1</v>
+      </c>
       <c r="L117" s="4">
+        <v>1</v>
+      </c>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4">
         <v>100</v>
       </c>
-      <c r="M117" s="4">
-        <v>0</v>
-      </c>
-      <c r="N117" s="4" t="s">
+      <c r="O117" s="4">
+        <v>0</v>
+      </c>
+      <c r="P117" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P117" s="2">
+      <c r="R117" s="2">
         <v>432</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B118" s="2">
         <v>58</v>
       </c>
@@ -3619,27 +3770,27 @@
       <c r="D118" s="4">
         <v>5</v>
       </c>
-      <c r="I118" s="4">
-        <v>1</v>
-      </c>
-      <c r="J118" s="4">
-        <v>1</v>
-      </c>
-      <c r="K118" s="4"/>
+      <c r="K118" s="4">
+        <v>1</v>
+      </c>
       <c r="L118" s="4">
+        <v>1</v>
+      </c>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4">
         <v>100</v>
       </c>
-      <c r="M118" s="4">
-        <v>0</v>
-      </c>
-      <c r="N118" s="4" t="s">
+      <c r="O118" s="4">
+        <v>0</v>
+      </c>
+      <c r="P118" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P118" s="2">
+      <c r="R118" s="2">
         <v>432</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B119" s="2">
         <v>59</v>
       </c>
@@ -3649,27 +3800,27 @@
       <c r="D119" s="4">
         <v>5</v>
       </c>
-      <c r="I119" s="4">
-        <v>1</v>
-      </c>
-      <c r="J119" s="4">
-        <v>1</v>
-      </c>
-      <c r="K119" s="4"/>
+      <c r="K119" s="4">
+        <v>1</v>
+      </c>
       <c r="L119" s="4">
+        <v>1</v>
+      </c>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4">
         <v>100</v>
       </c>
-      <c r="M119" s="4">
-        <v>0</v>
-      </c>
-      <c r="N119" s="4" t="s">
+      <c r="O119" s="4">
+        <v>0</v>
+      </c>
+      <c r="P119" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P119" s="2">
+      <c r="R119" s="2">
         <v>434</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B120" s="2">
         <v>60</v>
       </c>
@@ -3679,28 +3830,29 @@
       <c r="D120" s="4">
         <v>5</v>
       </c>
-      <c r="I120" s="4">
-        <v>1</v>
-      </c>
-      <c r="J120" s="4">
-        <v>1</v>
-      </c>
-      <c r="K120" s="4"/>
+      <c r="K120" s="4">
+        <v>1</v>
+      </c>
       <c r="L120" s="4">
+        <v>1</v>
+      </c>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4">
         <v>100</v>
       </c>
-      <c r="M120" s="4">
-        <v>0</v>
-      </c>
-      <c r="N120" s="4" t="s">
+      <c r="O120" s="4">
+        <v>0</v>
+      </c>
+      <c r="P120" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P120" s="2">
+      <c r="R120" s="2">
         <v>434</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C65AE6-7F21-4BC8-AC4E-1AE9984DCD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9A646-CA53-4BDE-9C7A-B125813E5E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29745" yWindow="1050" windowWidth="21825" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="2400" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="204">
   <si>
     <t>0</t>
   </si>
@@ -305,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>强化位于周围３区格内己方部队之防御，并减轻其兵粮消费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>强化位于周围４区格内己方部队之防御，并减轻其兵粮消费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,9 +485,6 @@
     <t>ui://game/4845_7_12</t>
   </si>
   <si>
-    <t>ui://game/4845_7_13</t>
-  </si>
-  <si>
     <t>ui://game/4845_7_14</t>
   </si>
   <si>
@@ -643,10 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>市场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,6 +720,32 @@
   </si>
   <si>
     <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡查局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马厩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>铁匠铺</t>
+  </si>
+  <si>
+    <t>工坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造船厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1223,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:W120"/>
+  <dimension ref="A1:W121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1256,40 +1271,40 @@
         <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>68</v>
       </c>
       <c r="K1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="M1" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>70</v>
@@ -1344,49 +1359,49 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>69</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>71</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -1405,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>6</v>
@@ -1414,13 +1429,13 @@
         <v>8</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>6</v>
@@ -1432,13 +1447,13 @@
         <v>6</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>5</v>
@@ -1458,44 +1473,46 @@
         <v>10</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
       </c>
       <c r="K5" s="4">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L5" s="4">
-        <v>10000</v>
+        <v>5600</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
       <c r="O5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>72</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -1510,100 +1527,102 @@
         <v>11</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
       </c>
       <c r="K6" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L6" s="4">
-        <v>10000</v>
+        <v>2800</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
       <c r="O6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>73</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>176</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L7" s="4">
-        <v>25000</v>
+        <v>2800</v>
       </c>
       <c r="M7" s="4">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="N7" s="4">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="O7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -1614,25 +1633,25 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
@@ -1641,69 +1660,69 @@
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="M8" s="4">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="N8" s="4">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="O8" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B9" s="4">
+    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
       </c>
       <c r="K9" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L9" s="4">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="N9" s="4">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="O9" s="4">
         <v>0</v>
@@ -1712,10 +1731,10 @@
         <v>76</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -1726,108 +1745,108 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D10" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J10" s="6">
         <v>1</v>
       </c>
       <c r="K10" s="4">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L10" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="M10" s="4">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="N10" s="4">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="O10" s="4">
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D11" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J11" s="6">
         <v>1</v>
       </c>
       <c r="K11" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="M11" s="4">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="O11" s="4">
         <v>0</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1838,31 +1857,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="J12" s="6">
         <v>1</v>
       </c>
       <c r="K12" s="4">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4">
         <v>0</v>
@@ -1871,32 +1890,303 @@
         <v>0</v>
       </c>
       <c r="N12" s="4">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="O12" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="D65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="4">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="4">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="4">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>800</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="V17" s="4"/>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.15">
       <c r="D66" s="4"/>
@@ -1917,56 +2207,23 @@
       <c r="P67" s="4"/>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B68" s="4">
-        <v>8</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="4">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J68" s="6">
-        <v>1</v>
-      </c>
-      <c r="K68" s="4">
-        <v>0</v>
-      </c>
-      <c r="L68" s="4">
-        <v>0</v>
-      </c>
+      <c r="D68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="4">
-        <v>600</v>
-      </c>
-      <c r="O68" s="4">
-        <v>0</v>
-      </c>
-      <c r="P68" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="V68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D69" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>0</v>
@@ -1982,19 +2239,19 @@
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="O69" s="4">
         <v>0</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
@@ -2002,10 +2259,10 @@
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B70" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D70" s="4">
         <v>2</v>
@@ -2030,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
@@ -2044,13 +2301,13 @@
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B71" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>0</v>
@@ -2066,19 +2323,19 @@
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="O71" s="4">
         <v>0</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
@@ -2086,10 +2343,10 @@
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B72" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2108,19 +2365,19 @@
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="O72" s="4">
         <v>0</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
@@ -2128,10 +2385,10 @@
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B73" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2150,19 +2407,19 @@
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="O73" s="4">
         <v>0</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
@@ -2170,10 +2427,10 @@
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2192,19 +2449,19 @@
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="O74" s="4">
         <v>0</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
@@ -2212,10 +2469,10 @@
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2233,15 +2490,20 @@
         <v>0</v>
       </c>
       <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
+      <c r="N75" s="4">
+        <v>1200</v>
+      </c>
       <c r="O75" s="4">
         <v>0</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
@@ -2249,7 +2511,7 @@
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>20</v>
@@ -2275,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
@@ -2286,16 +2548,16 @@
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D77" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="6">
         <v>1</v>
@@ -2307,20 +2569,15 @@
         <v>0</v>
       </c>
       <c r="M77" s="4"/>
-      <c r="N77" s="4">
-        <v>200</v>
-      </c>
+      <c r="N77" s="4"/>
       <c r="O77" s="4">
         <v>0</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
@@ -2328,16 +2585,16 @@
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B78" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D78" s="4">
         <v>3</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="6">
         <v>1</v>
@@ -2356,13 +2613,13 @@
         <v>0</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
@@ -2370,10 +2627,10 @@
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B79" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D79" s="4">
         <v>3</v>
@@ -2398,13 +2655,13 @@
         <v>0</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
@@ -2412,10 +2669,10 @@
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B80" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" s="4">
         <v>3</v>
@@ -2440,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
@@ -2454,10 +2711,10 @@
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B81" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D81" s="4">
         <v>3</v>
@@ -2482,13 +2739,13 @@
         <v>0</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
@@ -2496,10 +2753,10 @@
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B82" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D82" s="4">
         <v>3</v>
@@ -2524,13 +2781,13 @@
         <v>0</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
@@ -2538,10 +2795,10 @@
     </row>
     <row r="83" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B83" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D83" s="4">
         <v>3</v>
@@ -2566,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="R83" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
@@ -2580,10 +2837,10 @@
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B84" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D84" s="4">
         <v>3</v>
@@ -2601,15 +2858,20 @@
         <v>0</v>
       </c>
       <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
+      <c r="N84" s="4">
+        <v>200</v>
+      </c>
       <c r="O84" s="4">
         <v>0</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
@@ -2617,10 +2879,10 @@
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B85" s="4">
+        <v>24</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D85" s="4">
         <v>3</v>
@@ -2643,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
@@ -2654,10 +2916,10 @@
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B86" s="4">
+        <v>25</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="D86" s="4">
         <v>3</v>
@@ -2680,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
@@ -2691,13 +2953,13 @@
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B87" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D87" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>0</v>
@@ -2717,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R87" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
@@ -2728,10 +2990,10 @@
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B88" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="4">
         <v>2</v>
@@ -2754,10 +3016,10 @@
         <v>0</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
@@ -2765,10 +3027,10 @@
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B89" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D89" s="4">
         <v>2</v>
@@ -2791,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
@@ -2802,10 +3064,10 @@
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B90" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D90" s="4">
         <v>2</v>
@@ -2828,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="P90" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
@@ -2839,13 +3101,13 @@
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B91" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D91" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>0</v>
@@ -2854,23 +3116,21 @@
         <v>1</v>
       </c>
       <c r="K91" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L91" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M91" s="4"/>
-      <c r="N91" s="4">
-        <v>1500</v>
-      </c>
+      <c r="N91" s="4"/>
       <c r="O91" s="4">
         <v>0</v>
       </c>
       <c r="P91" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R91" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
@@ -2878,10 +3138,10 @@
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B92" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92" s="4">
         <v>5</v>
@@ -2893,26 +3153,23 @@
         <v>1</v>
       </c>
       <c r="K92" s="4">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="L92" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="O92" s="4">
         <v>0</v>
       </c>
       <c r="P92" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q92" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="R92" s="2">
-        <v>362</v>
+        <v>99</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
@@ -2920,19 +3177,25 @@
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B93" s="4">
-        <v>33</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D93" s="4">
         <v>5</v>
       </c>
+      <c r="E93" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6">
+        <v>1</v>
+      </c>
       <c r="K93" s="4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L93" s="4">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4">
@@ -2942,50 +3205,49 @@
         <v>0</v>
       </c>
       <c r="P93" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R93" s="2">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="V93" s="4"/>
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.15">
-      <c r="B94" s="2">
-        <v>34</v>
+      <c r="B94" s="4">
+        <v>33</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" s="4">
         <v>5</v>
       </c>
-      <c r="J94" s="6"/>
       <c r="K94" s="4">
         <v>0</v>
       </c>
       <c r="L94" s="4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O94" s="4">
         <v>0</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R94" s="2">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
@@ -2993,10 +3255,10 @@
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B95" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" s="4">
         <v>5</v>
@@ -3006,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4">
@@ -3016,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="R95" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
@@ -3030,17 +3292,17 @@
     </row>
     <row r="96" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B96" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D96" s="4">
         <v>5</v>
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L96" s="4">
         <v>1000</v>
@@ -3053,13 +3315,13 @@
         <v>0</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="R96" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
@@ -3067,20 +3329,20 @@
     </row>
     <row r="97" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B97" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D97" s="4">
         <v>5</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L97" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4">
@@ -3090,13 +3352,13 @@
         <v>0</v>
       </c>
       <c r="P97" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="R97" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
@@ -3104,10 +3366,10 @@
     </row>
     <row r="98" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B98" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D98" s="4">
         <v>5</v>
@@ -3127,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R98" s="2">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
@@ -3141,10 +3403,10 @@
     </row>
     <row r="99" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B99" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D99" s="4">
         <v>5</v>
@@ -3158,19 +3420,19 @@
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O99" s="4">
         <v>0</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R99" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
@@ -3178,10 +3440,10 @@
     </row>
     <row r="100" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B100" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D100" s="4">
         <v>5</v>
@@ -3201,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="P100" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R100" s="2">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="S100" s="4"/>
       <c r="T100" s="4"/>
@@ -3215,10 +3477,10 @@
     </row>
     <row r="101" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B101" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D101" s="4">
         <v>5</v>
@@ -3232,19 +3494,19 @@
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O101" s="4">
         <v>0</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="R101" s="2">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="S101" s="4"/>
       <c r="T101" s="4"/>
@@ -3252,10 +3514,10 @@
     </row>
     <row r="102" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B102" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D102" s="4">
         <v>5</v>
@@ -3275,27 +3537,29 @@
         <v>0</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R102" s="2">
-        <v>408</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="S102" s="4"/>
       <c r="T102" s="4"/>
       <c r="V102" s="4"/>
     </row>
     <row r="103" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B103" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D103" s="4">
         <v>5</v>
       </c>
+      <c r="J103" s="6"/>
       <c r="K103" s="4">
         <v>1</v>
       </c>
@@ -3310,21 +3574,23 @@
         <v>0</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R103" s="2">
-        <v>410</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="T103" s="4"/>
+      <c r="V103" s="4"/>
     </row>
     <row r="104" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B104" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D104" s="4">
         <v>5</v>
@@ -3343,21 +3609,21 @@
         <v>0</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R104" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="105" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B105" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D105" s="4">
         <v>5</v>
@@ -3376,21 +3642,21 @@
         <v>0</v>
       </c>
       <c r="P105" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R105" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B106" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D106" s="4">
         <v>5</v>
@@ -3409,63 +3675,63 @@
         <v>0</v>
       </c>
       <c r="P106" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R106" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="107" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B107" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D107" s="4">
         <v>5</v>
       </c>
       <c r="K107" s="4">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="L107" s="4">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O107" s="4">
         <v>0</v>
       </c>
       <c r="P107" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="R107" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B108" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D108" s="4">
         <v>5</v>
       </c>
       <c r="K108" s="4">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="L108" s="4">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4">
@@ -3475,126 +3741,129 @@
         <v>0</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="R108" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B109" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D109" s="4">
         <v>5</v>
       </c>
       <c r="K109" s="4">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="L109" s="4">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="O109" s="4">
         <v>0</v>
       </c>
       <c r="P109" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R109" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B110" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D110" s="4">
         <v>5</v>
       </c>
       <c r="K110" s="4">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="L110" s="4">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="O110" s="4">
         <v>0</v>
       </c>
       <c r="P110" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R110" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B111" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D111" s="4">
         <v>5</v>
       </c>
       <c r="K111" s="4">
-        <v>90</v>
+        <v>1600</v>
       </c>
       <c r="L111" s="4">
-        <v>90</v>
+        <v>1600</v>
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="O111" s="4">
         <v>0</v>
       </c>
       <c r="P111" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="R111" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B112" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D112" s="4">
         <v>5</v>
       </c>
       <c r="K112" s="4">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="L112" s="4">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4">
@@ -3604,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="P112" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R112" s="2">
         <v>426</v>
@@ -3612,19 +3881,19 @@
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B113" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D113" s="4">
         <v>5</v>
       </c>
       <c r="K113" s="4">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="L113" s="4">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4">
@@ -3634,27 +3903,27 @@
         <v>0</v>
       </c>
       <c r="P113" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R113" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B114" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D114" s="4">
         <v>5</v>
       </c>
       <c r="K114" s="4">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="L114" s="4">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4">
@@ -3664,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="P114" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R114" s="2">
         <v>428</v>
@@ -3672,19 +3941,19 @@
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B115" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D115" s="4">
         <v>5</v>
       </c>
       <c r="K115" s="4">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="L115" s="4">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="M115" s="4"/>
       <c r="N115" s="4">
@@ -3694,18 +3963,18 @@
         <v>0</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R115" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B116" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D116" s="4">
         <v>5</v>
@@ -3724,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="P116" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R116" s="2">
         <v>430</v>
@@ -3732,10 +4001,10 @@
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B117" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D117" s="4">
         <v>5</v>
@@ -3754,18 +4023,18 @@
         <v>0</v>
       </c>
       <c r="P117" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R117" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B118" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D118" s="4">
         <v>5</v>
@@ -3784,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="P118" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R118" s="2">
         <v>432</v>
@@ -3792,10 +4061,10 @@
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B119" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D119" s="4">
         <v>5</v>
@@ -3814,18 +4083,18 @@
         <v>0</v>
       </c>
       <c r="P119" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R119" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B120" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D120" s="4">
         <v>5</v>
@@ -3844,9 +4113,39 @@
         <v>0</v>
       </c>
       <c r="P120" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R120" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B121" s="2">
+        <v>60</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D121" s="4">
+        <v>5</v>
+      </c>
+      <c r="K121" s="4">
+        <v>1</v>
+      </c>
+      <c r="L121" s="4">
+        <v>1</v>
+      </c>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4">
+        <v>100</v>
+      </c>
+      <c r="O121" s="4">
+        <v>0</v>
+      </c>
+      <c r="P121" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R121" s="2">
         <v>434</v>
       </c>
     </row>

--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9A646-CA53-4BDE-9C7A-B125813E5E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7834BBAE-E443-4A86-A59F-5AF5FE80B49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="2400" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4395" yWindow="1065" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="206">
   <si>
     <t>0</t>
   </si>
@@ -735,17 +735,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>铁匠铺</t>
+  </si>
+  <si>
+    <t>工坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造船厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>800</t>
-  </si>
-  <si>
-    <t>铁匠铺</t>
-  </si>
-  <si>
-    <t>工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造船厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1241,7 +1250,7 @@
   <dimension ref="A1:W121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1807,7 +1816,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>1</v>
@@ -1857,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="4">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>1</v>
@@ -1913,13 +1922,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>1</v>
@@ -1969,13 +1978,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D14" s="4">
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>1</v>
@@ -2031,7 +2040,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>1</v>
@@ -2087,7 +2096,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>1</v>
@@ -2143,7 +2152,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>

--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7834BBAE-E443-4A86-A59F-5AF5FE80B49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FD1117-7847-4DB2-B6DF-13AD5255272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="1065" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10065" yWindow="150" windowWidth="15540" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1249,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
   <dimension ref="A1:W121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>2450</v>
+        <v>1500</v>
       </c>
       <c r="M8" s="4">
         <v>0.01</v>
@@ -1778,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L10" s="4">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M10" s="4">
         <v>0.2</v>

--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FD1117-7847-4DB2-B6DF-13AD5255272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FBAC2E-5ED8-47CE-97DF-6302934B2543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10065" yWindow="150" windowWidth="15540" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3204" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -1249,29 +1249,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
   <dimension ref="A1:W121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="19.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="19.44140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="12" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="71.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="71.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1330,7 +1330,7 @@
       <c r="V1" s="9"/>
       <c r="W1" s="7"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="T5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1581,7 +1581,7 @@
       <c r="T6" s="4"/>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="T7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="T8" s="4"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="T9" s="4"/>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="T10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="T11" s="4"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1917,7 +1917,7 @@
       <c r="T12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="T13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="T14" s="4"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>189</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>181</v>
@@ -2085,7 +2085,7 @@
       <c r="T15" s="4"/>
       <c r="V15" s="4"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="T16" s="4"/>
       <c r="V16" s="4"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -2197,7 +2197,7 @@
       <c r="T17" s="4"/>
       <c r="V17" s="4"/>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -2206,7 +2206,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -2215,7 +2215,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -2224,7 +2224,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
         <v>8</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="T69" s="4"/>
       <c r="V69" s="4"/>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>9</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="T70" s="4"/>
       <c r="V70" s="4"/>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>10</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="T71" s="4"/>
       <c r="V71" s="4"/>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>11</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="T72" s="4"/>
       <c r="V72" s="4"/>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>12</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="T73" s="4"/>
       <c r="V73" s="4"/>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>13</v>
       </c>
@@ -2476,7 +2476,7 @@
       <c r="T74" s="4"/>
       <c r="V74" s="4"/>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
         <v>14</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="T75" s="4"/>
       <c r="V75" s="4"/>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
         <v>15</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="T76" s="4"/>
       <c r="V76" s="4"/>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
         <v>16</v>
       </c>
@@ -2592,7 +2592,7 @@
       <c r="T77" s="4"/>
       <c r="V77" s="4"/>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
         <v>17</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="T78" s="4"/>
       <c r="V78" s="4"/>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="4">
         <v>18</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="T79" s="4"/>
       <c r="V79" s="4"/>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
         <v>19</v>
       </c>
@@ -2718,7 +2718,7 @@
       <c r="T80" s="4"/>
       <c r="V80" s="4"/>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
         <v>20</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="T81" s="4"/>
       <c r="V81" s="4"/>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
         <v>21</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="T82" s="4"/>
       <c r="V82" s="4"/>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="4">
         <v>22</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="T83" s="4"/>
       <c r="V83" s="4"/>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="4">
         <v>23</v>
       </c>
@@ -2886,7 +2886,7 @@
       <c r="T84" s="4"/>
       <c r="V84" s="4"/>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
         <v>24</v>
       </c>
@@ -2923,7 +2923,7 @@
       <c r="T85" s="4"/>
       <c r="V85" s="4"/>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
         <v>25</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="T86" s="4"/>
       <c r="V86" s="4"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
         <v>26</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="T87" s="4"/>
       <c r="V87" s="4"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
         <v>27</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="T88" s="4"/>
       <c r="V88" s="4"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
         <v>28</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="T89" s="4"/>
       <c r="V89" s="4"/>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
         <v>29</v>
       </c>
@@ -3108,7 +3108,7 @@
       <c r="T90" s="4"/>
       <c r="V90" s="4"/>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91" s="4">
         <v>30</v>
       </c>
@@ -3145,7 +3145,7 @@
       <c r="T91" s="4"/>
       <c r="V91" s="4"/>
     </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92" s="4">
         <v>31</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="T92" s="4"/>
       <c r="V92" s="4"/>
     </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
         <v>32</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="T93" s="4"/>
       <c r="V93" s="4"/>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
         <v>33</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="T94" s="4"/>
       <c r="V94" s="4"/>
     </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>34</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="T95" s="4"/>
       <c r="V95" s="4"/>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>35</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="T96" s="4"/>
       <c r="V96" s="4"/>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>36</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="T97" s="4"/>
       <c r="V97" s="4"/>
     </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>37</v>
       </c>
@@ -3410,7 +3410,7 @@
       <c r="T98" s="4"/>
       <c r="V98" s="4"/>
     </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>38</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="T99" s="4"/>
       <c r="V99" s="4"/>
     </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>39</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="T100" s="4"/>
       <c r="V100" s="4"/>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>40</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="T101" s="4"/>
       <c r="V101" s="4"/>
     </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>41</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="T102" s="4"/>
       <c r="V102" s="4"/>
     </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>42</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="T103" s="4"/>
       <c r="V103" s="4"/>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>43</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>44</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>45</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>46</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <v>47</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <v>48</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <v>49</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <v>50</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <v>51</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <v>52</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <v>53</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <v>54</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <v>55</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <v>56</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
         <v>57</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B119" s="2">
         <v>58</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B120" s="2">
         <v>59</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B121" s="2">
         <v>60</v>
       </c>

--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FBAC2E-5ED8-47CE-97DF-6302934B2543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B4687-AF21-4B55-9287-A5E26CFBA4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3204" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -1250,28 +1250,28 @@
   <dimension ref="A1:W121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="19.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="19.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="12" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="71.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="71.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1330,7 +1330,7 @@
       <c r="V1" s="9"/>
       <c r="W1" s="7"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="T5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1581,7 +1581,7 @@
       <c r="T6" s="4"/>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="T7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>1500</v>
+        <v>2250</v>
       </c>
       <c r="M8" s="4">
         <v>0.01</v>
@@ -1693,7 +1693,7 @@
       <c r="T8" s="4"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="T9" s="4"/>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1778,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L10" s="4">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M10" s="4">
         <v>0.2</v>
@@ -1805,7 +1805,7 @@
       <c r="T10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="T11" s="4"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1917,7 +1917,7 @@
       <c r="T12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="T13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="T14" s="4"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -2085,7 +2085,7 @@
       <c r="T15" s="4"/>
       <c r="V15" s="4"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="T16" s="4"/>
       <c r="V16" s="4"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -2197,7 +2197,7 @@
       <c r="T17" s="4"/>
       <c r="V17" s="4"/>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.15">
       <c r="D66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -2206,7 +2206,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.15">
       <c r="D67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -2215,7 +2215,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.15">
       <c r="D68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -2224,7 +2224,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
         <v>8</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="T69" s="4"/>
       <c r="V69" s="4"/>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B70" s="4">
         <v>9</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="T70" s="4"/>
       <c r="V70" s="4"/>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B71" s="4">
         <v>10</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="T71" s="4"/>
       <c r="V71" s="4"/>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B72" s="4">
         <v>11</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="T72" s="4"/>
       <c r="V72" s="4"/>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B73" s="4">
         <v>12</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="T73" s="4"/>
       <c r="V73" s="4"/>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
         <v>13</v>
       </c>
@@ -2476,7 +2476,7 @@
       <c r="T74" s="4"/>
       <c r="V74" s="4"/>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
         <v>14</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="T75" s="4"/>
       <c r="V75" s="4"/>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
         <v>15</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="T76" s="4"/>
       <c r="V76" s="4"/>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
         <v>16</v>
       </c>
@@ -2592,7 +2592,7 @@
       <c r="T77" s="4"/>
       <c r="V77" s="4"/>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B78" s="4">
         <v>17</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="T78" s="4"/>
       <c r="V78" s="4"/>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B79" s="4">
         <v>18</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="T79" s="4"/>
       <c r="V79" s="4"/>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B80" s="4">
         <v>19</v>
       </c>
@@ -2718,7 +2718,7 @@
       <c r="T80" s="4"/>
       <c r="V80" s="4"/>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B81" s="4">
         <v>20</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="T81" s="4"/>
       <c r="V81" s="4"/>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B82" s="4">
         <v>21</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="T82" s="4"/>
       <c r="V82" s="4"/>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B83" s="4">
         <v>22</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="T83" s="4"/>
       <c r="V83" s="4"/>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B84" s="4">
         <v>23</v>
       </c>
@@ -2886,7 +2886,7 @@
       <c r="T84" s="4"/>
       <c r="V84" s="4"/>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B85" s="4">
         <v>24</v>
       </c>
@@ -2923,7 +2923,7 @@
       <c r="T85" s="4"/>
       <c r="V85" s="4"/>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B86" s="4">
         <v>25</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="T86" s="4"/>
       <c r="V86" s="4"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B87" s="4">
         <v>26</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="T87" s="4"/>
       <c r="V87" s="4"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B88" s="4">
         <v>27</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="T88" s="4"/>
       <c r="V88" s="4"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B89" s="4">
         <v>28</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="T89" s="4"/>
       <c r="V89" s="4"/>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B90" s="4">
         <v>29</v>
       </c>
@@ -3108,7 +3108,7 @@
       <c r="T90" s="4"/>
       <c r="V90" s="4"/>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B91" s="4">
         <v>30</v>
       </c>
@@ -3145,7 +3145,7 @@
       <c r="T91" s="4"/>
       <c r="V91" s="4"/>
     </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B92" s="4">
         <v>31</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="T92" s="4"/>
       <c r="V92" s="4"/>
     </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B93" s="4">
         <v>32</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="T93" s="4"/>
       <c r="V93" s="4"/>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B94" s="4">
         <v>33</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="T94" s="4"/>
       <c r="V94" s="4"/>
     </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B95" s="2">
         <v>34</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="T95" s="4"/>
       <c r="V95" s="4"/>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B96" s="2">
         <v>35</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="T96" s="4"/>
       <c r="V96" s="4"/>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B97" s="2">
         <v>36</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="T97" s="4"/>
       <c r="V97" s="4"/>
     </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B98" s="2">
         <v>37</v>
       </c>
@@ -3410,7 +3410,7 @@
       <c r="T98" s="4"/>
       <c r="V98" s="4"/>
     </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B99" s="2">
         <v>38</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="T99" s="4"/>
       <c r="V99" s="4"/>
     </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B100" s="2">
         <v>39</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="T100" s="4"/>
       <c r="V100" s="4"/>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B101" s="2">
         <v>40</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="T101" s="4"/>
       <c r="V101" s="4"/>
     </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B102" s="2">
         <v>41</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="T102" s="4"/>
       <c r="V102" s="4"/>
     </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B103" s="2">
         <v>42</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="T103" s="4"/>
       <c r="V103" s="4"/>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B104" s="2">
         <v>43</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B105" s="2">
         <v>44</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B106" s="2">
         <v>45</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B107" s="2">
         <v>46</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B108" s="2">
         <v>47</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B109" s="2">
         <v>48</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B110" s="2">
         <v>49</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B111" s="2">
         <v>50</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B112" s="2">
         <v>51</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B113" s="2">
         <v>52</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B114" s="2">
         <v>53</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B115" s="2">
         <v>54</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B116" s="2">
         <v>55</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B117" s="2">
         <v>56</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B118" s="2">
         <v>57</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B119" s="2">
         <v>58</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B120" s="2">
         <v>59</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B121" s="2">
         <v>60</v>
       </c>

--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B4687-AF21-4B55-9287-A5E26CFBA4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6877AF-0D35-48A1-A7C4-CAE93EADEA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -1250,28 +1250,28 @@
   <dimension ref="A1:W121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="19.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="19.44140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="12" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="71.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="71.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1330,7 +1330,7 @@
       <c r="V1" s="9"/>
       <c r="W1" s="7"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>72</v>
@@ -1527,7 +1527,7 @@
       <c r="T5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>73</v>
@@ -1581,7 +1581,7 @@
       <c r="T6" s="4"/>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>76</v>
@@ -1637,7 +1637,7 @@
       <c r="T7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="T8" s="4"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="T9" s="4"/>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="T10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="T11" s="4"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1917,7 +1917,7 @@
       <c r="T12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="T13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="T14" s="4"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -2085,7 +2085,7 @@
       <c r="T15" s="4"/>
       <c r="V15" s="4"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="T16" s="4"/>
       <c r="V16" s="4"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>800</v>
       </c>
       <c r="O17" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>76</v>
@@ -2197,7 +2197,7 @@
       <c r="T17" s="4"/>
       <c r="V17" s="4"/>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -2206,7 +2206,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -2215,7 +2215,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -2224,7 +2224,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
         <v>8</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="T69" s="4"/>
       <c r="V69" s="4"/>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>9</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="T70" s="4"/>
       <c r="V70" s="4"/>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>10</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="T71" s="4"/>
       <c r="V71" s="4"/>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>11</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="T72" s="4"/>
       <c r="V72" s="4"/>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>12</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="T73" s="4"/>
       <c r="V73" s="4"/>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>13</v>
       </c>
@@ -2476,7 +2476,7 @@
       <c r="T74" s="4"/>
       <c r="V74" s="4"/>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
         <v>14</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="T75" s="4"/>
       <c r="V75" s="4"/>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
         <v>15</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="T76" s="4"/>
       <c r="V76" s="4"/>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
         <v>16</v>
       </c>
@@ -2592,7 +2592,7 @@
       <c r="T77" s="4"/>
       <c r="V77" s="4"/>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
         <v>17</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="T78" s="4"/>
       <c r="V78" s="4"/>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="4">
         <v>18</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="T79" s="4"/>
       <c r="V79" s="4"/>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
         <v>19</v>
       </c>
@@ -2718,7 +2718,7 @@
       <c r="T80" s="4"/>
       <c r="V80" s="4"/>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
         <v>20</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="T81" s="4"/>
       <c r="V81" s="4"/>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
         <v>21</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="T82" s="4"/>
       <c r="V82" s="4"/>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="4">
         <v>22</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="T83" s="4"/>
       <c r="V83" s="4"/>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="4">
         <v>23</v>
       </c>
@@ -2886,7 +2886,7 @@
       <c r="T84" s="4"/>
       <c r="V84" s="4"/>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
         <v>24</v>
       </c>
@@ -2923,7 +2923,7 @@
       <c r="T85" s="4"/>
       <c r="V85" s="4"/>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
         <v>25</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="T86" s="4"/>
       <c r="V86" s="4"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
         <v>26</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="T87" s="4"/>
       <c r="V87" s="4"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
         <v>27</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="T88" s="4"/>
       <c r="V88" s="4"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
         <v>28</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="T89" s="4"/>
       <c r="V89" s="4"/>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
         <v>29</v>
       </c>
@@ -3108,7 +3108,7 @@
       <c r="T90" s="4"/>
       <c r="V90" s="4"/>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91" s="4">
         <v>30</v>
       </c>
@@ -3145,7 +3145,7 @@
       <c r="T91" s="4"/>
       <c r="V91" s="4"/>
     </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92" s="4">
         <v>31</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="T92" s="4"/>
       <c r="V92" s="4"/>
     </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
         <v>32</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="T93" s="4"/>
       <c r="V93" s="4"/>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
         <v>33</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="T94" s="4"/>
       <c r="V94" s="4"/>
     </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>34</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="T95" s="4"/>
       <c r="V95" s="4"/>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>35</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="T96" s="4"/>
       <c r="V96" s="4"/>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>36</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="T97" s="4"/>
       <c r="V97" s="4"/>
     </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>37</v>
       </c>
@@ -3410,7 +3410,7 @@
       <c r="T98" s="4"/>
       <c r="V98" s="4"/>
     </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>38</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="T99" s="4"/>
       <c r="V99" s="4"/>
     </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>39</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="T100" s="4"/>
       <c r="V100" s="4"/>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>40</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="T101" s="4"/>
       <c r="V101" s="4"/>
     </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>41</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="T102" s="4"/>
       <c r="V102" s="4"/>
     </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>42</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="T103" s="4"/>
       <c r="V103" s="4"/>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>43</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>44</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>45</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>46</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <v>47</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <v>48</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <v>49</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <v>50</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <v>51</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <v>52</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <v>53</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <v>54</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <v>55</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <v>56</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
         <v>57</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B119" s="2">
         <v>58</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B120" s="2">
         <v>59</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B121" s="2">
         <v>60</v>
       </c>

--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6877AF-0D35-48A1-A7C4-CAE93EADEA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C573E2EE-41BF-4FBA-9EEF-7CAFA0A58F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{89166F7D-1A88-4585-8059-BAA7A0557A19}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{89166F7D-1A88-4585-8059-BAA7A0557A19}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="222">
   <si>
     <t>0</t>
   </si>
@@ -755,6 +755,68 @@
   </si>
   <si>
     <t>1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelBroken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/4447.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/4487.prefab</t>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连弩塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/4298.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Model/Prefab/4308.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堡垒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1247,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:W121"/>
+  <dimension ref="A1:X121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1259,19 +1321,19 @@
     <col min="2" max="3" width="9" style="2"/>
     <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="19.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="12" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="71.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="6" max="10" width="19.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17" style="2" customWidth="1"/>
+    <col min="12" max="13" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="71.88671875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1289,48 +1351,53 @@
         <v>195</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="7"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="9"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="7"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1343,21 +1410,22 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2"/>
+      <c r="K2" s="2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2" s="2"/>
+      <c r="Q2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1373,52 +1441,57 @@
       <c r="E3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="T3" s="13" t="s">
+        <v>206</v>
+      </c>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="1:23" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="8"/>
+    </row>
+    <row r="4" spans="1:24" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1438,43 +1511,49 @@
         <v>8</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>180</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1491,43 +1570,42 @@
         <v>193</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="J5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
         <v>600</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>5600</v>
       </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
       <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1545,43 +1623,42 @@
         <v>194</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="J6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
         <v>300</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>2800</v>
       </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
       <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="V6" s="4"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -1598,46 +1675,45 @@
         <v>194</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="J7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
         <v>300</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>2800</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>0.03</v>
       </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
       <c r="O7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U7" s="4"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1654,46 +1730,45 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
+      <c r="K8" s="6">
+        <v>1</v>
       </c>
       <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
         <v>2250</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>0.01</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>600</v>
       </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -1710,46 +1785,45 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
         <v>150</v>
       </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
       <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
         <v>0.01</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>600</v>
       </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1766,46 +1840,45 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
         <v>100</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>1500</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>0.2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>800</v>
       </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="V10" s="4"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -1822,19 +1895,19 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
+      <c r="K11" s="6">
+        <v>1</v>
       </c>
       <c r="L11" s="4">
         <v>0</v>
@@ -1843,25 +1916,24 @@
         <v>0</v>
       </c>
       <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
         <v>1000</v>
       </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="V11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1878,19 +1950,19 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
+      <c r="K12" s="6">
+        <v>1</v>
       </c>
       <c r="L12" s="4">
         <v>0</v>
@@ -1899,25 +1971,24 @@
         <v>0</v>
       </c>
       <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
         <v>1000</v>
       </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U12" s="4"/>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -1934,19 +2005,19 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
+      <c r="K13" s="6">
+        <v>1</v>
       </c>
       <c r="L13" s="4">
         <v>0</v>
@@ -1955,25 +2026,24 @@
         <v>0</v>
       </c>
       <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
         <v>1000</v>
       </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="V13" s="4"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U13" s="4"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1990,19 +2060,19 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J14" s="6">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
+      <c r="K14" s="6">
+        <v>1</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>
@@ -2011,25 +2081,24 @@
         <v>0</v>
       </c>
       <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
         <v>1000</v>
       </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="V14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U14" s="4"/>
+      <c r="W14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -2046,19 +2115,19 @@
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
+      <c r="K15" s="6">
+        <v>1</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
@@ -2067,25 +2136,24 @@
         <v>0</v>
       </c>
       <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
         <v>1000</v>
       </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="V15" s="4"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U15" s="4"/>
+      <c r="W15" s="4"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2102,19 +2170,19 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J16" s="6">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
+      <c r="K16" s="6">
+        <v>1</v>
       </c>
       <c r="L16" s="4">
         <v>0</v>
@@ -2123,25 +2191,24 @@
         <v>0</v>
       </c>
       <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
         <v>1000</v>
       </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U16" s="4"/>
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -2152,25 +2219,25 @@
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J17" s="6">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
+      <c r="J17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
       </c>
       <c r="L17" s="4">
         <v>0</v>
@@ -2179,52 +2246,179 @@
         <v>0</v>
       </c>
       <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
         <v>800</v>
       </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="V17" s="4"/>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S17" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="U17" s="4"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="4">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>800</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="U18" s="4"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="4">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>800</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
-      <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Q66" s="4"/>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
-      <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Q67" s="4"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
-      <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Q68" s="4"/>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
         <v>8</v>
       </c>
@@ -2237,36 +2431,38 @@
       <c r="E69" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="6">
-        <v>1</v>
-      </c>
-      <c r="K69" s="4">
-        <v>0</v>
+      <c r="K69" s="6">
+        <v>1</v>
       </c>
       <c r="L69" s="4">
         <v>0</v>
       </c>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4">
+      <c r="M69" s="4">
+        <v>0</v>
+      </c>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4">
         <v>600</v>
       </c>
-      <c r="O69" s="4">
-        <v>0</v>
-      </c>
-      <c r="P69" s="4" t="s">
+      <c r="P69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="R69" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="R69" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="V69" s="4"/>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S69" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U69" s="4"/>
+      <c r="W69" s="4"/>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>9</v>
       </c>
@@ -2279,36 +2475,38 @@
       <c r="E70" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J70" s="6">
-        <v>1</v>
-      </c>
-      <c r="K70" s="4">
-        <v>0</v>
+      <c r="K70" s="6">
+        <v>1</v>
       </c>
       <c r="L70" s="4">
         <v>0</v>
       </c>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4">
+      <c r="M70" s="4">
+        <v>0</v>
+      </c>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4">
         <v>300</v>
       </c>
-      <c r="O70" s="4">
-        <v>0</v>
-      </c>
-      <c r="P70" s="4" t="s">
+      <c r="P70" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Q70" s="2" t="s">
+      <c r="R70" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="R70" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="V70" s="4"/>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U70" s="4"/>
+      <c r="W70" s="4"/>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>10</v>
       </c>
@@ -2321,36 +2519,38 @@
       <c r="E71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J71" s="6">
-        <v>1</v>
-      </c>
-      <c r="K71" s="4">
-        <v>0</v>
+      <c r="K71" s="6">
+        <v>1</v>
       </c>
       <c r="L71" s="4">
         <v>0</v>
       </c>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4">
+      <c r="M71" s="4">
+        <v>0</v>
+      </c>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4">
         <v>300</v>
       </c>
-      <c r="O71" s="4">
-        <v>0</v>
-      </c>
-      <c r="P71" s="4" t="s">
+      <c r="P71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Q71" s="2" t="s">
+      <c r="R71" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="R71" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="V71" s="4"/>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S71" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U71" s="4"/>
+      <c r="W71" s="4"/>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>11</v>
       </c>
@@ -2363,36 +2563,38 @@
       <c r="E72" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J72" s="6">
-        <v>1</v>
-      </c>
-      <c r="K72" s="4">
-        <v>0</v>
+      <c r="K72" s="6">
+        <v>1</v>
       </c>
       <c r="L72" s="4">
         <v>0</v>
       </c>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4">
+      <c r="M72" s="4">
+        <v>0</v>
+      </c>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4">
         <v>800</v>
       </c>
-      <c r="O72" s="4">
-        <v>0</v>
-      </c>
-      <c r="P72" s="4" t="s">
+      <c r="P72" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Q72" s="2" t="s">
+      <c r="R72" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="R72" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="V72" s="4"/>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S72" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U72" s="4"/>
+      <c r="W72" s="4"/>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>12</v>
       </c>
@@ -2405,36 +2607,38 @@
       <c r="E73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J73" s="6">
-        <v>1</v>
-      </c>
-      <c r="K73" s="4">
-        <v>0</v>
+      <c r="K73" s="6">
+        <v>1</v>
       </c>
       <c r="L73" s="4">
         <v>0</v>
       </c>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4">
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4">
         <v>500</v>
       </c>
-      <c r="O73" s="4">
-        <v>0</v>
-      </c>
-      <c r="P73" s="4" t="s">
+      <c r="P73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="R73" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="R73" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="V73" s="4"/>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S73" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U73" s="4"/>
+      <c r="W73" s="4"/>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>13</v>
       </c>
@@ -2447,36 +2651,38 @@
       <c r="E74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J74" s="6">
-        <v>1</v>
-      </c>
-      <c r="K74" s="4">
-        <v>0</v>
+      <c r="K74" s="6">
+        <v>1</v>
       </c>
       <c r="L74" s="4">
         <v>0</v>
       </c>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4">
+      <c r="M74" s="4">
+        <v>0</v>
+      </c>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4">
         <v>800</v>
       </c>
-      <c r="O74" s="4">
-        <v>0</v>
-      </c>
-      <c r="P74" s="4" t="s">
+      <c r="P74" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="R74" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="R74" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="V74" s="4"/>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S74" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U74" s="4"/>
+      <c r="W74" s="4"/>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
         <v>14</v>
       </c>
@@ -2489,36 +2695,38 @@
       <c r="E75" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J75" s="6">
-        <v>1</v>
-      </c>
-      <c r="K75" s="4">
-        <v>0</v>
+      <c r="K75" s="6">
+        <v>1</v>
       </c>
       <c r="L75" s="4">
         <v>0</v>
       </c>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4">
+      <c r="M75" s="4">
+        <v>0</v>
+      </c>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4">
         <v>1200</v>
       </c>
-      <c r="O75" s="4">
-        <v>0</v>
-      </c>
-      <c r="P75" s="4" t="s">
+      <c r="P75" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="R75" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="R75" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="V75" s="4"/>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U75" s="4"/>
+      <c r="W75" s="4"/>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
         <v>15</v>
       </c>
@@ -2531,31 +2739,33 @@
       <c r="E76" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J76" s="6">
-        <v>1</v>
-      </c>
-      <c r="K76" s="4">
-        <v>0</v>
+      <c r="K76" s="6">
+        <v>1</v>
       </c>
       <c r="L76" s="4">
         <v>0</v>
       </c>
-      <c r="M76" s="4"/>
+      <c r="M76" s="4">
+        <v>0</v>
+      </c>
       <c r="N76" s="4"/>
-      <c r="O76" s="4">
-        <v>0</v>
-      </c>
-      <c r="P76" s="4" t="s">
+      <c r="O76" s="4"/>
+      <c r="P76" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="R76" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="V76" s="4"/>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S76" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U76" s="4"/>
+      <c r="W76" s="4"/>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
         <v>16</v>
       </c>
@@ -2568,31 +2778,33 @@
       <c r="E77" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J77" s="6">
-        <v>1</v>
-      </c>
-      <c r="K77" s="4">
-        <v>0</v>
+      <c r="K77" s="6">
+        <v>1</v>
       </c>
       <c r="L77" s="4">
         <v>0</v>
       </c>
-      <c r="M77" s="4"/>
+      <c r="M77" s="4">
+        <v>0</v>
+      </c>
       <c r="N77" s="4"/>
-      <c r="O77" s="4">
-        <v>0</v>
-      </c>
-      <c r="P77" s="4" t="s">
+      <c r="O77" s="4"/>
+      <c r="P77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="R77" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="V77" s="4"/>
-    </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S77" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U77" s="4"/>
+      <c r="W77" s="4"/>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
         <v>17</v>
       </c>
@@ -2605,36 +2817,38 @@
       <c r="E78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J78" s="6">
-        <v>1</v>
-      </c>
-      <c r="K78" s="4">
-        <v>0</v>
+      <c r="K78" s="6">
+        <v>1</v>
       </c>
       <c r="L78" s="4">
         <v>0</v>
       </c>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4">
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4">
         <v>200</v>
       </c>
-      <c r="O78" s="4">
-        <v>0</v>
-      </c>
-      <c r="P78" s="4" t="s">
+      <c r="P78" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="Q78" s="2" t="s">
+      <c r="R78" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="R78" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="V78" s="4"/>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S78" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U78" s="4"/>
+      <c r="W78" s="4"/>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B79" s="4">
         <v>18</v>
       </c>
@@ -2647,36 +2861,38 @@
       <c r="E79" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J79" s="6">
-        <v>1</v>
-      </c>
-      <c r="K79" s="4">
-        <v>0</v>
+      <c r="K79" s="6">
+        <v>1</v>
       </c>
       <c r="L79" s="4">
         <v>0</v>
       </c>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4">
+      <c r="M79" s="4">
+        <v>0</v>
+      </c>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4">
         <v>200</v>
       </c>
-      <c r="O79" s="4">
-        <v>0</v>
-      </c>
-      <c r="P79" s="4" t="s">
+      <c r="P79" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q79" s="2" t="s">
+      <c r="R79" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="R79" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="V79" s="4"/>
-    </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S79" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U79" s="4"/>
+      <c r="W79" s="4"/>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
         <v>19</v>
       </c>
@@ -2689,36 +2905,38 @@
       <c r="E80" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J80" s="6">
-        <v>1</v>
-      </c>
-      <c r="K80" s="4">
-        <v>0</v>
+      <c r="K80" s="6">
+        <v>1</v>
       </c>
       <c r="L80" s="4">
         <v>0</v>
       </c>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4">
+      <c r="M80" s="4">
+        <v>0</v>
+      </c>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4">
         <v>200</v>
       </c>
-      <c r="O80" s="4">
-        <v>0</v>
-      </c>
-      <c r="P80" s="4" t="s">
+      <c r="P80" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="R80" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="V80" s="4"/>
-    </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S80" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U80" s="4"/>
+      <c r="W80" s="4"/>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
         <v>20</v>
       </c>
@@ -2731,36 +2949,38 @@
       <c r="E81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J81" s="6">
-        <v>1</v>
-      </c>
-      <c r="K81" s="4">
-        <v>0</v>
+      <c r="K81" s="6">
+        <v>1</v>
       </c>
       <c r="L81" s="4">
         <v>0</v>
       </c>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4">
+      <c r="M81" s="4">
+        <v>0</v>
+      </c>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4">
         <v>200</v>
       </c>
-      <c r="O81" s="4">
-        <v>0</v>
-      </c>
-      <c r="P81" s="4" t="s">
+      <c r="P81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q81" s="2" t="s">
+      <c r="R81" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="R81" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="V81" s="4"/>
-    </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S81" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U81" s="4"/>
+      <c r="W81" s="4"/>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
         <v>21</v>
       </c>
@@ -2773,36 +2993,38 @@
       <c r="E82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J82" s="6">
-        <v>1</v>
-      </c>
-      <c r="K82" s="4">
-        <v>0</v>
+      <c r="K82" s="6">
+        <v>1</v>
       </c>
       <c r="L82" s="4">
         <v>0</v>
       </c>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4">
+      <c r="M82" s="4">
+        <v>0</v>
+      </c>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4">
         <v>200</v>
       </c>
-      <c r="O82" s="4">
-        <v>0</v>
-      </c>
-      <c r="P82" s="4" t="s">
+      <c r="P82" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q82" s="2" t="s">
+      <c r="R82" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="R82" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="V82" s="4"/>
-    </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S82" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U82" s="4"/>
+      <c r="W82" s="4"/>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B83" s="4">
         <v>22</v>
       </c>
@@ -2815,36 +3037,38 @@
       <c r="E83" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J83" s="6">
-        <v>1</v>
-      </c>
-      <c r="K83" s="4">
-        <v>0</v>
+      <c r="K83" s="6">
+        <v>1</v>
       </c>
       <c r="L83" s="4">
         <v>0</v>
       </c>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4">
+      <c r="M83" s="4">
+        <v>0</v>
+      </c>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4">
         <v>200</v>
       </c>
-      <c r="O83" s="4">
-        <v>0</v>
-      </c>
-      <c r="P83" s="4" t="s">
+      <c r="P83" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Q83" s="2" t="s">
+      <c r="R83" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="R83" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="V83" s="4"/>
-    </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S83" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U83" s="4"/>
+      <c r="W83" s="4"/>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B84" s="4">
         <v>23</v>
       </c>
@@ -2857,36 +3081,38 @@
       <c r="E84" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J84" s="6">
-        <v>1</v>
-      </c>
-      <c r="K84" s="4">
-        <v>0</v>
+      <c r="K84" s="6">
+        <v>1</v>
       </c>
       <c r="L84" s="4">
         <v>0</v>
       </c>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4">
+      <c r="M84" s="4">
+        <v>0</v>
+      </c>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4">
         <v>200</v>
       </c>
-      <c r="O84" s="4">
-        <v>0</v>
-      </c>
-      <c r="P84" s="4" t="s">
+      <c r="P84" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q84" s="2" t="s">
+      <c r="R84" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R84" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
-      <c r="V84" s="4"/>
-    </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U84" s="4"/>
+      <c r="W84" s="4"/>
+    </row>
+    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
         <v>24</v>
       </c>
@@ -2899,31 +3125,33 @@
       <c r="E85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J85" s="6">
-        <v>1</v>
-      </c>
-      <c r="K85" s="4">
-        <v>0</v>
+      <c r="K85" s="6">
+        <v>1</v>
       </c>
       <c r="L85" s="4">
         <v>0</v>
       </c>
-      <c r="M85" s="4"/>
+      <c r="M85" s="4">
+        <v>0</v>
+      </c>
       <c r="N85" s="4"/>
-      <c r="O85" s="4">
-        <v>0</v>
-      </c>
-      <c r="P85" s="4" t="s">
+      <c r="O85" s="4"/>
+      <c r="P85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="R85" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="V85" s="4"/>
-    </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S85" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U85" s="4"/>
+      <c r="W85" s="4"/>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
         <v>25</v>
       </c>
@@ -2936,31 +3164,33 @@
       <c r="E86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J86" s="6">
-        <v>1</v>
-      </c>
-      <c r="K86" s="4">
-        <v>0</v>
+      <c r="K86" s="6">
+        <v>1</v>
       </c>
       <c r="L86" s="4">
         <v>0</v>
       </c>
-      <c r="M86" s="4"/>
+      <c r="M86" s="4">
+        <v>0</v>
+      </c>
       <c r="N86" s="4"/>
-      <c r="O86" s="4">
-        <v>0</v>
-      </c>
-      <c r="P86" s="4" t="s">
+      <c r="O86" s="4"/>
+      <c r="P86" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="R86" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
-      <c r="V86" s="4"/>
-    </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U86" s="4"/>
+      <c r="W86" s="4"/>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
         <v>26</v>
       </c>
@@ -2973,31 +3203,33 @@
       <c r="E87" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J87" s="6">
-        <v>1</v>
-      </c>
-      <c r="K87" s="4">
-        <v>0</v>
+      <c r="K87" s="6">
+        <v>1</v>
       </c>
       <c r="L87" s="4">
         <v>0</v>
       </c>
-      <c r="M87" s="4"/>
+      <c r="M87" s="4">
+        <v>0</v>
+      </c>
       <c r="N87" s="4"/>
-      <c r="O87" s="4">
-        <v>0</v>
-      </c>
-      <c r="P87" s="4" t="s">
+      <c r="O87" s="4"/>
+      <c r="P87" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="R87" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="V87" s="4"/>
-    </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U87" s="4"/>
+      <c r="W87" s="4"/>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
         <v>27</v>
       </c>
@@ -3010,31 +3242,33 @@
       <c r="E88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J88" s="6">
-        <v>1</v>
-      </c>
-      <c r="K88" s="4">
-        <v>0</v>
+      <c r="K88" s="6">
+        <v>1</v>
       </c>
       <c r="L88" s="4">
         <v>0</v>
       </c>
-      <c r="M88" s="4"/>
+      <c r="M88" s="4">
+        <v>0</v>
+      </c>
       <c r="N88" s="4"/>
-      <c r="O88" s="4">
-        <v>0</v>
-      </c>
-      <c r="P88" s="4" t="s">
+      <c r="O88" s="4"/>
+      <c r="P88" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R88" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="V88" s="4"/>
-    </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U88" s="4"/>
+      <c r="W88" s="4"/>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
         <v>28</v>
       </c>
@@ -3047,31 +3281,33 @@
       <c r="E89" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J89" s="6">
-        <v>1</v>
-      </c>
-      <c r="K89" s="4">
-        <v>0</v>
+      <c r="K89" s="6">
+        <v>1</v>
       </c>
       <c r="L89" s="4">
         <v>0</v>
       </c>
-      <c r="M89" s="4"/>
+      <c r="M89" s="4">
+        <v>0</v>
+      </c>
       <c r="N89" s="4"/>
-      <c r="O89" s="4">
-        <v>0</v>
-      </c>
-      <c r="P89" s="4" t="s">
+      <c r="O89" s="4"/>
+      <c r="P89" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="R89" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="V89" s="4"/>
-    </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S89" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U89" s="4"/>
+      <c r="W89" s="4"/>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
         <v>29</v>
       </c>
@@ -3084,31 +3320,33 @@
       <c r="E90" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J90" s="6">
-        <v>1</v>
-      </c>
-      <c r="K90" s="4">
-        <v>0</v>
+      <c r="K90" s="6">
+        <v>1</v>
       </c>
       <c r="L90" s="4">
         <v>0</v>
       </c>
-      <c r="M90" s="4"/>
+      <c r="M90" s="4">
+        <v>0</v>
+      </c>
       <c r="N90" s="4"/>
-      <c r="O90" s="4">
-        <v>0</v>
-      </c>
-      <c r="P90" s="4" t="s">
+      <c r="O90" s="4"/>
+      <c r="P90" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R90" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="V90" s="4"/>
-    </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S90" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U90" s="4"/>
+      <c r="W90" s="4"/>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B91" s="4">
         <v>30</v>
       </c>
@@ -3121,31 +3359,33 @@
       <c r="E91" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J91" s="6">
-        <v>1</v>
-      </c>
-      <c r="K91" s="4">
-        <v>0</v>
+      <c r="K91" s="6">
+        <v>1</v>
       </c>
       <c r="L91" s="4">
         <v>0</v>
       </c>
-      <c r="M91" s="4"/>
+      <c r="M91" s="4">
+        <v>0</v>
+      </c>
       <c r="N91" s="4"/>
-      <c r="O91" s="4">
-        <v>0</v>
-      </c>
-      <c r="P91" s="4" t="s">
+      <c r="O91" s="4"/>
+      <c r="P91" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R91" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S91" s="4"/>
-      <c r="T91" s="4"/>
-      <c r="V91" s="4"/>
-    </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S91" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U91" s="4"/>
+      <c r="W91" s="4"/>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B92" s="4">
         <v>31</v>
       </c>
@@ -3158,33 +3398,35 @@
       <c r="E92" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J92" s="6">
-        <v>1</v>
-      </c>
-      <c r="K92" s="4">
-        <v>10</v>
+      <c r="K92" s="6">
+        <v>1</v>
       </c>
       <c r="L92" s="4">
         <v>10</v>
       </c>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4">
+      <c r="M92" s="4">
+        <v>10</v>
+      </c>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4">
         <v>1500</v>
       </c>
-      <c r="O92" s="4">
-        <v>0</v>
-      </c>
-      <c r="P92" s="4" t="s">
+      <c r="P92" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R92" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="V92" s="4"/>
-    </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S92" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U92" s="4"/>
+      <c r="W92" s="4"/>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
         <v>32</v>
       </c>
@@ -3197,36 +3439,38 @@
       <c r="E93" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J93" s="6">
-        <v>1</v>
-      </c>
-      <c r="K93" s="4">
+      <c r="K93" s="6">
+        <v>1</v>
+      </c>
+      <c r="L93" s="4">
         <v>1000</v>
       </c>
-      <c r="L93" s="4">
-        <v>0</v>
-      </c>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4">
+      <c r="M93" s="4">
+        <v>0</v>
+      </c>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4">
         <v>200</v>
       </c>
-      <c r="O93" s="4">
-        <v>0</v>
-      </c>
-      <c r="P93" s="4" t="s">
+      <c r="P93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q93" s="2" t="s">
+      <c r="R93" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R93" s="2">
+      <c r="S93" s="2">
         <v>362</v>
       </c>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="V93" s="4"/>
-    </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T93" s="2">
+        <v>362</v>
+      </c>
+      <c r="U93" s="4"/>
+      <c r="W93" s="4"/>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
         <v>33</v>
       </c>
@@ -3236,33 +3480,35 @@
       <c r="D94" s="4">
         <v>5</v>
       </c>
-      <c r="K94" s="4">
-        <v>0</v>
-      </c>
       <c r="L94" s="4">
+        <v>0</v>
+      </c>
+      <c r="M94" s="4">
         <v>10000</v>
       </c>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4">
+      <c r="N94" s="4"/>
+      <c r="O94" s="4">
         <v>200</v>
       </c>
-      <c r="O94" s="4">
-        <v>0</v>
-      </c>
-      <c r="P94" s="4" t="s">
+      <c r="P94" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="Q94" s="2" t="s">
+      <c r="R94" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="R94" s="2">
+      <c r="S94" s="2">
         <v>376</v>
       </c>
-      <c r="S94" s="4"/>
-      <c r="T94" s="4"/>
-      <c r="V94" s="4"/>
-    </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T94" s="2">
+        <v>376</v>
+      </c>
+      <c r="U94" s="4"/>
+      <c r="W94" s="4"/>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>34</v>
       </c>
@@ -3272,34 +3518,36 @@
       <c r="D95" s="4">
         <v>5</v>
       </c>
-      <c r="J95" s="6"/>
-      <c r="K95" s="4">
-        <v>0</v>
-      </c>
+      <c r="K95" s="6"/>
       <c r="L95" s="4">
         <v>0</v>
       </c>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4">
+      <c r="M95" s="4">
+        <v>0</v>
+      </c>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4">
         <v>300</v>
       </c>
-      <c r="O95" s="4">
-        <v>0</v>
-      </c>
-      <c r="P95" s="4" t="s">
+      <c r="P95" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Q95" s="2" t="s">
+      <c r="R95" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="R95" s="2">
+      <c r="S95" s="2">
         <v>360</v>
       </c>
-      <c r="S95" s="4"/>
-      <c r="T95" s="4"/>
-      <c r="V95" s="4"/>
-    </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T95" s="2">
+        <v>360</v>
+      </c>
+      <c r="U95" s="4"/>
+      <c r="W95" s="4"/>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>35</v>
       </c>
@@ -3309,34 +3557,36 @@
       <c r="D96" s="4">
         <v>5</v>
       </c>
-      <c r="J96" s="6"/>
-      <c r="K96" s="4">
-        <v>0</v>
-      </c>
+      <c r="K96" s="6"/>
       <c r="L96" s="4">
+        <v>0</v>
+      </c>
+      <c r="M96" s="4">
         <v>1000</v>
       </c>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4">
+      <c r="N96" s="4"/>
+      <c r="O96" s="4">
         <v>300</v>
       </c>
-      <c r="O96" s="4">
-        <v>0</v>
-      </c>
-      <c r="P96" s="4" t="s">
+      <c r="P96" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Q96" s="2" t="s">
+      <c r="R96" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="R96" s="2">
+      <c r="S96" s="2">
         <v>364</v>
       </c>
-      <c r="S96" s="4"/>
-      <c r="T96" s="4"/>
-      <c r="V96" s="4"/>
-    </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T96" s="2">
+        <v>364</v>
+      </c>
+      <c r="U96" s="4"/>
+      <c r="W96" s="4"/>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>36</v>
       </c>
@@ -3346,34 +3596,36 @@
       <c r="D97" s="4">
         <v>5</v>
       </c>
-      <c r="J97" s="6"/>
-      <c r="K97" s="4">
-        <v>1000</v>
-      </c>
+      <c r="K97" s="6"/>
       <c r="L97" s="4">
         <v>1000</v>
       </c>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4">
+      <c r="M97" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4">
         <v>300</v>
       </c>
-      <c r="O97" s="4">
-        <v>0</v>
-      </c>
-      <c r="P97" s="4" t="s">
+      <c r="P97" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="Q97" s="2" t="s">
+      <c r="R97" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="R97" s="2">
+      <c r="S97" s="2">
         <v>370</v>
       </c>
-      <c r="S97" s="4"/>
-      <c r="T97" s="4"/>
-      <c r="V97" s="4"/>
-    </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T97" s="2">
+        <v>370</v>
+      </c>
+      <c r="U97" s="4"/>
+      <c r="W97" s="4"/>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>37</v>
       </c>
@@ -3383,34 +3635,36 @@
       <c r="D98" s="4">
         <v>5</v>
       </c>
-      <c r="J98" s="6"/>
-      <c r="K98" s="4">
-        <v>1</v>
-      </c>
+      <c r="K98" s="6"/>
       <c r="L98" s="4">
         <v>1</v>
       </c>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4">
+      <c r="M98" s="4">
+        <v>1</v>
+      </c>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4">
         <v>300</v>
       </c>
-      <c r="O98" s="4">
-        <v>0</v>
-      </c>
-      <c r="P98" s="4" t="s">
+      <c r="P98" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="Q98" s="2" t="s">
+      <c r="R98" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="R98" s="2">
+      <c r="S98" s="2">
         <v>368</v>
       </c>
-      <c r="S98" s="4"/>
-      <c r="T98" s="4"/>
-      <c r="V98" s="4"/>
-    </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T98" s="2">
+        <v>368</v>
+      </c>
+      <c r="U98" s="4"/>
+      <c r="W98" s="4"/>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>38</v>
       </c>
@@ -3420,34 +3674,36 @@
       <c r="D99" s="4">
         <v>5</v>
       </c>
-      <c r="J99" s="6"/>
-      <c r="K99" s="4">
-        <v>1</v>
-      </c>
+      <c r="K99" s="6"/>
       <c r="L99" s="4">
         <v>1</v>
       </c>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4">
+      <c r="M99" s="4">
+        <v>1</v>
+      </c>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4">
         <v>300</v>
       </c>
-      <c r="O99" s="4">
-        <v>0</v>
-      </c>
-      <c r="P99" s="4" t="s">
+      <c r="P99" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Q99" s="2" t="s">
+      <c r="R99" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="R99" s="2">
+      <c r="S99" s="2">
         <v>380</v>
       </c>
-      <c r="S99" s="4"/>
-      <c r="T99" s="4"/>
-      <c r="V99" s="4"/>
-    </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T99" s="2">
+        <v>380</v>
+      </c>
+      <c r="U99" s="4"/>
+      <c r="W99" s="4"/>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>39</v>
       </c>
@@ -3457,34 +3713,36 @@
       <c r="D100" s="4">
         <v>5</v>
       </c>
-      <c r="J100" s="6"/>
-      <c r="K100" s="4">
-        <v>1</v>
-      </c>
+      <c r="K100" s="6"/>
       <c r="L100" s="4">
         <v>1</v>
       </c>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4">
+      <c r="M100" s="4">
+        <v>1</v>
+      </c>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4">
         <v>400</v>
       </c>
-      <c r="O100" s="4">
-        <v>0</v>
-      </c>
-      <c r="P100" s="4" t="s">
+      <c r="P100" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="Q100" s="2" t="s">
+      <c r="R100" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="R100" s="2">
+      <c r="S100" s="2">
         <v>378</v>
       </c>
-      <c r="S100" s="4"/>
-      <c r="T100" s="4"/>
-      <c r="V100" s="4"/>
-    </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T100" s="2">
+        <v>378</v>
+      </c>
+      <c r="U100" s="4"/>
+      <c r="W100" s="4"/>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>40</v>
       </c>
@@ -3494,34 +3752,36 @@
       <c r="D101" s="4">
         <v>5</v>
       </c>
-      <c r="J101" s="6"/>
-      <c r="K101" s="4">
-        <v>1</v>
-      </c>
+      <c r="K101" s="6"/>
       <c r="L101" s="4">
         <v>1</v>
       </c>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4">
+      <c r="M101" s="4">
+        <v>1</v>
+      </c>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4">
         <v>400</v>
       </c>
-      <c r="O101" s="4">
-        <v>0</v>
-      </c>
-      <c r="P101" s="4" t="s">
+      <c r="P101" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="Q101" s="2" t="s">
+      <c r="R101" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="R101" s="2">
+      <c r="S101" s="2">
         <v>366</v>
       </c>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
-      <c r="V101" s="4"/>
-    </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T101" s="2">
+        <v>366</v>
+      </c>
+      <c r="U101" s="4"/>
+      <c r="W101" s="4"/>
+    </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>41</v>
       </c>
@@ -3531,34 +3791,36 @@
       <c r="D102" s="4">
         <v>5</v>
       </c>
-      <c r="J102" s="6"/>
-      <c r="K102" s="4">
-        <v>1</v>
-      </c>
+      <c r="K102" s="6"/>
       <c r="L102" s="4">
         <v>1</v>
       </c>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4">
+      <c r="M102" s="4">
+        <v>1</v>
+      </c>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4">
         <v>200</v>
       </c>
-      <c r="O102" s="4">
-        <v>0</v>
-      </c>
-      <c r="P102" s="4" t="s">
+      <c r="P102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="Q102" s="2" t="s">
+      <c r="R102" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="R102" s="2">
+      <c r="S102" s="2">
         <v>406</v>
       </c>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-      <c r="V102" s="4"/>
-    </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T102" s="2">
+        <v>406</v>
+      </c>
+      <c r="U102" s="4"/>
+      <c r="W102" s="4"/>
+    </row>
+    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>42</v>
       </c>
@@ -3568,33 +3830,36 @@
       <c r="D103" s="4">
         <v>5</v>
       </c>
-      <c r="J103" s="6"/>
-      <c r="K103" s="4">
-        <v>1</v>
-      </c>
+      <c r="K103" s="6"/>
       <c r="L103" s="4">
         <v>1</v>
       </c>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4">
+      <c r="M103" s="4">
+        <v>1</v>
+      </c>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4">
         <v>200</v>
       </c>
-      <c r="O103" s="4">
-        <v>0</v>
-      </c>
-      <c r="P103" s="4" t="s">
+      <c r="P103" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="Q103" s="2" t="s">
+      <c r="R103" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="R103" s="2">
+      <c r="S103" s="2">
         <v>408</v>
       </c>
-      <c r="T103" s="4"/>
-      <c r="V103" s="4"/>
-    </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T103" s="2">
+        <v>408</v>
+      </c>
+      <c r="U103" s="4"/>
+      <c r="W103" s="4"/>
+    </row>
+    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>43</v>
       </c>
@@ -3604,30 +3869,33 @@
       <c r="D104" s="4">
         <v>5</v>
       </c>
-      <c r="K104" s="4">
-        <v>1</v>
-      </c>
       <c r="L104" s="4">
         <v>1</v>
       </c>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4">
+      <c r="M104" s="4">
+        <v>1</v>
+      </c>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4">
         <v>200</v>
       </c>
-      <c r="O104" s="4">
-        <v>0</v>
-      </c>
-      <c r="P104" s="4" t="s">
+      <c r="P104" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="Q104" s="2" t="s">
+      <c r="R104" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="R104" s="2">
+      <c r="S104" s="2">
         <v>410</v>
       </c>
-    </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T104" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>44</v>
       </c>
@@ -3637,30 +3905,33 @@
       <c r="D105" s="4">
         <v>5</v>
       </c>
-      <c r="K105" s="4">
-        <v>1</v>
-      </c>
       <c r="L105" s="4">
         <v>1</v>
       </c>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4">
+      <c r="M105" s="4">
+        <v>1</v>
+      </c>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4">
         <v>200</v>
       </c>
-      <c r="O105" s="4">
-        <v>0</v>
-      </c>
-      <c r="P105" s="4" t="s">
+      <c r="P105" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="Q105" s="2" t="s">
+      <c r="R105" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="R105" s="2">
+      <c r="S105" s="2">
         <v>412</v>
       </c>
-    </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T105" s="2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>45</v>
       </c>
@@ -3670,30 +3941,33 @@
       <c r="D106" s="4">
         <v>5</v>
       </c>
-      <c r="K106" s="4">
-        <v>1</v>
-      </c>
       <c r="L106" s="4">
         <v>1</v>
       </c>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4">
+      <c r="M106" s="4">
+        <v>1</v>
+      </c>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4">
         <v>200</v>
       </c>
-      <c r="O106" s="4">
-        <v>0</v>
-      </c>
-      <c r="P106" s="4" t="s">
+      <c r="P106" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Q106" s="2" t="s">
+      <c r="R106" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="R106" s="2">
+      <c r="S106" s="2">
         <v>414</v>
       </c>
-    </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T106" s="2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>46</v>
       </c>
@@ -3703,30 +3977,33 @@
       <c r="D107" s="4">
         <v>5</v>
       </c>
-      <c r="K107" s="4">
-        <v>1</v>
-      </c>
       <c r="L107" s="4">
         <v>1</v>
       </c>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4">
+      <c r="M107" s="4">
+        <v>1</v>
+      </c>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4">
         <v>200</v>
       </c>
-      <c r="O107" s="4">
-        <v>0</v>
-      </c>
-      <c r="P107" s="4" t="s">
+      <c r="P107" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q107" s="2" t="s">
+      <c r="R107" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="R107" s="2">
+      <c r="S107" s="2">
         <v>416</v>
       </c>
-    </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T107" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <v>47</v>
       </c>
@@ -3736,30 +4013,33 @@
       <c r="D108" s="4">
         <v>5</v>
       </c>
-      <c r="K108" s="4">
-        <v>240</v>
-      </c>
       <c r="L108" s="4">
         <v>240</v>
       </c>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4">
+      <c r="M108" s="4">
+        <v>240</v>
+      </c>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4">
         <v>400</v>
       </c>
-      <c r="O108" s="4">
-        <v>0</v>
-      </c>
-      <c r="P108" s="4" t="s">
+      <c r="P108" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q108" s="2" t="s">
+      <c r="R108" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="R108" s="2">
+      <c r="S108" s="2">
         <v>418</v>
       </c>
-    </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T108" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <v>48</v>
       </c>
@@ -3769,30 +4049,33 @@
       <c r="D109" s="4">
         <v>5</v>
       </c>
-      <c r="K109" s="4">
-        <v>180</v>
-      </c>
       <c r="L109" s="4">
         <v>180</v>
       </c>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4">
+      <c r="M109" s="4">
+        <v>180</v>
+      </c>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4">
         <v>400</v>
       </c>
-      <c r="O109" s="4">
-        <v>0</v>
-      </c>
-      <c r="P109" s="4" t="s">
+      <c r="P109" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q109" s="2" t="s">
+      <c r="R109" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="R109" s="2">
+      <c r="S109" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T109" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <v>49</v>
       </c>
@@ -3802,30 +4085,33 @@
       <c r="D110" s="4">
         <v>5</v>
       </c>
-      <c r="K110" s="4">
-        <v>100</v>
-      </c>
       <c r="L110" s="4">
         <v>100</v>
       </c>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4">
+      <c r="M110" s="4">
+        <v>100</v>
+      </c>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4">
         <v>50</v>
       </c>
-      <c r="O110" s="4">
-        <v>0</v>
-      </c>
-      <c r="P110" s="4" t="s">
+      <c r="P110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="Q110" s="2" t="s">
+      <c r="R110" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="R110" s="2">
+      <c r="S110" s="2">
         <v>422</v>
       </c>
-    </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T110" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <v>50</v>
       </c>
@@ -3835,30 +4121,33 @@
       <c r="D111" s="4">
         <v>5</v>
       </c>
-      <c r="K111" s="4">
-        <v>1600</v>
-      </c>
       <c r="L111" s="4">
         <v>1600</v>
       </c>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4">
+      <c r="M111" s="4">
+        <v>1600</v>
+      </c>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4">
         <v>400</v>
       </c>
-      <c r="O111" s="4">
-        <v>0</v>
-      </c>
-      <c r="P111" s="4" t="s">
+      <c r="P111" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Q111" s="2" t="s">
+      <c r="R111" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R111" s="2">
+      <c r="S111" s="2">
         <v>424</v>
       </c>
-    </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T111" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <v>51</v>
       </c>
@@ -3868,27 +4157,30 @@
       <c r="D112" s="4">
         <v>5</v>
       </c>
-      <c r="K112" s="4">
-        <v>90</v>
-      </c>
       <c r="L112" s="4">
         <v>90</v>
       </c>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4">
+      <c r="M112" s="4">
+        <v>90</v>
+      </c>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4">
         <v>100</v>
       </c>
-      <c r="O112" s="4">
-        <v>0</v>
-      </c>
-      <c r="P112" s="4" t="s">
+      <c r="P112" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R112" s="2">
+      <c r="S112" s="2">
         <v>426</v>
       </c>
-    </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T112" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <v>52</v>
       </c>
@@ -3898,27 +4190,30 @@
       <c r="D113" s="4">
         <v>5</v>
       </c>
-      <c r="K113" s="4">
-        <v>120</v>
-      </c>
       <c r="L113" s="4">
         <v>120</v>
       </c>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4">
+      <c r="M113" s="4">
+        <v>120</v>
+      </c>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4">
         <v>100</v>
       </c>
-      <c r="O113" s="4">
-        <v>0</v>
-      </c>
-      <c r="P113" s="4" t="s">
+      <c r="P113" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R113" s="2">
+      <c r="S113" s="2">
         <v>426</v>
       </c>
-    </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T113" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <v>53</v>
       </c>
@@ -3928,27 +4223,30 @@
       <c r="D114" s="4">
         <v>5</v>
       </c>
-      <c r="K114" s="4">
-        <v>1200</v>
-      </c>
       <c r="L114" s="4">
         <v>1200</v>
       </c>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4">
+      <c r="M114" s="4">
+        <v>1200</v>
+      </c>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4">
         <v>100</v>
       </c>
-      <c r="O114" s="4">
-        <v>0</v>
-      </c>
-      <c r="P114" s="4" t="s">
+      <c r="P114" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R114" s="2">
+      <c r="S114" s="2">
         <v>428</v>
       </c>
-    </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T114" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <v>54</v>
       </c>
@@ -3958,27 +4256,30 @@
       <c r="D115" s="4">
         <v>5</v>
       </c>
-      <c r="K115" s="4">
-        <v>1600</v>
-      </c>
       <c r="L115" s="4">
         <v>1600</v>
       </c>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4">
+      <c r="M115" s="4">
+        <v>1600</v>
+      </c>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4">
         <v>100</v>
       </c>
-      <c r="O115" s="4">
-        <v>0</v>
-      </c>
-      <c r="P115" s="4" t="s">
+      <c r="P115" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R115" s="2">
+      <c r="S115" s="2">
         <v>428</v>
       </c>
-    </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T115" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <v>55</v>
       </c>
@@ -3988,27 +4289,30 @@
       <c r="D116" s="4">
         <v>5</v>
       </c>
-      <c r="K116" s="4">
-        <v>1</v>
-      </c>
       <c r="L116" s="4">
         <v>1</v>
       </c>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4">
+      <c r="M116" s="4">
+        <v>1</v>
+      </c>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4">
         <v>100</v>
       </c>
-      <c r="O116" s="4">
-        <v>0</v>
-      </c>
-      <c r="P116" s="4" t="s">
+      <c r="P116" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R116" s="2">
+      <c r="S116" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T116" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <v>56</v>
       </c>
@@ -4018,27 +4322,30 @@
       <c r="D117" s="4">
         <v>5</v>
       </c>
-      <c r="K117" s="4">
-        <v>1</v>
-      </c>
       <c r="L117" s="4">
         <v>1</v>
       </c>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4">
+      <c r="M117" s="4">
+        <v>1</v>
+      </c>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4">
         <v>100</v>
       </c>
-      <c r="O117" s="4">
-        <v>0</v>
-      </c>
-      <c r="P117" s="4" t="s">
+      <c r="P117" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R117" s="2">
+      <c r="S117" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T117" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
         <v>57</v>
       </c>
@@ -4048,27 +4355,30 @@
       <c r="D118" s="4">
         <v>5</v>
       </c>
-      <c r="K118" s="4">
-        <v>1</v>
-      </c>
       <c r="L118" s="4">
         <v>1</v>
       </c>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4">
+      <c r="M118" s="4">
+        <v>1</v>
+      </c>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4">
         <v>100</v>
       </c>
-      <c r="O118" s="4">
-        <v>0</v>
-      </c>
-      <c r="P118" s="4" t="s">
+      <c r="P118" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R118" s="2">
+      <c r="S118" s="2">
         <v>432</v>
       </c>
-    </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T118" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119" s="2">
         <v>58</v>
       </c>
@@ -4078,27 +4388,30 @@
       <c r="D119" s="4">
         <v>5</v>
       </c>
-      <c r="K119" s="4">
-        <v>1</v>
-      </c>
       <c r="L119" s="4">
         <v>1</v>
       </c>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4">
+      <c r="M119" s="4">
+        <v>1</v>
+      </c>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4">
         <v>100</v>
       </c>
-      <c r="O119" s="4">
-        <v>0</v>
-      </c>
-      <c r="P119" s="4" t="s">
+      <c r="P119" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R119" s="2">
+      <c r="S119" s="2">
         <v>432</v>
       </c>
-    </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T119" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B120" s="2">
         <v>59</v>
       </c>
@@ -4108,27 +4421,30 @@
       <c r="D120" s="4">
         <v>5</v>
       </c>
-      <c r="K120" s="4">
-        <v>1</v>
-      </c>
       <c r="L120" s="4">
         <v>1</v>
       </c>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4">
+      <c r="M120" s="4">
+        <v>1</v>
+      </c>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4">
         <v>100</v>
       </c>
-      <c r="O120" s="4">
-        <v>0</v>
-      </c>
-      <c r="P120" s="4" t="s">
+      <c r="P120" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R120" s="2">
+      <c r="S120" s="2">
         <v>434</v>
       </c>
-    </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T120" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B121" s="2">
         <v>60</v>
       </c>
@@ -4138,23 +4454,26 @@
       <c r="D121" s="4">
         <v>5</v>
       </c>
-      <c r="K121" s="4">
-        <v>1</v>
-      </c>
       <c r="L121" s="4">
         <v>1</v>
       </c>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4">
+      <c r="M121" s="4">
+        <v>1</v>
+      </c>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4">
         <v>100</v>
       </c>
-      <c r="O121" s="4">
-        <v>0</v>
-      </c>
-      <c r="P121" s="4" t="s">
+      <c r="P121" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R121" s="2">
+      <c r="S121" s="2">
+        <v>434</v>
+      </c>
+      <c r="T121" s="2">
         <v>434</v>
       </c>
     </row>

--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C573E2EE-41BF-4FBA-9EEF-7CAFA0A58F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD675CE7-0489-48EC-B590-9334524A0891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{89166F7D-1A88-4585-8059-BAA7A0557A19}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{89166F7D-1A88-4585-8059-BAA7A0557A19}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="225">
   <si>
     <t>0</t>
   </si>
@@ -808,15 +808,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1309,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:X121"/>
+  <dimension ref="A1:Y121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1321,19 +1333,19 @@
     <col min="2" max="3" width="9" style="2"/>
     <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="19.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17" style="2" customWidth="1"/>
-    <col min="12" max="13" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="71.88671875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="6" max="11" width="19.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17" style="2" customWidth="1"/>
+    <col min="13" max="14" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="71.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1354,50 +1366,53 @@
         <v>216</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="7"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="9"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="7"/>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1411,21 +1426,22 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2"/>
+      <c r="L2" s="2"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2" s="2"/>
+      <c r="R2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1447,51 +1463,54 @@
       <c r="G3" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="U3" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-    </row>
-    <row r="4" spans="1:24" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y3" s="8"/>
+    </row>
+    <row r="4" spans="1:25" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1514,36 +1533,36 @@
         <v>8</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>180</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="Q4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="S4" s="11" t="s">
@@ -1552,8 +1571,11 @@
       <c r="T4" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1573,39 +1595,42 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="K5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
         <v>600</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>5600</v>
       </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
       <c r="O5" s="4">
         <v>0</v>
       </c>
       <c r="P5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1626,39 +1651,42 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
         <v>300</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>2800</v>
       </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
       <c r="P6" s="4">
         <v>0</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -1678,42 +1706,45 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="K7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
         <v>300</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>2800</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>0.03</v>
       </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
       <c r="P7" s="4">
         <v>0</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="W7" s="4"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V7" s="4"/>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1733,42 +1764,45 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
+      <c r="L8" s="6">
+        <v>1</v>
       </c>
       <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
         <v>2250</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>0.01</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>600</v>
       </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -1788,42 +1822,45 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
         <v>150</v>
       </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
       <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
         <v>0.01</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>600</v>
       </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V9" s="4"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1843,42 +1880,45 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
         <v>100</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>1500</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>0.2</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <v>800</v>
       </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V10" s="4"/>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -1898,19 +1938,19 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
+      <c r="L11" s="6">
+        <v>1</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -1919,21 +1959,24 @@
         <v>0</v>
       </c>
       <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
         <v>1000</v>
       </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="U11" s="4"/>
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1953,19 +1996,19 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K12" s="6">
-        <v>1</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
+      <c r="L12" s="6">
+        <v>1</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
@@ -1974,21 +2017,24 @@
         <v>0</v>
       </c>
       <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
         <v>1000</v>
       </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V12" s="4"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -2008,19 +2054,19 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
+      <c r="L13" s="6">
+        <v>1</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
@@ -2029,21 +2075,24 @@
         <v>0</v>
       </c>
       <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
         <v>1000</v>
       </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="W13" s="4"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V13" s="4"/>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2063,19 +2112,19 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="6">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
+      <c r="L14" s="6">
+        <v>1</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
@@ -2084,21 +2133,24 @@
         <v>0</v>
       </c>
       <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
         <v>1000</v>
       </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="U14" s="4"/>
-      <c r="W14" s="4"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V14" s="4"/>
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -2118,19 +2170,19 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K15" s="6">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
+      <c r="L15" s="6">
+        <v>1</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
@@ -2139,21 +2191,24 @@
         <v>0</v>
       </c>
       <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
         <v>1000</v>
       </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="U15" s="4"/>
-      <c r="W15" s="4"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V15" s="4"/>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2173,19 +2228,19 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
+      <c r="L16" s="6">
+        <v>1</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
@@ -2194,21 +2249,24 @@
         <v>0</v>
       </c>
       <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
         <v>1000</v>
       </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="U16" s="4"/>
-      <c r="W16" s="4"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V16" s="4"/>
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -2228,19 +2286,19 @@
         <v>217</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
+      <c r="K17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
@@ -2249,27 +2307,30 @@
         <v>0</v>
       </c>
       <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
         <v>800</v>
       </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="U17" s="4"/>
-      <c r="W17" s="4"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V17" s="4"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>210</v>
       </c>
@@ -2289,19 +2350,19 @@
         <v>218</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
+      <c r="K18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
@@ -2310,27 +2371,30 @@
         <v>0</v>
       </c>
       <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
         <v>800</v>
       </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="U18" s="4"/>
-      <c r="W18" s="4"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V18" s="4"/>
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>209</v>
       </c>
@@ -2344,25 +2408,25 @@
         <v>205</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K19" s="6">
-        <v>1</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
+      <c r="K19" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
@@ -2371,54 +2435,57 @@
         <v>0</v>
       </c>
       <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
         <v>800</v>
       </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="U19" s="4"/>
-      <c r="W19" s="4"/>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V19" s="4"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
-      <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R66" s="4"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
-      <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R67" s="4"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
-      <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R68" s="4"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
         <v>8</v>
       </c>
@@ -2431,38 +2498,38 @@
       <c r="E69" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K69" s="6">
-        <v>1</v>
-      </c>
-      <c r="L69" s="4">
-        <v>0</v>
+      <c r="L69" s="6">
+        <v>1</v>
       </c>
       <c r="M69" s="4">
         <v>0</v>
       </c>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4">
+      <c r="N69" s="4">
+        <v>0</v>
+      </c>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4">
         <v>600</v>
       </c>
-      <c r="P69" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="4" t="s">
+      <c r="Q69" s="4">
+        <v>0</v>
+      </c>
+      <c r="R69" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="R69" s="2" t="s">
+      <c r="S69" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="S69" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T69" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U69" s="4"/>
-      <c r="W69" s="4"/>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U69" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V69" s="4"/>
+      <c r="X69" s="4"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>9</v>
       </c>
@@ -2475,38 +2542,38 @@
       <c r="E70" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K70" s="6">
-        <v>1</v>
-      </c>
-      <c r="L70" s="4">
-        <v>0</v>
+      <c r="L70" s="6">
+        <v>1</v>
       </c>
       <c r="M70" s="4">
         <v>0</v>
       </c>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4">
+      <c r="N70" s="4">
+        <v>0</v>
+      </c>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4">
         <v>300</v>
       </c>
-      <c r="P70" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="4" t="s">
+      <c r="Q70" s="4">
+        <v>0</v>
+      </c>
+      <c r="R70" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R70" s="2" t="s">
+      <c r="S70" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="S70" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T70" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U70" s="4"/>
-      <c r="W70" s="4"/>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V70" s="4"/>
+      <c r="X70" s="4"/>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>10</v>
       </c>
@@ -2519,38 +2586,38 @@
       <c r="E71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K71" s="6">
-        <v>1</v>
-      </c>
-      <c r="L71" s="4">
-        <v>0</v>
+      <c r="L71" s="6">
+        <v>1</v>
       </c>
       <c r="M71" s="4">
         <v>0</v>
       </c>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4">
+      <c r="N71" s="4">
+        <v>0</v>
+      </c>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4">
         <v>300</v>
       </c>
-      <c r="P71" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="4" t="s">
+      <c r="Q71" s="4">
+        <v>0</v>
+      </c>
+      <c r="R71" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="R71" s="2" t="s">
+      <c r="S71" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="S71" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T71" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U71" s="4"/>
-      <c r="W71" s="4"/>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U71" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V71" s="4"/>
+      <c r="X71" s="4"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>11</v>
       </c>
@@ -2563,38 +2630,38 @@
       <c r="E72" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K72" s="6">
-        <v>1</v>
-      </c>
-      <c r="L72" s="4">
-        <v>0</v>
+      <c r="L72" s="6">
+        <v>1</v>
       </c>
       <c r="M72" s="4">
         <v>0</v>
       </c>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4">
+      <c r="N72" s="4">
+        <v>0</v>
+      </c>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4">
         <v>800</v>
       </c>
-      <c r="P72" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="4" t="s">
+      <c r="Q72" s="4">
+        <v>0</v>
+      </c>
+      <c r="R72" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="R72" s="2" t="s">
+      <c r="S72" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="S72" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T72" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U72" s="4"/>
-      <c r="W72" s="4"/>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U72" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V72" s="4"/>
+      <c r="X72" s="4"/>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>12</v>
       </c>
@@ -2607,38 +2674,38 @@
       <c r="E73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K73" s="6">
-        <v>1</v>
-      </c>
-      <c r="L73" s="4">
-        <v>0</v>
+      <c r="L73" s="6">
+        <v>1</v>
       </c>
       <c r="M73" s="4">
         <v>0</v>
       </c>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4">
+      <c r="N73" s="4">
+        <v>0</v>
+      </c>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4">
         <v>500</v>
       </c>
-      <c r="P73" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="4" t="s">
+      <c r="Q73" s="4">
+        <v>0</v>
+      </c>
+      <c r="R73" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="R73" s="2" t="s">
+      <c r="S73" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="S73" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T73" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U73" s="4"/>
-      <c r="W73" s="4"/>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U73" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V73" s="4"/>
+      <c r="X73" s="4"/>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>13</v>
       </c>
@@ -2651,38 +2718,38 @@
       <c r="E74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K74" s="6">
-        <v>1</v>
-      </c>
-      <c r="L74" s="4">
-        <v>0</v>
+      <c r="L74" s="6">
+        <v>1</v>
       </c>
       <c r="M74" s="4">
         <v>0</v>
       </c>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4">
+      <c r="N74" s="4">
+        <v>0</v>
+      </c>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4">
         <v>800</v>
       </c>
-      <c r="P74" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="4" t="s">
+      <c r="Q74" s="4">
+        <v>0</v>
+      </c>
+      <c r="R74" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="R74" s="2" t="s">
+      <c r="S74" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="S74" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T74" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U74" s="4"/>
-      <c r="W74" s="4"/>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U74" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V74" s="4"/>
+      <c r="X74" s="4"/>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
         <v>14</v>
       </c>
@@ -2695,38 +2762,38 @@
       <c r="E75" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K75" s="6">
-        <v>1</v>
-      </c>
-      <c r="L75" s="4">
-        <v>0</v>
+      <c r="L75" s="6">
+        <v>1</v>
       </c>
       <c r="M75" s="4">
         <v>0</v>
       </c>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4">
+      <c r="N75" s="4">
+        <v>0</v>
+      </c>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4">
         <v>1200</v>
       </c>
-      <c r="P75" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="4" t="s">
+      <c r="Q75" s="4">
+        <v>0</v>
+      </c>
+      <c r="R75" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R75" s="2" t="s">
+      <c r="S75" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="S75" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T75" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U75" s="4"/>
-      <c r="W75" s="4"/>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V75" s="4"/>
+      <c r="X75" s="4"/>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
         <v>15</v>
       </c>
@@ -2739,33 +2806,33 @@
       <c r="E76" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K76" s="6">
-        <v>1</v>
-      </c>
-      <c r="L76" s="4">
-        <v>0</v>
+      <c r="L76" s="6">
+        <v>1</v>
       </c>
       <c r="M76" s="4">
         <v>0</v>
       </c>
-      <c r="N76" s="4"/>
+      <c r="N76" s="4">
+        <v>0</v>
+      </c>
       <c r="O76" s="4"/>
-      <c r="P76" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="4" t="s">
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4">
+        <v>0</v>
+      </c>
+      <c r="R76" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S76" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T76" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U76" s="4"/>
-      <c r="W76" s="4"/>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U76" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V76" s="4"/>
+      <c r="X76" s="4"/>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
         <v>16</v>
       </c>
@@ -2778,33 +2845,33 @@
       <c r="E77" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K77" s="6">
-        <v>1</v>
-      </c>
-      <c r="L77" s="4">
-        <v>0</v>
+      <c r="L77" s="6">
+        <v>1</v>
       </c>
       <c r="M77" s="4">
         <v>0</v>
       </c>
-      <c r="N77" s="4"/>
+      <c r="N77" s="4">
+        <v>0</v>
+      </c>
       <c r="O77" s="4"/>
-      <c r="P77" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="4" t="s">
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4">
+        <v>0</v>
+      </c>
+      <c r="R77" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="S77" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T77" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U77" s="4"/>
-      <c r="W77" s="4"/>
-    </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U77" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V77" s="4"/>
+      <c r="X77" s="4"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
         <v>17</v>
       </c>
@@ -2817,38 +2884,38 @@
       <c r="E78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K78" s="6">
-        <v>1</v>
-      </c>
-      <c r="L78" s="4">
-        <v>0</v>
+      <c r="L78" s="6">
+        <v>1</v>
       </c>
       <c r="M78" s="4">
         <v>0</v>
       </c>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4">
+      <c r="N78" s="4">
+        <v>0</v>
+      </c>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4">
         <v>200</v>
       </c>
-      <c r="P78" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="4" t="s">
+      <c r="Q78" s="4">
+        <v>0</v>
+      </c>
+      <c r="R78" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="R78" s="2" t="s">
+      <c r="S78" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="S78" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T78" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U78" s="4"/>
-      <c r="W78" s="4"/>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U78" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V78" s="4"/>
+      <c r="X78" s="4"/>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B79" s="4">
         <v>18</v>
       </c>
@@ -2861,38 +2928,38 @@
       <c r="E79" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K79" s="6">
-        <v>1</v>
-      </c>
-      <c r="L79" s="4">
-        <v>0</v>
+      <c r="L79" s="6">
+        <v>1</v>
       </c>
       <c r="M79" s="4">
         <v>0</v>
       </c>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4">
+      <c r="N79" s="4">
+        <v>0</v>
+      </c>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4">
         <v>200</v>
       </c>
-      <c r="P79" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="4" t="s">
+      <c r="Q79" s="4">
+        <v>0</v>
+      </c>
+      <c r="R79" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R79" s="2" t="s">
+      <c r="S79" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="S79" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T79" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U79" s="4"/>
-      <c r="W79" s="4"/>
-    </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U79" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V79" s="4"/>
+      <c r="X79" s="4"/>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
         <v>19</v>
       </c>
@@ -2905,38 +2972,38 @@
       <c r="E80" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K80" s="6">
-        <v>1</v>
-      </c>
-      <c r="L80" s="4">
-        <v>0</v>
+      <c r="L80" s="6">
+        <v>1</v>
       </c>
       <c r="M80" s="4">
         <v>0</v>
       </c>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4">
+      <c r="N80" s="4">
+        <v>0</v>
+      </c>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4">
         <v>200</v>
       </c>
-      <c r="P80" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="4" t="s">
+      <c r="Q80" s="4">
+        <v>0</v>
+      </c>
+      <c r="R80" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R80" s="2" t="s">
+      <c r="S80" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U80" s="4"/>
-      <c r="W80" s="4"/>
-    </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U80" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V80" s="4"/>
+      <c r="X80" s="4"/>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
         <v>20</v>
       </c>
@@ -2949,38 +3016,38 @@
       <c r="E81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K81" s="6">
-        <v>1</v>
-      </c>
-      <c r="L81" s="4">
-        <v>0</v>
+      <c r="L81" s="6">
+        <v>1</v>
       </c>
       <c r="M81" s="4">
         <v>0</v>
       </c>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4">
+      <c r="N81" s="4">
+        <v>0</v>
+      </c>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4">
         <v>200</v>
       </c>
-      <c r="P81" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="4" t="s">
+      <c r="Q81" s="4">
+        <v>0</v>
+      </c>
+      <c r="R81" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="R81" s="2" t="s">
+      <c r="S81" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S81" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T81" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U81" s="4"/>
-      <c r="W81" s="4"/>
-    </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U81" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V81" s="4"/>
+      <c r="X81" s="4"/>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
         <v>21</v>
       </c>
@@ -2993,38 +3060,38 @@
       <c r="E82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K82" s="6">
-        <v>1</v>
-      </c>
-      <c r="L82" s="4">
-        <v>0</v>
+      <c r="L82" s="6">
+        <v>1</v>
       </c>
       <c r="M82" s="4">
         <v>0</v>
       </c>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4">
+      <c r="N82" s="4">
+        <v>0</v>
+      </c>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4">
         <v>200</v>
       </c>
-      <c r="P82" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="4" t="s">
+      <c r="Q82" s="4">
+        <v>0</v>
+      </c>
+      <c r="R82" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="R82" s="2" t="s">
+      <c r="S82" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="S82" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T82" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U82" s="4"/>
-      <c r="W82" s="4"/>
-    </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U82" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V82" s="4"/>
+      <c r="X82" s="4"/>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B83" s="4">
         <v>22</v>
       </c>
@@ -3037,38 +3104,38 @@
       <c r="E83" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K83" s="6">
-        <v>1</v>
-      </c>
-      <c r="L83" s="4">
-        <v>0</v>
+      <c r="L83" s="6">
+        <v>1</v>
       </c>
       <c r="M83" s="4">
         <v>0</v>
       </c>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4">
+      <c r="N83" s="4">
+        <v>0</v>
+      </c>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4">
         <v>200</v>
       </c>
-      <c r="P83" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="4" t="s">
+      <c r="Q83" s="4">
+        <v>0</v>
+      </c>
+      <c r="R83" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="R83" s="2" t="s">
+      <c r="S83" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="S83" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T83" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U83" s="4"/>
-      <c r="W83" s="4"/>
-    </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U83" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V83" s="4"/>
+      <c r="X83" s="4"/>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B84" s="4">
         <v>23</v>
       </c>
@@ -3081,38 +3148,38 @@
       <c r="E84" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K84" s="6">
-        <v>1</v>
-      </c>
-      <c r="L84" s="4">
-        <v>0</v>
+      <c r="L84" s="6">
+        <v>1</v>
       </c>
       <c r="M84" s="4">
         <v>0</v>
       </c>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4">
+      <c r="N84" s="4">
+        <v>0</v>
+      </c>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4">
         <v>200</v>
       </c>
-      <c r="P84" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="4" t="s">
+      <c r="Q84" s="4">
+        <v>0</v>
+      </c>
+      <c r="R84" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R84" s="2" t="s">
+      <c r="S84" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S84" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T84" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U84" s="4"/>
-      <c r="W84" s="4"/>
-    </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V84" s="4"/>
+      <c r="X84" s="4"/>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
         <v>24</v>
       </c>
@@ -3125,33 +3192,33 @@
       <c r="E85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K85" s="6">
-        <v>1</v>
-      </c>
-      <c r="L85" s="4">
-        <v>0</v>
+      <c r="L85" s="6">
+        <v>1</v>
       </c>
       <c r="M85" s="4">
         <v>0</v>
       </c>
-      <c r="N85" s="4"/>
+      <c r="N85" s="4">
+        <v>0</v>
+      </c>
       <c r="O85" s="4"/>
-      <c r="P85" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="4" t="s">
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4">
+        <v>0</v>
+      </c>
+      <c r="R85" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="S85" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T85" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U85" s="4"/>
-      <c r="W85" s="4"/>
-    </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U85" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V85" s="4"/>
+      <c r="X85" s="4"/>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
         <v>25</v>
       </c>
@@ -3164,33 +3231,33 @@
       <c r="E86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K86" s="6">
-        <v>1</v>
-      </c>
-      <c r="L86" s="4">
-        <v>0</v>
+      <c r="L86" s="6">
+        <v>1</v>
       </c>
       <c r="M86" s="4">
         <v>0</v>
       </c>
-      <c r="N86" s="4"/>
+      <c r="N86" s="4">
+        <v>0</v>
+      </c>
       <c r="O86" s="4"/>
-      <c r="P86" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="4" t="s">
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4">
+        <v>0</v>
+      </c>
+      <c r="R86" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="S86" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T86" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U86" s="4"/>
-      <c r="W86" s="4"/>
-    </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V86" s="4"/>
+      <c r="X86" s="4"/>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
         <v>26</v>
       </c>
@@ -3203,33 +3270,33 @@
       <c r="E87" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K87" s="6">
-        <v>1</v>
-      </c>
-      <c r="L87" s="4">
-        <v>0</v>
+      <c r="L87" s="6">
+        <v>1</v>
       </c>
       <c r="M87" s="4">
         <v>0</v>
       </c>
-      <c r="N87" s="4"/>
+      <c r="N87" s="4">
+        <v>0</v>
+      </c>
       <c r="O87" s="4"/>
-      <c r="P87" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="4" t="s">
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4">
+        <v>0</v>
+      </c>
+      <c r="R87" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="S87" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T87" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U87" s="4"/>
-      <c r="W87" s="4"/>
-    </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V87" s="4"/>
+      <c r="X87" s="4"/>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
         <v>27</v>
       </c>
@@ -3242,33 +3309,33 @@
       <c r="E88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K88" s="6">
-        <v>1</v>
-      </c>
-      <c r="L88" s="4">
-        <v>0</v>
+      <c r="L88" s="6">
+        <v>1</v>
       </c>
       <c r="M88" s="4">
         <v>0</v>
       </c>
-      <c r="N88" s="4"/>
+      <c r="N88" s="4">
+        <v>0</v>
+      </c>
       <c r="O88" s="4"/>
-      <c r="P88" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="4" t="s">
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4">
+        <v>0</v>
+      </c>
+      <c r="R88" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="S88" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T88" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U88" s="4"/>
-      <c r="W88" s="4"/>
-    </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V88" s="4"/>
+      <c r="X88" s="4"/>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
         <v>28</v>
       </c>
@@ -3281,33 +3348,33 @@
       <c r="E89" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K89" s="6">
-        <v>1</v>
-      </c>
-      <c r="L89" s="4">
-        <v>0</v>
+      <c r="L89" s="6">
+        <v>1</v>
       </c>
       <c r="M89" s="4">
         <v>0</v>
       </c>
-      <c r="N89" s="4"/>
+      <c r="N89" s="4">
+        <v>0</v>
+      </c>
       <c r="O89" s="4"/>
-      <c r="P89" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="4" t="s">
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4">
+        <v>0</v>
+      </c>
+      <c r="R89" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="S89" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T89" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U89" s="4"/>
-      <c r="W89" s="4"/>
-    </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U89" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V89" s="4"/>
+      <c r="X89" s="4"/>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
         <v>29</v>
       </c>
@@ -3320,33 +3387,33 @@
       <c r="E90" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K90" s="6">
-        <v>1</v>
-      </c>
-      <c r="L90" s="4">
-        <v>0</v>
+      <c r="L90" s="6">
+        <v>1</v>
       </c>
       <c r="M90" s="4">
         <v>0</v>
       </c>
-      <c r="N90" s="4"/>
+      <c r="N90" s="4">
+        <v>0</v>
+      </c>
       <c r="O90" s="4"/>
-      <c r="P90" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="4" t="s">
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4">
+        <v>0</v>
+      </c>
+      <c r="R90" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="S90" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T90" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U90" s="4"/>
-      <c r="W90" s="4"/>
-    </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U90" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V90" s="4"/>
+      <c r="X90" s="4"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B91" s="4">
         <v>30</v>
       </c>
@@ -3359,33 +3426,33 @@
       <c r="E91" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K91" s="6">
-        <v>1</v>
-      </c>
-      <c r="L91" s="4">
-        <v>0</v>
+      <c r="L91" s="6">
+        <v>1</v>
       </c>
       <c r="M91" s="4">
         <v>0</v>
       </c>
-      <c r="N91" s="4"/>
+      <c r="N91" s="4">
+        <v>0</v>
+      </c>
       <c r="O91" s="4"/>
-      <c r="P91" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="4" t="s">
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4">
+        <v>0</v>
+      </c>
+      <c r="R91" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="S91" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T91" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U91" s="4"/>
-      <c r="W91" s="4"/>
-    </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U91" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V91" s="4"/>
+      <c r="X91" s="4"/>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B92" s="4">
         <v>31</v>
       </c>
@@ -3398,35 +3465,35 @@
       <c r="E92" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K92" s="6">
-        <v>1</v>
-      </c>
-      <c r="L92" s="4">
-        <v>10</v>
+      <c r="L92" s="6">
+        <v>1</v>
       </c>
       <c r="M92" s="4">
         <v>10</v>
       </c>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4">
+      <c r="N92" s="4">
+        <v>10</v>
+      </c>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4">
         <v>1500</v>
       </c>
-      <c r="P92" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="4" t="s">
+      <c r="Q92" s="4">
+        <v>0</v>
+      </c>
+      <c r="R92" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S92" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="T92" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="U92" s="4"/>
-      <c r="W92" s="4"/>
-    </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U92" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="V92" s="4"/>
+      <c r="X92" s="4"/>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
         <v>32</v>
       </c>
@@ -3439,38 +3506,38 @@
       <c r="E93" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K93" s="6">
-        <v>1</v>
-      </c>
-      <c r="L93" s="4">
+      <c r="L93" s="6">
+        <v>1</v>
+      </c>
+      <c r="M93" s="4">
         <v>1000</v>
       </c>
-      <c r="M93" s="4">
-        <v>0</v>
-      </c>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4">
+      <c r="N93" s="4">
+        <v>0</v>
+      </c>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4">
         <v>200</v>
       </c>
-      <c r="P93" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="4" t="s">
+      <c r="Q93" s="4">
+        <v>0</v>
+      </c>
+      <c r="R93" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="R93" s="2" t="s">
+      <c r="S93" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="S93" s="2">
-        <v>362</v>
       </c>
       <c r="T93" s="2">
         <v>362</v>
       </c>
-      <c r="U93" s="4"/>
-      <c r="W93" s="4"/>
-    </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U93" s="2">
+        <v>362</v>
+      </c>
+      <c r="V93" s="4"/>
+      <c r="X93" s="4"/>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
         <v>33</v>
       </c>
@@ -3480,35 +3547,35 @@
       <c r="D94" s="4">
         <v>5</v>
       </c>
-      <c r="L94" s="4">
-        <v>0</v>
-      </c>
       <c r="M94" s="4">
+        <v>0</v>
+      </c>
+      <c r="N94" s="4">
         <v>10000</v>
       </c>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4">
+      <c r="O94" s="4"/>
+      <c r="P94" s="4">
         <v>200</v>
       </c>
-      <c r="P94" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="4" t="s">
+      <c r="Q94" s="4">
+        <v>0</v>
+      </c>
+      <c r="R94" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="R94" s="2" t="s">
+      <c r="S94" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="S94" s="2">
-        <v>376</v>
       </c>
       <c r="T94" s="2">
         <v>376</v>
       </c>
-      <c r="U94" s="4"/>
-      <c r="W94" s="4"/>
-    </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U94" s="2">
+        <v>376</v>
+      </c>
+      <c r="V94" s="4"/>
+      <c r="X94" s="4"/>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>34</v>
       </c>
@@ -3518,36 +3585,36 @@
       <c r="D95" s="4">
         <v>5</v>
       </c>
-      <c r="K95" s="6"/>
-      <c r="L95" s="4">
-        <v>0</v>
-      </c>
+      <c r="L95" s="6"/>
       <c r="M95" s="4">
         <v>0</v>
       </c>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4">
+      <c r="N95" s="4">
+        <v>0</v>
+      </c>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4">
         <v>300</v>
       </c>
-      <c r="P95" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="4" t="s">
+      <c r="Q95" s="4">
+        <v>0</v>
+      </c>
+      <c r="R95" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="R95" s="2" t="s">
+      <c r="S95" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="S95" s="2">
-        <v>360</v>
       </c>
       <c r="T95" s="2">
         <v>360</v>
       </c>
-      <c r="U95" s="4"/>
-      <c r="W95" s="4"/>
-    </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U95" s="2">
+        <v>360</v>
+      </c>
+      <c r="V95" s="4"/>
+      <c r="X95" s="4"/>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>35</v>
       </c>
@@ -3557,36 +3624,36 @@
       <c r="D96" s="4">
         <v>5</v>
       </c>
-      <c r="K96" s="6"/>
-      <c r="L96" s="4">
-        <v>0</v>
-      </c>
+      <c r="L96" s="6"/>
       <c r="M96" s="4">
+        <v>0</v>
+      </c>
+      <c r="N96" s="4">
         <v>1000</v>
       </c>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4">
+      <c r="O96" s="4"/>
+      <c r="P96" s="4">
         <v>300</v>
       </c>
-      <c r="P96" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="4" t="s">
+      <c r="Q96" s="4">
+        <v>0</v>
+      </c>
+      <c r="R96" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="R96" s="2" t="s">
+      <c r="S96" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="S96" s="2">
-        <v>364</v>
       </c>
       <c r="T96" s="2">
         <v>364</v>
       </c>
-      <c r="U96" s="4"/>
-      <c r="W96" s="4"/>
-    </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U96" s="2">
+        <v>364</v>
+      </c>
+      <c r="V96" s="4"/>
+      <c r="X96" s="4"/>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>36</v>
       </c>
@@ -3596,36 +3663,36 @@
       <c r="D97" s="4">
         <v>5</v>
       </c>
-      <c r="K97" s="6"/>
-      <c r="L97" s="4">
-        <v>1000</v>
-      </c>
+      <c r="L97" s="6"/>
       <c r="M97" s="4">
         <v>1000</v>
       </c>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4">
+      <c r="N97" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4">
         <v>300</v>
       </c>
-      <c r="P97" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="4" t="s">
+      <c r="Q97" s="4">
+        <v>0</v>
+      </c>
+      <c r="R97" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="R97" s="2" t="s">
+      <c r="S97" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="S97" s="2">
-        <v>370</v>
       </c>
       <c r="T97" s="2">
         <v>370</v>
       </c>
-      <c r="U97" s="4"/>
-      <c r="W97" s="4"/>
-    </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U97" s="2">
+        <v>370</v>
+      </c>
+      <c r="V97" s="4"/>
+      <c r="X97" s="4"/>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>37</v>
       </c>
@@ -3635,36 +3702,36 @@
       <c r="D98" s="4">
         <v>5</v>
       </c>
-      <c r="K98" s="6"/>
-      <c r="L98" s="4">
-        <v>1</v>
-      </c>
+      <c r="L98" s="6"/>
       <c r="M98" s="4">
         <v>1</v>
       </c>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4">
+      <c r="N98" s="4">
+        <v>1</v>
+      </c>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4">
         <v>300</v>
       </c>
-      <c r="P98" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="4" t="s">
+      <c r="Q98" s="4">
+        <v>0</v>
+      </c>
+      <c r="R98" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="R98" s="2" t="s">
+      <c r="S98" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="S98" s="2">
-        <v>368</v>
       </c>
       <c r="T98" s="2">
         <v>368</v>
       </c>
-      <c r="U98" s="4"/>
-      <c r="W98" s="4"/>
-    </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U98" s="2">
+        <v>368</v>
+      </c>
+      <c r="V98" s="4"/>
+      <c r="X98" s="4"/>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>38</v>
       </c>
@@ -3674,36 +3741,36 @@
       <c r="D99" s="4">
         <v>5</v>
       </c>
-      <c r="K99" s="6"/>
-      <c r="L99" s="4">
-        <v>1</v>
-      </c>
+      <c r="L99" s="6"/>
       <c r="M99" s="4">
         <v>1</v>
       </c>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4">
+      <c r="N99" s="4">
+        <v>1</v>
+      </c>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4">
         <v>300</v>
       </c>
-      <c r="P99" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="4" t="s">
+      <c r="Q99" s="4">
+        <v>0</v>
+      </c>
+      <c r="R99" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="R99" s="2" t="s">
+      <c r="S99" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="S99" s="2">
-        <v>380</v>
       </c>
       <c r="T99" s="2">
         <v>380</v>
       </c>
-      <c r="U99" s="4"/>
-      <c r="W99" s="4"/>
-    </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U99" s="2">
+        <v>380</v>
+      </c>
+      <c r="V99" s="4"/>
+      <c r="X99" s="4"/>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>39</v>
       </c>
@@ -3713,36 +3780,36 @@
       <c r="D100" s="4">
         <v>5</v>
       </c>
-      <c r="K100" s="6"/>
-      <c r="L100" s="4">
-        <v>1</v>
-      </c>
+      <c r="L100" s="6"/>
       <c r="M100" s="4">
         <v>1</v>
       </c>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4">
+      <c r="N100" s="4">
+        <v>1</v>
+      </c>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4">
         <v>400</v>
       </c>
-      <c r="P100" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="4" t="s">
+      <c r="Q100" s="4">
+        <v>0</v>
+      </c>
+      <c r="R100" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="R100" s="2" t="s">
+      <c r="S100" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="S100" s="2">
-        <v>378</v>
       </c>
       <c r="T100" s="2">
         <v>378</v>
       </c>
-      <c r="U100" s="4"/>
-      <c r="W100" s="4"/>
-    </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U100" s="2">
+        <v>378</v>
+      </c>
+      <c r="V100" s="4"/>
+      <c r="X100" s="4"/>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>40</v>
       </c>
@@ -3752,36 +3819,36 @@
       <c r="D101" s="4">
         <v>5</v>
       </c>
-      <c r="K101" s="6"/>
-      <c r="L101" s="4">
-        <v>1</v>
-      </c>
+      <c r="L101" s="6"/>
       <c r="M101" s="4">
         <v>1</v>
       </c>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4">
+      <c r="N101" s="4">
+        <v>1</v>
+      </c>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4">
         <v>400</v>
       </c>
-      <c r="P101" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="4" t="s">
+      <c r="Q101" s="4">
+        <v>0</v>
+      </c>
+      <c r="R101" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="R101" s="2" t="s">
+      <c r="S101" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="S101" s="2">
-        <v>366</v>
       </c>
       <c r="T101" s="2">
         <v>366</v>
       </c>
-      <c r="U101" s="4"/>
-      <c r="W101" s="4"/>
-    </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U101" s="2">
+        <v>366</v>
+      </c>
+      <c r="V101" s="4"/>
+      <c r="X101" s="4"/>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>41</v>
       </c>
@@ -3791,36 +3858,36 @@
       <c r="D102" s="4">
         <v>5</v>
       </c>
-      <c r="K102" s="6"/>
-      <c r="L102" s="4">
-        <v>1</v>
-      </c>
+      <c r="L102" s="6"/>
       <c r="M102" s="4">
         <v>1</v>
       </c>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4">
+      <c r="N102" s="4">
+        <v>1</v>
+      </c>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4">
         <v>200</v>
       </c>
-      <c r="P102" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="4" t="s">
+      <c r="Q102" s="4">
+        <v>0</v>
+      </c>
+      <c r="R102" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="R102" s="2" t="s">
+      <c r="S102" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="S102" s="2">
-        <v>406</v>
       </c>
       <c r="T102" s="2">
         <v>406</v>
       </c>
-      <c r="U102" s="4"/>
-      <c r="W102" s="4"/>
-    </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U102" s="2">
+        <v>406</v>
+      </c>
+      <c r="V102" s="4"/>
+      <c r="X102" s="4"/>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>42</v>
       </c>
@@ -3830,36 +3897,36 @@
       <c r="D103" s="4">
         <v>5</v>
       </c>
-      <c r="K103" s="6"/>
-      <c r="L103" s="4">
-        <v>1</v>
-      </c>
+      <c r="L103" s="6"/>
       <c r="M103" s="4">
         <v>1</v>
       </c>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4">
+      <c r="N103" s="4">
+        <v>1</v>
+      </c>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4">
         <v>200</v>
       </c>
-      <c r="P103" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="4" t="s">
+      <c r="Q103" s="4">
+        <v>0</v>
+      </c>
+      <c r="R103" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="R103" s="2" t="s">
+      <c r="S103" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="S103" s="2">
-        <v>408</v>
       </c>
       <c r="T103" s="2">
         <v>408</v>
       </c>
-      <c r="U103" s="4"/>
-      <c r="W103" s="4"/>
-    </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U103" s="2">
+        <v>408</v>
+      </c>
+      <c r="V103" s="4"/>
+      <c r="X103" s="4"/>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>43</v>
       </c>
@@ -3869,33 +3936,33 @@
       <c r="D104" s="4">
         <v>5</v>
       </c>
-      <c r="L104" s="4">
-        <v>1</v>
-      </c>
       <c r="M104" s="4">
         <v>1</v>
       </c>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4">
+      <c r="N104" s="4">
+        <v>1</v>
+      </c>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4">
         <v>200</v>
       </c>
-      <c r="P104" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="4" t="s">
+      <c r="Q104" s="4">
+        <v>0</v>
+      </c>
+      <c r="R104" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="R104" s="2" t="s">
+      <c r="S104" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="S104" s="2">
-        <v>410</v>
       </c>
       <c r="T104" s="2">
         <v>410</v>
       </c>
-    </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U104" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>44</v>
       </c>
@@ -3905,33 +3972,33 @@
       <c r="D105" s="4">
         <v>5</v>
       </c>
-      <c r="L105" s="4">
-        <v>1</v>
-      </c>
       <c r="M105" s="4">
         <v>1</v>
       </c>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4">
+      <c r="N105" s="4">
+        <v>1</v>
+      </c>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4">
         <v>200</v>
       </c>
-      <c r="P105" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="4" t="s">
+      <c r="Q105" s="4">
+        <v>0</v>
+      </c>
+      <c r="R105" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="R105" s="2" t="s">
+      <c r="S105" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="S105" s="2">
-        <v>412</v>
       </c>
       <c r="T105" s="2">
         <v>412</v>
       </c>
-    </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U105" s="2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>45</v>
       </c>
@@ -3941,33 +4008,33 @@
       <c r="D106" s="4">
         <v>5</v>
       </c>
-      <c r="L106" s="4">
-        <v>1</v>
-      </c>
       <c r="M106" s="4">
         <v>1</v>
       </c>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4">
+      <c r="N106" s="4">
+        <v>1</v>
+      </c>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4">
         <v>200</v>
       </c>
-      <c r="P106" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="4" t="s">
+      <c r="Q106" s="4">
+        <v>0</v>
+      </c>
+      <c r="R106" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="R106" s="2" t="s">
+      <c r="S106" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="S106" s="2">
-        <v>414</v>
       </c>
       <c r="T106" s="2">
         <v>414</v>
       </c>
-    </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U106" s="2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>46</v>
       </c>
@@ -3977,33 +4044,33 @@
       <c r="D107" s="4">
         <v>5</v>
       </c>
-      <c r="L107" s="4">
-        <v>1</v>
-      </c>
       <c r="M107" s="4">
         <v>1</v>
       </c>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4">
+      <c r="N107" s="4">
+        <v>1</v>
+      </c>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4">
         <v>200</v>
       </c>
-      <c r="P107" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="4" t="s">
+      <c r="Q107" s="4">
+        <v>0</v>
+      </c>
+      <c r="R107" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="R107" s="2" t="s">
+      <c r="S107" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="S107" s="2">
-        <v>416</v>
       </c>
       <c r="T107" s="2">
         <v>416</v>
       </c>
-    </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U107" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <v>47</v>
       </c>
@@ -4013,33 +4080,33 @@
       <c r="D108" s="4">
         <v>5</v>
       </c>
-      <c r="L108" s="4">
-        <v>240</v>
-      </c>
       <c r="M108" s="4">
         <v>240</v>
       </c>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4">
+      <c r="N108" s="4">
+        <v>240</v>
+      </c>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4">
         <v>400</v>
       </c>
-      <c r="P108" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="4" t="s">
+      <c r="Q108" s="4">
+        <v>0</v>
+      </c>
+      <c r="R108" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="R108" s="2" t="s">
+      <c r="S108" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="S108" s="2">
-        <v>418</v>
       </c>
       <c r="T108" s="2">
         <v>418</v>
       </c>
-    </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U108" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <v>48</v>
       </c>
@@ -4049,33 +4116,33 @@
       <c r="D109" s="4">
         <v>5</v>
       </c>
-      <c r="L109" s="4">
-        <v>180</v>
-      </c>
       <c r="M109" s="4">
         <v>180</v>
       </c>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4">
+      <c r="N109" s="4">
+        <v>180</v>
+      </c>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4">
         <v>400</v>
       </c>
-      <c r="P109" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="4" t="s">
+      <c r="Q109" s="4">
+        <v>0</v>
+      </c>
+      <c r="R109" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="R109" s="2" t="s">
+      <c r="S109" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="S109" s="2">
-        <v>420</v>
       </c>
       <c r="T109" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U109" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <v>49</v>
       </c>
@@ -4085,33 +4152,33 @@
       <c r="D110" s="4">
         <v>5</v>
       </c>
-      <c r="L110" s="4">
-        <v>100</v>
-      </c>
       <c r="M110" s="4">
         <v>100</v>
       </c>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4">
+      <c r="N110" s="4">
+        <v>100</v>
+      </c>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4">
         <v>50</v>
       </c>
-      <c r="P110" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="4" t="s">
+      <c r="Q110" s="4">
+        <v>0</v>
+      </c>
+      <c r="R110" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="R110" s="2" t="s">
+      <c r="S110" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="S110" s="2">
-        <v>422</v>
       </c>
       <c r="T110" s="2">
         <v>422</v>
       </c>
-    </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U110" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <v>50</v>
       </c>
@@ -4121,33 +4188,33 @@
       <c r="D111" s="4">
         <v>5</v>
       </c>
-      <c r="L111" s="4">
-        <v>1600</v>
-      </c>
       <c r="M111" s="4">
         <v>1600</v>
       </c>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4">
+      <c r="N111" s="4">
+        <v>1600</v>
+      </c>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4">
         <v>400</v>
       </c>
-      <c r="P111" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="4" t="s">
+      <c r="Q111" s="4">
+        <v>0</v>
+      </c>
+      <c r="R111" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="R111" s="2" t="s">
+      <c r="S111" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="S111" s="2">
-        <v>424</v>
       </c>
       <c r="T111" s="2">
         <v>424</v>
       </c>
-    </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U111" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <v>51</v>
       </c>
@@ -4157,30 +4224,30 @@
       <c r="D112" s="4">
         <v>5</v>
       </c>
-      <c r="L112" s="4">
-        <v>90</v>
-      </c>
       <c r="M112" s="4">
         <v>90</v>
       </c>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4">
+      <c r="N112" s="4">
+        <v>90</v>
+      </c>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4">
         <v>100</v>
       </c>
-      <c r="P112" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="4" t="s">
+      <c r="Q112" s="4">
+        <v>0</v>
+      </c>
+      <c r="R112" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="S112" s="2">
-        <v>426</v>
       </c>
       <c r="T112" s="2">
         <v>426</v>
       </c>
-    </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U112" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="113" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <v>52</v>
       </c>
@@ -4190,30 +4257,30 @@
       <c r="D113" s="4">
         <v>5</v>
       </c>
-      <c r="L113" s="4">
-        <v>120</v>
-      </c>
       <c r="M113" s="4">
         <v>120</v>
       </c>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4">
+      <c r="N113" s="4">
+        <v>120</v>
+      </c>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4">
         <v>100</v>
       </c>
-      <c r="P113" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="4" t="s">
+      <c r="Q113" s="4">
+        <v>0</v>
+      </c>
+      <c r="R113" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="S113" s="2">
-        <v>426</v>
       </c>
       <c r="T113" s="2">
         <v>426</v>
       </c>
-    </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U113" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="114" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <v>53</v>
       </c>
@@ -4223,30 +4290,30 @@
       <c r="D114" s="4">
         <v>5</v>
       </c>
-      <c r="L114" s="4">
-        <v>1200</v>
-      </c>
       <c r="M114" s="4">
         <v>1200</v>
       </c>
-      <c r="N114" s="4"/>
-      <c r="O114" s="4">
+      <c r="N114" s="4">
+        <v>1200</v>
+      </c>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4">
         <v>100</v>
       </c>
-      <c r="P114" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="4" t="s">
+      <c r="Q114" s="4">
+        <v>0</v>
+      </c>
+      <c r="R114" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="S114" s="2">
-        <v>428</v>
       </c>
       <c r="T114" s="2">
         <v>428</v>
       </c>
-    </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U114" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <v>54</v>
       </c>
@@ -4256,30 +4323,30 @@
       <c r="D115" s="4">
         <v>5</v>
       </c>
-      <c r="L115" s="4">
-        <v>1600</v>
-      </c>
       <c r="M115" s="4">
         <v>1600</v>
       </c>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4">
+      <c r="N115" s="4">
+        <v>1600</v>
+      </c>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4">
         <v>100</v>
       </c>
-      <c r="P115" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="4" t="s">
+      <c r="Q115" s="4">
+        <v>0</v>
+      </c>
+      <c r="R115" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="S115" s="2">
-        <v>428</v>
       </c>
       <c r="T115" s="2">
         <v>428</v>
       </c>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U115" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="116" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <v>55</v>
       </c>
@@ -4289,30 +4356,30 @@
       <c r="D116" s="4">
         <v>5</v>
       </c>
-      <c r="L116" s="4">
-        <v>1</v>
-      </c>
       <c r="M116" s="4">
         <v>1</v>
       </c>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4">
+      <c r="N116" s="4">
+        <v>1</v>
+      </c>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4">
         <v>100</v>
       </c>
-      <c r="P116" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q116" s="4" t="s">
+      <c r="Q116" s="4">
+        <v>0</v>
+      </c>
+      <c r="R116" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="S116" s="2">
-        <v>430</v>
       </c>
       <c r="T116" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U116" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="117" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <v>56</v>
       </c>
@@ -4322,30 +4389,30 @@
       <c r="D117" s="4">
         <v>5</v>
       </c>
-      <c r="L117" s="4">
-        <v>1</v>
-      </c>
       <c r="M117" s="4">
         <v>1</v>
       </c>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4">
+      <c r="N117" s="4">
+        <v>1</v>
+      </c>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4">
         <v>100</v>
       </c>
-      <c r="P117" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="4" t="s">
+      <c r="Q117" s="4">
+        <v>0</v>
+      </c>
+      <c r="R117" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="S117" s="2">
-        <v>430</v>
       </c>
       <c r="T117" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U117" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="118" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
         <v>57</v>
       </c>
@@ -4355,30 +4422,30 @@
       <c r="D118" s="4">
         <v>5</v>
       </c>
-      <c r="L118" s="4">
-        <v>1</v>
-      </c>
       <c r="M118" s="4">
         <v>1</v>
       </c>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4">
+      <c r="N118" s="4">
+        <v>1</v>
+      </c>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4">
         <v>100</v>
       </c>
-      <c r="P118" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="4" t="s">
+      <c r="Q118" s="4">
+        <v>0</v>
+      </c>
+      <c r="R118" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="S118" s="2">
-        <v>432</v>
       </c>
       <c r="T118" s="2">
         <v>432</v>
       </c>
-    </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U118" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="119" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B119" s="2">
         <v>58</v>
       </c>
@@ -4388,30 +4455,30 @@
       <c r="D119" s="4">
         <v>5</v>
       </c>
-      <c r="L119" s="4">
-        <v>1</v>
-      </c>
       <c r="M119" s="4">
         <v>1</v>
       </c>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4">
+      <c r="N119" s="4">
+        <v>1</v>
+      </c>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4">
         <v>100</v>
       </c>
-      <c r="P119" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="4" t="s">
+      <c r="Q119" s="4">
+        <v>0</v>
+      </c>
+      <c r="R119" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="S119" s="2">
-        <v>432</v>
       </c>
       <c r="T119" s="2">
         <v>432</v>
       </c>
-    </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U119" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="120" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B120" s="2">
         <v>59</v>
       </c>
@@ -4421,30 +4488,30 @@
       <c r="D120" s="4">
         <v>5</v>
       </c>
-      <c r="L120" s="4">
-        <v>1</v>
-      </c>
       <c r="M120" s="4">
         <v>1</v>
       </c>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4">
+      <c r="N120" s="4">
+        <v>1</v>
+      </c>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4">
         <v>100</v>
       </c>
-      <c r="P120" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="4" t="s">
+      <c r="Q120" s="4">
+        <v>0</v>
+      </c>
+      <c r="R120" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="S120" s="2">
-        <v>434</v>
       </c>
       <c r="T120" s="2">
         <v>434</v>
       </c>
-    </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U120" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="121" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B121" s="2">
         <v>60</v>
       </c>
@@ -4454,26 +4521,26 @@
       <c r="D121" s="4">
         <v>5</v>
       </c>
-      <c r="L121" s="4">
-        <v>1</v>
-      </c>
       <c r="M121" s="4">
         <v>1</v>
       </c>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4">
+      <c r="N121" s="4">
+        <v>1</v>
+      </c>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4">
         <v>100</v>
       </c>
-      <c r="P121" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="4" t="s">
+      <c r="Q121" s="4">
+        <v>0</v>
+      </c>
+      <c r="R121" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="S121" s="2">
+      <c r="T121" s="2">
         <v>434</v>
       </c>
-      <c r="T121" s="2">
+      <c r="U121" s="2">
         <v>434</v>
       </c>
     </row>

--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DDF0C0-DEBE-4D94-972F-A28B946A4F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B32A7D-9DD7-4EF4-BFA1-20C7AD7197A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{89166F7D-1A88-4585-8059-BAA7A0557A19}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{89166F7D-1A88-4585-8059-BAA7A0557A19}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="245">
   <si>
     <t>0</t>
   </si>
@@ -901,6 +901,14 @@
   </si>
   <si>
     <t>nextId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1083,17 +1091,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1406,33 +1404,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AA118"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="19.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17" style="2" customWidth="1"/>
-    <col min="15" max="16" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="71.875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="37.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="19.44140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17" style="2" customWidth="1"/>
+    <col min="16" max="17" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="71.88671875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1446,64 +1445,67 @@
       <c r="E1" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="W1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="7"/>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="7"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1511,8 +1513,8 @@
       <c r="C2" s="2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="2"/>
+      <c r="F2"/>
+      <c r="G2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1520,21 +1522,22 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2"/>
+      <c r="O2" s="2"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
-      <c r="U2" s="2"/>
+      <c r="U2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3" spans="1:28" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1550,64 +1553,67 @@
       <c r="E3" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="V3" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="W3" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="X3" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
-    </row>
-    <row r="4" spans="1:27" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB3" s="8"/>
+    </row>
+    <row r="4" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1623,14 +1629,14 @@
       <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>8</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>8</v>
@@ -1639,36 +1645,36 @@
         <v>8</v>
       </c>
       <c r="K4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>180</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="Q4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="T4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="V4" s="11" t="s">
@@ -1677,8 +1683,11 @@
       <c r="W4" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="X4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1689,52 +1698,55 @@
         <v>1</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="G5" s="2" t="s">
-        <v>0</v>
+      <c r="G5" s="4">
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="J5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N5" s="6">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4">
+      <c r="N5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
         <v>600</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <v>5600</v>
       </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
       <c r="R5" s="4">
         <v>0</v>
       </c>
       <c r="S5" s="4">
-        <v>1</v>
-      </c>
-      <c r="T5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y5" s="4"/>
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1746,52 +1758,55 @@
         <v>2</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="G6" s="2" t="s">
-        <v>0</v>
+      <c r="G6" s="4">
+        <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="J6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N6" s="6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="N6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
         <v>300</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <v>2800</v>
       </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
       <c r="R6" s="4">
         <v>0</v>
       </c>
       <c r="S6" s="4">
         <v>0</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y6" s="4"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -1802,55 +1817,58 @@
         <v>3</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="J7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="N7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
         <v>300</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="4">
         <v>2800</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <v>0.03</v>
       </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
       <c r="S7" s="4">
         <v>0</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y7" s="4"/>
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1863,16 +1881,16 @@
       <c r="E8" s="4">
         <v>13</v>
       </c>
-      <c r="F8" s="21" t="str">
+      <c r="F8" s="4" t="str">
         <f>VLOOKUP(E8,B8:C34,2,1)</f>
         <v>农田Lv.2</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1880,42 +1898,45 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
+      <c r="O8" s="6">
+        <v>1</v>
       </c>
       <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
         <v>1500</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <v>0.01</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>300</v>
       </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="X8" s="4"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y8" s="4"/>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -1928,16 +1949,16 @@
       <c r="E9" s="4">
         <v>14</v>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="F9" s="4" t="str">
         <f t="shared" ref="F9:F25" si="0">VLOOKUP(E9,B9:C35,2,1)</f>
         <v>市场Lv.2</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1945,42 +1966,45 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
         <v>100</v>
       </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
       <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
         <v>0.01</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>300</v>
       </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X9" s="4"/>
-      <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y9" s="4"/>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1993,16 +2017,16 @@
       <c r="E10" s="4">
         <v>15</v>
       </c>
-      <c r="F10" s="21" t="str">
+      <c r="F10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>村庄Lv.2</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I10" s="2" t="s">
         <v>1</v>
       </c>
@@ -2010,42 +2034,45 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N10" s="6">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
         <v>60</v>
       </c>
-      <c r="P10" s="4">
+      <c r="Q10" s="4">
         <v>900</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <v>0.2</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <v>300</v>
       </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="s">
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="X10" s="4"/>
-      <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y10" s="4"/>
+      <c r="AA10" s="4"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -2058,16 +2085,16 @@
       <c r="E11" s="4">
         <v>16</v>
       </c>
-      <c r="F11" s="21" t="str">
+      <c r="F11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>兵营Lv.2</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I11" s="2" t="s">
         <v>1</v>
       </c>
@@ -2075,19 +2102,19 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N11" s="6">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
+      <c r="O11" s="6">
+        <v>1</v>
       </c>
       <c r="P11" s="4">
         <v>0</v>
@@ -2096,21 +2123,24 @@
         <v>0</v>
       </c>
       <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
         <v>300</v>
       </c>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4" t="s">
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X11" s="4"/>
-      <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y11" s="4"/>
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2123,16 +2153,16 @@
       <c r="E12" s="4">
         <v>17</v>
       </c>
-      <c r="F12" s="21" t="str">
+      <c r="F12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>铁匠铺Lv.2</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2140,19 +2170,19 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N12" s="6">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
+      <c r="O12" s="6">
+        <v>1</v>
       </c>
       <c r="P12" s="4">
         <v>0</v>
@@ -2161,21 +2191,24 @@
         <v>0</v>
       </c>
       <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
         <v>300</v>
       </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4" t="s">
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X12" s="4"/>
-      <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y12" s="4"/>
+      <c r="AA12" s="4"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -2188,16 +2221,16 @@
       <c r="E13" s="4">
         <v>18</v>
       </c>
-      <c r="F13" s="21" t="str">
+      <c r="F13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>工坊Lv.2</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I13" s="2" t="s">
         <v>1</v>
       </c>
@@ -2205,19 +2238,19 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N13" s="6">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
+      <c r="O13" s="6">
+        <v>1</v>
       </c>
       <c r="P13" s="4">
         <v>0</v>
@@ -2226,21 +2259,24 @@
         <v>0</v>
       </c>
       <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
         <v>300</v>
       </c>
-      <c r="S13" s="4">
-        <v>0</v>
-      </c>
-      <c r="T13" s="4" t="s">
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X13" s="4"/>
-      <c r="Z13" s="4"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y13" s="4"/>
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2253,16 +2289,16 @@
       <c r="E14" s="4">
         <v>19</v>
       </c>
-      <c r="F14" s="21" t="str">
+      <c r="F14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>造船厂Lv.2</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I14" s="2" t="s">
         <v>1</v>
       </c>
@@ -2270,19 +2306,19 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N14" s="6">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
+      <c r="O14" s="6">
+        <v>1</v>
       </c>
       <c r="P14" s="4">
         <v>0</v>
@@ -2291,21 +2327,24 @@
         <v>0</v>
       </c>
       <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
         <v>300</v>
       </c>
-      <c r="S14" s="4">
-        <v>0</v>
-      </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X14" s="4"/>
-      <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y14" s="4"/>
+      <c r="AA14" s="4"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -2318,16 +2357,16 @@
       <c r="E15" s="4">
         <v>20</v>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>马厩Lv.2</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I15" s="2" t="s">
         <v>1</v>
       </c>
@@ -2335,19 +2374,19 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N15" s="6">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
+      <c r="O15" s="6">
+        <v>1</v>
       </c>
       <c r="P15" s="4">
         <v>0</v>
@@ -2356,21 +2395,24 @@
         <v>0</v>
       </c>
       <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
         <v>300</v>
       </c>
-      <c r="S15" s="4">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4" t="s">
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X15" s="4"/>
-      <c r="Z15" s="4"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y15" s="4"/>
+      <c r="AA15" s="4"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2383,16 +2425,16 @@
       <c r="E16" s="4">
         <v>21</v>
       </c>
-      <c r="F16" s="21" t="str">
+      <c r="F16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>巡查局Lv.2</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2400,19 +2442,19 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N16" s="6">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
+      <c r="O16" s="6">
+        <v>1</v>
       </c>
       <c r="P16" s="4">
         <v>0</v>
@@ -2421,21 +2463,24 @@
         <v>0</v>
       </c>
       <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
         <v>300</v>
       </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="V16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X16" s="4"/>
-      <c r="Z16" s="4"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y16" s="4"/>
+      <c r="AA16" s="4"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -2448,16 +2493,16 @@
       <c r="E17" s="4">
         <v>22</v>
       </c>
-      <c r="F17" s="21" t="str">
+      <c r="F17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>农田Lv.3</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2465,42 +2510,45 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N17" s="6">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
+      <c r="O17" s="6">
+        <v>1</v>
       </c>
       <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
         <v>1800</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>0.01</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>200</v>
       </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="V17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="X17" s="4"/>
-      <c r="Z17" s="4"/>
-    </row>
-    <row r="18" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y17" s="4"/>
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2513,16 +2561,16 @@
       <c r="E18" s="4">
         <v>23</v>
       </c>
-      <c r="F18" s="21" t="str">
+      <c r="F18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>市场Lv.3</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2530,42 +2578,45 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N18" s="6">
-        <v>1</v>
-      </c>
-      <c r="O18" s="4">
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
         <v>120</v>
       </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
       <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
         <v>0.01</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>300</v>
       </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4" t="s">
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="V18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X18" s="4"/>
-      <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y18" s="4"/>
+      <c r="AA18" s="4"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>15</v>
       </c>
@@ -2578,16 +2629,16 @@
       <c r="E19" s="4">
         <v>24</v>
       </c>
-      <c r="F19" s="21" t="str">
+      <c r="F19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>村庄Lv.3</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I19" s="2" t="s">
         <v>1</v>
       </c>
@@ -2595,42 +2646,45 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N19" s="6">
-        <v>1</v>
-      </c>
-      <c r="O19" s="4">
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4">
         <v>80</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <v>1200</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <v>0.2</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <v>300</v>
       </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4" t="s">
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="V19" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="X19" s="4"/>
-      <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y19" s="4"/>
+      <c r="AA19" s="4"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2643,16 +2697,16 @@
       <c r="E20" s="4">
         <v>25</v>
       </c>
-      <c r="F20" s="21" t="str">
+      <c r="F20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>兵营Lv.3</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I20" s="2" t="s">
         <v>1</v>
       </c>
@@ -2660,19 +2714,19 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N20" s="6">
-        <v>1</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
+      <c r="O20" s="6">
+        <v>1</v>
       </c>
       <c r="P20" s="4">
         <v>0</v>
@@ -2681,21 +2735,24 @@
         <v>0</v>
       </c>
       <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
         <v>300</v>
       </c>
-      <c r="S20" s="4">
-        <v>0</v>
-      </c>
-      <c r="T20" s="4" t="s">
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="V20" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X20" s="4"/>
-      <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y20" s="4"/>
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>17</v>
       </c>
@@ -2708,16 +2765,16 @@
       <c r="E21" s="4">
         <v>26</v>
       </c>
-      <c r="F21" s="21" t="str">
+      <c r="F21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>铁匠铺Lv.3</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I21" s="2" t="s">
         <v>1</v>
       </c>
@@ -2725,19 +2782,19 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N21" s="6">
-        <v>1</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
+      <c r="O21" s="6">
+        <v>1</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -2746,21 +2803,24 @@
         <v>0</v>
       </c>
       <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
         <v>300</v>
       </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4" t="s">
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="V21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X21" s="4"/>
-      <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y21" s="4"/>
+      <c r="AA21" s="4"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -2773,16 +2833,16 @@
       <c r="E22" s="4">
         <v>27</v>
       </c>
-      <c r="F22" s="21" t="str">
+      <c r="F22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>工坊Lv.3</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I22" s="2" t="s">
         <v>1</v>
       </c>
@@ -2790,19 +2850,19 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N22" s="6">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
+      <c r="O22" s="6">
+        <v>1</v>
       </c>
       <c r="P22" s="4">
         <v>0</v>
@@ -2811,21 +2871,24 @@
         <v>0</v>
       </c>
       <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
         <v>300</v>
       </c>
-      <c r="S22" s="4">
-        <v>0</v>
-      </c>
-      <c r="T22" s="4" t="s">
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="V22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X22" s="4"/>
-      <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y22" s="4"/>
+      <c r="AA22" s="4"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>19</v>
       </c>
@@ -2838,16 +2901,16 @@
       <c r="E23" s="4">
         <v>28</v>
       </c>
-      <c r="F23" s="21" t="str">
+      <c r="F23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>造船厂Lv.3</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I23" s="2" t="s">
         <v>1</v>
       </c>
@@ -2855,19 +2918,19 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N23" s="6">
-        <v>1</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0</v>
+      <c r="O23" s="6">
+        <v>1</v>
       </c>
       <c r="P23" s="4">
         <v>0</v>
@@ -2876,21 +2939,24 @@
         <v>0</v>
       </c>
       <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
         <v>300</v>
       </c>
-      <c r="S23" s="4">
-        <v>0</v>
-      </c>
-      <c r="T23" s="4" t="s">
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="V23" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X23" s="4"/>
-      <c r="Z23" s="4"/>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y23" s="4"/>
+      <c r="AA23" s="4"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -2903,16 +2969,16 @@
       <c r="E24" s="4">
         <v>29</v>
       </c>
-      <c r="F24" s="21" t="str">
+      <c r="F24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>马厩Lv.3</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="4">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2920,19 +2986,19 @@
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N24" s="6">
-        <v>1</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
+      <c r="O24" s="6">
+        <v>1</v>
       </c>
       <c r="P24" s="4">
         <v>0</v>
@@ -2941,21 +3007,24 @@
         <v>0</v>
       </c>
       <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
         <v>300</v>
       </c>
-      <c r="S24" s="4">
-        <v>0</v>
-      </c>
-      <c r="T24" s="4" t="s">
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="V24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X24" s="4"/>
-      <c r="Z24" s="4"/>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y24" s="4"/>
+      <c r="AA24" s="4"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>21</v>
       </c>
@@ -2968,16 +3037,16 @@
       <c r="E25" s="4">
         <v>30</v>
       </c>
-      <c r="F25" s="21" t="str">
+      <c r="F25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>巡查局Lv.3</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I25" s="2" t="s">
         <v>1</v>
       </c>
@@ -2985,19 +3054,19 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N25" s="6">
-        <v>1</v>
-      </c>
-      <c r="O25" s="4">
-        <v>0</v>
+      <c r="O25" s="6">
+        <v>1</v>
       </c>
       <c r="P25" s="4">
         <v>0</v>
@@ -3006,21 +3075,24 @@
         <v>0</v>
       </c>
       <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
         <v>300</v>
       </c>
-      <c r="S25" s="4">
-        <v>0</v>
-      </c>
-      <c r="T25" s="4" t="s">
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="V25" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X25" s="4"/>
-      <c r="Z25" s="4"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y25" s="4"/>
+      <c r="AA25" s="4"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -3031,12 +3103,12 @@
         <v>4</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="4">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I26" s="2" t="s">
         <v>1</v>
       </c>
@@ -3044,42 +3116,45 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N26" s="6">
-        <v>1</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0</v>
+      <c r="O26" s="6">
+        <v>1</v>
       </c>
       <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
         <v>2250</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="R26" s="4">
         <v>0.01</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <v>300</v>
       </c>
-      <c r="S26" s="4">
-        <v>0</v>
-      </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="V26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="X26" s="4"/>
-      <c r="Z26" s="4"/>
-    </row>
-    <row r="27" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y26" s="4"/>
+      <c r="AA26" s="4"/>
+    </row>
+    <row r="27" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>23</v>
       </c>
@@ -3090,12 +3165,12 @@
         <v>5</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I27" s="2" t="s">
         <v>1</v>
       </c>
@@ -3103,42 +3178,45 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N27" s="6">
-        <v>1</v>
-      </c>
-      <c r="O27" s="4">
+      <c r="O27" s="6">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4">
         <v>150</v>
       </c>
-      <c r="P27" s="4">
-        <v>0</v>
-      </c>
       <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
         <v>0.01</v>
       </c>
-      <c r="R27" s="4">
+      <c r="S27" s="4">
         <v>300</v>
       </c>
-      <c r="S27" s="4">
-        <v>0</v>
-      </c>
-      <c r="T27" s="4" t="s">
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="V27" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X27" s="4"/>
-      <c r="Z27" s="4"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y27" s="4"/>
+      <c r="AA27" s="4"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -3149,12 +3227,12 @@
         <v>6</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="4">
+        <v>3</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I28" s="2" t="s">
         <v>1</v>
       </c>
@@ -3162,42 +3240,45 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N28" s="6">
-        <v>1</v>
-      </c>
-      <c r="O28" s="4">
+      <c r="O28" s="6">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
         <v>100</v>
       </c>
-      <c r="P28" s="4">
+      <c r="Q28" s="4">
         <v>1500</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="R28" s="4">
         <v>0.2</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <v>300</v>
       </c>
-      <c r="S28" s="4">
-        <v>0</v>
-      </c>
-      <c r="T28" s="4" t="s">
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U28" s="2" t="s">
+      <c r="V28" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="X28" s="4"/>
-      <c r="Z28" s="4"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y28" s="4"/>
+      <c r="AA28" s="4"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>25</v>
       </c>
@@ -3208,12 +3289,12 @@
         <v>7</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="4">
+        <v>3</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I29" s="2" t="s">
         <v>1</v>
       </c>
@@ -3221,19 +3302,19 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N29" s="6">
-        <v>1</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0</v>
+      <c r="O29" s="6">
+        <v>1</v>
       </c>
       <c r="P29" s="4">
         <v>0</v>
@@ -3242,21 +3323,24 @@
         <v>0</v>
       </c>
       <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
         <v>300</v>
       </c>
-      <c r="S29" s="4">
-        <v>0</v>
-      </c>
-      <c r="T29" s="4" t="s">
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="V29" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X29" s="4"/>
-      <c r="Z29" s="4"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y29" s="4"/>
+      <c r="AA29" s="4"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -3267,12 +3351,12 @@
         <v>8</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I30" s="2" t="s">
         <v>1</v>
       </c>
@@ -3280,19 +3364,19 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N30" s="6">
-        <v>1</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
+      <c r="O30" s="6">
+        <v>1</v>
       </c>
       <c r="P30" s="4">
         <v>0</v>
@@ -3301,21 +3385,24 @@
         <v>0</v>
       </c>
       <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
         <v>300</v>
       </c>
-      <c r="S30" s="4">
-        <v>0</v>
-      </c>
-      <c r="T30" s="4" t="s">
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="V30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X30" s="4"/>
-      <c r="Z30" s="4"/>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y30" s="4"/>
+      <c r="AA30" s="4"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>27</v>
       </c>
@@ -3326,12 +3413,12 @@
         <v>9</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="4">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I31" s="2" t="s">
         <v>1</v>
       </c>
@@ -3339,19 +3426,19 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N31" s="6">
-        <v>1</v>
-      </c>
-      <c r="O31" s="4">
-        <v>0</v>
+      <c r="O31" s="6">
+        <v>1</v>
       </c>
       <c r="P31" s="4">
         <v>0</v>
@@ -3360,21 +3447,24 @@
         <v>0</v>
       </c>
       <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
         <v>300</v>
       </c>
-      <c r="S31" s="4">
-        <v>0</v>
-      </c>
-      <c r="T31" s="4" t="s">
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="V31" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X31" s="4"/>
-      <c r="Z31" s="4"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y31" s="4"/>
+      <c r="AA31" s="4"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -3385,12 +3475,12 @@
         <v>10</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="4">
+        <v>3</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I32" s="2" t="s">
         <v>1</v>
       </c>
@@ -3398,19 +3488,19 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N32" s="6">
-        <v>1</v>
-      </c>
-      <c r="O32" s="4">
-        <v>0</v>
+      <c r="O32" s="6">
+        <v>1</v>
       </c>
       <c r="P32" s="4">
         <v>0</v>
@@ -3419,21 +3509,24 @@
         <v>0</v>
       </c>
       <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
         <v>300</v>
       </c>
-      <c r="S32" s="4">
-        <v>0</v>
-      </c>
-      <c r="T32" s="4" t="s">
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="V32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X32" s="4"/>
-      <c r="Z32" s="4"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y32" s="4"/>
+      <c r="AA32" s="4"/>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>29</v>
       </c>
@@ -3444,12 +3537,12 @@
         <v>11</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="4">
+        <v>3</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I33" s="2" t="s">
         <v>1</v>
       </c>
@@ -3457,19 +3550,19 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N33" s="6">
-        <v>1</v>
-      </c>
-      <c r="O33" s="4">
-        <v>0</v>
+      <c r="O33" s="6">
+        <v>1</v>
       </c>
       <c r="P33" s="4">
         <v>0</v>
@@ -3478,21 +3571,24 @@
         <v>0</v>
       </c>
       <c r="R33" s="4">
+        <v>0</v>
+      </c>
+      <c r="S33" s="4">
         <v>300</v>
       </c>
-      <c r="S33" s="4">
-        <v>0</v>
-      </c>
-      <c r="T33" s="4" t="s">
+      <c r="T33" s="4">
+        <v>0</v>
+      </c>
+      <c r="U33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U33" s="2" t="s">
+      <c r="V33" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X33" s="4"/>
-      <c r="Z33" s="4"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y33" s="4"/>
+      <c r="AA33" s="4"/>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -3503,12 +3599,12 @@
         <v>12</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="4">
+        <v>3</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I34" s="2" t="s">
         <v>1</v>
       </c>
@@ -3516,19 +3612,19 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N34" s="6">
-        <v>1</v>
-      </c>
-      <c r="O34" s="4">
-        <v>0</v>
+      <c r="O34" s="6">
+        <v>1</v>
       </c>
       <c r="P34" s="4">
         <v>0</v>
@@ -3537,21 +3633,24 @@
         <v>0</v>
       </c>
       <c r="R34" s="4">
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
         <v>300</v>
       </c>
-      <c r="S34" s="4">
-        <v>0</v>
-      </c>
-      <c r="T34" s="4" t="s">
+      <c r="T34" s="4">
+        <v>0</v>
+      </c>
+      <c r="U34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U34" s="2" t="s">
+      <c r="V34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X34" s="4"/>
-      <c r="Z34" s="4"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y34" s="4"/>
+      <c r="AA34" s="4"/>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>31</v>
       </c>
@@ -3562,32 +3661,32 @@
         <v>13</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N35" s="6">
-        <v>1</v>
-      </c>
-      <c r="O35" s="4">
-        <v>0</v>
+      <c r="N35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O35" s="6">
+        <v>1</v>
       </c>
       <c r="P35" s="4">
         <v>0</v>
@@ -3596,27 +3695,30 @@
         <v>0</v>
       </c>
       <c r="R35" s="4">
+        <v>0</v>
+      </c>
+      <c r="S35" s="4">
         <v>800</v>
       </c>
-      <c r="S35" s="4">
-        <v>0</v>
-      </c>
-      <c r="T35" s="4" t="s">
+      <c r="T35" s="4">
+        <v>0</v>
+      </c>
+      <c r="U35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U35" s="2" t="s">
+      <c r="V35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V35" s="2" t="s">
+      <c r="W35" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="W35" s="2" t="s">
+      <c r="X35" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="X35" s="4"/>
-      <c r="Z35" s="4"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y35" s="4"/>
+      <c r="AA35" s="4"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -3627,32 +3729,32 @@
         <v>14</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="I36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N36" s="6">
-        <v>1</v>
-      </c>
-      <c r="O36" s="4">
-        <v>0</v>
+      <c r="N36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O36" s="6">
+        <v>1</v>
       </c>
       <c r="P36" s="4">
         <v>0</v>
@@ -3661,27 +3763,30 @@
         <v>0</v>
       </c>
       <c r="R36" s="4">
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
         <v>800</v>
       </c>
-      <c r="S36" s="4">
-        <v>0</v>
-      </c>
-      <c r="T36" s="4" t="s">
+      <c r="T36" s="4">
+        <v>0</v>
+      </c>
+      <c r="U36" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U36" s="2" t="s">
+      <c r="V36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V36" s="2" t="s">
+      <c r="W36" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="W36" s="2" t="s">
+      <c r="X36" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="X36" s="4"/>
-      <c r="Z36" s="4"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y36" s="4"/>
+      <c r="AA36" s="4"/>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>33</v>
       </c>
@@ -3692,32 +3797,32 @@
         <v>15</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="J37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N37" s="6">
-        <v>1</v>
-      </c>
-      <c r="O37" s="4">
-        <v>0</v>
+      <c r="N37" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O37" s="6">
+        <v>1</v>
       </c>
       <c r="P37" s="4">
         <v>0</v>
@@ -3726,57 +3831,60 @@
         <v>0</v>
       </c>
       <c r="R37" s="4">
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
         <v>800</v>
       </c>
-      <c r="S37" s="4">
-        <v>0</v>
-      </c>
-      <c r="T37" s="4" t="s">
+      <c r="T37" s="4">
+        <v>0</v>
+      </c>
+      <c r="U37" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U37" s="2" t="s">
+      <c r="V37" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="V37" s="2" t="s">
+      <c r="W37" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="W37" s="2" t="s">
+      <c r="X37" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X37" s="4"/>
-      <c r="Z37" s="4"/>
-    </row>
-    <row r="63" spans="4:20" x14ac:dyDescent="0.15">
+      <c r="Y37" s="4"/>
+      <c r="AA37" s="4"/>
+    </row>
+    <row r="63" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
-    </row>
-    <row r="64" spans="4:20" x14ac:dyDescent="0.15">
+      <c r="U63" s="4"/>
+    </row>
+    <row r="64" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="U64" s="4"/>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="U65" s="4"/>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
         <v>8</v>
       </c>
@@ -3787,41 +3895,41 @@
         <v>1</v>
       </c>
       <c r="E66" s="4"/>
-      <c r="G66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N66" s="6">
-        <v>1</v>
-      </c>
-      <c r="O66" s="4">
-        <v>0</v>
+      <c r="H66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
+        <v>1</v>
       </c>
       <c r="P66" s="4">
         <v>0</v>
       </c>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4">
+      <c r="Q66" s="4">
+        <v>0</v>
+      </c>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4">
         <v>600</v>
       </c>
-      <c r="S66" s="4">
-        <v>0</v>
-      </c>
-      <c r="T66" s="4" t="s">
+      <c r="T66" s="4">
+        <v>0</v>
+      </c>
+      <c r="U66" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="U66" s="2" t="s">
+      <c r="V66" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="V66" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W66" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X66" s="4"/>
-      <c r="Z66" s="4"/>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X66" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y66" s="4"/>
+      <c r="AA66" s="4"/>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
         <v>9</v>
       </c>
@@ -3832,41 +3940,41 @@
         <v>2</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="G67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N67" s="6">
-        <v>1</v>
-      </c>
-      <c r="O67" s="4">
-        <v>0</v>
+      <c r="H67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O67" s="6">
+        <v>1</v>
       </c>
       <c r="P67" s="4">
         <v>0</v>
       </c>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4">
+      <c r="Q67" s="4">
+        <v>0</v>
+      </c>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4">
         <v>300</v>
       </c>
-      <c r="S67" s="4">
-        <v>0</v>
-      </c>
-      <c r="T67" s="4" t="s">
+      <c r="T67" s="4">
+        <v>0</v>
+      </c>
+      <c r="U67" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="U67" s="2" t="s">
+      <c r="V67" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W67" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X67" s="4"/>
-      <c r="Z67" s="4"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X67" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y67" s="4"/>
+      <c r="AA67" s="4"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
         <v>10</v>
       </c>
@@ -3877,41 +3985,41 @@
         <v>2</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="G68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N68" s="6">
-        <v>1</v>
-      </c>
-      <c r="O68" s="4">
-        <v>0</v>
+      <c r="H68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O68" s="6">
+        <v>1</v>
       </c>
       <c r="P68" s="4">
         <v>0</v>
       </c>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4">
+      <c r="Q68" s="4">
+        <v>0</v>
+      </c>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4">
         <v>300</v>
       </c>
-      <c r="S68" s="4">
-        <v>0</v>
-      </c>
-      <c r="T68" s="4" t="s">
+      <c r="T68" s="4">
+        <v>0</v>
+      </c>
+      <c r="U68" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="U68" s="2" t="s">
+      <c r="V68" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="V68" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W68" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X68" s="4"/>
-      <c r="Z68" s="4"/>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X68" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y68" s="4"/>
+      <c r="AA68" s="4"/>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
         <v>11</v>
       </c>
@@ -3922,41 +4030,41 @@
         <v>1</v>
       </c>
       <c r="E69" s="4"/>
-      <c r="G69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N69" s="6">
-        <v>1</v>
-      </c>
-      <c r="O69" s="4">
-        <v>0</v>
+      <c r="H69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O69" s="6">
+        <v>1</v>
       </c>
       <c r="P69" s="4">
         <v>0</v>
       </c>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4">
+      <c r="Q69" s="4">
+        <v>0</v>
+      </c>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4">
         <v>800</v>
       </c>
-      <c r="S69" s="4">
-        <v>0</v>
-      </c>
-      <c r="T69" s="4" t="s">
+      <c r="T69" s="4">
+        <v>0</v>
+      </c>
+      <c r="U69" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="U69" s="2" t="s">
+      <c r="V69" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="V69" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W69" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X69" s="4"/>
-      <c r="Z69" s="4"/>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X69" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y69" s="4"/>
+      <c r="AA69" s="4"/>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>12</v>
       </c>
@@ -3967,41 +4075,41 @@
         <v>1</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="G70" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N70" s="6">
-        <v>1</v>
-      </c>
-      <c r="O70" s="4">
-        <v>0</v>
+      <c r="H70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O70" s="6">
+        <v>1</v>
       </c>
       <c r="P70" s="4">
         <v>0</v>
       </c>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4">
+      <c r="Q70" s="4">
+        <v>0</v>
+      </c>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4">
         <v>500</v>
       </c>
-      <c r="S70" s="4">
-        <v>0</v>
-      </c>
-      <c r="T70" s="4" t="s">
+      <c r="T70" s="4">
+        <v>0</v>
+      </c>
+      <c r="U70" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="U70" s="2" t="s">
+      <c r="V70" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="V70" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W70" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X70" s="4"/>
-      <c r="Z70" s="4"/>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y70" s="4"/>
+      <c r="AA70" s="4"/>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>13</v>
       </c>
@@ -4012,41 +4120,41 @@
         <v>1</v>
       </c>
       <c r="E71" s="4"/>
-      <c r="G71" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N71" s="6">
-        <v>1</v>
-      </c>
-      <c r="O71" s="4">
-        <v>0</v>
+      <c r="H71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O71" s="6">
+        <v>1</v>
       </c>
       <c r="P71" s="4">
         <v>0</v>
       </c>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4">
+      <c r="Q71" s="4">
+        <v>0</v>
+      </c>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4">
         <v>800</v>
       </c>
-      <c r="S71" s="4">
-        <v>0</v>
-      </c>
-      <c r="T71" s="4" t="s">
+      <c r="T71" s="4">
+        <v>0</v>
+      </c>
+      <c r="U71" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="U71" s="2" t="s">
+      <c r="V71" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="V71" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W71" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X71" s="4"/>
-      <c r="Z71" s="4"/>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X71" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y71" s="4"/>
+      <c r="AA71" s="4"/>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>14</v>
       </c>
@@ -4057,41 +4165,41 @@
         <v>1</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="G72" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N72" s="6">
-        <v>1</v>
-      </c>
-      <c r="O72" s="4">
-        <v>0</v>
+      <c r="H72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O72" s="6">
+        <v>1</v>
       </c>
       <c r="P72" s="4">
         <v>0</v>
       </c>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4">
+      <c r="Q72" s="4">
+        <v>0</v>
+      </c>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4">
         <v>1200</v>
       </c>
-      <c r="S72" s="4">
-        <v>0</v>
-      </c>
-      <c r="T72" s="4" t="s">
+      <c r="T72" s="4">
+        <v>0</v>
+      </c>
+      <c r="U72" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="U72" s="2" t="s">
+      <c r="V72" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="V72" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W72" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X72" s="4"/>
-      <c r="Z72" s="4"/>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X72" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y72" s="4"/>
+      <c r="AA72" s="4"/>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>15</v>
       </c>
@@ -4102,36 +4210,36 @@
         <v>1</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="G73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N73" s="6">
-        <v>1</v>
-      </c>
-      <c r="O73" s="4">
-        <v>0</v>
+      <c r="H73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O73" s="6">
+        <v>1</v>
       </c>
       <c r="P73" s="4">
         <v>0</v>
       </c>
-      <c r="Q73" s="4"/>
+      <c r="Q73" s="4">
+        <v>0</v>
+      </c>
       <c r="R73" s="4"/>
-      <c r="S73" s="4">
-        <v>0</v>
-      </c>
-      <c r="T73" s="4" t="s">
+      <c r="S73" s="4"/>
+      <c r="T73" s="4">
+        <v>0</v>
+      </c>
+      <c r="U73" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="V73" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W73" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X73" s="4"/>
-      <c r="Z73" s="4"/>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X73" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y73" s="4"/>
+      <c r="AA73" s="4"/>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>16</v>
       </c>
@@ -4142,36 +4250,36 @@
         <v>1</v>
       </c>
       <c r="E74" s="4"/>
-      <c r="G74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N74" s="6">
-        <v>1</v>
-      </c>
-      <c r="O74" s="4">
-        <v>0</v>
+      <c r="H74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O74" s="6">
+        <v>1</v>
       </c>
       <c r="P74" s="4">
         <v>0</v>
       </c>
-      <c r="Q74" s="4"/>
+      <c r="Q74" s="4">
+        <v>0</v>
+      </c>
       <c r="R74" s="4"/>
-      <c r="S74" s="4">
-        <v>0</v>
-      </c>
-      <c r="T74" s="4" t="s">
+      <c r="S74" s="4"/>
+      <c r="T74" s="4">
+        <v>0</v>
+      </c>
+      <c r="U74" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="V74" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W74" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X74" s="4"/>
-      <c r="Z74" s="4"/>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X74" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y74" s="4"/>
+      <c r="AA74" s="4"/>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
         <v>17</v>
       </c>
@@ -4182,41 +4290,41 @@
         <v>3</v>
       </c>
       <c r="E75" s="4"/>
-      <c r="G75" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N75" s="6">
-        <v>1</v>
-      </c>
-      <c r="O75" s="4">
-        <v>0</v>
+      <c r="H75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O75" s="6">
+        <v>1</v>
       </c>
       <c r="P75" s="4">
         <v>0</v>
       </c>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4">
+      <c r="Q75" s="4">
+        <v>0</v>
+      </c>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4">
         <v>200</v>
       </c>
-      <c r="S75" s="4">
-        <v>0</v>
-      </c>
-      <c r="T75" s="4" t="s">
+      <c r="T75" s="4">
+        <v>0</v>
+      </c>
+      <c r="U75" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="U75" s="2" t="s">
+      <c r="V75" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="V75" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W75" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X75" s="4"/>
-      <c r="Z75" s="4"/>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y75" s="4"/>
+      <c r="AA75" s="4"/>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
         <v>18</v>
       </c>
@@ -4227,41 +4335,41 @@
         <v>3</v>
       </c>
       <c r="E76" s="4"/>
-      <c r="G76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N76" s="6">
-        <v>1</v>
-      </c>
-      <c r="O76" s="4">
-        <v>0</v>
+      <c r="H76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O76" s="6">
+        <v>1</v>
       </c>
       <c r="P76" s="4">
         <v>0</v>
       </c>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4">
+      <c r="Q76" s="4">
+        <v>0</v>
+      </c>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4">
         <v>200</v>
       </c>
-      <c r="S76" s="4">
-        <v>0</v>
-      </c>
-      <c r="T76" s="4" t="s">
+      <c r="T76" s="4">
+        <v>0</v>
+      </c>
+      <c r="U76" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="U76" s="2" t="s">
+      <c r="V76" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="V76" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W76" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X76" s="4"/>
-      <c r="Z76" s="4"/>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X76" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y76" s="4"/>
+      <c r="AA76" s="4"/>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
         <v>19</v>
       </c>
@@ -4272,41 +4380,41 @@
         <v>3</v>
       </c>
       <c r="E77" s="4"/>
-      <c r="G77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N77" s="6">
-        <v>1</v>
-      </c>
-      <c r="O77" s="4">
-        <v>0</v>
+      <c r="H77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O77" s="6">
+        <v>1</v>
       </c>
       <c r="P77" s="4">
         <v>0</v>
       </c>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4">
+      <c r="Q77" s="4">
+        <v>0</v>
+      </c>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4">
         <v>200</v>
       </c>
-      <c r="S77" s="4">
-        <v>0</v>
-      </c>
-      <c r="T77" s="4" t="s">
+      <c r="T77" s="4">
+        <v>0</v>
+      </c>
+      <c r="U77" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="U77" s="2" t="s">
+      <c r="V77" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="V77" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W77" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X77" s="4"/>
-      <c r="Z77" s="4"/>
-    </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X77" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y77" s="4"/>
+      <c r="AA77" s="4"/>
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
         <v>20</v>
       </c>
@@ -4317,41 +4425,41 @@
         <v>3</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="G78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N78" s="6">
-        <v>1</v>
-      </c>
-      <c r="O78" s="4">
-        <v>0</v>
+      <c r="H78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O78" s="6">
+        <v>1</v>
       </c>
       <c r="P78" s="4">
         <v>0</v>
       </c>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4">
+      <c r="Q78" s="4">
+        <v>0</v>
+      </c>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4">
         <v>200</v>
       </c>
-      <c r="S78" s="4">
-        <v>0</v>
-      </c>
-      <c r="T78" s="4" t="s">
+      <c r="T78" s="4">
+        <v>0</v>
+      </c>
+      <c r="U78" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="U78" s="2" t="s">
+      <c r="V78" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W78" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X78" s="4"/>
-      <c r="Z78" s="4"/>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X78" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y78" s="4"/>
+      <c r="AA78" s="4"/>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B79" s="4">
         <v>21</v>
       </c>
@@ -4362,41 +4470,41 @@
         <v>3</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="G79" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N79" s="6">
-        <v>1</v>
-      </c>
-      <c r="O79" s="4">
-        <v>0</v>
+      <c r="H79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O79" s="6">
+        <v>1</v>
       </c>
       <c r="P79" s="4">
         <v>0</v>
       </c>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4">
+      <c r="Q79" s="4">
+        <v>0</v>
+      </c>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4">
         <v>200</v>
       </c>
-      <c r="S79" s="4">
-        <v>0</v>
-      </c>
-      <c r="T79" s="4" t="s">
+      <c r="T79" s="4">
+        <v>0</v>
+      </c>
+      <c r="U79" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="U79" s="2" t="s">
+      <c r="V79" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="V79" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W79" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X79" s="4"/>
-      <c r="Z79" s="4"/>
-    </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X79" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y79" s="4"/>
+      <c r="AA79" s="4"/>
+    </row>
+    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
         <v>22</v>
       </c>
@@ -4407,41 +4515,41 @@
         <v>3</v>
       </c>
       <c r="E80" s="4"/>
-      <c r="G80" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N80" s="6">
-        <v>1</v>
-      </c>
-      <c r="O80" s="4">
-        <v>0</v>
+      <c r="H80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O80" s="6">
+        <v>1</v>
       </c>
       <c r="P80" s="4">
         <v>0</v>
       </c>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4">
+      <c r="Q80" s="4">
+        <v>0</v>
+      </c>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4">
         <v>200</v>
       </c>
-      <c r="S80" s="4">
-        <v>0</v>
-      </c>
-      <c r="T80" s="4" t="s">
+      <c r="T80" s="4">
+        <v>0</v>
+      </c>
+      <c r="U80" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U80" s="2" t="s">
+      <c r="V80" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="V80" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X80" s="4"/>
-      <c r="Z80" s="4"/>
-    </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X80" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y80" s="4"/>
+      <c r="AA80" s="4"/>
+    </row>
+    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
         <v>23</v>
       </c>
@@ -4452,41 +4560,41 @@
         <v>3</v>
       </c>
       <c r="E81" s="4"/>
-      <c r="G81" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N81" s="6">
-        <v>1</v>
-      </c>
-      <c r="O81" s="4">
-        <v>0</v>
+      <c r="H81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O81" s="6">
+        <v>1</v>
       </c>
       <c r="P81" s="4">
         <v>0</v>
       </c>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4">
+      <c r="Q81" s="4">
+        <v>0</v>
+      </c>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4">
         <v>200</v>
       </c>
-      <c r="S81" s="4">
-        <v>0</v>
-      </c>
-      <c r="T81" s="4" t="s">
+      <c r="T81" s="4">
+        <v>0</v>
+      </c>
+      <c r="U81" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="U81" s="2" t="s">
+      <c r="V81" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="V81" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W81" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X81" s="4"/>
-      <c r="Z81" s="4"/>
-    </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X81" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y81" s="4"/>
+      <c r="AA81" s="4"/>
+    </row>
+    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
         <v>24</v>
       </c>
@@ -4497,36 +4605,36 @@
         <v>3</v>
       </c>
       <c r="E82" s="4"/>
-      <c r="G82" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N82" s="6">
-        <v>1</v>
-      </c>
-      <c r="O82" s="4">
-        <v>0</v>
+      <c r="H82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O82" s="6">
+        <v>1</v>
       </c>
       <c r="P82" s="4">
         <v>0</v>
       </c>
-      <c r="Q82" s="4"/>
+      <c r="Q82" s="4">
+        <v>0</v>
+      </c>
       <c r="R82" s="4"/>
-      <c r="S82" s="4">
-        <v>0</v>
-      </c>
-      <c r="T82" s="4" t="s">
+      <c r="S82" s="4"/>
+      <c r="T82" s="4">
+        <v>0</v>
+      </c>
+      <c r="U82" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="V82" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W82" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X82" s="4"/>
-      <c r="Z82" s="4"/>
-    </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X82" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y82" s="4"/>
+      <c r="AA82" s="4"/>
+    </row>
+    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B83" s="4">
         <v>25</v>
       </c>
@@ -4537,36 +4645,36 @@
         <v>3</v>
       </c>
       <c r="E83" s="4"/>
-      <c r="G83" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N83" s="6">
-        <v>1</v>
-      </c>
-      <c r="O83" s="4">
-        <v>0</v>
+      <c r="H83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O83" s="6">
+        <v>1</v>
       </c>
       <c r="P83" s="4">
         <v>0</v>
       </c>
-      <c r="Q83" s="4"/>
+      <c r="Q83" s="4">
+        <v>0</v>
+      </c>
       <c r="R83" s="4"/>
-      <c r="S83" s="4">
-        <v>0</v>
-      </c>
-      <c r="T83" s="4" t="s">
+      <c r="S83" s="4"/>
+      <c r="T83" s="4">
+        <v>0</v>
+      </c>
+      <c r="U83" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="V83" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W83" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X83" s="4"/>
-      <c r="Z83" s="4"/>
-    </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X83" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y83" s="4"/>
+      <c r="AA83" s="4"/>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B84" s="4">
         <v>26</v>
       </c>
@@ -4577,36 +4685,36 @@
         <v>3</v>
       </c>
       <c r="E84" s="4"/>
-      <c r="G84" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N84" s="6">
-        <v>1</v>
-      </c>
-      <c r="O84" s="4">
-        <v>0</v>
+      <c r="H84" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O84" s="6">
+        <v>1</v>
       </c>
       <c r="P84" s="4">
         <v>0</v>
       </c>
-      <c r="Q84" s="4"/>
+      <c r="Q84" s="4">
+        <v>0</v>
+      </c>
       <c r="R84" s="4"/>
-      <c r="S84" s="4">
-        <v>0</v>
-      </c>
-      <c r="T84" s="4" t="s">
+      <c r="S84" s="4"/>
+      <c r="T84" s="4">
+        <v>0</v>
+      </c>
+      <c r="U84" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="V84" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W84" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X84" s="4"/>
-      <c r="Z84" s="4"/>
-    </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y84" s="4"/>
+      <c r="AA84" s="4"/>
+    </row>
+    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
         <v>27</v>
       </c>
@@ -4617,36 +4725,36 @@
         <v>2</v>
       </c>
       <c r="E85" s="4"/>
-      <c r="G85" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N85" s="6">
-        <v>1</v>
-      </c>
-      <c r="O85" s="4">
-        <v>0</v>
+      <c r="H85" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O85" s="6">
+        <v>1</v>
       </c>
       <c r="P85" s="4">
         <v>0</v>
       </c>
-      <c r="Q85" s="4"/>
+      <c r="Q85" s="4">
+        <v>0</v>
+      </c>
       <c r="R85" s="4"/>
-      <c r="S85" s="4">
-        <v>0</v>
-      </c>
-      <c r="T85" s="4" t="s">
+      <c r="S85" s="4"/>
+      <c r="T85" s="4">
+        <v>0</v>
+      </c>
+      <c r="U85" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="V85" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W85" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X85" s="4"/>
-      <c r="Z85" s="4"/>
-    </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X85" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y85" s="4"/>
+      <c r="AA85" s="4"/>
+    </row>
+    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
         <v>28</v>
       </c>
@@ -4657,36 +4765,36 @@
         <v>2</v>
       </c>
       <c r="E86" s="4"/>
-      <c r="G86" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N86" s="6">
-        <v>1</v>
-      </c>
-      <c r="O86" s="4">
-        <v>0</v>
+      <c r="H86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O86" s="6">
+        <v>1</v>
       </c>
       <c r="P86" s="4">
         <v>0</v>
       </c>
-      <c r="Q86" s="4"/>
+      <c r="Q86" s="4">
+        <v>0</v>
+      </c>
       <c r="R86" s="4"/>
-      <c r="S86" s="4">
-        <v>0</v>
-      </c>
-      <c r="T86" s="4" t="s">
+      <c r="S86" s="4"/>
+      <c r="T86" s="4">
+        <v>0</v>
+      </c>
+      <c r="U86" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="V86" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W86" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X86" s="4"/>
-      <c r="Z86" s="4"/>
-    </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y86" s="4"/>
+      <c r="AA86" s="4"/>
+    </row>
+    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
         <v>29</v>
       </c>
@@ -4697,36 +4805,36 @@
         <v>2</v>
       </c>
       <c r="E87" s="4"/>
-      <c r="G87" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N87" s="6">
-        <v>1</v>
-      </c>
-      <c r="O87" s="4">
-        <v>0</v>
+      <c r="H87" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O87" s="6">
+        <v>1</v>
       </c>
       <c r="P87" s="4">
         <v>0</v>
       </c>
-      <c r="Q87" s="4"/>
+      <c r="Q87" s="4">
+        <v>0</v>
+      </c>
       <c r="R87" s="4"/>
-      <c r="S87" s="4">
-        <v>0</v>
-      </c>
-      <c r="T87" s="4" t="s">
+      <c r="S87" s="4"/>
+      <c r="T87" s="4">
+        <v>0</v>
+      </c>
+      <c r="U87" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="V87" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W87" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X87" s="4"/>
-      <c r="Z87" s="4"/>
-    </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y87" s="4"/>
+      <c r="AA87" s="4"/>
+    </row>
+    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
         <v>30</v>
       </c>
@@ -4737,36 +4845,36 @@
         <v>2</v>
       </c>
       <c r="E88" s="4"/>
-      <c r="G88" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N88" s="6">
-        <v>1</v>
-      </c>
-      <c r="O88" s="4">
-        <v>0</v>
+      <c r="H88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O88" s="6">
+        <v>1</v>
       </c>
       <c r="P88" s="4">
         <v>0</v>
       </c>
-      <c r="Q88" s="4"/>
+      <c r="Q88" s="4">
+        <v>0</v>
+      </c>
       <c r="R88" s="4"/>
-      <c r="S88" s="4">
-        <v>0</v>
-      </c>
-      <c r="T88" s="4" t="s">
+      <c r="S88" s="4"/>
+      <c r="T88" s="4">
+        <v>0</v>
+      </c>
+      <c r="U88" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="V88" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W88" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X88" s="4"/>
-      <c r="Z88" s="4"/>
-    </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y88" s="4"/>
+      <c r="AA88" s="4"/>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
         <v>31</v>
       </c>
@@ -4777,38 +4885,38 @@
         <v>5</v>
       </c>
       <c r="E89" s="4"/>
-      <c r="G89" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N89" s="6">
-        <v>1</v>
-      </c>
-      <c r="O89" s="4">
-        <v>10</v>
+      <c r="H89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O89" s="6">
+        <v>1</v>
       </c>
       <c r="P89" s="4">
         <v>10</v>
       </c>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4">
+      <c r="Q89" s="4">
+        <v>10</v>
+      </c>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4">
         <v>1500</v>
       </c>
-      <c r="S89" s="4">
-        <v>0</v>
-      </c>
-      <c r="T89" s="4" t="s">
+      <c r="T89" s="4">
+        <v>0</v>
+      </c>
+      <c r="U89" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="V89" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="W89" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X89" s="4"/>
-      <c r="Z89" s="4"/>
-    </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X89" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y89" s="4"/>
+      <c r="AA89" s="4"/>
+    </row>
+    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
         <v>32</v>
       </c>
@@ -4819,41 +4927,41 @@
         <v>5</v>
       </c>
       <c r="E90" s="4"/>
-      <c r="G90" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N90" s="6">
-        <v>1</v>
-      </c>
-      <c r="O90" s="4">
+      <c r="H90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O90" s="6">
+        <v>1</v>
+      </c>
+      <c r="P90" s="4">
         <v>1000</v>
       </c>
-      <c r="P90" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4">
+      <c r="Q90" s="4">
+        <v>0</v>
+      </c>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4">
         <v>200</v>
       </c>
-      <c r="S90" s="4">
-        <v>0</v>
-      </c>
-      <c r="T90" s="4" t="s">
+      <c r="T90" s="4">
+        <v>0</v>
+      </c>
+      <c r="U90" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="U90" s="2" t="s">
+      <c r="V90" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="V90" s="2">
-        <v>362</v>
       </c>
       <c r="W90" s="2">
         <v>362</v>
       </c>
-      <c r="X90" s="4"/>
-      <c r="Z90" s="4"/>
-    </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X90" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y90" s="4"/>
+      <c r="AA90" s="4"/>
+    </row>
+    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B91" s="4">
         <v>33</v>
       </c>
@@ -4864,35 +4972,35 @@
         <v>5</v>
       </c>
       <c r="E91" s="4"/>
-      <c r="O91" s="4">
-        <v>0</v>
-      </c>
       <c r="P91" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="4">
         <v>10000</v>
       </c>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4">
+      <c r="R91" s="4"/>
+      <c r="S91" s="4">
         <v>200</v>
       </c>
-      <c r="S91" s="4">
-        <v>0</v>
-      </c>
-      <c r="T91" s="4" t="s">
+      <c r="T91" s="4">
+        <v>0</v>
+      </c>
+      <c r="U91" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="U91" s="2" t="s">
+      <c r="V91" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="V91" s="2">
-        <v>376</v>
       </c>
       <c r="W91" s="2">
         <v>376</v>
       </c>
-      <c r="X91" s="4"/>
-      <c r="Z91" s="4"/>
-    </row>
-    <row r="92" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X91" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y91" s="4"/>
+      <c r="AA91" s="4"/>
+    </row>
+    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <v>34</v>
       </c>
@@ -4903,36 +5011,36 @@
         <v>5</v>
       </c>
       <c r="E92" s="4"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="4">
-        <v>0</v>
-      </c>
+      <c r="O92" s="6"/>
       <c r="P92" s="4">
         <v>0</v>
       </c>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4">
+      <c r="Q92" s="4">
+        <v>0</v>
+      </c>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4">
         <v>300</v>
       </c>
-      <c r="S92" s="4">
-        <v>0</v>
-      </c>
-      <c r="T92" s="4" t="s">
+      <c r="T92" s="4">
+        <v>0</v>
+      </c>
+      <c r="U92" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="U92" s="2" t="s">
+      <c r="V92" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="V92" s="2">
-        <v>360</v>
       </c>
       <c r="W92" s="2">
         <v>360</v>
       </c>
-      <c r="X92" s="4"/>
-      <c r="Z92" s="4"/>
-    </row>
-    <row r="93" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X92" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y92" s="4"/>
+      <c r="AA92" s="4"/>
+    </row>
+    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <v>35</v>
       </c>
@@ -4943,36 +5051,36 @@
         <v>5</v>
       </c>
       <c r="E93" s="4"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="4">
-        <v>0</v>
-      </c>
+      <c r="O93" s="6"/>
       <c r="P93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="4">
         <v>1000</v>
       </c>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4">
+      <c r="R93" s="4"/>
+      <c r="S93" s="4">
         <v>300</v>
       </c>
-      <c r="S93" s="4">
-        <v>0</v>
-      </c>
-      <c r="T93" s="4" t="s">
+      <c r="T93" s="4">
+        <v>0</v>
+      </c>
+      <c r="U93" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="U93" s="2" t="s">
+      <c r="V93" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="V93" s="2">
-        <v>364</v>
       </c>
       <c r="W93" s="2">
         <v>364</v>
       </c>
-      <c r="X93" s="4"/>
-      <c r="Z93" s="4"/>
-    </row>
-    <row r="94" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X93" s="2">
+        <v>364</v>
+      </c>
+      <c r="Y93" s="4"/>
+      <c r="AA93" s="4"/>
+    </row>
+    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <v>36</v>
       </c>
@@ -4983,36 +5091,36 @@
         <v>5</v>
       </c>
       <c r="E94" s="4"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="4">
-        <v>1000</v>
-      </c>
+      <c r="O94" s="6"/>
       <c r="P94" s="4">
         <v>1000</v>
       </c>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4">
+      <c r="Q94" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4">
         <v>300</v>
       </c>
-      <c r="S94" s="4">
-        <v>0</v>
-      </c>
-      <c r="T94" s="4" t="s">
+      <c r="T94" s="4">
+        <v>0</v>
+      </c>
+      <c r="U94" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="U94" s="2" t="s">
+      <c r="V94" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="V94" s="2">
-        <v>370</v>
       </c>
       <c r="W94" s="2">
         <v>370</v>
       </c>
-      <c r="X94" s="4"/>
-      <c r="Z94" s="4"/>
-    </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X94" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y94" s="4"/>
+      <c r="AA94" s="4"/>
+    </row>
+    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>37</v>
       </c>
@@ -5023,36 +5131,36 @@
         <v>5</v>
       </c>
       <c r="E95" s="4"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="4">
-        <v>1</v>
-      </c>
+      <c r="O95" s="6"/>
       <c r="P95" s="4">
         <v>1</v>
       </c>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4">
+      <c r="Q95" s="4">
+        <v>1</v>
+      </c>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4">
         <v>300</v>
       </c>
-      <c r="S95" s="4">
-        <v>0</v>
-      </c>
-      <c r="T95" s="4" t="s">
+      <c r="T95" s="4">
+        <v>0</v>
+      </c>
+      <c r="U95" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="U95" s="2" t="s">
+      <c r="V95" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="V95" s="2">
-        <v>368</v>
       </c>
       <c r="W95" s="2">
         <v>368</v>
       </c>
-      <c r="X95" s="4"/>
-      <c r="Z95" s="4"/>
-    </row>
-    <row r="96" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X95" s="2">
+        <v>368</v>
+      </c>
+      <c r="Y95" s="4"/>
+      <c r="AA95" s="4"/>
+    </row>
+    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>38</v>
       </c>
@@ -5063,36 +5171,36 @@
         <v>5</v>
       </c>
       <c r="E96" s="4"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="4">
-        <v>1</v>
-      </c>
+      <c r="O96" s="6"/>
       <c r="P96" s="4">
         <v>1</v>
       </c>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4">
+      <c r="Q96" s="4">
+        <v>1</v>
+      </c>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4">
         <v>300</v>
       </c>
-      <c r="S96" s="4">
-        <v>0</v>
-      </c>
-      <c r="T96" s="4" t="s">
+      <c r="T96" s="4">
+        <v>0</v>
+      </c>
+      <c r="U96" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="U96" s="2" t="s">
+      <c r="V96" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="V96" s="2">
-        <v>380</v>
       </c>
       <c r="W96" s="2">
         <v>380</v>
       </c>
-      <c r="X96" s="4"/>
-      <c r="Z96" s="4"/>
-    </row>
-    <row r="97" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X96" s="2">
+        <v>380</v>
+      </c>
+      <c r="Y96" s="4"/>
+      <c r="AA96" s="4"/>
+    </row>
+    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>39</v>
       </c>
@@ -5103,36 +5211,36 @@
         <v>5</v>
       </c>
       <c r="E97" s="4"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="4">
-        <v>1</v>
-      </c>
+      <c r="O97" s="6"/>
       <c r="P97" s="4">
         <v>1</v>
       </c>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4">
+      <c r="Q97" s="4">
+        <v>1</v>
+      </c>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4">
         <v>400</v>
       </c>
-      <c r="S97" s="4">
-        <v>0</v>
-      </c>
-      <c r="T97" s="4" t="s">
+      <c r="T97" s="4">
+        <v>0</v>
+      </c>
+      <c r="U97" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="U97" s="2" t="s">
+      <c r="V97" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="V97" s="2">
-        <v>378</v>
       </c>
       <c r="W97" s="2">
         <v>378</v>
       </c>
-      <c r="X97" s="4"/>
-      <c r="Z97" s="4"/>
-    </row>
-    <row r="98" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X97" s="2">
+        <v>378</v>
+      </c>
+      <c r="Y97" s="4"/>
+      <c r="AA97" s="4"/>
+    </row>
+    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>40</v>
       </c>
@@ -5143,36 +5251,36 @@
         <v>5</v>
       </c>
       <c r="E98" s="4"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="4">
-        <v>1</v>
-      </c>
+      <c r="O98" s="6"/>
       <c r="P98" s="4">
         <v>1</v>
       </c>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4">
+      <c r="Q98" s="4">
+        <v>1</v>
+      </c>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4">
         <v>400</v>
       </c>
-      <c r="S98" s="4">
-        <v>0</v>
-      </c>
-      <c r="T98" s="4" t="s">
+      <c r="T98" s="4">
+        <v>0</v>
+      </c>
+      <c r="U98" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="U98" s="2" t="s">
+      <c r="V98" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="V98" s="2">
-        <v>366</v>
       </c>
       <c r="W98" s="2">
         <v>366</v>
       </c>
-      <c r="X98" s="4"/>
-      <c r="Z98" s="4"/>
-    </row>
-    <row r="99" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X98" s="2">
+        <v>366</v>
+      </c>
+      <c r="Y98" s="4"/>
+      <c r="AA98" s="4"/>
+    </row>
+    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>41</v>
       </c>
@@ -5183,36 +5291,36 @@
         <v>5</v>
       </c>
       <c r="E99" s="4"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="4">
-        <v>1</v>
-      </c>
+      <c r="O99" s="6"/>
       <c r="P99" s="4">
         <v>1</v>
       </c>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4">
+      <c r="Q99" s="4">
+        <v>1</v>
+      </c>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4">
         <v>200</v>
       </c>
-      <c r="S99" s="4">
-        <v>0</v>
-      </c>
-      <c r="T99" s="4" t="s">
+      <c r="T99" s="4">
+        <v>0</v>
+      </c>
+      <c r="U99" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="U99" s="2" t="s">
+      <c r="V99" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="V99" s="2">
-        <v>406</v>
       </c>
       <c r="W99" s="2">
         <v>406</v>
       </c>
-      <c r="X99" s="4"/>
-      <c r="Z99" s="4"/>
-    </row>
-    <row r="100" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X99" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y99" s="4"/>
+      <c r="AA99" s="4"/>
+    </row>
+    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>42</v>
       </c>
@@ -5223,36 +5331,36 @@
         <v>5</v>
       </c>
       <c r="E100" s="4"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="4">
-        <v>1</v>
-      </c>
+      <c r="O100" s="6"/>
       <c r="P100" s="4">
         <v>1</v>
       </c>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4">
+      <c r="Q100" s="4">
+        <v>1</v>
+      </c>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4">
         <v>200</v>
       </c>
-      <c r="S100" s="4">
-        <v>0</v>
-      </c>
-      <c r="T100" s="4" t="s">
+      <c r="T100" s="4">
+        <v>0</v>
+      </c>
+      <c r="U100" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="U100" s="2" t="s">
+      <c r="V100" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="V100" s="2">
-        <v>408</v>
       </c>
       <c r="W100" s="2">
         <v>408</v>
       </c>
-      <c r="X100" s="4"/>
-      <c r="Z100" s="4"/>
-    </row>
-    <row r="101" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X100" s="2">
+        <v>408</v>
+      </c>
+      <c r="Y100" s="4"/>
+      <c r="AA100" s="4"/>
+    </row>
+    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>43</v>
       </c>
@@ -5263,33 +5371,33 @@
         <v>5</v>
       </c>
       <c r="E101" s="4"/>
-      <c r="O101" s="4">
-        <v>1</v>
-      </c>
       <c r="P101" s="4">
         <v>1</v>
       </c>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4">
+      <c r="Q101" s="4">
+        <v>1</v>
+      </c>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4">
         <v>200</v>
       </c>
-      <c r="S101" s="4">
-        <v>0</v>
-      </c>
-      <c r="T101" s="4" t="s">
+      <c r="T101" s="4">
+        <v>0</v>
+      </c>
+      <c r="U101" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="U101" s="2" t="s">
+      <c r="V101" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="V101" s="2">
-        <v>410</v>
       </c>
       <c r="W101" s="2">
         <v>410</v>
       </c>
-    </row>
-    <row r="102" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X101" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>44</v>
       </c>
@@ -5300,33 +5408,33 @@
         <v>5</v>
       </c>
       <c r="E102" s="4"/>
-      <c r="O102" s="4">
-        <v>1</v>
-      </c>
       <c r="P102" s="4">
         <v>1</v>
       </c>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4">
+      <c r="Q102" s="4">
+        <v>1</v>
+      </c>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4">
         <v>200</v>
       </c>
-      <c r="S102" s="4">
-        <v>0</v>
-      </c>
-      <c r="T102" s="4" t="s">
+      <c r="T102" s="4">
+        <v>0</v>
+      </c>
+      <c r="U102" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="U102" s="2" t="s">
+      <c r="V102" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="V102" s="2">
-        <v>412</v>
       </c>
       <c r="W102" s="2">
         <v>412</v>
       </c>
-    </row>
-    <row r="103" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X102" s="2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>45</v>
       </c>
@@ -5337,33 +5445,33 @@
         <v>5</v>
       </c>
       <c r="E103" s="4"/>
-      <c r="O103" s="4">
-        <v>1</v>
-      </c>
       <c r="P103" s="4">
         <v>1</v>
       </c>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4">
+      <c r="Q103" s="4">
+        <v>1</v>
+      </c>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4">
         <v>200</v>
       </c>
-      <c r="S103" s="4">
-        <v>0</v>
-      </c>
-      <c r="T103" s="4" t="s">
+      <c r="T103" s="4">
+        <v>0</v>
+      </c>
+      <c r="U103" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="U103" s="2" t="s">
+      <c r="V103" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="V103" s="2">
-        <v>414</v>
       </c>
       <c r="W103" s="2">
         <v>414</v>
       </c>
-    </row>
-    <row r="104" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X103" s="2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>46</v>
       </c>
@@ -5374,33 +5482,33 @@
         <v>5</v>
       </c>
       <c r="E104" s="4"/>
-      <c r="O104" s="4">
-        <v>1</v>
-      </c>
       <c r="P104" s="4">
         <v>1</v>
       </c>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4">
+      <c r="Q104" s="4">
+        <v>1</v>
+      </c>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4">
         <v>200</v>
       </c>
-      <c r="S104" s="4">
-        <v>0</v>
-      </c>
-      <c r="T104" s="4" t="s">
+      <c r="T104" s="4">
+        <v>0</v>
+      </c>
+      <c r="U104" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="U104" s="2" t="s">
+      <c r="V104" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="V104" s="2">
-        <v>416</v>
       </c>
       <c r="W104" s="2">
         <v>416</v>
       </c>
-    </row>
-    <row r="105" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X104" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>47</v>
       </c>
@@ -5411,33 +5519,33 @@
         <v>5</v>
       </c>
       <c r="E105" s="4"/>
-      <c r="O105" s="4">
-        <v>240</v>
-      </c>
       <c r="P105" s="4">
         <v>240</v>
       </c>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4">
+      <c r="Q105" s="4">
+        <v>240</v>
+      </c>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4">
         <v>400</v>
       </c>
-      <c r="S105" s="4">
-        <v>0</v>
-      </c>
-      <c r="T105" s="4" t="s">
+      <c r="T105" s="4">
+        <v>0</v>
+      </c>
+      <c r="U105" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="U105" s="2" t="s">
+      <c r="V105" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="V105" s="2">
-        <v>418</v>
       </c>
       <c r="W105" s="2">
         <v>418</v>
       </c>
-    </row>
-    <row r="106" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X105" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>48</v>
       </c>
@@ -5448,33 +5556,33 @@
         <v>5</v>
       </c>
       <c r="E106" s="4"/>
-      <c r="O106" s="4">
-        <v>180</v>
-      </c>
       <c r="P106" s="4">
         <v>180</v>
       </c>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4">
+      <c r="Q106" s="4">
+        <v>180</v>
+      </c>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4">
         <v>400</v>
       </c>
-      <c r="S106" s="4">
-        <v>0</v>
-      </c>
-      <c r="T106" s="4" t="s">
+      <c r="T106" s="4">
+        <v>0</v>
+      </c>
+      <c r="U106" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="U106" s="2" t="s">
+      <c r="V106" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="V106" s="2">
-        <v>420</v>
       </c>
       <c r="W106" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="107" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X106" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>49</v>
       </c>
@@ -5485,33 +5593,33 @@
         <v>5</v>
       </c>
       <c r="E107" s="4"/>
-      <c r="O107" s="4">
-        <v>100</v>
-      </c>
       <c r="P107" s="4">
         <v>100</v>
       </c>
-      <c r="Q107" s="4"/>
-      <c r="R107" s="4">
+      <c r="Q107" s="4">
+        <v>100</v>
+      </c>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4">
         <v>50</v>
       </c>
-      <c r="S107" s="4">
-        <v>0</v>
-      </c>
-      <c r="T107" s="4" t="s">
+      <c r="T107" s="4">
+        <v>0</v>
+      </c>
+      <c r="U107" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="U107" s="2" t="s">
+      <c r="V107" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="V107" s="2">
-        <v>422</v>
       </c>
       <c r="W107" s="2">
         <v>422</v>
       </c>
-    </row>
-    <row r="108" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X107" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <v>50</v>
       </c>
@@ -5522,33 +5630,33 @@
         <v>5</v>
       </c>
       <c r="E108" s="4"/>
-      <c r="O108" s="4">
-        <v>1600</v>
-      </c>
       <c r="P108" s="4">
         <v>1600</v>
       </c>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4">
+      <c r="Q108" s="4">
+        <v>1600</v>
+      </c>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4">
         <v>400</v>
       </c>
-      <c r="S108" s="4">
-        <v>0</v>
-      </c>
-      <c r="T108" s="4" t="s">
+      <c r="T108" s="4">
+        <v>0</v>
+      </c>
+      <c r="U108" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="U108" s="2" t="s">
+      <c r="V108" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="V108" s="2">
-        <v>424</v>
       </c>
       <c r="W108" s="2">
         <v>424</v>
       </c>
-    </row>
-    <row r="109" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X108" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <v>51</v>
       </c>
@@ -5559,30 +5667,30 @@
         <v>5</v>
       </c>
       <c r="E109" s="4"/>
-      <c r="O109" s="4">
-        <v>90</v>
-      </c>
       <c r="P109" s="4">
         <v>90</v>
       </c>
-      <c r="Q109" s="4"/>
-      <c r="R109" s="4">
+      <c r="Q109" s="4">
+        <v>90</v>
+      </c>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4">
         <v>100</v>
       </c>
-      <c r="S109" s="4">
-        <v>0</v>
-      </c>
-      <c r="T109" s="4" t="s">
+      <c r="T109" s="4">
+        <v>0</v>
+      </c>
+      <c r="U109" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="V109" s="2">
-        <v>426</v>
       </c>
       <c r="W109" s="2">
         <v>426</v>
       </c>
-    </row>
-    <row r="110" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X109" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <v>52</v>
       </c>
@@ -5593,30 +5701,30 @@
         <v>5</v>
       </c>
       <c r="E110" s="4"/>
-      <c r="O110" s="4">
-        <v>120</v>
-      </c>
       <c r="P110" s="4">
         <v>120</v>
       </c>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="4">
+      <c r="Q110" s="4">
+        <v>120</v>
+      </c>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4">
         <v>100</v>
       </c>
-      <c r="S110" s="4">
-        <v>0</v>
-      </c>
-      <c r="T110" s="4" t="s">
+      <c r="T110" s="4">
+        <v>0</v>
+      </c>
+      <c r="U110" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="V110" s="2">
-        <v>426</v>
       </c>
       <c r="W110" s="2">
         <v>426</v>
       </c>
-    </row>
-    <row r="111" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X110" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <v>53</v>
       </c>
@@ -5627,30 +5735,30 @@
         <v>5</v>
       </c>
       <c r="E111" s="4"/>
-      <c r="O111" s="4">
-        <v>1200</v>
-      </c>
       <c r="P111" s="4">
         <v>1200</v>
       </c>
-      <c r="Q111" s="4"/>
-      <c r="R111" s="4">
+      <c r="Q111" s="4">
+        <v>1200</v>
+      </c>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4">
         <v>100</v>
       </c>
-      <c r="S111" s="4">
-        <v>0</v>
-      </c>
-      <c r="T111" s="4" t="s">
+      <c r="T111" s="4">
+        <v>0</v>
+      </c>
+      <c r="U111" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="V111" s="2">
-        <v>428</v>
       </c>
       <c r="W111" s="2">
         <v>428</v>
       </c>
-    </row>
-    <row r="112" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="X111" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <v>54</v>
       </c>
@@ -5661,30 +5769,30 @@
         <v>5</v>
       </c>
       <c r="E112" s="4"/>
-      <c r="O112" s="4">
-        <v>1600</v>
-      </c>
       <c r="P112" s="4">
         <v>1600</v>
       </c>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="4">
+      <c r="Q112" s="4">
+        <v>1600</v>
+      </c>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4">
         <v>100</v>
       </c>
-      <c r="S112" s="4">
-        <v>0</v>
-      </c>
-      <c r="T112" s="4" t="s">
+      <c r="T112" s="4">
+        <v>0</v>
+      </c>
+      <c r="U112" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="V112" s="2">
-        <v>428</v>
       </c>
       <c r="W112" s="2">
         <v>428</v>
       </c>
-    </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X112" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="113" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <v>55</v>
       </c>
@@ -5695,30 +5803,30 @@
         <v>5</v>
       </c>
       <c r="E113" s="4"/>
-      <c r="O113" s="4">
-        <v>1</v>
-      </c>
       <c r="P113" s="4">
         <v>1</v>
       </c>
-      <c r="Q113" s="4"/>
-      <c r="R113" s="4">
+      <c r="Q113" s="4">
+        <v>1</v>
+      </c>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4">
         <v>100</v>
       </c>
-      <c r="S113" s="4">
-        <v>0</v>
-      </c>
-      <c r="T113" s="4" t="s">
+      <c r="T113" s="4">
+        <v>0</v>
+      </c>
+      <c r="U113" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="V113" s="2">
-        <v>430</v>
       </c>
       <c r="W113" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X113" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="114" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <v>56</v>
       </c>
@@ -5729,30 +5837,30 @@
         <v>5</v>
       </c>
       <c r="E114" s="4"/>
-      <c r="O114" s="4">
-        <v>1</v>
-      </c>
       <c r="P114" s="4">
         <v>1</v>
       </c>
-      <c r="Q114" s="4"/>
-      <c r="R114" s="4">
+      <c r="Q114" s="4">
+        <v>1</v>
+      </c>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4">
         <v>100</v>
       </c>
-      <c r="S114" s="4">
-        <v>0</v>
-      </c>
-      <c r="T114" s="4" t="s">
+      <c r="T114" s="4">
+        <v>0</v>
+      </c>
+      <c r="U114" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="V114" s="2">
-        <v>430</v>
       </c>
       <c r="W114" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X114" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="115" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <v>57</v>
       </c>
@@ -5763,30 +5871,30 @@
         <v>5</v>
       </c>
       <c r="E115" s="4"/>
-      <c r="O115" s="4">
-        <v>1</v>
-      </c>
       <c r="P115" s="4">
         <v>1</v>
       </c>
-      <c r="Q115" s="4"/>
-      <c r="R115" s="4">
+      <c r="Q115" s="4">
+        <v>1</v>
+      </c>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4">
         <v>100</v>
       </c>
-      <c r="S115" s="4">
-        <v>0</v>
-      </c>
-      <c r="T115" s="4" t="s">
+      <c r="T115" s="4">
+        <v>0</v>
+      </c>
+      <c r="U115" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="V115" s="2">
-        <v>432</v>
       </c>
       <c r="W115" s="2">
         <v>432</v>
       </c>
-    </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X115" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <v>58</v>
       </c>
@@ -5797,30 +5905,30 @@
         <v>5</v>
       </c>
       <c r="E116" s="4"/>
-      <c r="O116" s="4">
-        <v>1</v>
-      </c>
       <c r="P116" s="4">
         <v>1</v>
       </c>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="4">
+      <c r="Q116" s="4">
+        <v>1</v>
+      </c>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4">
         <v>100</v>
       </c>
-      <c r="S116" s="4">
-        <v>0</v>
-      </c>
-      <c r="T116" s="4" t="s">
+      <c r="T116" s="4">
+        <v>0</v>
+      </c>
+      <c r="U116" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="V116" s="2">
-        <v>432</v>
       </c>
       <c r="W116" s="2">
         <v>432</v>
       </c>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X116" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="117" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <v>59</v>
       </c>
@@ -5831,30 +5939,30 @@
         <v>5</v>
       </c>
       <c r="E117" s="4"/>
-      <c r="O117" s="4">
-        <v>1</v>
-      </c>
       <c r="P117" s="4">
         <v>1</v>
       </c>
-      <c r="Q117" s="4"/>
-      <c r="R117" s="4">
+      <c r="Q117" s="4">
+        <v>1</v>
+      </c>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4">
         <v>100</v>
       </c>
-      <c r="S117" s="4">
-        <v>0</v>
-      </c>
-      <c r="T117" s="4" t="s">
+      <c r="T117" s="4">
+        <v>0</v>
+      </c>
+      <c r="U117" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="V117" s="2">
-        <v>434</v>
       </c>
       <c r="W117" s="2">
         <v>434</v>
       </c>
-    </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X117" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="118" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
         <v>60</v>
       </c>
@@ -5865,26 +5973,26 @@
         <v>5</v>
       </c>
       <c r="E118" s="4"/>
-      <c r="O118" s="4">
-        <v>1</v>
-      </c>
       <c r="P118" s="4">
         <v>1</v>
       </c>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4">
+      <c r="Q118" s="4">
+        <v>1</v>
+      </c>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4">
         <v>100</v>
       </c>
-      <c r="S118" s="4">
-        <v>0</v>
-      </c>
-      <c r="T118" s="4" t="s">
+      <c r="T118" s="4">
+        <v>0</v>
+      </c>
+      <c r="U118" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="V118" s="2">
+      <c r="W118" s="2">
         <v>434</v>
       </c>
-      <c r="W118" s="2">
+      <c r="X118" s="2">
         <v>434</v>
       </c>
     </row>

--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B32A7D-9DD7-4EF4-BFA1-20C7AD7197A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F50D0D-37EF-4008-B008-97943721CC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="254">
   <si>
     <t>0</t>
   </si>
@@ -482,15 +482,6 @@
     <t>icon</t>
   </si>
   <si>
-    <t>ui://game/4845_7_12</t>
-  </si>
-  <si>
-    <t>ui://game/4845_7_14</t>
-  </si>
-  <si>
-    <t>ui://game/4845_7_15</t>
-  </si>
-  <si>
     <t>ui://game/4845_7_16</t>
   </si>
   <si>
@@ -910,6 +901,43 @@
   <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_8_7</t>
+  </si>
+  <si>
+    <t>4845_8_6</t>
+  </si>
+  <si>
+    <t>4845_5_25</t>
+  </si>
+  <si>
+    <t>4845_8_8</t>
+  </si>
+  <si>
+    <t>4845_8_9</t>
+  </si>
+  <si>
+    <t>4845_8_11</t>
+  </si>
+  <si>
+    <t>4845_8_12</t>
+  </si>
+  <si>
+    <t>4845_8_10</t>
+  </si>
+  <si>
+    <t>4845_8_13</t>
+  </si>
+  <si>
+    <t>4845_7_15</t>
+  </si>
+  <si>
+    <t>4845_7_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_12</t>
   </si>
 </sst>
 </file>
@@ -1407,27 +1435,30 @@
   <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="19.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="19.453125" style="2" customWidth="1"/>
     <col min="15" max="15" width="17" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="71.88671875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="71.90625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="37.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1440,35 +1471,35 @@
         <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F1" s="14"/>
       <c r="G1" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>68</v>
@@ -1480,7 +1511,7 @@
         <v>124</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S1" s="14" t="s">
         <v>120</v>
@@ -1548,53 +1579,53 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>69</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>121</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="U3" s="8" t="s">
         <v>71</v>
@@ -1606,7 +1637,7 @@
         <v>125</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
@@ -1624,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>8</v>
@@ -1648,13 +1679,13 @@
         <v>8</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>6</v>
@@ -1666,13 +1697,13 @@
         <v>6</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>5</v>
@@ -1705,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O5" s="6">
         <v>1</v>
@@ -1765,22 +1796,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O6" s="6">
         <v>1</v>
@@ -1811,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -1824,22 +1855,22 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O7" s="6">
         <v>1</v>
@@ -1861,9 +1892,6 @@
       </c>
       <c r="U7" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="AA7" s="4"/>
@@ -1873,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D8" s="4">
         <v>4</v>
@@ -1889,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>1</v>
@@ -1901,13 +1929,13 @@
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O8" s="6">
         <v>1</v>
@@ -1931,7 +1959,7 @@
         <v>74</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="AA8" s="4"/>
@@ -1941,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D9" s="4">
         <v>5</v>
@@ -1957,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>1</v>
@@ -1969,13 +1997,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O9" s="6">
         <v>1</v>
@@ -1999,7 +2027,7 @@
         <v>76</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="AA9" s="4"/>
@@ -2009,7 +2037,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
@@ -2025,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>1</v>
@@ -2037,13 +2065,13 @@
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O10" s="6">
         <v>1</v>
@@ -2067,7 +2095,7 @@
         <v>75</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="AA10" s="4"/>
@@ -2077,7 +2105,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D11" s="4">
         <v>7</v>
@@ -2093,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>1</v>
@@ -2105,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O11" s="6">
         <v>1</v>
@@ -2135,7 +2163,7 @@
         <v>76</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="AA11" s="4"/>
@@ -2145,7 +2173,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D12" s="4">
         <v>8</v>
@@ -2161,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>1</v>
@@ -2173,13 +2201,13 @@
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O12" s="6">
         <v>1</v>
@@ -2203,7 +2231,7 @@
         <v>76</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="AA12" s="4"/>
@@ -2213,7 +2241,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
@@ -2229,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>1</v>
@@ -2241,13 +2269,13 @@
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O13" s="6">
         <v>1</v>
@@ -2271,7 +2299,7 @@
         <v>76</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="AA13" s="4"/>
@@ -2281,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D14" s="4">
         <v>10</v>
@@ -2297,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>1</v>
@@ -2309,13 +2337,13 @@
         <v>1</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O14" s="6">
         <v>1</v>
@@ -2339,7 +2367,7 @@
         <v>76</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="AA14" s="4"/>
@@ -2349,7 +2377,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D15" s="4">
         <v>11</v>
@@ -2365,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>1</v>
@@ -2377,13 +2405,13 @@
         <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O15" s="6">
         <v>1</v>
@@ -2407,7 +2435,7 @@
         <v>76</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="AA15" s="4"/>
@@ -2417,7 +2445,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D16" s="4">
         <v>12</v>
@@ -2433,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>1</v>
@@ -2445,13 +2473,13 @@
         <v>1</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O16" s="6">
         <v>1</v>
@@ -2475,7 +2503,7 @@
         <v>76</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="AA16" s="4"/>
@@ -2485,7 +2513,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
@@ -2501,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>1</v>
@@ -2513,13 +2541,13 @@
         <v>1</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O17" s="6">
         <v>1</v>
@@ -2543,7 +2571,7 @@
         <v>74</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="AA17" s="4"/>
@@ -2553,7 +2581,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D18" s="4">
         <v>5</v>
@@ -2569,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
@@ -2581,13 +2609,13 @@
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O18" s="6">
         <v>1</v>
@@ -2611,7 +2639,7 @@
         <v>76</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="AA18" s="4"/>
@@ -2621,7 +2649,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D19" s="4">
         <v>6</v>
@@ -2637,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>1</v>
@@ -2649,13 +2677,13 @@
         <v>1</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O19" s="6">
         <v>1</v>
@@ -2679,7 +2707,7 @@
         <v>75</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="AA19" s="4"/>
@@ -2689,7 +2717,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D20" s="4">
         <v>7</v>
@@ -2705,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>1</v>
@@ -2717,13 +2745,13 @@
         <v>1</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O20" s="6">
         <v>1</v>
@@ -2747,7 +2775,7 @@
         <v>76</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="AA20" s="4"/>
@@ -2757,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D21" s="4">
         <v>8</v>
@@ -2773,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>1</v>
@@ -2785,13 +2813,13 @@
         <v>1</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O21" s="6">
         <v>1</v>
@@ -2815,7 +2843,7 @@
         <v>76</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="AA21" s="4"/>
@@ -2825,7 +2853,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D22" s="4">
         <v>9</v>
@@ -2841,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>1</v>
@@ -2853,13 +2881,13 @@
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O22" s="6">
         <v>1</v>
@@ -2883,7 +2911,7 @@
         <v>76</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="AA22" s="4"/>
@@ -2893,7 +2921,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D23" s="4">
         <v>10</v>
@@ -2909,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>1</v>
@@ -2921,13 +2949,13 @@
         <v>1</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O23" s="6">
         <v>1</v>
@@ -2951,7 +2979,7 @@
         <v>76</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="AA23" s="4"/>
@@ -2961,7 +2989,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D24" s="4">
         <v>11</v>
@@ -2977,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>1</v>
@@ -2989,13 +3017,13 @@
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O24" s="6">
         <v>1</v>
@@ -3019,7 +3047,7 @@
         <v>76</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="AA24" s="4"/>
@@ -3029,7 +3057,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D25" s="4">
         <v>12</v>
@@ -3045,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>1</v>
@@ -3057,13 +3085,13 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O25" s="6">
         <v>1</v>
@@ -3087,7 +3115,7 @@
         <v>76</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="AA25" s="4"/>
@@ -3097,7 +3125,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D26" s="4">
         <v>4</v>
@@ -3107,7 +3135,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>1</v>
@@ -3119,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O26" s="6">
         <v>1</v>
@@ -3149,7 +3177,7 @@
         <v>74</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="AA26" s="4"/>
@@ -3159,7 +3187,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D27" s="4">
         <v>5</v>
@@ -3169,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>1</v>
@@ -3181,13 +3209,13 @@
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O27" s="6">
         <v>1</v>
@@ -3211,7 +3239,7 @@
         <v>76</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="Y27" s="4"/>
       <c r="AA27" s="4"/>
@@ -3221,7 +3249,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D28" s="4">
         <v>6</v>
@@ -3231,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>1</v>
@@ -3243,13 +3271,13 @@
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O28" s="6">
         <v>1</v>
@@ -3273,7 +3301,7 @@
         <v>75</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="Y28" s="4"/>
       <c r="AA28" s="4"/>
@@ -3283,7 +3311,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D29" s="4">
         <v>7</v>
@@ -3293,7 +3321,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>1</v>
@@ -3305,13 +3333,13 @@
         <v>1</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O29" s="6">
         <v>1</v>
@@ -3335,7 +3363,7 @@
         <v>76</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="Y29" s="4"/>
       <c r="AA29" s="4"/>
@@ -3345,7 +3373,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D30" s="4">
         <v>8</v>
@@ -3355,7 +3383,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>1</v>
@@ -3367,13 +3395,13 @@
         <v>1</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O30" s="6">
         <v>1</v>
@@ -3397,7 +3425,7 @@
         <v>76</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="Y30" s="4"/>
       <c r="AA30" s="4"/>
@@ -3407,7 +3435,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D31" s="4">
         <v>9</v>
@@ -3417,7 +3445,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>1</v>
@@ -3429,13 +3457,13 @@
         <v>1</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O31" s="6">
         <v>1</v>
@@ -3459,7 +3487,7 @@
         <v>76</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="Y31" s="4"/>
       <c r="AA31" s="4"/>
@@ -3469,7 +3497,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D32" s="4">
         <v>10</v>
@@ -3479,7 +3507,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>1</v>
@@ -3491,13 +3519,13 @@
         <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O32" s="6">
         <v>1</v>
@@ -3521,7 +3549,7 @@
         <v>76</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="AA32" s="4"/>
@@ -3531,7 +3559,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D33" s="4">
         <v>11</v>
@@ -3541,7 +3569,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>1</v>
@@ -3553,13 +3581,13 @@
         <v>1</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O33" s="6">
         <v>1</v>
@@ -3583,7 +3611,7 @@
         <v>76</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="AA33" s="4"/>
@@ -3593,7 +3621,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D34" s="4">
         <v>12</v>
@@ -3603,7 +3631,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>1</v>
@@ -3615,13 +3643,13 @@
         <v>1</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O34" s="6">
         <v>1</v>
@@ -3645,7 +3673,7 @@
         <v>76</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="Y34" s="4"/>
       <c r="AA34" s="4"/>
@@ -3655,7 +3683,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D35" s="4">
         <v>13</v>
@@ -3665,25 +3693,25 @@
         <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O35" s="6">
         <v>1</v>
@@ -3707,13 +3735,13 @@
         <v>76</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Y35" s="4"/>
       <c r="AA35" s="4"/>
@@ -3723,7 +3751,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D36" s="4">
         <v>14</v>
@@ -3733,25 +3761,25 @@
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O36" s="6">
         <v>1</v>
@@ -3775,13 +3803,13 @@
         <v>76</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="AA36" s="4"/>
@@ -3791,7 +3819,7 @@
         <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D37" s="4">
         <v>15</v>
@@ -3801,10 +3829,10 @@
         <v>1</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>1</v>
@@ -3813,13 +3841,13 @@
         <v>1</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O37" s="6">
         <v>1</v>
@@ -3843,13 +3871,13 @@
         <v>76</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Y37" s="4"/>
       <c r="AA37" s="4"/>
@@ -3918,13 +3946,13 @@
         <v>77</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y66" s="4"/>
       <c r="AA66" s="4"/>
@@ -3963,13 +3991,13 @@
         <v>78</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y67" s="4"/>
       <c r="AA67" s="4"/>
@@ -4008,13 +4036,13 @@
         <v>79</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="W68" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y68" s="4"/>
       <c r="AA68" s="4"/>
@@ -4053,13 +4081,13 @@
         <v>80</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y69" s="4"/>
       <c r="AA69" s="4"/>
@@ -4098,13 +4126,13 @@
         <v>81</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="AA70" s="4"/>
@@ -4143,13 +4171,13 @@
         <v>82</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="AA71" s="4"/>
@@ -4188,13 +4216,13 @@
         <v>83</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y72" s="4"/>
       <c r="AA72" s="4"/>
@@ -4231,10 +4259,10 @@
         <v>84</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y73" s="4"/>
       <c r="AA73" s="4"/>
@@ -4271,10 +4299,10 @@
         <v>85</v>
       </c>
       <c r="W74" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y74" s="4"/>
       <c r="AA74" s="4"/>
@@ -4313,13 +4341,13 @@
         <v>86</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W75" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y75" s="4"/>
       <c r="AA75" s="4"/>
@@ -4358,13 +4386,13 @@
         <v>87</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y76" s="4"/>
       <c r="AA76" s="4"/>
@@ -4403,13 +4431,13 @@
         <v>88</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y77" s="4"/>
       <c r="AA77" s="4"/>
@@ -4448,13 +4476,13 @@
         <v>89</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y78" s="4"/>
       <c r="AA78" s="4"/>
@@ -4493,13 +4521,13 @@
         <v>90</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y79" s="4"/>
       <c r="AA79" s="4"/>
@@ -4538,13 +4566,13 @@
         <v>91</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y80" s="4"/>
       <c r="AA80" s="4"/>
@@ -4583,13 +4611,13 @@
         <v>92</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y81" s="4"/>
       <c r="AA81" s="4"/>
@@ -4626,10 +4654,10 @@
         <v>93</v>
       </c>
       <c r="W82" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y82" s="4"/>
       <c r="AA82" s="4"/>
@@ -4666,10 +4694,10 @@
         <v>94</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y83" s="4"/>
       <c r="AA83" s="4"/>
@@ -4706,10 +4734,10 @@
         <v>95</v>
       </c>
       <c r="W84" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y84" s="4"/>
       <c r="AA84" s="4"/>
@@ -4746,10 +4774,10 @@
         <v>96</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y85" s="4"/>
       <c r="AA85" s="4"/>
@@ -4786,10 +4814,10 @@
         <v>97</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y86" s="4"/>
       <c r="AA86" s="4"/>
@@ -4826,10 +4854,10 @@
         <v>98</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y87" s="4"/>
       <c r="AA87" s="4"/>
@@ -4866,10 +4894,10 @@
         <v>98</v>
       </c>
       <c r="W88" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y88" s="4"/>
       <c r="AA88" s="4"/>
@@ -4908,10 +4936,10 @@
         <v>99</v>
       </c>
       <c r="W89" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Y89" s="4"/>
       <c r="AA89" s="4"/>
@@ -4950,7 +4978,7 @@
         <v>100</v>
       </c>
       <c r="V90" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W90" s="2">
         <v>362</v>
@@ -4989,7 +5017,7 @@
         <v>101</v>
       </c>
       <c r="V91" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W91" s="2">
         <v>376</v>
@@ -5029,7 +5057,7 @@
         <v>102</v>
       </c>
       <c r="V92" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W92" s="2">
         <v>360</v>
@@ -5069,7 +5097,7 @@
         <v>103</v>
       </c>
       <c r="V93" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="W93" s="2">
         <v>364</v>
@@ -5109,7 +5137,7 @@
         <v>104</v>
       </c>
       <c r="V94" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="W94" s="2">
         <v>370</v>
@@ -5149,7 +5177,7 @@
         <v>105</v>
       </c>
       <c r="V95" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W95" s="2">
         <v>368</v>
@@ -5189,7 +5217,7 @@
         <v>106</v>
       </c>
       <c r="V96" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="W96" s="2">
         <v>380</v>
@@ -5229,7 +5257,7 @@
         <v>107</v>
       </c>
       <c r="V97" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="W97" s="2">
         <v>378</v>
@@ -5269,7 +5297,7 @@
         <v>108</v>
       </c>
       <c r="V98" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="W98" s="2">
         <v>366</v>
@@ -5309,7 +5337,7 @@
         <v>109</v>
       </c>
       <c r="V99" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="W99" s="2">
         <v>406</v>
@@ -5349,7 +5377,7 @@
         <v>110</v>
       </c>
       <c r="V100" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="W100" s="2">
         <v>408</v>
@@ -5388,7 +5416,7 @@
         <v>111</v>
       </c>
       <c r="V101" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W101" s="2">
         <v>410</v>
@@ -5425,7 +5453,7 @@
         <v>112</v>
       </c>
       <c r="V102" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W102" s="2">
         <v>412</v>
@@ -5462,7 +5490,7 @@
         <v>113</v>
       </c>
       <c r="V103" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="W103" s="2">
         <v>414</v>
@@ -5499,7 +5527,7 @@
         <v>114</v>
       </c>
       <c r="V104" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W104" s="2">
         <v>416</v>
@@ -5536,7 +5564,7 @@
         <v>115</v>
       </c>
       <c r="V105" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="W105" s="2">
         <v>418</v>
@@ -5573,7 +5601,7 @@
         <v>116</v>
       </c>
       <c r="V106" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W106" s="2">
         <v>420</v>
@@ -5610,7 +5638,7 @@
         <v>117</v>
       </c>
       <c r="V107" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W107" s="2">
         <v>422</v>
@@ -5647,7 +5675,7 @@
         <v>118</v>
       </c>
       <c r="V108" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="W108" s="2">
         <v>424</v>

--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F50D0D-37EF-4008-B008-97943721CC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2A9E1D-0A79-4FBB-8B25-8949BF41907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="256">
   <si>
     <t>0</t>
   </si>
@@ -938,6 +938,14 @@
   </si>
   <si>
     <t>4845_7_12</t>
+  </si>
+  <si>
+    <t>是否城外建造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOutside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1432,37 +1440,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V37" sqref="V37"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="19.453125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="71.90625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="37.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="19.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17" style="2" customWidth="1"/>
+    <col min="17" max="18" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="71.875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="37.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1496,47 +1504,50 @@
         <v>185</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="X1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="7"/>
-    </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="7"/>
+    </row>
+    <row r="2" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1554,21 +1565,22 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2"/>
+      <c r="P2" s="2"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
-      <c r="V2" s="2"/>
+      <c r="V2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-    </row>
-    <row r="3" spans="1:28" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1604,47 +1616,50 @@
         <v>184</v>
       </c>
       <c r="M3" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="W3" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="X3" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="Y3" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
-    </row>
-    <row r="4" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC3" s="8"/>
+    </row>
+    <row r="4" spans="1:29" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1688,27 +1703,27 @@
         <v>177</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="Q4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="R4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="U4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="W4" s="11" t="s">
@@ -1717,8 +1732,11 @@
       <c r="X4" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1748,36 +1766,39 @@
         <v>187</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="6">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4">
+      <c r="O5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
         <v>600</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <v>5600</v>
       </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
       <c r="S5" s="4">
         <v>0</v>
       </c>
       <c r="T5" s="4">
-        <v>1</v>
-      </c>
-      <c r="U5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="AA5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z5" s="4"/>
+      <c r="AB5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1808,36 +1829,39 @@
         <v>189</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="O6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="O6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
         <v>300</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="4">
         <v>2800</v>
       </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
       <c r="S6" s="4">
         <v>0</v>
       </c>
       <c r="T6" s="4">
         <v>0</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="AA6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z6" s="4"/>
+      <c r="AB6" s="4"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -1867,36 +1891,39 @@
         <v>188</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4">
+      <c r="O7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
         <v>300</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <v>2800</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <v>0.03</v>
       </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
       <c r="T7" s="4">
         <v>0</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Y7" s="4"/>
-      <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z7" s="4"/>
+      <c r="AB7" s="4"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1932,39 +1959,42 @@
         <v>186</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
+      <c r="O8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
       </c>
       <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
         <v>1500</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>0.01</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <v>300</v>
       </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Y8" s="4"/>
-      <c r="AA8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z8" s="4"/>
+      <c r="AB8" s="4"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -2000,39 +2030,42 @@
         <v>186</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O9" s="6">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4">
+      <c r="O9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
         <v>100</v>
       </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
       <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
         <v>0.01</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <v>300</v>
       </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="Y9" s="4"/>
-      <c r="AA9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z9" s="4"/>
+      <c r="AB9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -2068,39 +2101,42 @@
         <v>186</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="O10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
         <v>60</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <v>900</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <v>0.2</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <v>300</v>
       </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="s">
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="Y10" s="4"/>
-      <c r="AA10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z10" s="4"/>
+      <c r="AB10" s="4"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -2136,16 +2172,16 @@
         <v>186</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O11" s="6">
-        <v>1</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
+      <c r="O11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -2154,21 +2190,24 @@
         <v>0</v>
       </c>
       <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
         <v>300</v>
       </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4" t="s">
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="Y11" s="4"/>
-      <c r="AA11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z11" s="4"/>
+      <c r="AB11" s="4"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2204,16 +2243,16 @@
         <v>186</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O12" s="6">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
+      <c r="O12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1</v>
       </c>
       <c r="Q12" s="4">
         <v>0</v>
@@ -2222,21 +2261,24 @@
         <v>0</v>
       </c>
       <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
         <v>300</v>
       </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4" t="s">
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="W12" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="Y12" s="4"/>
-      <c r="AA12" s="4"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z12" s="4"/>
+      <c r="AB12" s="4"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -2272,16 +2314,16 @@
         <v>186</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O13" s="6">
-        <v>1</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
+      <c r="O13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1</v>
       </c>
       <c r="Q13" s="4">
         <v>0</v>
@@ -2290,21 +2332,24 @@
         <v>0</v>
       </c>
       <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
         <v>300</v>
       </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4" t="s">
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="W13" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="Y13" s="4"/>
-      <c r="AA13" s="4"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z13" s="4"/>
+      <c r="AB13" s="4"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2340,16 +2385,16 @@
         <v>186</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O14" s="6">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
+      <c r="O14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1</v>
       </c>
       <c r="Q14" s="4">
         <v>0</v>
@@ -2358,21 +2403,24 @@
         <v>0</v>
       </c>
       <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
         <v>300</v>
       </c>
-      <c r="T14" s="4">
-        <v>0</v>
-      </c>
-      <c r="U14" s="4" t="s">
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" s="4"/>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z14" s="4"/>
+      <c r="AB14" s="4"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -2408,16 +2456,16 @@
         <v>186</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O15" s="6">
-        <v>1</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
+      <c r="O15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P15" s="6">
+        <v>1</v>
       </c>
       <c r="Q15" s="4">
         <v>0</v>
@@ -2426,21 +2474,24 @@
         <v>0</v>
       </c>
       <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
         <v>300</v>
       </c>
-      <c r="T15" s="4">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4" t="s">
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V15" s="2" t="s">
+      <c r="W15" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" s="4"/>
-      <c r="AA15" s="4"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z15" s="4"/>
+      <c r="AB15" s="4"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2476,16 +2527,16 @@
         <v>186</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O16" s="6">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
+      <c r="O16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1</v>
       </c>
       <c r="Q16" s="4">
         <v>0</v>
@@ -2494,21 +2545,24 @@
         <v>0</v>
       </c>
       <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
         <v>300</v>
       </c>
-      <c r="T16" s="4">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4" t="s">
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V16" s="2" t="s">
+      <c r="W16" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" s="4"/>
-      <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z16" s="4"/>
+      <c r="AB16" s="4"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>13</v>
       </c>
@@ -2544,39 +2598,42 @@
         <v>186</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O17" s="6">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
+      <c r="O17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P17" s="6">
+        <v>1</v>
       </c>
       <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
         <v>1800</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>0.01</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <v>200</v>
       </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4" t="s">
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="V17" s="2" t="s">
+      <c r="W17" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Y17" s="4"/>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z17" s="4"/>
+      <c r="AB17" s="4"/>
+    </row>
+    <row r="18" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2612,39 +2669,42 @@
         <v>186</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O18" s="6">
-        <v>1</v>
-      </c>
-      <c r="P18" s="4">
+      <c r="O18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4">
         <v>120</v>
       </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
       <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
         <v>0.01</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <v>300</v>
       </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4" t="s">
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="W18" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="Y18" s="4"/>
-      <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z18" s="4"/>
+      <c r="AB18" s="4"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>15</v>
       </c>
@@ -2680,39 +2740,42 @@
         <v>186</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O19" s="6">
-        <v>1</v>
-      </c>
-      <c r="P19" s="4">
+      <c r="O19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
         <v>80</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <v>1200</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <v>0.2</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <v>300</v>
       </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4" t="s">
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="V19" s="2" t="s">
+      <c r="W19" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="Y19" s="4"/>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z19" s="4"/>
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2748,16 +2811,16 @@
         <v>186</v>
       </c>
       <c r="M20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O20" s="6">
-        <v>1</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
+      <c r="O20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" s="6">
+        <v>1</v>
       </c>
       <c r="Q20" s="4">
         <v>0</v>
@@ -2766,21 +2829,24 @@
         <v>0</v>
       </c>
       <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
         <v>300</v>
       </c>
-      <c r="T20" s="4">
-        <v>0</v>
-      </c>
-      <c r="U20" s="4" t="s">
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="W20" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="Y20" s="4"/>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z20" s="4"/>
+      <c r="AB20" s="4"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>17</v>
       </c>
@@ -2816,16 +2882,16 @@
         <v>186</v>
       </c>
       <c r="M21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O21" s="6">
-        <v>1</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
+      <c r="O21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
@@ -2834,21 +2900,24 @@
         <v>0</v>
       </c>
       <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
         <v>300</v>
       </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4" t="s">
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="W21" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="Y21" s="4"/>
-      <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z21" s="4"/>
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -2884,16 +2953,16 @@
         <v>186</v>
       </c>
       <c r="M22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O22" s="6">
-        <v>1</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
+      <c r="O22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P22" s="6">
+        <v>1</v>
       </c>
       <c r="Q22" s="4">
         <v>0</v>
@@ -2902,21 +2971,24 @@
         <v>0</v>
       </c>
       <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
         <v>300</v>
       </c>
-      <c r="T22" s="4">
-        <v>0</v>
-      </c>
-      <c r="U22" s="4" t="s">
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V22" s="2" t="s">
+      <c r="W22" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="Y22" s="4"/>
-      <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z22" s="4"/>
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>19</v>
       </c>
@@ -2952,16 +3024,16 @@
         <v>186</v>
       </c>
       <c r="M23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O23" s="6">
-        <v>1</v>
-      </c>
-      <c r="P23" s="4">
-        <v>0</v>
+      <c r="O23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P23" s="6">
+        <v>1</v>
       </c>
       <c r="Q23" s="4">
         <v>0</v>
@@ -2970,21 +3042,24 @@
         <v>0</v>
       </c>
       <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
         <v>300</v>
       </c>
-      <c r="T23" s="4">
-        <v>0</v>
-      </c>
-      <c r="U23" s="4" t="s">
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V23" s="2" t="s">
+      <c r="W23" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Y23" s="4"/>
-      <c r="AA23" s="4"/>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z23" s="4"/>
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -3020,16 +3095,16 @@
         <v>186</v>
       </c>
       <c r="M24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O24" s="6">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4">
-        <v>0</v>
+      <c r="O24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P24" s="6">
+        <v>1</v>
       </c>
       <c r="Q24" s="4">
         <v>0</v>
@@ -3038,21 +3113,24 @@
         <v>0</v>
       </c>
       <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
         <v>300</v>
       </c>
-      <c r="T24" s="4">
-        <v>0</v>
-      </c>
-      <c r="U24" s="4" t="s">
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V24" s="2" t="s">
+      <c r="W24" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="Y24" s="4"/>
-      <c r="AA24" s="4"/>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z24" s="4"/>
+      <c r="AB24" s="4"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>21</v>
       </c>
@@ -3088,16 +3166,16 @@
         <v>186</v>
       </c>
       <c r="M25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O25" s="6">
-        <v>1</v>
-      </c>
-      <c r="P25" s="4">
-        <v>0</v>
+      <c r="O25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P25" s="6">
+        <v>1</v>
       </c>
       <c r="Q25" s="4">
         <v>0</v>
@@ -3106,21 +3184,24 @@
         <v>0</v>
       </c>
       <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
         <v>300</v>
       </c>
-      <c r="T25" s="4">
-        <v>0</v>
-      </c>
-      <c r="U25" s="4" t="s">
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V25" s="2" t="s">
+      <c r="W25" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="Y25" s="4"/>
-      <c r="AA25" s="4"/>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z25" s="4"/>
+      <c r="AB25" s="4"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -3150,39 +3231,42 @@
         <v>186</v>
       </c>
       <c r="M26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O26" s="6">
-        <v>1</v>
-      </c>
-      <c r="P26" s="4">
-        <v>0</v>
+      <c r="O26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P26" s="6">
+        <v>1</v>
       </c>
       <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
         <v>2250</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <v>0.01</v>
       </c>
-      <c r="S26" s="4">
+      <c r="T26" s="4">
         <v>300</v>
       </c>
-      <c r="T26" s="4">
-        <v>0</v>
-      </c>
-      <c r="U26" s="4" t="s">
+      <c r="U26" s="4">
+        <v>0</v>
+      </c>
+      <c r="V26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="V26" s="2" t="s">
+      <c r="W26" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Y26" s="4"/>
-      <c r="AA26" s="4"/>
-    </row>
-    <row r="27" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z26" s="4"/>
+      <c r="AB26" s="4"/>
+    </row>
+    <row r="27" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>23</v>
       </c>
@@ -3212,39 +3296,42 @@
         <v>186</v>
       </c>
       <c r="M27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O27" s="6">
-        <v>1</v>
-      </c>
-      <c r="P27" s="4">
+      <c r="O27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P27" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4">
         <v>150</v>
       </c>
-      <c r="Q27" s="4">
-        <v>0</v>
-      </c>
       <c r="R27" s="4">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
         <v>0.01</v>
       </c>
-      <c r="S27" s="4">
+      <c r="T27" s="4">
         <v>300</v>
       </c>
-      <c r="T27" s="4">
-        <v>0</v>
-      </c>
-      <c r="U27" s="4" t="s">
+      <c r="U27" s="4">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V27" s="2" t="s">
+      <c r="W27" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="Y27" s="4"/>
-      <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z27" s="4"/>
+      <c r="AB27" s="4"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -3274,39 +3361,42 @@
         <v>186</v>
       </c>
       <c r="M28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O28" s="6">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4">
+      <c r="O28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
         <v>100</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="R28" s="4">
         <v>1500</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <v>0.2</v>
       </c>
-      <c r="S28" s="4">
+      <c r="T28" s="4">
         <v>300</v>
       </c>
-      <c r="T28" s="4">
-        <v>0</v>
-      </c>
-      <c r="U28" s="4" t="s">
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="V28" s="2" t="s">
+      <c r="W28" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="Y28" s="4"/>
-      <c r="AA28" s="4"/>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z28" s="4"/>
+      <c r="AB28" s="4"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>25</v>
       </c>
@@ -3336,16 +3426,16 @@
         <v>186</v>
       </c>
       <c r="M29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O29" s="6">
-        <v>1</v>
-      </c>
-      <c r="P29" s="4">
-        <v>0</v>
+      <c r="O29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P29" s="6">
+        <v>1</v>
       </c>
       <c r="Q29" s="4">
         <v>0</v>
@@ -3354,21 +3444,24 @@
         <v>0</v>
       </c>
       <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29" s="4">
         <v>300</v>
       </c>
-      <c r="T29" s="4">
-        <v>0</v>
-      </c>
-      <c r="U29" s="4" t="s">
+      <c r="U29" s="4">
+        <v>0</v>
+      </c>
+      <c r="V29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V29" s="2" t="s">
+      <c r="W29" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="Y29" s="4"/>
-      <c r="AA29" s="4"/>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z29" s="4"/>
+      <c r="AB29" s="4"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -3398,16 +3491,16 @@
         <v>186</v>
       </c>
       <c r="M30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O30" s="6">
-        <v>1</v>
-      </c>
-      <c r="P30" s="4">
-        <v>0</v>
+      <c r="O30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P30" s="6">
+        <v>1</v>
       </c>
       <c r="Q30" s="4">
         <v>0</v>
@@ -3416,21 +3509,24 @@
         <v>0</v>
       </c>
       <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
         <v>300</v>
       </c>
-      <c r="T30" s="4">
-        <v>0</v>
-      </c>
-      <c r="U30" s="4" t="s">
+      <c r="U30" s="4">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V30" s="2" t="s">
+      <c r="W30" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="Y30" s="4"/>
-      <c r="AA30" s="4"/>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z30" s="4"/>
+      <c r="AB30" s="4"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
         <v>27</v>
       </c>
@@ -3460,16 +3556,16 @@
         <v>186</v>
       </c>
       <c r="M31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O31" s="6">
-        <v>1</v>
-      </c>
-      <c r="P31" s="4">
-        <v>0</v>
+      <c r="O31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P31" s="6">
+        <v>1</v>
       </c>
       <c r="Q31" s="4">
         <v>0</v>
@@ -3478,21 +3574,24 @@
         <v>0</v>
       </c>
       <c r="S31" s="4">
+        <v>0</v>
+      </c>
+      <c r="T31" s="4">
         <v>300</v>
       </c>
-      <c r="T31" s="4">
-        <v>0</v>
-      </c>
-      <c r="U31" s="4" t="s">
+      <c r="U31" s="4">
+        <v>0</v>
+      </c>
+      <c r="V31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V31" s="2" t="s">
+      <c r="W31" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="Y31" s="4"/>
-      <c r="AA31" s="4"/>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z31" s="4"/>
+      <c r="AB31" s="4"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -3522,16 +3621,16 @@
         <v>186</v>
       </c>
       <c r="M32" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O32" s="6">
-        <v>1</v>
-      </c>
-      <c r="P32" s="4">
-        <v>0</v>
+      <c r="O32" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P32" s="6">
+        <v>1</v>
       </c>
       <c r="Q32" s="4">
         <v>0</v>
@@ -3540,21 +3639,24 @@
         <v>0</v>
       </c>
       <c r="S32" s="4">
+        <v>0</v>
+      </c>
+      <c r="T32" s="4">
         <v>300</v>
       </c>
-      <c r="T32" s="4">
-        <v>0</v>
-      </c>
-      <c r="U32" s="4" t="s">
+      <c r="U32" s="4">
+        <v>0</v>
+      </c>
+      <c r="V32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V32" s="2" t="s">
+      <c r="W32" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Y32" s="4"/>
-      <c r="AA32" s="4"/>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z32" s="4"/>
+      <c r="AB32" s="4"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <v>29</v>
       </c>
@@ -3584,16 +3686,16 @@
         <v>186</v>
       </c>
       <c r="M33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O33" s="6">
-        <v>1</v>
-      </c>
-      <c r="P33" s="4">
-        <v>0</v>
+      <c r="O33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P33" s="6">
+        <v>1</v>
       </c>
       <c r="Q33" s="4">
         <v>0</v>
@@ -3602,21 +3704,24 @@
         <v>0</v>
       </c>
       <c r="S33" s="4">
+        <v>0</v>
+      </c>
+      <c r="T33" s="4">
         <v>300</v>
       </c>
-      <c r="T33" s="4">
-        <v>0</v>
-      </c>
-      <c r="U33" s="4" t="s">
+      <c r="U33" s="4">
+        <v>0</v>
+      </c>
+      <c r="V33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V33" s="2" t="s">
+      <c r="W33" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="Y33" s="4"/>
-      <c r="AA33" s="4"/>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z33" s="4"/>
+      <c r="AB33" s="4"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -3646,16 +3751,16 @@
         <v>186</v>
       </c>
       <c r="M34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N34" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O34" s="6">
-        <v>1</v>
-      </c>
-      <c r="P34" s="4">
-        <v>0</v>
+      <c r="O34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P34" s="6">
+        <v>1</v>
       </c>
       <c r="Q34" s="4">
         <v>0</v>
@@ -3664,21 +3769,24 @@
         <v>0</v>
       </c>
       <c r="S34" s="4">
+        <v>0</v>
+      </c>
+      <c r="T34" s="4">
         <v>300</v>
       </c>
-      <c r="T34" s="4">
-        <v>0</v>
-      </c>
-      <c r="U34" s="4" t="s">
+      <c r="U34" s="4">
+        <v>0</v>
+      </c>
+      <c r="V34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V34" s="2" t="s">
+      <c r="W34" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="Y34" s="4"/>
-      <c r="AA34" s="4"/>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z34" s="4"/>
+      <c r="AB34" s="4"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>31</v>
       </c>
@@ -3708,16 +3816,16 @@
         <v>214</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="O35" s="6">
-        <v>1</v>
-      </c>
-      <c r="P35" s="4">
-        <v>0</v>
+      <c r="O35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P35" s="6">
+        <v>1</v>
       </c>
       <c r="Q35" s="4">
         <v>0</v>
@@ -3726,27 +3834,30 @@
         <v>0</v>
       </c>
       <c r="S35" s="4">
+        <v>0</v>
+      </c>
+      <c r="T35" s="4">
         <v>800</v>
       </c>
-      <c r="T35" s="4">
-        <v>0</v>
-      </c>
-      <c r="U35" s="4" t="s">
+      <c r="U35" s="4">
+        <v>0</v>
+      </c>
+      <c r="V35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V35" s="2" t="s">
+      <c r="W35" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="W35" s="2" t="s">
+      <c r="X35" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="X35" s="2" t="s">
+      <c r="Y35" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="Y35" s="4"/>
-      <c r="AA35" s="4"/>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z35" s="4"/>
+      <c r="AB35" s="4"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -3776,16 +3887,16 @@
         <v>215</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="O36" s="6">
-        <v>1</v>
-      </c>
-      <c r="P36" s="4">
-        <v>0</v>
+      <c r="O36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P36" s="6">
+        <v>1</v>
       </c>
       <c r="Q36" s="4">
         <v>0</v>
@@ -3794,27 +3905,30 @@
         <v>0</v>
       </c>
       <c r="S36" s="4">
+        <v>0</v>
+      </c>
+      <c r="T36" s="4">
         <v>800</v>
       </c>
-      <c r="T36" s="4">
-        <v>0</v>
-      </c>
-      <c r="U36" s="4" t="s">
+      <c r="U36" s="4">
+        <v>0</v>
+      </c>
+      <c r="V36" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V36" s="2" t="s">
+      <c r="W36" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="W36" s="2" t="s">
+      <c r="X36" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="X36" s="2" t="s">
+      <c r="Y36" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="Y36" s="4"/>
-      <c r="AA36" s="4"/>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z36" s="4"/>
+      <c r="AB36" s="4"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <v>33</v>
       </c>
@@ -3844,16 +3958,16 @@
         <v>186</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="O37" s="6">
-        <v>1</v>
-      </c>
-      <c r="P37" s="4">
-        <v>0</v>
+      <c r="O37" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P37" s="6">
+        <v>1</v>
       </c>
       <c r="Q37" s="4">
         <v>0</v>
@@ -3862,57 +3976,60 @@
         <v>0</v>
       </c>
       <c r="S37" s="4">
+        <v>0</v>
+      </c>
+      <c r="T37" s="4">
         <v>800</v>
       </c>
-      <c r="T37" s="4">
-        <v>0</v>
-      </c>
-      <c r="U37" s="4" t="s">
+      <c r="U37" s="4">
+        <v>0</v>
+      </c>
+      <c r="V37" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V37" s="2" t="s">
+      <c r="W37" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="W37" s="2" t="s">
+      <c r="X37" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="X37" s="2" t="s">
+      <c r="Y37" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="Y37" s="4"/>
-      <c r="AA37" s="4"/>
-    </row>
-    <row r="63" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="Z37" s="4"/>
+      <c r="AB37" s="4"/>
+    </row>
+    <row r="63" spans="4:22" x14ac:dyDescent="0.15">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
-    </row>
-    <row r="64" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="V63" s="4"/>
+    </row>
+    <row r="64" spans="4:22" x14ac:dyDescent="0.15">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="V64" s="4"/>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.15">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="V65" s="4"/>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>8</v>
       </c>
@@ -3926,38 +4043,38 @@
       <c r="H66" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O66" s="6">
-        <v>1</v>
-      </c>
-      <c r="P66" s="4">
-        <v>0</v>
+      <c r="P66" s="6">
+        <v>1</v>
       </c>
       <c r="Q66" s="4">
         <v>0</v>
       </c>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4">
+      <c r="R66" s="4">
+        <v>0</v>
+      </c>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4">
         <v>600</v>
       </c>
-      <c r="T66" s="4">
-        <v>0</v>
-      </c>
-      <c r="U66" s="4" t="s">
+      <c r="U66" s="4">
+        <v>0</v>
+      </c>
+      <c r="V66" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="V66" s="2" t="s">
+      <c r="W66" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="W66" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X66" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y66" s="4"/>
-      <c r="AA66" s="4"/>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y66" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z66" s="4"/>
+      <c r="AB66" s="4"/>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
         <v>9</v>
       </c>
@@ -3971,38 +4088,38 @@
       <c r="H67" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O67" s="6">
-        <v>1</v>
-      </c>
-      <c r="P67" s="4">
-        <v>0</v>
+      <c r="P67" s="6">
+        <v>1</v>
       </c>
       <c r="Q67" s="4">
         <v>0</v>
       </c>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4">
+      <c r="R67" s="4">
+        <v>0</v>
+      </c>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4">
         <v>300</v>
       </c>
-      <c r="T67" s="4">
-        <v>0</v>
-      </c>
-      <c r="U67" s="4" t="s">
+      <c r="U67" s="4">
+        <v>0</v>
+      </c>
+      <c r="V67" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="V67" s="2" t="s">
+      <c r="W67" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X67" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y67" s="4"/>
-      <c r="AA67" s="4"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y67" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z67" s="4"/>
+      <c r="AB67" s="4"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>10</v>
       </c>
@@ -4016,38 +4133,38 @@
       <c r="H68" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O68" s="6">
-        <v>1</v>
-      </c>
-      <c r="P68" s="4">
-        <v>0</v>
+      <c r="P68" s="6">
+        <v>1</v>
       </c>
       <c r="Q68" s="4">
         <v>0</v>
       </c>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4">
+      <c r="R68" s="4">
+        <v>0</v>
+      </c>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4">
         <v>300</v>
       </c>
-      <c r="T68" s="4">
-        <v>0</v>
-      </c>
-      <c r="U68" s="4" t="s">
+      <c r="U68" s="4">
+        <v>0</v>
+      </c>
+      <c r="V68" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="V68" s="2" t="s">
+      <c r="W68" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X68" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y68" s="4"/>
-      <c r="AA68" s="4"/>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y68" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z68" s="4"/>
+      <c r="AB68" s="4"/>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
         <v>11</v>
       </c>
@@ -4061,38 +4178,38 @@
       <c r="H69" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O69" s="6">
-        <v>1</v>
-      </c>
-      <c r="P69" s="4">
-        <v>0</v>
+      <c r="P69" s="6">
+        <v>1</v>
       </c>
       <c r="Q69" s="4">
         <v>0</v>
       </c>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4">
+      <c r="R69" s="4">
+        <v>0</v>
+      </c>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4">
         <v>800</v>
       </c>
-      <c r="T69" s="4">
-        <v>0</v>
-      </c>
-      <c r="U69" s="4" t="s">
+      <c r="U69" s="4">
+        <v>0</v>
+      </c>
+      <c r="V69" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="V69" s="2" t="s">
+      <c r="W69" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="W69" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X69" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y69" s="4"/>
-      <c r="AA69" s="4"/>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y69" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z69" s="4"/>
+      <c r="AB69" s="4"/>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B70" s="4">
         <v>12</v>
       </c>
@@ -4106,38 +4223,38 @@
       <c r="H70" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O70" s="6">
-        <v>1</v>
-      </c>
-      <c r="P70" s="4">
-        <v>0</v>
+      <c r="P70" s="6">
+        <v>1</v>
       </c>
       <c r="Q70" s="4">
         <v>0</v>
       </c>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4">
+      <c r="R70" s="4">
+        <v>0</v>
+      </c>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4">
         <v>500</v>
       </c>
-      <c r="T70" s="4">
-        <v>0</v>
-      </c>
-      <c r="U70" s="4" t="s">
+      <c r="U70" s="4">
+        <v>0</v>
+      </c>
+      <c r="V70" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="V70" s="2" t="s">
+      <c r="W70" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="W70" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X70" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y70" s="4"/>
-      <c r="AA70" s="4"/>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y70" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z70" s="4"/>
+      <c r="AB70" s="4"/>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B71" s="4">
         <v>13</v>
       </c>
@@ -4151,38 +4268,38 @@
       <c r="H71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O71" s="6">
-        <v>1</v>
-      </c>
-      <c r="P71" s="4">
-        <v>0</v>
+      <c r="P71" s="6">
+        <v>1</v>
       </c>
       <c r="Q71" s="4">
         <v>0</v>
       </c>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4">
+      <c r="R71" s="4">
+        <v>0</v>
+      </c>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4">
         <v>800</v>
       </c>
-      <c r="T71" s="4">
-        <v>0</v>
-      </c>
-      <c r="U71" s="4" t="s">
+      <c r="U71" s="4">
+        <v>0</v>
+      </c>
+      <c r="V71" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="V71" s="2" t="s">
+      <c r="W71" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="W71" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X71" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y71" s="4"/>
-      <c r="AA71" s="4"/>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y71" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z71" s="4"/>
+      <c r="AB71" s="4"/>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B72" s="4">
         <v>14</v>
       </c>
@@ -4196,38 +4313,38 @@
       <c r="H72" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O72" s="6">
-        <v>1</v>
-      </c>
-      <c r="P72" s="4">
-        <v>0</v>
+      <c r="P72" s="6">
+        <v>1</v>
       </c>
       <c r="Q72" s="4">
         <v>0</v>
       </c>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4">
+      <c r="R72" s="4">
+        <v>0</v>
+      </c>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4">
         <v>1200</v>
       </c>
-      <c r="T72" s="4">
-        <v>0</v>
-      </c>
-      <c r="U72" s="4" t="s">
+      <c r="U72" s="4">
+        <v>0</v>
+      </c>
+      <c r="V72" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="V72" s="2" t="s">
+      <c r="W72" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X72" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y72" s="4"/>
-      <c r="AA72" s="4"/>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y72" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z72" s="4"/>
+      <c r="AB72" s="4"/>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B73" s="4">
         <v>15</v>
       </c>
@@ -4241,33 +4358,33 @@
       <c r="H73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O73" s="6">
-        <v>1</v>
-      </c>
-      <c r="P73" s="4">
-        <v>0</v>
+      <c r="P73" s="6">
+        <v>1</v>
       </c>
       <c r="Q73" s="4">
         <v>0</v>
       </c>
-      <c r="R73" s="4"/>
+      <c r="R73" s="4">
+        <v>0</v>
+      </c>
       <c r="S73" s="4"/>
-      <c r="T73" s="4">
-        <v>0</v>
-      </c>
-      <c r="U73" s="4" t="s">
+      <c r="T73" s="4"/>
+      <c r="U73" s="4">
+        <v>0</v>
+      </c>
+      <c r="V73" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X73" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y73" s="4"/>
-      <c r="AA73" s="4"/>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y73" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z73" s="4"/>
+      <c r="AB73" s="4"/>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
         <v>16</v>
       </c>
@@ -4281,33 +4398,33 @@
       <c r="H74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O74" s="6">
-        <v>1</v>
-      </c>
-      <c r="P74" s="4">
-        <v>0</v>
+      <c r="P74" s="6">
+        <v>1</v>
       </c>
       <c r="Q74" s="4">
         <v>0</v>
       </c>
-      <c r="R74" s="4"/>
+      <c r="R74" s="4">
+        <v>0</v>
+      </c>
       <c r="S74" s="4"/>
-      <c r="T74" s="4">
-        <v>0</v>
-      </c>
-      <c r="U74" s="4" t="s">
+      <c r="T74" s="4"/>
+      <c r="U74" s="4">
+        <v>0</v>
+      </c>
+      <c r="V74" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="W74" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X74" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y74" s="4"/>
-      <c r="AA74" s="4"/>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y74" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z74" s="4"/>
+      <c r="AB74" s="4"/>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
         <v>17</v>
       </c>
@@ -4321,38 +4438,38 @@
       <c r="H75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O75" s="6">
-        <v>1</v>
-      </c>
-      <c r="P75" s="4">
-        <v>0</v>
+      <c r="P75" s="6">
+        <v>1</v>
       </c>
       <c r="Q75" s="4">
         <v>0</v>
       </c>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4">
+      <c r="R75" s="4">
+        <v>0</v>
+      </c>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4">
         <v>200</v>
       </c>
-      <c r="T75" s="4">
-        <v>0</v>
-      </c>
-      <c r="U75" s="4" t="s">
+      <c r="U75" s="4">
+        <v>0</v>
+      </c>
+      <c r="V75" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V75" s="2" t="s">
+      <c r="W75" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="W75" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X75" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y75" s="4"/>
-      <c r="AA75" s="4"/>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y75" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z75" s="4"/>
+      <c r="AB75" s="4"/>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
         <v>18</v>
       </c>
@@ -4366,38 +4483,38 @@
       <c r="H76" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O76" s="6">
-        <v>1</v>
-      </c>
-      <c r="P76" s="4">
-        <v>0</v>
+      <c r="P76" s="6">
+        <v>1</v>
       </c>
       <c r="Q76" s="4">
         <v>0</v>
       </c>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4">
+      <c r="R76" s="4">
+        <v>0</v>
+      </c>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4">
         <v>200</v>
       </c>
-      <c r="T76" s="4">
-        <v>0</v>
-      </c>
-      <c r="U76" s="4" t="s">
+      <c r="U76" s="4">
+        <v>0</v>
+      </c>
+      <c r="V76" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="V76" s="2" t="s">
+      <c r="W76" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="W76" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X76" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y76" s="4"/>
-      <c r="AA76" s="4"/>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y76" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z76" s="4"/>
+      <c r="AB76" s="4"/>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
         <v>19</v>
       </c>
@@ -4411,38 +4528,38 @@
       <c r="H77" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O77" s="6">
-        <v>1</v>
-      </c>
-      <c r="P77" s="4">
-        <v>0</v>
+      <c r="P77" s="6">
+        <v>1</v>
       </c>
       <c r="Q77" s="4">
         <v>0</v>
       </c>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4">
+      <c r="R77" s="4">
+        <v>0</v>
+      </c>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4">
         <v>200</v>
       </c>
-      <c r="T77" s="4">
-        <v>0</v>
-      </c>
-      <c r="U77" s="4" t="s">
+      <c r="U77" s="4">
+        <v>0</v>
+      </c>
+      <c r="V77" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="V77" s="2" t="s">
+      <c r="W77" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="W77" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X77" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y77" s="4"/>
-      <c r="AA77" s="4"/>
-    </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y77" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z77" s="4"/>
+      <c r="AB77" s="4"/>
+    </row>
+    <row r="78" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B78" s="4">
         <v>20</v>
       </c>
@@ -4456,38 +4573,38 @@
       <c r="H78" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O78" s="6">
-        <v>1</v>
-      </c>
-      <c r="P78" s="4">
-        <v>0</v>
+      <c r="P78" s="6">
+        <v>1</v>
       </c>
       <c r="Q78" s="4">
         <v>0</v>
       </c>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4">
+      <c r="R78" s="4">
+        <v>0</v>
+      </c>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4">
         <v>200</v>
       </c>
-      <c r="T78" s="4">
-        <v>0</v>
-      </c>
-      <c r="U78" s="4" t="s">
+      <c r="U78" s="4">
+        <v>0</v>
+      </c>
+      <c r="V78" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="V78" s="2" t="s">
+      <c r="W78" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="W78" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X78" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y78" s="4"/>
-      <c r="AA78" s="4"/>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y78" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z78" s="4"/>
+      <c r="AB78" s="4"/>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B79" s="4">
         <v>21</v>
       </c>
@@ -4501,38 +4618,38 @@
       <c r="H79" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O79" s="6">
-        <v>1</v>
-      </c>
-      <c r="P79" s="4">
-        <v>0</v>
+      <c r="P79" s="6">
+        <v>1</v>
       </c>
       <c r="Q79" s="4">
         <v>0</v>
       </c>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4">
+      <c r="R79" s="4">
+        <v>0</v>
+      </c>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4">
         <v>200</v>
       </c>
-      <c r="T79" s="4">
-        <v>0</v>
-      </c>
-      <c r="U79" s="4" t="s">
+      <c r="U79" s="4">
+        <v>0</v>
+      </c>
+      <c r="V79" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="V79" s="2" t="s">
+      <c r="W79" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="W79" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X79" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y79" s="4"/>
-      <c r="AA79" s="4"/>
-    </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z79" s="4"/>
+      <c r="AB79" s="4"/>
+    </row>
+    <row r="80" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B80" s="4">
         <v>22</v>
       </c>
@@ -4546,38 +4663,38 @@
       <c r="H80" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O80" s="6">
-        <v>1</v>
-      </c>
-      <c r="P80" s="4">
-        <v>0</v>
+      <c r="P80" s="6">
+        <v>1</v>
       </c>
       <c r="Q80" s="4">
         <v>0</v>
       </c>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4">
+      <c r="R80" s="4">
+        <v>0</v>
+      </c>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4">
         <v>200</v>
       </c>
-      <c r="T80" s="4">
-        <v>0</v>
-      </c>
-      <c r="U80" s="4" t="s">
+      <c r="U80" s="4">
+        <v>0</v>
+      </c>
+      <c r="V80" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="V80" s="2" t="s">
+      <c r="W80" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="W80" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y80" s="4"/>
-      <c r="AA80" s="4"/>
-    </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y80" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z80" s="4"/>
+      <c r="AB80" s="4"/>
+    </row>
+    <row r="81" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B81" s="4">
         <v>23</v>
       </c>
@@ -4591,38 +4708,38 @@
       <c r="H81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O81" s="6">
-        <v>1</v>
-      </c>
-      <c r="P81" s="4">
-        <v>0</v>
+      <c r="P81" s="6">
+        <v>1</v>
       </c>
       <c r="Q81" s="4">
         <v>0</v>
       </c>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4">
+      <c r="R81" s="4">
+        <v>0</v>
+      </c>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4">
         <v>200</v>
       </c>
-      <c r="T81" s="4">
-        <v>0</v>
-      </c>
-      <c r="U81" s="4" t="s">
+      <c r="U81" s="4">
+        <v>0</v>
+      </c>
+      <c r="V81" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="V81" s="2" t="s">
+      <c r="W81" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="W81" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X81" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y81" s="4"/>
-      <c r="AA81" s="4"/>
-    </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y81" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z81" s="4"/>
+      <c r="AB81" s="4"/>
+    </row>
+    <row r="82" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B82" s="4">
         <v>24</v>
       </c>
@@ -4636,33 +4753,33 @@
       <c r="H82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O82" s="6">
-        <v>1</v>
-      </c>
-      <c r="P82" s="4">
-        <v>0</v>
+      <c r="P82" s="6">
+        <v>1</v>
       </c>
       <c r="Q82" s="4">
         <v>0</v>
       </c>
-      <c r="R82" s="4"/>
+      <c r="R82" s="4">
+        <v>0</v>
+      </c>
       <c r="S82" s="4"/>
-      <c r="T82" s="4">
-        <v>0</v>
-      </c>
-      <c r="U82" s="4" t="s">
+      <c r="T82" s="4"/>
+      <c r="U82" s="4">
+        <v>0</v>
+      </c>
+      <c r="V82" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="W82" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X82" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y82" s="4"/>
-      <c r="AA82" s="4"/>
-    </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y82" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z82" s="4"/>
+      <c r="AB82" s="4"/>
+    </row>
+    <row r="83" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B83" s="4">
         <v>25</v>
       </c>
@@ -4676,33 +4793,33 @@
       <c r="H83" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O83" s="6">
-        <v>1</v>
-      </c>
-      <c r="P83" s="4">
-        <v>0</v>
+      <c r="P83" s="6">
+        <v>1</v>
       </c>
       <c r="Q83" s="4">
         <v>0</v>
       </c>
-      <c r="R83" s="4"/>
+      <c r="R83" s="4">
+        <v>0</v>
+      </c>
       <c r="S83" s="4"/>
-      <c r="T83" s="4">
-        <v>0</v>
-      </c>
-      <c r="U83" s="4" t="s">
+      <c r="T83" s="4"/>
+      <c r="U83" s="4">
+        <v>0</v>
+      </c>
+      <c r="V83" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="W83" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X83" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y83" s="4"/>
-      <c r="AA83" s="4"/>
-    </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y83" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z83" s="4"/>
+      <c r="AB83" s="4"/>
+    </row>
+    <row r="84" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B84" s="4">
         <v>26</v>
       </c>
@@ -4716,33 +4833,33 @@
       <c r="H84" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O84" s="6">
-        <v>1</v>
-      </c>
-      <c r="P84" s="4">
-        <v>0</v>
+      <c r="P84" s="6">
+        <v>1</v>
       </c>
       <c r="Q84" s="4">
         <v>0</v>
       </c>
-      <c r="R84" s="4"/>
+      <c r="R84" s="4">
+        <v>0</v>
+      </c>
       <c r="S84" s="4"/>
-      <c r="T84" s="4">
-        <v>0</v>
-      </c>
-      <c r="U84" s="4" t="s">
+      <c r="T84" s="4"/>
+      <c r="U84" s="4">
+        <v>0</v>
+      </c>
+      <c r="V84" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="W84" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X84" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y84" s="4"/>
-      <c r="AA84" s="4"/>
-    </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y84" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z84" s="4"/>
+      <c r="AB84" s="4"/>
+    </row>
+    <row r="85" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B85" s="4">
         <v>27</v>
       </c>
@@ -4756,33 +4873,33 @@
       <c r="H85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O85" s="6">
-        <v>1</v>
-      </c>
-      <c r="P85" s="4">
-        <v>0</v>
+      <c r="P85" s="6">
+        <v>1</v>
       </c>
       <c r="Q85" s="4">
         <v>0</v>
       </c>
-      <c r="R85" s="4"/>
+      <c r="R85" s="4">
+        <v>0</v>
+      </c>
       <c r="S85" s="4"/>
-      <c r="T85" s="4">
-        <v>0</v>
-      </c>
-      <c r="U85" s="4" t="s">
+      <c r="T85" s="4"/>
+      <c r="U85" s="4">
+        <v>0</v>
+      </c>
+      <c r="V85" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="W85" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X85" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y85" s="4"/>
-      <c r="AA85" s="4"/>
-    </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z85" s="4"/>
+      <c r="AB85" s="4"/>
+    </row>
+    <row r="86" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B86" s="4">
         <v>28</v>
       </c>
@@ -4796,33 +4913,33 @@
       <c r="H86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O86" s="6">
-        <v>1</v>
-      </c>
-      <c r="P86" s="4">
-        <v>0</v>
+      <c r="P86" s="6">
+        <v>1</v>
       </c>
       <c r="Q86" s="4">
         <v>0</v>
       </c>
-      <c r="R86" s="4"/>
+      <c r="R86" s="4">
+        <v>0</v>
+      </c>
       <c r="S86" s="4"/>
-      <c r="T86" s="4">
-        <v>0</v>
-      </c>
-      <c r="U86" s="4" t="s">
+      <c r="T86" s="4"/>
+      <c r="U86" s="4">
+        <v>0</v>
+      </c>
+      <c r="V86" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="W86" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X86" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y86" s="4"/>
-      <c r="AA86" s="4"/>
-    </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y86" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z86" s="4"/>
+      <c r="AB86" s="4"/>
+    </row>
+    <row r="87" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B87" s="4">
         <v>29</v>
       </c>
@@ -4836,33 +4953,33 @@
       <c r="H87" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O87" s="6">
-        <v>1</v>
-      </c>
-      <c r="P87" s="4">
-        <v>0</v>
+      <c r="P87" s="6">
+        <v>1</v>
       </c>
       <c r="Q87" s="4">
         <v>0</v>
       </c>
-      <c r="R87" s="4"/>
+      <c r="R87" s="4">
+        <v>0</v>
+      </c>
       <c r="S87" s="4"/>
-      <c r="T87" s="4">
-        <v>0</v>
-      </c>
-      <c r="U87" s="4" t="s">
+      <c r="T87" s="4"/>
+      <c r="U87" s="4">
+        <v>0</v>
+      </c>
+      <c r="V87" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X87" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y87" s="4"/>
-      <c r="AA87" s="4"/>
-    </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y87" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z87" s="4"/>
+      <c r="AB87" s="4"/>
+    </row>
+    <row r="88" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B88" s="4">
         <v>30</v>
       </c>
@@ -4876,33 +4993,33 @@
       <c r="H88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O88" s="6">
-        <v>1</v>
-      </c>
-      <c r="P88" s="4">
-        <v>0</v>
+      <c r="P88" s="6">
+        <v>1</v>
       </c>
       <c r="Q88" s="4">
         <v>0</v>
       </c>
-      <c r="R88" s="4"/>
+      <c r="R88" s="4">
+        <v>0</v>
+      </c>
       <c r="S88" s="4"/>
-      <c r="T88" s="4">
-        <v>0</v>
-      </c>
-      <c r="U88" s="4" t="s">
+      <c r="T88" s="4"/>
+      <c r="U88" s="4">
+        <v>0</v>
+      </c>
+      <c r="V88" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="W88" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X88" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y88" s="4"/>
-      <c r="AA88" s="4"/>
-    </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y88" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z88" s="4"/>
+      <c r="AB88" s="4"/>
+    </row>
+    <row r="89" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B89" s="4">
         <v>31</v>
       </c>
@@ -4916,35 +5033,35 @@
       <c r="H89" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O89" s="6">
-        <v>1</v>
-      </c>
-      <c r="P89" s="4">
-        <v>10</v>
+      <c r="P89" s="6">
+        <v>1</v>
       </c>
       <c r="Q89" s="4">
         <v>10</v>
       </c>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4">
+      <c r="R89" s="4">
+        <v>10</v>
+      </c>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4">
         <v>1500</v>
       </c>
-      <c r="T89" s="4">
-        <v>0</v>
-      </c>
-      <c r="U89" s="4" t="s">
+      <c r="U89" s="4">
+        <v>0</v>
+      </c>
+      <c r="V89" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="W89" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="X89" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y89" s="4"/>
-      <c r="AA89" s="4"/>
-    </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y89" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z89" s="4"/>
+      <c r="AB89" s="4"/>
+    </row>
+    <row r="90" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B90" s="4">
         <v>32</v>
       </c>
@@ -4958,38 +5075,38 @@
       <c r="H90" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O90" s="6">
-        <v>1</v>
-      </c>
-      <c r="P90" s="4">
+      <c r="P90" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="4">
         <v>1000</v>
       </c>
-      <c r="Q90" s="4">
-        <v>0</v>
-      </c>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4">
+      <c r="R90" s="4">
+        <v>0</v>
+      </c>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4">
         <v>200</v>
       </c>
-      <c r="T90" s="4">
-        <v>0</v>
-      </c>
-      <c r="U90" s="4" t="s">
+      <c r="U90" s="4">
+        <v>0</v>
+      </c>
+      <c r="V90" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="V90" s="2" t="s">
+      <c r="W90" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="W90" s="2">
-        <v>362</v>
       </c>
       <c r="X90" s="2">
         <v>362</v>
       </c>
-      <c r="Y90" s="4"/>
-      <c r="AA90" s="4"/>
-    </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y90" s="2">
+        <v>362</v>
+      </c>
+      <c r="Z90" s="4"/>
+      <c r="AB90" s="4"/>
+    </row>
+    <row r="91" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B91" s="4">
         <v>33</v>
       </c>
@@ -5000,35 +5117,35 @@
         <v>5</v>
       </c>
       <c r="E91" s="4"/>
-      <c r="P91" s="4">
-        <v>0</v>
-      </c>
       <c r="Q91" s="4">
+        <v>0</v>
+      </c>
+      <c r="R91" s="4">
         <v>10000</v>
       </c>
-      <c r="R91" s="4"/>
-      <c r="S91" s="4">
+      <c r="S91" s="4"/>
+      <c r="T91" s="4">
         <v>200</v>
       </c>
-      <c r="T91" s="4">
-        <v>0</v>
-      </c>
-      <c r="U91" s="4" t="s">
+      <c r="U91" s="4">
+        <v>0</v>
+      </c>
+      <c r="V91" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="V91" s="2" t="s">
+      <c r="W91" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="W91" s="2">
-        <v>376</v>
       </c>
       <c r="X91" s="2">
         <v>376</v>
       </c>
-      <c r="Y91" s="4"/>
-      <c r="AA91" s="4"/>
-    </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y91" s="2">
+        <v>376</v>
+      </c>
+      <c r="Z91" s="4"/>
+      <c r="AB91" s="4"/>
+    </row>
+    <row r="92" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B92" s="2">
         <v>34</v>
       </c>
@@ -5039,36 +5156,36 @@
         <v>5</v>
       </c>
       <c r="E92" s="4"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="4">
-        <v>0</v>
-      </c>
+      <c r="P92" s="6"/>
       <c r="Q92" s="4">
         <v>0</v>
       </c>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4">
+      <c r="R92" s="4">
+        <v>0</v>
+      </c>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4">
         <v>300</v>
       </c>
-      <c r="T92" s="4">
-        <v>0</v>
-      </c>
-      <c r="U92" s="4" t="s">
+      <c r="U92" s="4">
+        <v>0</v>
+      </c>
+      <c r="V92" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="V92" s="2" t="s">
+      <c r="W92" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="W92" s="2">
-        <v>360</v>
       </c>
       <c r="X92" s="2">
         <v>360</v>
       </c>
-      <c r="Y92" s="4"/>
-      <c r="AA92" s="4"/>
-    </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y92" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z92" s="4"/>
+      <c r="AB92" s="4"/>
+    </row>
+    <row r="93" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B93" s="2">
         <v>35</v>
       </c>
@@ -5079,36 +5196,36 @@
         <v>5</v>
       </c>
       <c r="E93" s="4"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="4">
-        <v>0</v>
-      </c>
+      <c r="P93" s="6"/>
       <c r="Q93" s="4">
+        <v>0</v>
+      </c>
+      <c r="R93" s="4">
         <v>1000</v>
       </c>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4">
+      <c r="S93" s="4"/>
+      <c r="T93" s="4">
         <v>300</v>
       </c>
-      <c r="T93" s="4">
-        <v>0</v>
-      </c>
-      <c r="U93" s="4" t="s">
+      <c r="U93" s="4">
+        <v>0</v>
+      </c>
+      <c r="V93" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="V93" s="2" t="s">
+      <c r="W93" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="W93" s="2">
-        <v>364</v>
       </c>
       <c r="X93" s="2">
         <v>364</v>
       </c>
-      <c r="Y93" s="4"/>
-      <c r="AA93" s="4"/>
-    </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y93" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z93" s="4"/>
+      <c r="AB93" s="4"/>
+    </row>
+    <row r="94" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B94" s="2">
         <v>36</v>
       </c>
@@ -5119,36 +5236,36 @@
         <v>5</v>
       </c>
       <c r="E94" s="4"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="4">
-        <v>1000</v>
-      </c>
+      <c r="P94" s="6"/>
       <c r="Q94" s="4">
         <v>1000</v>
       </c>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4">
+      <c r="R94" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4">
         <v>300</v>
       </c>
-      <c r="T94" s="4">
-        <v>0</v>
-      </c>
-      <c r="U94" s="4" t="s">
+      <c r="U94" s="4">
+        <v>0</v>
+      </c>
+      <c r="V94" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="V94" s="2" t="s">
+      <c r="W94" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="W94" s="2">
-        <v>370</v>
       </c>
       <c r="X94" s="2">
         <v>370</v>
       </c>
-      <c r="Y94" s="4"/>
-      <c r="AA94" s="4"/>
-    </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y94" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z94" s="4"/>
+      <c r="AB94" s="4"/>
+    </row>
+    <row r="95" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B95" s="2">
         <v>37</v>
       </c>
@@ -5159,36 +5276,36 @@
         <v>5</v>
       </c>
       <c r="E95" s="4"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="4">
-        <v>1</v>
-      </c>
+      <c r="P95" s="6"/>
       <c r="Q95" s="4">
         <v>1</v>
       </c>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4">
+      <c r="R95" s="4">
+        <v>1</v>
+      </c>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4">
         <v>300</v>
       </c>
-      <c r="T95" s="4">
-        <v>0</v>
-      </c>
-      <c r="U95" s="4" t="s">
+      <c r="U95" s="4">
+        <v>0</v>
+      </c>
+      <c r="V95" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="V95" s="2" t="s">
+      <c r="W95" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="W95" s="2">
-        <v>368</v>
       </c>
       <c r="X95" s="2">
         <v>368</v>
       </c>
-      <c r="Y95" s="4"/>
-      <c r="AA95" s="4"/>
-    </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y95" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z95" s="4"/>
+      <c r="AB95" s="4"/>
+    </row>
+    <row r="96" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B96" s="2">
         <v>38</v>
       </c>
@@ -5199,36 +5316,36 @@
         <v>5</v>
       </c>
       <c r="E96" s="4"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="4">
-        <v>1</v>
-      </c>
+      <c r="P96" s="6"/>
       <c r="Q96" s="4">
         <v>1</v>
       </c>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4">
+      <c r="R96" s="4">
+        <v>1</v>
+      </c>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4">
         <v>300</v>
       </c>
-      <c r="T96" s="4">
-        <v>0</v>
-      </c>
-      <c r="U96" s="4" t="s">
+      <c r="U96" s="4">
+        <v>0</v>
+      </c>
+      <c r="V96" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="V96" s="2" t="s">
+      <c r="W96" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="W96" s="2">
-        <v>380</v>
       </c>
       <c r="X96" s="2">
         <v>380</v>
       </c>
-      <c r="Y96" s="4"/>
-      <c r="AA96" s="4"/>
-    </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y96" s="2">
+        <v>380</v>
+      </c>
+      <c r="Z96" s="4"/>
+      <c r="AB96" s="4"/>
+    </row>
+    <row r="97" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B97" s="2">
         <v>39</v>
       </c>
@@ -5239,36 +5356,36 @@
         <v>5</v>
       </c>
       <c r="E97" s="4"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="4">
-        <v>1</v>
-      </c>
+      <c r="P97" s="6"/>
       <c r="Q97" s="4">
         <v>1</v>
       </c>
-      <c r="R97" s="4"/>
-      <c r="S97" s="4">
+      <c r="R97" s="4">
+        <v>1</v>
+      </c>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4">
         <v>400</v>
       </c>
-      <c r="T97" s="4">
-        <v>0</v>
-      </c>
-      <c r="U97" s="4" t="s">
+      <c r="U97" s="4">
+        <v>0</v>
+      </c>
+      <c r="V97" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="V97" s="2" t="s">
+      <c r="W97" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="W97" s="2">
-        <v>378</v>
       </c>
       <c r="X97" s="2">
         <v>378</v>
       </c>
-      <c r="Y97" s="4"/>
-      <c r="AA97" s="4"/>
-    </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y97" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z97" s="4"/>
+      <c r="AB97" s="4"/>
+    </row>
+    <row r="98" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B98" s="2">
         <v>40</v>
       </c>
@@ -5279,36 +5396,36 @@
         <v>5</v>
       </c>
       <c r="E98" s="4"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="4">
-        <v>1</v>
-      </c>
+      <c r="P98" s="6"/>
       <c r="Q98" s="4">
         <v>1</v>
       </c>
-      <c r="R98" s="4"/>
-      <c r="S98" s="4">
+      <c r="R98" s="4">
+        <v>1</v>
+      </c>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4">
         <v>400</v>
       </c>
-      <c r="T98" s="4">
-        <v>0</v>
-      </c>
-      <c r="U98" s="4" t="s">
+      <c r="U98" s="4">
+        <v>0</v>
+      </c>
+      <c r="V98" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="V98" s="2" t="s">
+      <c r="W98" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="W98" s="2">
-        <v>366</v>
       </c>
       <c r="X98" s="2">
         <v>366</v>
       </c>
-      <c r="Y98" s="4"/>
-      <c r="AA98" s="4"/>
-    </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y98" s="2">
+        <v>366</v>
+      </c>
+      <c r="Z98" s="4"/>
+      <c r="AB98" s="4"/>
+    </row>
+    <row r="99" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B99" s="2">
         <v>41</v>
       </c>
@@ -5319,36 +5436,36 @@
         <v>5</v>
       </c>
       <c r="E99" s="4"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="4">
-        <v>1</v>
-      </c>
+      <c r="P99" s="6"/>
       <c r="Q99" s="4">
         <v>1</v>
       </c>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4">
+      <c r="R99" s="4">
+        <v>1</v>
+      </c>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4">
         <v>200</v>
       </c>
-      <c r="T99" s="4">
-        <v>0</v>
-      </c>
-      <c r="U99" s="4" t="s">
+      <c r="U99" s="4">
+        <v>0</v>
+      </c>
+      <c r="V99" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="V99" s="2" t="s">
+      <c r="W99" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="W99" s="2">
-        <v>406</v>
       </c>
       <c r="X99" s="2">
         <v>406</v>
       </c>
-      <c r="Y99" s="4"/>
-      <c r="AA99" s="4"/>
-    </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y99" s="2">
+        <v>406</v>
+      </c>
+      <c r="Z99" s="4"/>
+      <c r="AB99" s="4"/>
+    </row>
+    <row r="100" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B100" s="2">
         <v>42</v>
       </c>
@@ -5359,36 +5476,36 @@
         <v>5</v>
       </c>
       <c r="E100" s="4"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="4">
-        <v>1</v>
-      </c>
+      <c r="P100" s="6"/>
       <c r="Q100" s="4">
         <v>1</v>
       </c>
-      <c r="R100" s="4"/>
-      <c r="S100" s="4">
+      <c r="R100" s="4">
+        <v>1</v>
+      </c>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4">
         <v>200</v>
       </c>
-      <c r="T100" s="4">
-        <v>0</v>
-      </c>
-      <c r="U100" s="4" t="s">
+      <c r="U100" s="4">
+        <v>0</v>
+      </c>
+      <c r="V100" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="V100" s="2" t="s">
+      <c r="W100" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="W100" s="2">
-        <v>408</v>
       </c>
       <c r="X100" s="2">
         <v>408</v>
       </c>
-      <c r="Y100" s="4"/>
-      <c r="AA100" s="4"/>
-    </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y100" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z100" s="4"/>
+      <c r="AB100" s="4"/>
+    </row>
+    <row r="101" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B101" s="2">
         <v>43</v>
       </c>
@@ -5399,33 +5516,33 @@
         <v>5</v>
       </c>
       <c r="E101" s="4"/>
-      <c r="P101" s="4">
-        <v>1</v>
-      </c>
       <c r="Q101" s="4">
         <v>1</v>
       </c>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4">
+      <c r="R101" s="4">
+        <v>1</v>
+      </c>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4">
         <v>200</v>
       </c>
-      <c r="T101" s="4">
-        <v>0</v>
-      </c>
-      <c r="U101" s="4" t="s">
+      <c r="U101" s="4">
+        <v>0</v>
+      </c>
+      <c r="V101" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="V101" s="2" t="s">
+      <c r="W101" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="W101" s="2">
-        <v>410</v>
       </c>
       <c r="X101" s="2">
         <v>410</v>
       </c>
-    </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y101" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B102" s="2">
         <v>44</v>
       </c>
@@ -5436,33 +5553,33 @@
         <v>5</v>
       </c>
       <c r="E102" s="4"/>
-      <c r="P102" s="4">
-        <v>1</v>
-      </c>
       <c r="Q102" s="4">
         <v>1</v>
       </c>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4">
+      <c r="R102" s="4">
+        <v>1</v>
+      </c>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4">
         <v>200</v>
       </c>
-      <c r="T102" s="4">
-        <v>0</v>
-      </c>
-      <c r="U102" s="4" t="s">
+      <c r="U102" s="4">
+        <v>0</v>
+      </c>
+      <c r="V102" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="V102" s="2" t="s">
+      <c r="W102" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="W102" s="2">
-        <v>412</v>
       </c>
       <c r="X102" s="2">
         <v>412</v>
       </c>
-    </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y102" s="2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B103" s="2">
         <v>45</v>
       </c>
@@ -5473,33 +5590,33 @@
         <v>5</v>
       </c>
       <c r="E103" s="4"/>
-      <c r="P103" s="4">
-        <v>1</v>
-      </c>
       <c r="Q103" s="4">
         <v>1</v>
       </c>
-      <c r="R103" s="4"/>
-      <c r="S103" s="4">
+      <c r="R103" s="4">
+        <v>1</v>
+      </c>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4">
         <v>200</v>
       </c>
-      <c r="T103" s="4">
-        <v>0</v>
-      </c>
-      <c r="U103" s="4" t="s">
+      <c r="U103" s="4">
+        <v>0</v>
+      </c>
+      <c r="V103" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="V103" s="2" t="s">
+      <c r="W103" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="W103" s="2">
-        <v>414</v>
       </c>
       <c r="X103" s="2">
         <v>414</v>
       </c>
-    </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y103" s="2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="104" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B104" s="2">
         <v>46</v>
       </c>
@@ -5510,33 +5627,33 @@
         <v>5</v>
       </c>
       <c r="E104" s="4"/>
-      <c r="P104" s="4">
-        <v>1</v>
-      </c>
       <c r="Q104" s="4">
         <v>1</v>
       </c>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4">
+      <c r="R104" s="4">
+        <v>1</v>
+      </c>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4">
         <v>200</v>
       </c>
-      <c r="T104" s="4">
-        <v>0</v>
-      </c>
-      <c r="U104" s="4" t="s">
+      <c r="U104" s="4">
+        <v>0</v>
+      </c>
+      <c r="V104" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="V104" s="2" t="s">
+      <c r="W104" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="W104" s="2">
-        <v>416</v>
       </c>
       <c r="X104" s="2">
         <v>416</v>
       </c>
-    </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y104" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="105" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B105" s="2">
         <v>47</v>
       </c>
@@ -5547,33 +5664,33 @@
         <v>5</v>
       </c>
       <c r="E105" s="4"/>
-      <c r="P105" s="4">
-        <v>240</v>
-      </c>
       <c r="Q105" s="4">
         <v>240</v>
       </c>
-      <c r="R105" s="4"/>
-      <c r="S105" s="4">
+      <c r="R105" s="4">
+        <v>240</v>
+      </c>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4">
         <v>400</v>
       </c>
-      <c r="T105" s="4">
-        <v>0</v>
-      </c>
-      <c r="U105" s="4" t="s">
+      <c r="U105" s="4">
+        <v>0</v>
+      </c>
+      <c r="V105" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="V105" s="2" t="s">
+      <c r="W105" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="W105" s="2">
-        <v>418</v>
       </c>
       <c r="X105" s="2">
         <v>418</v>
       </c>
-    </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y105" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B106" s="2">
         <v>48</v>
       </c>
@@ -5584,33 +5701,33 @@
         <v>5</v>
       </c>
       <c r="E106" s="4"/>
-      <c r="P106" s="4">
-        <v>180</v>
-      </c>
       <c r="Q106" s="4">
         <v>180</v>
       </c>
-      <c r="R106" s="4"/>
-      <c r="S106" s="4">
+      <c r="R106" s="4">
+        <v>180</v>
+      </c>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4">
         <v>400</v>
       </c>
-      <c r="T106" s="4">
-        <v>0</v>
-      </c>
-      <c r="U106" s="4" t="s">
+      <c r="U106" s="4">
+        <v>0</v>
+      </c>
+      <c r="V106" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="V106" s="2" t="s">
+      <c r="W106" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="W106" s="2">
-        <v>420</v>
       </c>
       <c r="X106" s="2">
         <v>420</v>
       </c>
-    </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y106" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="107" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B107" s="2">
         <v>49</v>
       </c>
@@ -5621,33 +5738,33 @@
         <v>5</v>
       </c>
       <c r="E107" s="4"/>
-      <c r="P107" s="4">
-        <v>100</v>
-      </c>
       <c r="Q107" s="4">
         <v>100</v>
       </c>
-      <c r="R107" s="4"/>
-      <c r="S107" s="4">
+      <c r="R107" s="4">
+        <v>100</v>
+      </c>
+      <c r="S107" s="4"/>
+      <c r="T107" s="4">
         <v>50</v>
       </c>
-      <c r="T107" s="4">
-        <v>0</v>
-      </c>
-      <c r="U107" s="4" t="s">
+      <c r="U107" s="4">
+        <v>0</v>
+      </c>
+      <c r="V107" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="V107" s="2" t="s">
+      <c r="W107" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="W107" s="2">
-        <v>422</v>
       </c>
       <c r="X107" s="2">
         <v>422</v>
       </c>
-    </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y107" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="108" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B108" s="2">
         <v>50</v>
       </c>
@@ -5658,33 +5775,33 @@
         <v>5</v>
       </c>
       <c r="E108" s="4"/>
-      <c r="P108" s="4">
-        <v>1600</v>
-      </c>
       <c r="Q108" s="4">
         <v>1600</v>
       </c>
-      <c r="R108" s="4"/>
-      <c r="S108" s="4">
+      <c r="R108" s="4">
+        <v>1600</v>
+      </c>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4">
         <v>400</v>
       </c>
-      <c r="T108" s="4">
-        <v>0</v>
-      </c>
-      <c r="U108" s="4" t="s">
+      <c r="U108" s="4">
+        <v>0</v>
+      </c>
+      <c r="V108" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="V108" s="2" t="s">
+      <c r="W108" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="W108" s="2">
-        <v>424</v>
       </c>
       <c r="X108" s="2">
         <v>424</v>
       </c>
-    </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y108" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="109" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B109" s="2">
         <v>51</v>
       </c>
@@ -5695,30 +5812,30 @@
         <v>5</v>
       </c>
       <c r="E109" s="4"/>
-      <c r="P109" s="4">
-        <v>90</v>
-      </c>
       <c r="Q109" s="4">
         <v>90</v>
       </c>
-      <c r="R109" s="4"/>
-      <c r="S109" s="4">
+      <c r="R109" s="4">
+        <v>90</v>
+      </c>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4">
         <v>100</v>
       </c>
-      <c r="T109" s="4">
-        <v>0</v>
-      </c>
-      <c r="U109" s="4" t="s">
+      <c r="U109" s="4">
+        <v>0</v>
+      </c>
+      <c r="V109" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="W109" s="2">
-        <v>426</v>
       </c>
       <c r="X109" s="2">
         <v>426</v>
       </c>
-    </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y109" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="110" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B110" s="2">
         <v>52</v>
       </c>
@@ -5729,30 +5846,30 @@
         <v>5</v>
       </c>
       <c r="E110" s="4"/>
-      <c r="P110" s="4">
-        <v>120</v>
-      </c>
       <c r="Q110" s="4">
         <v>120</v>
       </c>
-      <c r="R110" s="4"/>
-      <c r="S110" s="4">
+      <c r="R110" s="4">
+        <v>120</v>
+      </c>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4">
         <v>100</v>
       </c>
-      <c r="T110" s="4">
-        <v>0</v>
-      </c>
-      <c r="U110" s="4" t="s">
+      <c r="U110" s="4">
+        <v>0</v>
+      </c>
+      <c r="V110" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="W110" s="2">
-        <v>426</v>
       </c>
       <c r="X110" s="2">
         <v>426</v>
       </c>
-    </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y110" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="111" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B111" s="2">
         <v>53</v>
       </c>
@@ -5763,30 +5880,30 @@
         <v>5</v>
       </c>
       <c r="E111" s="4"/>
-      <c r="P111" s="4">
-        <v>1200</v>
-      </c>
       <c r="Q111" s="4">
         <v>1200</v>
       </c>
-      <c r="R111" s="4"/>
-      <c r="S111" s="4">
+      <c r="R111" s="4">
+        <v>1200</v>
+      </c>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4">
         <v>100</v>
       </c>
-      <c r="T111" s="4">
-        <v>0</v>
-      </c>
-      <c r="U111" s="4" t="s">
+      <c r="U111" s="4">
+        <v>0</v>
+      </c>
+      <c r="V111" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="W111" s="2">
-        <v>428</v>
       </c>
       <c r="X111" s="2">
         <v>428</v>
       </c>
-    </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y111" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="112" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B112" s="2">
         <v>54</v>
       </c>
@@ -5797,30 +5914,30 @@
         <v>5</v>
       </c>
       <c r="E112" s="4"/>
-      <c r="P112" s="4">
-        <v>1600</v>
-      </c>
       <c r="Q112" s="4">
         <v>1600</v>
       </c>
-      <c r="R112" s="4"/>
-      <c r="S112" s="4">
+      <c r="R112" s="4">
+        <v>1600</v>
+      </c>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4">
         <v>100</v>
       </c>
-      <c r="T112" s="4">
-        <v>0</v>
-      </c>
-      <c r="U112" s="4" t="s">
+      <c r="U112" s="4">
+        <v>0</v>
+      </c>
+      <c r="V112" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="W112" s="2">
-        <v>428</v>
       </c>
       <c r="X112" s="2">
         <v>428</v>
       </c>
-    </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y112" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="113" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B113" s="2">
         <v>55</v>
       </c>
@@ -5831,30 +5948,30 @@
         <v>5</v>
       </c>
       <c r="E113" s="4"/>
-      <c r="P113" s="4">
-        <v>1</v>
-      </c>
       <c r="Q113" s="4">
         <v>1</v>
       </c>
-      <c r="R113" s="4"/>
-      <c r="S113" s="4">
+      <c r="R113" s="4">
+        <v>1</v>
+      </c>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4">
         <v>100</v>
       </c>
-      <c r="T113" s="4">
-        <v>0</v>
-      </c>
-      <c r="U113" s="4" t="s">
+      <c r="U113" s="4">
+        <v>0</v>
+      </c>
+      <c r="V113" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="W113" s="2">
-        <v>430</v>
       </c>
       <c r="X113" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y113" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="114" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B114" s="2">
         <v>56</v>
       </c>
@@ -5865,30 +5982,30 @@
         <v>5</v>
       </c>
       <c r="E114" s="4"/>
-      <c r="P114" s="4">
-        <v>1</v>
-      </c>
       <c r="Q114" s="4">
         <v>1</v>
       </c>
-      <c r="R114" s="4"/>
-      <c r="S114" s="4">
+      <c r="R114" s="4">
+        <v>1</v>
+      </c>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4">
         <v>100</v>
       </c>
-      <c r="T114" s="4">
-        <v>0</v>
-      </c>
-      <c r="U114" s="4" t="s">
+      <c r="U114" s="4">
+        <v>0</v>
+      </c>
+      <c r="V114" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="W114" s="2">
-        <v>430</v>
       </c>
       <c r="X114" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="115" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y114" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="115" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B115" s="2">
         <v>57</v>
       </c>
@@ -5899,30 +6016,30 @@
         <v>5</v>
       </c>
       <c r="E115" s="4"/>
-      <c r="P115" s="4">
-        <v>1</v>
-      </c>
       <c r="Q115" s="4">
         <v>1</v>
       </c>
-      <c r="R115" s="4"/>
-      <c r="S115" s="4">
+      <c r="R115" s="4">
+        <v>1</v>
+      </c>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4">
         <v>100</v>
       </c>
-      <c r="T115" s="4">
-        <v>0</v>
-      </c>
-      <c r="U115" s="4" t="s">
+      <c r="U115" s="4">
+        <v>0</v>
+      </c>
+      <c r="V115" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="W115" s="2">
-        <v>432</v>
       </c>
       <c r="X115" s="2">
         <v>432</v>
       </c>
-    </row>
-    <row r="116" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y115" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B116" s="2">
         <v>58</v>
       </c>
@@ -5933,30 +6050,30 @@
         <v>5</v>
       </c>
       <c r="E116" s="4"/>
-      <c r="P116" s="4">
-        <v>1</v>
-      </c>
       <c r="Q116" s="4">
         <v>1</v>
       </c>
-      <c r="R116" s="4"/>
-      <c r="S116" s="4">
+      <c r="R116" s="4">
+        <v>1</v>
+      </c>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4">
         <v>100</v>
       </c>
-      <c r="T116" s="4">
-        <v>0</v>
-      </c>
-      <c r="U116" s="4" t="s">
+      <c r="U116" s="4">
+        <v>0</v>
+      </c>
+      <c r="V116" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="W116" s="2">
-        <v>432</v>
       </c>
       <c r="X116" s="2">
         <v>432</v>
       </c>
-    </row>
-    <row r="117" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y116" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="117" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B117" s="2">
         <v>59</v>
       </c>
@@ -5967,30 +6084,30 @@
         <v>5</v>
       </c>
       <c r="E117" s="4"/>
-      <c r="P117" s="4">
-        <v>1</v>
-      </c>
       <c r="Q117" s="4">
         <v>1</v>
       </c>
-      <c r="R117" s="4"/>
-      <c r="S117" s="4">
+      <c r="R117" s="4">
+        <v>1</v>
+      </c>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4">
         <v>100</v>
       </c>
-      <c r="T117" s="4">
-        <v>0</v>
-      </c>
-      <c r="U117" s="4" t="s">
+      <c r="U117" s="4">
+        <v>0</v>
+      </c>
+      <c r="V117" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="W117" s="2">
-        <v>434</v>
       </c>
       <c r="X117" s="2">
         <v>434</v>
       </c>
-    </row>
-    <row r="118" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y117" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="118" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B118" s="2">
         <v>60</v>
       </c>
@@ -6001,26 +6118,26 @@
         <v>5</v>
       </c>
       <c r="E118" s="4"/>
-      <c r="P118" s="4">
-        <v>1</v>
-      </c>
       <c r="Q118" s="4">
         <v>1</v>
       </c>
-      <c r="R118" s="4"/>
-      <c r="S118" s="4">
+      <c r="R118" s="4">
+        <v>1</v>
+      </c>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4">
         <v>100</v>
       </c>
-      <c r="T118" s="4">
-        <v>0</v>
-      </c>
-      <c r="U118" s="4" t="s">
+      <c r="U118" s="4">
+        <v>0</v>
+      </c>
+      <c r="V118" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="W118" s="2">
+      <c r="X118" s="2">
         <v>434</v>
       </c>
-      <c r="X118" s="2">
+      <c r="Y118" s="2">
         <v>434</v>
       </c>
     </row>

--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D43186-F8F2-4638-A1B6-6CBD8BDB4670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DF409E-4A41-47F1-8889-7194A789D944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -1482,38 +1482,38 @@
   <dimension ref="A1:AE120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="5" width="16.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="19.5" style="2" customWidth="1"/>
+    <col min="3" max="5" width="16.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="19.44140625" style="2" customWidth="1"/>
     <col min="14" max="14" width="17" style="2" customWidth="1"/>
-    <col min="15" max="16" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.25" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="71.875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="37.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="37.875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="37.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="71.88671875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="37.88671875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1594,7 +1594,7 @@
       <c r="AD1" s="9"/>
       <c r="AE1" s="7"/>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
     </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="AB5" s="4"/>
       <c r="AD5" s="4"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1922,7 +1922,7 @@
       <c r="AB6" s="4"/>
       <c r="AD6" s="4"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="AB7" s="4"/>
       <c r="AD7" s="4"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -2053,7 +2053,7 @@
       <c r="AB8" s="4"/>
       <c r="AD8" s="4"/>
     </row>
-    <row r="9" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="AB9" s="4"/>
       <c r="AD9" s="4"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="AB10" s="4"/>
       <c r="AD10" s="4"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="AB11" s="4"/>
       <c r="AD11" s="4"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="AB12" s="4"/>
       <c r="AD12" s="4"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="AB13" s="4"/>
       <c r="AD13" s="4"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2449,7 +2449,7 @@
       <c r="AB14" s="4"/>
       <c r="AD14" s="4"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="AB15" s="4"/>
       <c r="AD15" s="4"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2569,7 +2569,7 @@
       <c r="AB16" s="4"/>
       <c r="AD16" s="4"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="AB17" s="4"/>
       <c r="AD17" s="4"/>
     </row>
-    <row r="18" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="AB18" s="4"/>
       <c r="AD18" s="4"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="AB19" s="4"/>
       <c r="AD19" s="4"/>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2801,7 +2801,7 @@
       <c r="AB20" s="4"/>
       <c r="AD20" s="4"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -2861,7 +2861,7 @@
       <c r="AB21" s="4"/>
       <c r="AD21" s="4"/>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="AB22" s="4"/>
       <c r="AD22" s="4"/>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="AB23" s="4"/>
       <c r="AD23" s="4"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="AB24" s="4"/>
       <c r="AD24" s="4"/>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="AB25" s="4"/>
       <c r="AD25" s="4"/>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="AB26" s="4"/>
       <c r="AD26" s="4"/>
     </row>
-    <row r="27" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="AB27" s="4"/>
       <c r="AD27" s="4"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="AB28" s="4"/>
       <c r="AD28" s="4"/>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="AB29" s="4"/>
       <c r="AD29" s="4"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -3387,7 +3387,7 @@
       <c r="AB30" s="4"/>
       <c r="AD30" s="4"/>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -3443,7 +3443,7 @@
       <c r="AB31" s="4"/>
       <c r="AD31" s="4"/>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -3497,7 +3497,7 @@
       <c r="AB32" s="4"/>
       <c r="AD32" s="4"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="AB33" s="4"/>
       <c r="AD33" s="4"/>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="AB34" s="4"/>
       <c r="AD34" s="4"/>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -3642,12 +3642,8 @@
         <v>131</v>
       </c>
       <c r="N35" s="6"/>
-      <c r="O35" s="4">
-        <v>10</v>
-      </c>
-      <c r="P35" s="4">
-        <v>10</v>
-      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
       <c r="Q35" s="4">
         <v>0</v>
       </c>
@@ -3673,7 +3669,7 @@
       <c r="AB35" s="4"/>
       <c r="AD35" s="4"/>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -3711,9 +3707,7 @@
       <c r="O36" s="4">
         <v>75</v>
       </c>
-      <c r="P36" s="4">
-        <v>75</v>
-      </c>
+      <c r="P36" s="4"/>
       <c r="Q36" s="4">
         <v>0</v>
       </c>
@@ -3750,7 +3744,7 @@
       <c r="AB36" s="4"/>
       <c r="AD36" s="4"/>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>33</v>
       </c>
@@ -3785,9 +3779,7 @@
         <v>131</v>
       </c>
       <c r="N37" s="6"/>
-      <c r="O37" s="4">
-        <v>1000</v>
-      </c>
+      <c r="O37" s="4"/>
       <c r="P37" s="4">
         <v>1000</v>
       </c>
@@ -3827,7 +3819,7 @@
       <c r="AB37" s="4"/>
       <c r="AD37" s="4"/>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>34</v>
       </c>
@@ -3861,12 +3853,8 @@
       <c r="M38" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="O38" s="4">
-        <v>1000</v>
-      </c>
-      <c r="P38" s="4">
-        <v>1000</v>
-      </c>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
       <c r="R38" s="4">
         <v>300</v>
       </c>
@@ -3898,7 +3886,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>35</v>
       </c>
@@ -3932,12 +3920,8 @@
       <c r="M39" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="O39" s="4">
-        <v>1000</v>
-      </c>
-      <c r="P39" s="4">
-        <v>1000</v>
-      </c>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
       <c r="R39" s="4">
         <v>300</v>
       </c>
@@ -3969,7 +3953,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>36</v>
       </c>
@@ -4003,12 +3987,8 @@
       <c r="M40" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="O40" s="4">
-        <v>1000</v>
-      </c>
-      <c r="P40" s="4">
-        <v>1000</v>
-      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
       <c r="R40" s="4">
         <v>300</v>
       </c>
@@ -4040,7 +4020,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>37</v>
       </c>
@@ -4107,7 +4087,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>38</v>
       </c>
@@ -4174,7 +4154,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>39</v>
       </c>
@@ -4236,7 +4216,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>40</v>
       </c>
@@ -4298,7 +4278,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>41</v>
       </c>
@@ -4365,7 +4345,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>42</v>
       </c>
@@ -4432,7 +4412,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>43</v>
       </c>
@@ -4499,7 +4479,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <v>44</v>
       </c>
@@ -4566,7 +4546,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>45</v>
       </c>
@@ -4633,7 +4613,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <v>46</v>
       </c>
@@ -4700,7 +4680,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <v>47</v>
       </c>
@@ -4737,9 +4717,7 @@
       <c r="O51" s="4">
         <v>240</v>
       </c>
-      <c r="P51" s="4">
-        <v>240</v>
-      </c>
+      <c r="P51" s="4"/>
       <c r="R51" s="4">
         <v>400</v>
       </c>
@@ -4771,7 +4749,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
         <v>48</v>
       </c>
@@ -4808,9 +4786,7 @@
       <c r="O52" s="4">
         <v>180</v>
       </c>
-      <c r="P52" s="4">
-        <v>180</v>
-      </c>
+      <c r="P52" s="4"/>
       <c r="R52" s="4">
         <v>400</v>
       </c>
@@ -4842,7 +4818,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>49</v>
       </c>
@@ -4874,11 +4850,9 @@
         <v>234</v>
       </c>
       <c r="O53" s="4">
-        <v>100</v>
-      </c>
-      <c r="P53" s="4">
-        <v>100</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P53" s="4"/>
       <c r="R53" s="4">
         <v>50</v>
       </c>
@@ -4908,7 +4882,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>50</v>
       </c>
@@ -4942,9 +4916,7 @@
       <c r="N54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="O54" s="4">
-        <v>1600</v>
-      </c>
+      <c r="O54" s="4"/>
       <c r="P54" s="4">
         <v>1600</v>
       </c>
@@ -4979,7 +4951,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>51</v>
       </c>
@@ -5016,9 +4988,7 @@
       <c r="O55" s="4">
         <v>90</v>
       </c>
-      <c r="P55" s="4">
-        <v>90</v>
-      </c>
+      <c r="P55" s="4"/>
       <c r="R55" s="4">
         <v>200</v>
       </c>
@@ -5048,7 +5018,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>52</v>
       </c>
@@ -5082,9 +5052,7 @@
       <c r="O56" s="4">
         <v>120</v>
       </c>
-      <c r="P56" s="4">
-        <v>120</v>
-      </c>
+      <c r="P56" s="4"/>
       <c r="R56" s="4">
         <v>200</v>
       </c>
@@ -5114,7 +5082,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>53</v>
       </c>
@@ -5148,9 +5116,7 @@
       <c r="M57" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="O57" s="4">
-        <v>1200</v>
-      </c>
+      <c r="O57" s="4"/>
       <c r="P57" s="4">
         <v>1200</v>
       </c>
@@ -5183,7 +5149,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
         <v>54</v>
       </c>
@@ -5214,9 +5180,7 @@
       <c r="M58" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="O58" s="4">
-        <v>1600</v>
-      </c>
+      <c r="O58" s="4"/>
       <c r="P58" s="4">
         <v>1600</v>
       </c>
@@ -5249,7 +5213,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>55</v>
       </c>
@@ -5314,7 +5278,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>56</v>
       </c>
@@ -5376,7 +5340,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
         <v>57</v>
       </c>
@@ -5441,7 +5405,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>58</v>
       </c>
@@ -5503,7 +5467,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
         <v>59</v>
       </c>
@@ -5569,7 +5533,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
         <v>60</v>
       </c>
@@ -5633,7 +5597,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
         <v>61</v>
       </c>
@@ -5698,7 +5662,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
         <v>62</v>
       </c>
@@ -5760,7 +5724,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
         <v>63</v>
       </c>
@@ -5825,7 +5789,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
         <v>64</v>
       </c>
@@ -5887,7 +5851,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -5905,7 +5869,7 @@
       <c r="AB69" s="4"/>
       <c r="AD69" s="4"/>
     </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -5923,7 +5887,7 @@
       <c r="AB70" s="4"/>
       <c r="AD70" s="4"/>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -5940,7 +5904,7 @@
       <c r="AB71" s="4"/>
       <c r="AD71" s="4"/>
     </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -5957,7 +5921,7 @@
       <c r="AB72" s="4"/>
       <c r="AD72" s="4"/>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -5974,7 +5938,7 @@
       <c r="AB73" s="4"/>
       <c r="AD73" s="4"/>
     </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -5991,7 +5955,7 @@
       <c r="AB74" s="4"/>
       <c r="AD74" s="4"/>
     </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -6008,7 +5972,7 @@
       <c r="AB75" s="4"/>
       <c r="AD75" s="4"/>
     </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -6025,7 +5989,7 @@
       <c r="AB76" s="4"/>
       <c r="AD76" s="4"/>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -6042,7 +6006,7 @@
       <c r="AB77" s="4"/>
       <c r="AD77" s="4"/>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -6059,7 +6023,7 @@
       <c r="AB78" s="4"/>
       <c r="AD78" s="4"/>
     </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -6076,7 +6040,7 @@
       <c r="AB79" s="4"/>
       <c r="AD79" s="4"/>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -6093,7 +6057,7 @@
       <c r="AB80" s="4"/>
       <c r="AD80" s="4"/>
     </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -6110,7 +6074,7 @@
       <c r="AB81" s="4"/>
       <c r="AD81" s="4"/>
     </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -6127,7 +6091,7 @@
       <c r="AB82" s="4"/>
       <c r="AD82" s="4"/>
     </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -6144,7 +6108,7 @@
       <c r="AB83" s="4"/>
       <c r="AD83" s="4"/>
     </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -6161,7 +6125,7 @@
       <c r="AB84" s="4"/>
       <c r="AD84" s="4"/>
     </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -6178,7 +6142,7 @@
       <c r="AB85" s="4"/>
       <c r="AD85" s="4"/>
     </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -6195,7 +6159,7 @@
       <c r="AB86" s="4"/>
       <c r="AD86" s="4"/>
     </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6212,7 +6176,7 @@
       <c r="AB87" s="4"/>
       <c r="AD87" s="4"/>
     </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -6229,7 +6193,7 @@
       <c r="AB88" s="4"/>
       <c r="AD88" s="4"/>
     </row>
-    <row r="89" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -6246,7 +6210,7 @@
       <c r="AB89" s="4"/>
       <c r="AD89" s="4"/>
     </row>
-    <row r="90" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -6263,7 +6227,7 @@
       <c r="AB90" s="4"/>
       <c r="AD90" s="4"/>
     </row>
-    <row r="91" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -6280,7 +6244,7 @@
       <c r="AB91" s="4"/>
       <c r="AD91" s="4"/>
     </row>
-    <row r="92" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6297,7 +6261,7 @@
       <c r="AB92" s="4"/>
       <c r="AD92" s="4"/>
     </row>
-    <row r="93" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -6311,7 +6275,7 @@
       <c r="AB93" s="4"/>
       <c r="AD93" s="4"/>
     </row>
-    <row r="94" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="N94" s="6"/>
@@ -6325,7 +6289,7 @@
       <c r="AB94" s="4"/>
       <c r="AD94" s="4"/>
     </row>
-    <row r="95" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="N95" s="6"/>
@@ -6339,7 +6303,7 @@
       <c r="AB95" s="4"/>
       <c r="AD95" s="4"/>
     </row>
-    <row r="96" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="N96" s="6"/>
@@ -6353,7 +6317,7 @@
       <c r="AB96" s="4"/>
       <c r="AD96" s="4"/>
     </row>
-    <row r="97" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="97" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="N97" s="6"/>
@@ -6367,7 +6331,7 @@
       <c r="AB97" s="4"/>
       <c r="AD97" s="4"/>
     </row>
-    <row r="98" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="98" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="N98" s="6"/>
@@ -6381,7 +6345,7 @@
       <c r="AB98" s="4"/>
       <c r="AD98" s="4"/>
     </row>
-    <row r="99" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="99" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="N99" s="6"/>
@@ -6395,7 +6359,7 @@
       <c r="AB99" s="4"/>
       <c r="AD99" s="4"/>
     </row>
-    <row r="100" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="100" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="N100" s="6"/>
@@ -6409,7 +6373,7 @@
       <c r="AB100" s="4"/>
       <c r="AD100" s="4"/>
     </row>
-    <row r="101" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="101" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="N101" s="6"/>
@@ -6423,7 +6387,7 @@
       <c r="AB101" s="4"/>
       <c r="AD101" s="4"/>
     </row>
-    <row r="102" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="102" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="N102" s="6"/>
@@ -6437,7 +6401,7 @@
       <c r="AB102" s="4"/>
       <c r="AD102" s="4"/>
     </row>
-    <row r="103" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="103" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="O103" s="4"/>
@@ -6448,7 +6412,7 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="104" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="O104" s="4"/>
@@ -6459,7 +6423,7 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="105" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="O105" s="4"/>
@@ -6470,7 +6434,7 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="106" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="O106" s="4"/>
@@ -6481,7 +6445,7 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="107" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="O107" s="4"/>
@@ -6492,7 +6456,7 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="108" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="O108" s="4"/>
@@ -6503,7 +6467,7 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="109" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="O109" s="4"/>
@@ -6514,7 +6478,7 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="110" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="O110" s="4"/>
@@ -6525,7 +6489,7 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="111" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="O111" s="4"/>
@@ -6536,7 +6500,7 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="5:30" x14ac:dyDescent="0.15">
+    <row r="112" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="O112" s="4"/>
@@ -6547,7 +6511,7 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="5:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="O113" s="4"/>
@@ -6558,7 +6522,7 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="5:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="O114" s="4"/>
@@ -6569,7 +6533,7 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="5:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="O115" s="4"/>
@@ -6580,7 +6544,7 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="5:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="O116" s="4"/>
@@ -6591,7 +6555,7 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="5:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="O117" s="4"/>
@@ -6602,7 +6566,7 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="5:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="O118" s="4"/>
@@ -6613,7 +6577,7 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="5:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="O119" s="4"/>
@@ -6624,7 +6588,7 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="5:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="O120" s="4"/>

--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DF409E-4A41-47F1-8889-7194A789D944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15123E-7FC2-4DE7-837B-9BD77E0911AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{89166F7D-1A88-4585-8059-BAA7A0557A19}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{89166F7D-1A88-4585-8059-BAA7A0557A19}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="278">
   <si>
     <t>0</t>
   </si>
@@ -171,18 +171,6 @@
     <t>太庙</t>
   </si>
   <si>
-    <t>农场 Lv1</t>
-  </si>
-  <si>
-    <t>兵舍 Lv1</t>
-  </si>
-  <si>
-    <t>锻冶厂 Lv1</t>
-  </si>
-  <si>
-    <t>厩舍 Lv1</t>
-  </si>
-  <si>
     <t>造币厂</t>
   </si>
   <si>
@@ -821,18 +809,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>市场 Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工房 Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造船厂 Lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工房 Lv2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -980,6 +956,67 @@
   </si>
   <si>
     <t>modelCreate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必要技术</t>
+  </si>
+  <si>
+    <t>canBuild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可建造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻冶厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厩舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造船厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needTech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionEntities</t>
+  </si>
+  <si>
+    <t>[{class:"BuildingImproveFoodGain", value:150, kinds:[33]}]</t>
+  </si>
+  <si>
+    <t>[{class:"BuildingImproveGoldGain", value:150, kinds:[32]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"BuildingImproveFoodGainByCityTroops", value:100, minTroops:5000, maxTroops:30000}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1479,41 +1516,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AE120"/>
+  <dimension ref="A1:AG120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AA31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q54" sqref="Q54"/>
+      <selection pane="bottomRight" activeCell="AD58" sqref="AD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="5" width="16.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="19.44140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17" style="2" customWidth="1"/>
-    <col min="15" max="16" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="71.88671875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="37.88671875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="2"/>
+    <col min="3" max="5" width="16.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="19.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17" style="2" customWidth="1"/>
+    <col min="17" max="18" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.25" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="71.875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="37.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="102.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1523,78 +1563,84 @@
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>137</v>
+        <v>148</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>262</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>114</v>
+        <v>138</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>212</v>
+        <v>120</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="U1" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="V1" s="14" t="s">
-        <v>61</v>
+      <c r="V1" s="18" t="s">
+        <v>208</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="X1" s="14" t="s">
         <v>57</v>
       </c>
+      <c r="Y1" s="14" t="s">
+        <v>201</v>
+      </c>
       <c r="Z1" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="AD1" s="9"/>
       <c r="AE1" s="7"/>
-    </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="7"/>
+    </row>
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1605,31 +1651,33 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="19"/>
+      <c r="J2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2"/>
-      <c r="P2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
-      <c r="T2" s="19"/>
+      <c r="T2"/>
       <c r="U2"/>
-      <c r="V2"/>
+      <c r="V2" s="19"/>
       <c r="W2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-    </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+    </row>
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1640,81 +1688,89 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>60</v>
+        <v>273</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>122</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>115</v>
+        <v>229</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>268</v>
+        <v>112</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="AE3" s="8"/>
-    </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+    </row>
+    <row r="4" spans="1:33" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1725,10 +1781,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>8</v>
@@ -1739,55 +1795,55 @@
       <c r="H4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>8</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="N4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="R4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
       <c r="U4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="W4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="X4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="Z4" s="11" t="s">
@@ -1796,8 +1852,17 @@
       <c r="AA4" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1814,52 +1879,57 @@
       <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>1</v>
+      <c r="I5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="4">
         <v>600</v>
       </c>
-      <c r="P5" s="4">
+      <c r="R5" s="4">
         <v>5600</v>
       </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
       <c r="S5" s="4">
-        <v>1</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>127</v>
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
       </c>
       <c r="U5" s="4">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W5" s="4">
         <v>250</v>
       </c>
-      <c r="V5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AD5" s="4"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AF5" s="4"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1877,57 +1947,62 @@
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>1</v>
+      <c r="I6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="4">
         <v>300</v>
       </c>
-      <c r="P6" s="4">
+      <c r="R6" s="4">
         <v>2800</v>
       </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
       <c r="S6" s="4">
         <v>0</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>127</v>
+      <c r="T6" s="4">
+        <v>0</v>
       </c>
       <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W6" s="4">
         <v>100</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AD6" s="4"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AF6" s="4"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -1939,57 +2014,62 @@
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>1</v>
+      <c r="I7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="4">
         <v>300</v>
       </c>
-      <c r="P7" s="4">
+      <c r="R7" s="4">
         <v>2800</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="S7" s="4">
         <v>0.03</v>
       </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>127</v>
+      <c r="T7" s="4">
+        <v>0</v>
       </c>
       <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W7" s="4">
         <v>50</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AD7" s="4"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AF7" s="4"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -2001,64 +2081,69 @@
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>1500</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4">
         <v>0.01</v>
       </c>
-      <c r="R8" s="4">
+      <c r="T8" s="4">
         <v>600</v>
       </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U8" s="4">
         <v>0</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="V8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y8" s="4"/>
       <c r="Z8" s="2" t="s">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB8" s="4"/>
-      <c r="AD8" s="4"/>
-    </row>
-    <row r="9" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -2070,64 +2155,69 @@
       <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="4">
+        <v>26</v>
+      </c>
+      <c r="K9" s="4">
         <v>2000</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4">
         <v>0.01</v>
       </c>
-      <c r="R9" s="4">
+      <c r="T9" s="4">
         <v>900</v>
       </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U9" s="4">
         <v>0</v>
       </c>
-      <c r="V9" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="V9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y9" s="4"/>
       <c r="Z9" s="2" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB9" s="4"/>
-      <c r="AD9" s="4"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF9" s="4"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -2139,64 +2229,69 @@
       <c r="H10" s="4">
         <v>3</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="4">
+        <v>27</v>
+      </c>
+      <c r="K10" s="4">
         <v>2500</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1200</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="R10" s="4">
-        <v>1200</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="W10" s="4"/>
-      <c r="X10" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB10" s="4"/>
-      <c r="AD10" s="4"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB10" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF10" s="4"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -2208,59 +2303,64 @@
       <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>800</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
+      <c r="O11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
         <v>600</v>
       </c>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U11" s="4">
         <v>0</v>
       </c>
-      <c r="V11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="W11" s="4"/>
-      <c r="X11" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="V11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y11" s="4"/>
       <c r="Z11" s="2" t="s">
-        <v>266</v>
+        <v>158</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB11" s="4"/>
-      <c r="AD11" s="4"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF11" s="4"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2277,64 +2377,69 @@
       <c r="H12" s="4">
         <v>2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="4">
+        <v>26</v>
+      </c>
+      <c r="K12" s="4">
         <v>1000</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
+      <c r="O12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
         <v>600</v>
       </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U12" s="4">
         <v>0</v>
       </c>
-      <c r="V12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="W12" s="4"/>
-      <c r="X12" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>267</v>
-      </c>
+      <c r="V12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y12" s="4"/>
       <c r="Z12" s="2" t="s">
-        <v>266</v>
+        <v>176</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB12" s="4"/>
-      <c r="AD12" s="4"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -2346,50 +2451,55 @@
       <c r="H13" s="4">
         <v>1</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
         <v>800</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
         <v>300</v>
       </c>
-      <c r="S13" s="4">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="U13" s="4">
         <v>0</v>
       </c>
-      <c r="V13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB13" s="4"/>
-      <c r="AD13" s="4"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2406,50 +2516,55 @@
       <c r="H14" s="4">
         <v>1</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="4">
+        <v>22</v>
+      </c>
+      <c r="K14" s="4">
         <v>1000</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
         <v>300</v>
       </c>
-      <c r="S14" s="4">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="U14" s="4">
         <v>0</v>
       </c>
-      <c r="V14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB14" s="4"/>
-      <c r="AD14" s="4"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF14" s="4"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2466,50 +2581,55 @@
       <c r="H15" s="4">
         <v>1</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="4">
+        <v>23</v>
+      </c>
+      <c r="K15" s="4">
         <v>1200</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
         <v>800</v>
       </c>
-      <c r="S15" s="4">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U15" s="4">
         <v>0</v>
       </c>
-      <c r="V15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W15" s="4"/>
-      <c r="X15" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB15" s="4"/>
-      <c r="AD15" s="4"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF15" s="4"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2526,50 +2646,55 @@
       <c r="H16" s="4">
         <v>1</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
         <v>800</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
         <v>500</v>
       </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U16" s="4">
         <v>0</v>
       </c>
-      <c r="V16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W16" s="4"/>
-      <c r="X16" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB16" s="4"/>
-      <c r="AD16" s="4"/>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF16" s="4"/>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2586,50 +2711,55 @@
       <c r="H17" s="4">
         <v>1</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
         <v>800</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4">
         <v>0.01</v>
       </c>
-      <c r="R17" s="4">
+      <c r="T17" s="4">
         <v>800</v>
       </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U17" s="4">
         <v>0</v>
       </c>
-      <c r="V17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="W17" s="4"/>
-      <c r="X17" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB17" s="4"/>
-      <c r="AD17" s="4"/>
-    </row>
-    <row r="18" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF17" s="4"/>
+    </row>
+    <row r="18" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2646,55 +2776,60 @@
       <c r="H18" s="4">
         <v>1</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="4">
+        <v>22</v>
+      </c>
+      <c r="K18" s="4">
         <v>1000</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4">
         <v>0.01</v>
       </c>
-      <c r="R18" s="4">
+      <c r="T18" s="4">
         <v>1200</v>
       </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="U18" s="4">
         <v>0</v>
       </c>
-      <c r="V18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="W18" s="4"/>
-      <c r="X18" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB18" s="4"/>
-      <c r="AD18" s="4"/>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF18" s="4"/>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -2706,46 +2841,51 @@
       <c r="H19" s="4">
         <v>1</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
         <v>5000</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4">
-        <v>0.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>128</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="T19" s="4"/>
       <c r="U19" s="4">
         <v>0</v>
       </c>
-      <c r="V19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AD19" s="4"/>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AF19" s="4"/>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2762,51 +2902,56 @@
       <c r="H20" s="4">
         <v>1</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
         <v>2000</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4">
         <v>0</v>
       </c>
-      <c r="T20" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="T20" s="4"/>
       <c r="U20" s="4">
         <v>0</v>
       </c>
-      <c r="V20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AD20" s="4"/>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AF20" s="4"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
@@ -2818,55 +2963,60 @@
       <c r="H21" s="4">
         <v>1</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
         <v>200</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
         <v>200</v>
       </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U21" s="4">
         <v>0</v>
       </c>
-      <c r="V21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="W21" s="4"/>
-      <c r="X21" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB21" s="4"/>
-      <c r="AD21" s="4"/>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF21" s="4"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
@@ -2878,50 +3028,55 @@
       <c r="H22" s="4">
         <v>1</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="4">
+        <v>31</v>
+      </c>
+      <c r="K22" s="4">
         <v>200</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
         <v>200</v>
       </c>
-      <c r="S22" s="4">
-        <v>0</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U22" s="4">
         <v>0</v>
       </c>
-      <c r="V22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W22" s="4"/>
-      <c r="X22" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB22" s="4"/>
-      <c r="AD22" s="4"/>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF22" s="4"/>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -2938,50 +3093,55 @@
       <c r="H23" s="4">
         <v>1</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
         <v>200</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
         <v>200</v>
       </c>
-      <c r="S23" s="4">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U23" s="4">
         <v>0</v>
       </c>
-      <c r="V23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W23" s="4"/>
-      <c r="X23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB23" s="4"/>
-      <c r="AD23" s="4"/>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF23" s="4"/>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -2998,50 +3158,55 @@
       <c r="H24" s="4">
         <v>1</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="4">
+        <v>31</v>
+      </c>
+      <c r="K24" s="4">
         <v>200</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4">
-        <v>0</v>
-      </c>
-      <c r="R24" s="4">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
         <v>200</v>
       </c>
-      <c r="S24" s="4">
-        <v>0</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U24" s="4">
         <v>0</v>
       </c>
-      <c r="V24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="W24" s="4"/>
-      <c r="X24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB24" s="4"/>
-      <c r="AD24" s="4"/>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF24" s="4"/>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -3058,50 +3223,55 @@
       <c r="H25" s="4">
         <v>1</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
         <v>200</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4">
-        <v>0</v>
-      </c>
-      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
         <v>200</v>
       </c>
-      <c r="S25" s="4">
-        <v>0</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U25" s="4">
         <v>0</v>
       </c>
-      <c r="V25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="W25" s="4"/>
-      <c r="X25" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB25" s="4"/>
-      <c r="AD25" s="4"/>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF25" s="4"/>
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -3118,55 +3288,60 @@
       <c r="H26" s="4">
         <v>1</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" s="4">
+        <v>32</v>
+      </c>
+      <c r="K26" s="4">
         <v>200</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4">
         <v>0.01</v>
       </c>
-      <c r="R26" s="4">
+      <c r="T26" s="4">
         <v>200</v>
       </c>
-      <c r="S26" s="4">
-        <v>0</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U26" s="4">
         <v>0</v>
       </c>
-      <c r="V26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="W26" s="4"/>
-      <c r="X26" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB26" s="4"/>
-      <c r="AD26" s="4"/>
-    </row>
-    <row r="27" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF26" s="4"/>
+    </row>
+    <row r="27" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
@@ -3178,50 +3353,55 @@
       <c r="H27" s="4">
         <v>1</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="4">
+        <v>32</v>
+      </c>
+      <c r="K27" s="4">
         <v>200</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4">
         <v>0.01</v>
       </c>
-      <c r="R27" s="4">
+      <c r="T27" s="4">
         <v>200</v>
       </c>
-      <c r="S27" s="4">
-        <v>0</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U27" s="4">
         <v>0</v>
       </c>
-      <c r="V27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="W27" s="4"/>
-      <c r="X27" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB27" s="4"/>
-      <c r="AD27" s="4"/>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF27" s="4"/>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -3238,46 +3418,51 @@
       <c r="H28" s="4">
         <v>1</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
         <v>10</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4">
-        <v>0.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4">
-        <v>0</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="T28" s="4"/>
       <c r="U28" s="4">
         <v>0</v>
       </c>
-      <c r="V28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AD28" s="4"/>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AF28" s="4"/>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -3294,46 +3479,51 @@
       <c r="H29" s="4">
         <v>1</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
         <v>800</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4">
         <v>0</v>
       </c>
-      <c r="T29" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="T29" s="4"/>
       <c r="U29" s="4">
         <v>0</v>
       </c>
-      <c r="V29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AD29" s="4"/>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AF29" s="4"/>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -3350,44 +3540,49 @@
       <c r="H30" s="4">
         <v>1</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="I30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4"/>
       <c r="L30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4">
         <v>0</v>
       </c>
-      <c r="T30" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="T30" s="4"/>
       <c r="U30" s="4">
         <v>0</v>
       </c>
-      <c r="V30" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AD30" s="4"/>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AF30" s="4"/>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -3404,46 +3599,51 @@
       <c r="H31" s="4">
         <v>1</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
         <v>700</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4">
         <v>0</v>
       </c>
-      <c r="T31" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="T31" s="4"/>
       <c r="U31" s="4">
         <v>0</v>
       </c>
-      <c r="V31" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AD31" s="4"/>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AF31" s="4"/>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -3460,44 +3660,49 @@
       <c r="H32" s="4">
         <v>1</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="I32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4"/>
       <c r="L32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N32" s="6"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4">
         <v>0</v>
       </c>
-      <c r="T32" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="T32" s="4"/>
       <c r="U32" s="4">
         <v>0</v>
       </c>
-      <c r="V32" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AD32" s="4"/>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AF32" s="4"/>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -3514,46 +3719,51 @@
       <c r="H33" s="4">
         <v>1</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
         <v>800</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N33" s="6"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4">
         <v>0</v>
       </c>
-      <c r="T33" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="T33" s="4"/>
       <c r="U33" s="4">
         <v>0</v>
       </c>
-      <c r="V33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AD33" s="4"/>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AF33" s="4"/>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -3570,46 +3780,51 @@
       <c r="H34" s="4">
         <v>1</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
         <v>800</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4">
         <v>0</v>
       </c>
-      <c r="T34" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="T34" s="4"/>
       <c r="U34" s="4">
         <v>0</v>
       </c>
-      <c r="V34" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AD34" s="4"/>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="V34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W34" s="4">
+        <v>0</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AF34" s="4"/>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -3626,55 +3841,60 @@
       <c r="H35" s="4">
         <v>1</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
         <v>1300</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N35" s="6"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4">
-        <v>0</v>
-      </c>
-      <c r="R35" s="4">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+      <c r="T35" s="4">
         <v>1500</v>
       </c>
-      <c r="S35" s="4">
-        <v>0</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U35" s="4">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W35" s="4">
         <v>100</v>
       </c>
-      <c r="V35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="X35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AD35" s="4"/>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="X35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z35" s="4"/>
+      <c r="AF35" s="4"/>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>32</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="D36" s="4">
         <v>4</v>
@@ -3688,68 +3908,73 @@
       <c r="H36" s="4">
         <v>1</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
         <v>500</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N36" s="6"/>
-      <c r="O36" s="4">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="4">
         <v>75</v>
       </c>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4">
-        <v>0</v>
-      </c>
-      <c r="R36" s="4">
+      <c r="R36" s="4"/>
+      <c r="S36" s="4">
+        <v>0</v>
+      </c>
+      <c r="T36" s="4">
         <v>200</v>
       </c>
-      <c r="S36" s="4">
-        <v>0</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U36" s="4">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W36" s="4">
         <v>30</v>
       </c>
-      <c r="V36" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>239</v>
+      <c r="X36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y36" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB36" s="4"/>
-      <c r="AD36" s="4"/>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF36" s="4"/>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="D37" s="4">
         <v>4</v>
@@ -3763,68 +3988,73 @@
       <c r="H37" s="4">
         <v>1</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
         <v>500</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="L37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N37" s="6"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4">
+        <v>1</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4">
         <v>1000</v>
       </c>
-      <c r="Q37" s="4">
-        <v>0</v>
-      </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
+        <v>0</v>
+      </c>
+      <c r="T37" s="4">
         <v>200</v>
       </c>
-      <c r="S37" s="4">
-        <v>0</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U37" s="4">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W37" s="4">
         <v>30</v>
       </c>
-      <c r="V37" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="W37" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>240</v>
+      <c r="X37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y37" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB37" s="4"/>
-      <c r="AD37" s="4"/>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF37" s="4"/>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>34</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>33</v>
+        <v>268</v>
       </c>
       <c r="D38" s="4">
         <v>4</v>
@@ -3833,65 +4063,71 @@
         <v>34</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H38" s="4">
         <v>1</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
         <v>800</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="T38" s="4">
+        <v>300</v>
+      </c>
+      <c r="U38" s="4">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W38" s="4">
+        <v>30</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA38" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="R38" s="4">
-        <v>300</v>
-      </c>
-      <c r="S38" s="4">
-        <v>0</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="U38" s="4">
-        <v>30</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="W38" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AB38" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="D39" s="4">
         <v>4</v>
@@ -3900,65 +4136,71 @@
         <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
         <v>800</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="R39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="T39" s="4">
         <v>300</v>
       </c>
-      <c r="S39" s="4">
-        <v>0</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U39" s="4">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W39" s="4">
         <v>30</v>
       </c>
-      <c r="V39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W39" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y39" s="2" t="s">
-        <v>242</v>
+      <c r="X39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y39" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="AA39" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="AB39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="D40" s="4">
         <v>4</v>
@@ -3967,65 +4209,71 @@
         <v>36</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
         <v>800</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="R40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="T40" s="4">
         <v>300</v>
       </c>
-      <c r="S40" s="4">
-        <v>0</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U40" s="4">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W40" s="4">
         <v>30</v>
       </c>
-      <c r="V40" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="W40" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>243</v>
+      <c r="X40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y40" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>263</v>
+        <v>156</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>37</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="D41" s="4">
         <v>4</v>
@@ -4034,65 +4282,71 @@
         <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H41" s="4">
         <v>1</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
         <v>1000</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="R41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="T41" s="4">
         <v>300</v>
       </c>
-      <c r="S41" s="4">
-        <v>0</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U41" s="4">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W41" s="4">
         <v>30</v>
       </c>
-      <c r="V41" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="W41" s="4" t="s">
+      <c r="X41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y41" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA41" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="X41" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y41" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z41" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA41" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AB41" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>38</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="D42" s="4">
         <v>4</v>
@@ -4101,65 +4355,71 @@
         <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="T42" s="4">
+        <v>300</v>
+      </c>
+      <c r="U42" s="4">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W42" s="4">
+        <v>30</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y42" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H42" s="4">
-        <v>1</v>
-      </c>
-      <c r="I42" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="R42" s="4">
-        <v>300</v>
-      </c>
-      <c r="S42" s="4">
-        <v>0</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="U42" s="4">
-        <v>30</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y42" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="Z42" s="2" t="s">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>39</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D43" s="4">
         <v>4</v>
@@ -4170,58 +4430,67 @@
       <c r="H43" s="4">
         <v>1</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
         <v>1200</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L43" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="R43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="T43" s="4">
         <v>400</v>
       </c>
-      <c r="S43" s="4">
-        <v>0</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U43" s="4">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W43" s="4">
         <v>30</v>
       </c>
-      <c r="V43" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="W43" s="4"/>
-      <c r="X43" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y43" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="X43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y43" s="4"/>
       <c r="Z43" s="2" t="s">
-        <v>263</v>
+        <v>157</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="AB43" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>40</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D44" s="4">
         <v>4</v>
@@ -4232,58 +4501,67 @@
       <c r="H44" s="4">
         <v>1</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
         <v>1200</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L44" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="R44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="T44" s="4">
         <v>400</v>
       </c>
-      <c r="S44" s="4">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U44" s="4">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W44" s="4">
         <v>30</v>
       </c>
-      <c r="V44" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="W44" s="4"/>
-      <c r="X44" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y44" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="X44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y44" s="4"/>
       <c r="Z44" s="2" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="AB44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>41</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D45" s="4">
         <v>4</v>
@@ -4294,63 +4572,69 @@
       <c r="H45" s="4">
         <v>1</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
         <v>600</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L45" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="R45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="T45" s="4">
         <v>200</v>
       </c>
-      <c r="S45" s="4">
-        <v>0</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U45" s="4">
+        <v>0</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W45" s="4">
         <v>30</v>
       </c>
-      <c r="V45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="W45" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y45" s="2" t="s">
-        <v>248</v>
+      <c r="X45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y45" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>42</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D46" s="4">
         <v>4</v>
@@ -4361,63 +4645,69 @@
       <c r="H46" s="4">
         <v>1</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
         <v>600</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L46" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="R46" s="4">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="T46" s="4">
         <v>200</v>
       </c>
-      <c r="S46" s="4">
-        <v>0</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U46" s="4">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W46" s="4">
         <v>30</v>
       </c>
-      <c r="V46" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="W46" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>249</v>
+      <c r="X46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="AB46" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
         <v>43</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D47" s="4">
         <v>4</v>
@@ -4428,63 +4718,69 @@
       <c r="H47" s="4">
         <v>1</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
         <v>600</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L47" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="R47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="T47" s="4">
         <v>200</v>
       </c>
-      <c r="S47" s="4">
-        <v>0</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U47" s="4">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W47" s="4">
         <v>30</v>
       </c>
-      <c r="V47" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="W47" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>250</v>
+      <c r="X47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y47" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="AB47" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D48" s="4">
         <v>4</v>
@@ -4495,63 +4791,69 @@
       <c r="H48" s="4">
         <v>1</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
         <v>600</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L48" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="R48" s="4">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="T48" s="4">
         <v>200</v>
       </c>
-      <c r="S48" s="4">
-        <v>0</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U48" s="4">
+        <v>0</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W48" s="4">
         <v>30</v>
       </c>
-      <c r="V48" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="W48" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="X48" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y48" s="2" t="s">
-        <v>251</v>
+      <c r="X48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="AA48" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="AB48" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>45</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D49" s="4">
         <v>4</v>
@@ -4562,63 +4864,69 @@
       <c r="H49" s="4">
         <v>1</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
         <v>600</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L49" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="R49" s="4">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="T49" s="4">
         <v>200</v>
       </c>
-      <c r="S49" s="4">
-        <v>0</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U49" s="4">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W49" s="4">
         <v>30</v>
       </c>
-      <c r="V49" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="W49" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y49" s="2" t="s">
-        <v>252</v>
+      <c r="X49" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y49" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="AB49" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <v>46</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D50" s="4">
         <v>4</v>
@@ -4629,63 +4937,69 @@
       <c r="H50" s="4">
         <v>1</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
         <v>600</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L50" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="R50" s="4">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="T50" s="4">
         <v>200</v>
       </c>
-      <c r="S50" s="4">
-        <v>0</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U50" s="4">
+        <v>0</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W50" s="4">
         <v>30</v>
       </c>
-      <c r="V50" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="W50" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y50" s="2" t="s">
-        <v>253</v>
+      <c r="X50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y50" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="AB50" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>47</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D51" s="4">
         <v>4</v>
@@ -4696,65 +5010,71 @@
       <c r="H51" s="4">
         <v>1</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
         <v>1500</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L51" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q51" s="4">
         <v>240</v>
       </c>
-      <c r="P51" s="4"/>
-      <c r="R51" s="4">
+      <c r="R51" s="4"/>
+      <c r="T51" s="4">
         <v>400</v>
       </c>
-      <c r="S51" s="4">
-        <v>0</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U51" s="4">
+        <v>0</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W51" s="4">
         <v>30</v>
       </c>
-      <c r="V51" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="W51" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y51" s="2" t="s">
-        <v>254</v>
+      <c r="X51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y51" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="AA51" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>48</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D52" s="4">
         <v>4</v>
@@ -4765,65 +5085,71 @@
       <c r="H52" s="4">
         <v>1</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
         <v>800</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L52" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q52" s="4">
         <v>180</v>
       </c>
-      <c r="P52" s="4"/>
-      <c r="R52" s="4">
+      <c r="R52" s="4"/>
+      <c r="T52" s="4">
         <v>400</v>
       </c>
-      <c r="S52" s="4">
-        <v>0</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U52" s="4">
+        <v>0</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W52" s="4">
         <v>30</v>
       </c>
-      <c r="V52" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="W52" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y52" s="2" t="s">
-        <v>255</v>
+      <c r="X52" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y52" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="AB52" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
         <v>49</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D53" s="4">
         <v>4</v>
@@ -4834,60 +5160,66 @@
       <c r="H53" s="4">
         <v>1</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
         <v>200</v>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L53" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q53" s="4">
         <v>60</v>
       </c>
-      <c r="P53" s="4"/>
-      <c r="R53" s="4">
+      <c r="R53" s="4"/>
+      <c r="T53" s="4">
         <v>50</v>
       </c>
-      <c r="S53" s="4">
-        <v>0</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U53" s="4">
         <v>0</v>
       </c>
-      <c r="V53" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="W53" s="4"/>
-      <c r="X53" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y53" s="2" t="s">
+      <c r="V53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W53" s="4">
+        <v>0</v>
+      </c>
+      <c r="X53" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB53" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="Z53" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA53" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AC53" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>50</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D54" s="4">
         <v>4</v>
@@ -4898,65 +5230,74 @@
       <c r="H54" s="4">
         <v>1</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
         <v>1200</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L54" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4">
         <v>1600</v>
       </c>
-      <c r="R54" s="4">
+      <c r="T54" s="4">
         <v>400</v>
       </c>
-      <c r="S54" s="4">
-        <v>0</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U54" s="4">
+        <v>0</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W54" s="4">
         <v>30</v>
       </c>
-      <c r="V54" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="W54" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="X54" s="2" t="s">
+      <c r="X54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y54" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="Y54" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="Z54" s="2" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="AB54" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD54" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
         <v>51</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D55" s="4">
         <v>4</v>
@@ -4965,65 +5306,71 @@
         <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H55" s="4">
         <v>2</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
         <v>800</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L55" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O55" s="4">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q55" s="4">
         <v>90</v>
       </c>
-      <c r="P55" s="4"/>
-      <c r="R55" s="4">
+      <c r="R55" s="4"/>
+      <c r="T55" s="4">
         <v>200</v>
       </c>
-      <c r="S55" s="4">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U55" s="4">
+        <v>0</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W55" s="4">
         <v>20</v>
       </c>
-      <c r="V55" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W55" s="4"/>
-      <c r="X55" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y55" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="X55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y55" s="4"/>
       <c r="Z55" s="2" t="s">
-        <v>263</v>
+        <v>150</v>
       </c>
       <c r="AA55" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="AB55" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B56" s="4">
         <v>52</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D56" s="4">
         <v>4</v>
@@ -5034,60 +5381,66 @@
       <c r="H56" s="4">
         <v>3</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
         <v>1200</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L56" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O56" s="4">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q56" s="4">
         <v>120</v>
       </c>
-      <c r="P56" s="4"/>
-      <c r="R56" s="4">
+      <c r="R56" s="4"/>
+      <c r="T56" s="4">
         <v>200</v>
       </c>
-      <c r="S56" s="4">
-        <v>0</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U56" s="4">
+        <v>0</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W56" s="4">
         <v>20</v>
       </c>
-      <c r="V56" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W56" s="4"/>
-      <c r="X56" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y56" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="X56" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y56" s="4"/>
       <c r="Z56" s="2" t="s">
-        <v>263</v>
+        <v>150</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="AB56" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
         <v>53</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D57" s="4">
         <v>4</v>
@@ -5096,65 +5449,71 @@
         <v>33</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H57" s="4">
         <v>2</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
         <v>800</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L57" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4">
         <v>1200</v>
       </c>
-      <c r="R57" s="4">
+      <c r="T57" s="4">
         <v>200</v>
       </c>
-      <c r="S57" s="4">
-        <v>0</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U57" s="4">
+        <v>0</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W57" s="4">
         <v>20</v>
       </c>
-      <c r="V57" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W57" s="4"/>
-      <c r="X57" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y57" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="X57" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y57" s="4"/>
       <c r="Z57" s="2" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="AB57" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B58" s="4">
         <v>54</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D58" s="4">
         <v>4</v>
@@ -5165,60 +5524,66 @@
       <c r="H58" s="4">
         <v>3</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
         <v>1200</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L58" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4">
         <v>1600</v>
       </c>
-      <c r="R58" s="4">
+      <c r="T58" s="4">
         <v>200</v>
       </c>
-      <c r="S58" s="4">
-        <v>0</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U58" s="4">
+        <v>0</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W58" s="4">
         <v>20</v>
       </c>
-      <c r="V58" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W58" s="4"/>
-      <c r="X58" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y58" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="X58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y58" s="4"/>
       <c r="Z58" s="2" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="AA58" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="AB58" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC58" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
         <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D59" s="4">
         <v>4</v>
@@ -5227,63 +5592,69 @@
         <v>34</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H59" s="4">
         <v>2</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
         <v>1200</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L59" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="R59" s="4">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="T59" s="4">
         <v>200</v>
       </c>
-      <c r="S59" s="4">
-        <v>0</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U59" s="4">
+        <v>0</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W59" s="4">
         <v>20</v>
       </c>
-      <c r="V59" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W59" s="4"/>
-      <c r="X59" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y59" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="X59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y59" s="4"/>
       <c r="Z59" s="2" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="AB59" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
         <v>56</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D60" s="4">
         <v>4</v>
@@ -5294,58 +5665,64 @@
       <c r="H60" s="4">
         <v>3</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
         <v>2000</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L60" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="R60" s="4">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="T60" s="4">
         <v>200</v>
       </c>
-      <c r="S60" s="4">
-        <v>0</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U60" s="4">
+        <v>0</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W60" s="4">
         <v>20</v>
       </c>
-      <c r="V60" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W60" s="4"/>
-      <c r="X60" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y60" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="X60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y60" s="4"/>
       <c r="Z60" s="2" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="AA60" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="AB60" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC60" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B61" s="4">
         <v>57</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D61" s="4">
         <v>4</v>
@@ -5354,63 +5731,69 @@
         <v>35</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H61" s="4">
         <v>2</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
         <v>1200</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L61" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="R61" s="4">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="T61" s="4">
         <v>200</v>
       </c>
-      <c r="S61" s="4">
-        <v>0</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U61" s="4">
+        <v>0</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W61" s="4">
         <v>20</v>
       </c>
-      <c r="V61" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W61" s="4"/>
-      <c r="X61" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y61" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="X61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y61" s="4"/>
       <c r="Z61" s="2" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="AA61" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="AB61" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC61" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
         <v>58</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D62" s="4">
         <v>4</v>
@@ -5421,58 +5804,64 @@
       <c r="H62" s="4">
         <v>3</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
         <v>2000</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L62" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="R62" s="4">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="T62" s="4">
         <v>200</v>
       </c>
-      <c r="S62" s="4">
-        <v>0</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U62" s="4">
+        <v>0</v>
+      </c>
+      <c r="V62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W62" s="4">
         <v>20</v>
       </c>
-      <c r="V62" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W62" s="4"/>
-      <c r="X62" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y62" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="X62" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y62" s="4"/>
       <c r="Z62" s="2" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="AA62" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="AB62" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
         <v>59</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D63" s="4">
         <v>4</v>
@@ -5486,59 +5875,65 @@
       <c r="H63" s="4">
         <v>2</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
         <v>1200</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L63" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="Q63" s="4"/>
-      <c r="R63" s="4">
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4">
         <v>200</v>
       </c>
-      <c r="S63" s="4">
-        <v>0</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U63" s="4">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W63" s="4">
         <v>20</v>
       </c>
-      <c r="V63" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W63" s="4"/>
-      <c r="X63" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y63" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="X63" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y63" s="4"/>
       <c r="Z63" s="2" t="s">
-        <v>263</v>
+        <v>156</v>
       </c>
       <c r="AA63" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="AB63" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC63" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B64" s="4">
         <v>60</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D64" s="4">
         <v>4</v>
@@ -5550,59 +5945,65 @@
       <c r="H64" s="4">
         <v>3</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
         <v>2000</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L64" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="Q64" s="4"/>
-      <c r="R64" s="4">
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4">
         <v>200</v>
       </c>
-      <c r="S64" s="4">
-        <v>0</v>
-      </c>
-      <c r="T64" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U64" s="4">
+        <v>0</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W64" s="4">
         <v>20</v>
       </c>
-      <c r="V64" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W64" s="4"/>
-      <c r="X64" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y64" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="X64" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y64" s="4"/>
       <c r="Z64" s="2" t="s">
-        <v>263</v>
+        <v>156</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="AB64" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
         <v>61</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D65" s="4">
         <v>4</v>
@@ -5611,63 +6012,69 @@
         <v>37</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H65" s="4">
         <v>2</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
         <v>1500</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L65" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="R65" s="4">
+        <v>0</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="T65" s="4">
         <v>200</v>
       </c>
-      <c r="S65" s="4">
-        <v>0</v>
-      </c>
-      <c r="T65" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U65" s="4">
+        <v>0</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W65" s="4">
         <v>30</v>
       </c>
-      <c r="V65" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="W65" s="4"/>
-      <c r="X65" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y65" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="X65" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y65" s="4"/>
       <c r="Z65" s="2" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="AA65" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="AB65" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC65" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>62</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D66" s="4">
         <v>4</v>
@@ -5678,58 +6085,64 @@
       <c r="H66" s="4">
         <v>3</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
         <v>2500</v>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L66" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="R66" s="4">
+        <v>0</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="T66" s="4">
         <v>200</v>
       </c>
-      <c r="S66" s="4">
-        <v>0</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U66" s="4">
+        <v>0</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W66" s="4">
         <v>30</v>
       </c>
-      <c r="V66" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="W66" s="4"/>
-      <c r="X66" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y66" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="X66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y66" s="4"/>
       <c r="Z66" s="2" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="AA66" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="AB66" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC66" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
         <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D67" s="4">
         <v>4</v>
@@ -5738,63 +6151,69 @@
         <v>38</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H67" s="4">
         <v>2</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
         <v>1500</v>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L67" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="R67" s="4">
+        <v>0</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="T67" s="4">
         <v>200</v>
       </c>
-      <c r="S67" s="4">
-        <v>0</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U67" s="4">
+        <v>0</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W67" s="4">
         <v>30</v>
       </c>
-      <c r="V67" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="W67" s="4"/>
-      <c r="X67" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y67" s="2" t="s">
-        <v>245</v>
-      </c>
+      <c r="X67" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y67" s="4"/>
       <c r="Z67" s="2" t="s">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="AA67" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="AB67" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC67" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>64</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D68" s="4">
         <v>4</v>
@@ -5805,799 +6224,773 @@
       <c r="H68" s="4">
         <v>3</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
         <v>2500</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="L68" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="R68" s="4">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="T68" s="4">
         <v>200</v>
       </c>
-      <c r="S68" s="4">
-        <v>0</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="U68" s="4">
+        <v>0</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W68" s="4">
         <v>30</v>
       </c>
-      <c r="V68" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="W68" s="4"/>
-      <c r="X68" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y68" s="2" t="s">
-        <v>245</v>
-      </c>
+      <c r="X68" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y68" s="4"/>
       <c r="Z68" s="2" t="s">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="AA68" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="AB68" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC68" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="P69" s="6"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
       <c r="W69" s="4"/>
-      <c r="AB69" s="4"/>
-      <c r="AD69" s="4"/>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="AF69" s="4"/>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="P70" s="6"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
       <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
       <c r="W70" s="4"/>
-      <c r="AB70" s="4"/>
-      <c r="AD70" s="4"/>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="AF70" s="4"/>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
+      <c r="P71" s="6"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AD71" s="4"/>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="AF71" s="4"/>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
+      <c r="P72" s="6"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="AB72" s="4"/>
-      <c r="AD72" s="4"/>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="AF72" s="4"/>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
+      <c r="P73" s="6"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AD73" s="4"/>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="AF73" s="4"/>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
+      <c r="P74" s="6"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="AB74" s="4"/>
-      <c r="AD74" s="4"/>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="AF74" s="4"/>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
+      <c r="P75" s="6"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AD75" s="4"/>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="AF75" s="4"/>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
+      <c r="P76" s="6"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AD76" s="4"/>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="AF76" s="4"/>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
+      <c r="P77" s="6"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AD77" s="4"/>
-    </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="AF77" s="4"/>
+    </row>
+    <row r="78" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
+      <c r="P78" s="6"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="AB78" s="4"/>
-      <c r="AD78" s="4"/>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="AF78" s="4"/>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
+      <c r="P79" s="6"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="AB79" s="4"/>
-      <c r="AD79" s="4"/>
-    </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="AF79" s="4"/>
+    </row>
+    <row r="80" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
+      <c r="P80" s="6"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="AB80" s="4"/>
-      <c r="AD80" s="4"/>
-    </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="AF80" s="4"/>
+    </row>
+    <row r="81" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
+      <c r="P81" s="6"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="AB81" s="4"/>
-      <c r="AD81" s="4"/>
-    </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="AF81" s="4"/>
+    </row>
+    <row r="82" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
+      <c r="P82" s="6"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="AB82" s="4"/>
-      <c r="AD82" s="4"/>
-    </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="AF82" s="4"/>
+    </row>
+    <row r="83" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
+      <c r="P83" s="6"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
-      <c r="V83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="AB83" s="4"/>
-      <c r="AD83" s="4"/>
-    </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="AF83" s="4"/>
+    </row>
+    <row r="84" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
+      <c r="P84" s="6"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
-      <c r="V84" s="4"/>
-      <c r="W84" s="4"/>
-      <c r="AB84" s="4"/>
-      <c r="AD84" s="4"/>
-    </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="AF84" s="4"/>
+    </row>
+    <row r="85" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
+      <c r="P85" s="6"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
-      <c r="V85" s="4"/>
-      <c r="W85" s="4"/>
-      <c r="AB85" s="4"/>
-      <c r="AD85" s="4"/>
-    </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="AF85" s="4"/>
+    </row>
+    <row r="86" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
+      <c r="P86" s="6"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
-      <c r="V86" s="4"/>
-      <c r="W86" s="4"/>
-      <c r="AB86" s="4"/>
-      <c r="AD86" s="4"/>
-    </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="AF86" s="4"/>
+    </row>
+    <row r="87" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
+      <c r="P87" s="6"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="AB87" s="4"/>
-      <c r="AD87" s="4"/>
-    </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="AF87" s="4"/>
+    </row>
+    <row r="88" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
+      <c r="P88" s="6"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="W88" s="4"/>
-      <c r="AB88" s="4"/>
-      <c r="AD88" s="4"/>
-    </row>
-    <row r="89" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="AF88" s="4"/>
+    </row>
+    <row r="89" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
+      <c r="P89" s="6"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-      <c r="AB89" s="4"/>
-      <c r="AD89" s="4"/>
-    </row>
-    <row r="90" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="AF89" s="4"/>
+    </row>
+    <row r="90" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
+      <c r="P90" s="6"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="AB90" s="4"/>
-      <c r="AD90" s="4"/>
-    </row>
-    <row r="91" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="AF90" s="4"/>
+    </row>
+    <row r="91" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
+      <c r="P91" s="6"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
-      <c r="V91" s="4"/>
-      <c r="W91" s="4"/>
-      <c r="AB91" s="4"/>
-      <c r="AD91" s="4"/>
-    </row>
-    <row r="92" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="AF91" s="4"/>
+    </row>
+    <row r="92" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
+      <c r="P92" s="6"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="4"/>
-      <c r="AB92" s="4"/>
-      <c r="AD92" s="4"/>
-    </row>
-    <row r="93" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="AF92" s="4"/>
+    </row>
+    <row r="93" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
-      <c r="V93" s="4"/>
-      <c r="W93" s="4"/>
-      <c r="AB93" s="4"/>
-      <c r="AD93" s="4"/>
-    </row>
-    <row r="94" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="AF93" s="4"/>
+    </row>
+    <row r="94" spans="2:32" x14ac:dyDescent="0.15">
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
+      <c r="P94" s="6"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
-      <c r="V94" s="4"/>
-      <c r="W94" s="4"/>
-      <c r="AB94" s="4"/>
-      <c r="AD94" s="4"/>
-    </row>
-    <row r="95" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="AF94" s="4"/>
+    </row>
+    <row r="95" spans="2:32" x14ac:dyDescent="0.15">
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
+      <c r="P95" s="6"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
-      <c r="V95" s="4"/>
-      <c r="W95" s="4"/>
-      <c r="AB95" s="4"/>
-      <c r="AD95" s="4"/>
-    </row>
-    <row r="96" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="AF95" s="4"/>
+    </row>
+    <row r="96" spans="2:32" x14ac:dyDescent="0.15">
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
+      <c r="P96" s="6"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
-      <c r="V96" s="4"/>
-      <c r="W96" s="4"/>
-      <c r="AB96" s="4"/>
-      <c r="AD96" s="4"/>
-    </row>
-    <row r="97" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="AF96" s="4"/>
+    </row>
+    <row r="97" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
+      <c r="P97" s="6"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
-      <c r="V97" s="4"/>
-      <c r="W97" s="4"/>
-      <c r="AB97" s="4"/>
-      <c r="AD97" s="4"/>
-    </row>
-    <row r="98" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="AF97" s="4"/>
+    </row>
+    <row r="98" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
+      <c r="P98" s="6"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
-      <c r="V98" s="4"/>
-      <c r="W98" s="4"/>
-      <c r="AB98" s="4"/>
-      <c r="AD98" s="4"/>
-    </row>
-    <row r="99" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="AF98" s="4"/>
+    </row>
+    <row r="99" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
+      <c r="P99" s="6"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
-      <c r="V99" s="4"/>
-      <c r="W99" s="4"/>
-      <c r="AB99" s="4"/>
-      <c r="AD99" s="4"/>
-    </row>
-    <row r="100" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="AF99" s="4"/>
+    </row>
+    <row r="100" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
+      <c r="P100" s="6"/>
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
-      <c r="V100" s="4"/>
-      <c r="W100" s="4"/>
-      <c r="AB100" s="4"/>
-      <c r="AD100" s="4"/>
-    </row>
-    <row r="101" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="AF100" s="4"/>
+    </row>
+    <row r="101" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
+      <c r="P101" s="6"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
-      <c r="V101" s="4"/>
-      <c r="W101" s="4"/>
-      <c r="AB101" s="4"/>
-      <c r="AD101" s="4"/>
-    </row>
-    <row r="102" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="AF101" s="4"/>
+    </row>
+    <row r="102" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
+      <c r="P102" s="6"/>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
-      <c r="V102" s="4"/>
-      <c r="W102" s="4"/>
-      <c r="AB102" s="4"/>
-      <c r="AD102" s="4"/>
-    </row>
-    <row r="103" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="AF102" s="4"/>
+    </row>
+    <row r="103" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
-      <c r="V103" s="4"/>
-      <c r="W103" s="4"/>
-    </row>
-    <row r="104" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+    </row>
+    <row r="104" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
-      <c r="V104" s="4"/>
-      <c r="W104" s="4"/>
-    </row>
-    <row r="105" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
+    </row>
+    <row r="105" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
-      <c r="V105" s="4"/>
-      <c r="W105" s="4"/>
-    </row>
-    <row r="106" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+    </row>
+    <row r="106" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
-      <c r="V106" s="4"/>
-      <c r="W106" s="4"/>
-    </row>
-    <row r="107" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+    </row>
+    <row r="107" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="O107" s="4"/>
-      <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
-      <c r="V107" s="4"/>
-      <c r="W107" s="4"/>
-    </row>
-    <row r="108" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
+    </row>
+    <row r="108" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
-      <c r="V108" s="4"/>
-      <c r="W108" s="4"/>
-    </row>
-    <row r="109" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+    </row>
+    <row r="109" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
-      <c r="V109" s="4"/>
-      <c r="W109" s="4"/>
-    </row>
-    <row r="110" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+    </row>
+    <row r="110" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
-      <c r="V110" s="4"/>
-      <c r="W110" s="4"/>
-    </row>
-    <row r="111" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+    </row>
+    <row r="111" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
-      <c r="V111" s="4"/>
-      <c r="W111" s="4"/>
-    </row>
-    <row r="112" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+    </row>
+    <row r="112" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
-      <c r="V112" s="4"/>
-      <c r="W112" s="4"/>
-    </row>
-    <row r="113" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+    </row>
+    <row r="113" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
-      <c r="V113" s="4"/>
-      <c r="W113" s="4"/>
-    </row>
-    <row r="114" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+    </row>
+    <row r="114" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="O114" s="4"/>
-      <c r="P114" s="4"/>
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
-      <c r="V114" s="4"/>
-      <c r="W114" s="4"/>
-    </row>
-    <row r="115" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+    </row>
+    <row r="115" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
-      <c r="V115" s="4"/>
-      <c r="W115" s="4"/>
-    </row>
-    <row r="116" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+    </row>
+    <row r="116" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
-      <c r="V116" s="4"/>
-      <c r="W116" s="4"/>
-    </row>
-    <row r="117" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="X116" s="4"/>
+      <c r="Y116" s="4"/>
+    </row>
+    <row r="117" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="O117" s="4"/>
-      <c r="P117" s="4"/>
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
-      <c r="V117" s="4"/>
-      <c r="W117" s="4"/>
-    </row>
-    <row r="118" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
+    </row>
+    <row r="118" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="4"/>
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
-      <c r="V118" s="4"/>
-      <c r="W118" s="4"/>
-    </row>
-    <row r="119" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+    </row>
+    <row r="119" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="O119" s="4"/>
-      <c r="P119" s="4"/>
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
-      <c r="V119" s="4"/>
-      <c r="W119" s="4"/>
-    </row>
-    <row r="120" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="X119" s="4"/>
+      <c r="Y119" s="4"/>
+    </row>
+    <row r="120" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
-      <c r="V120" s="4"/>
-      <c r="W120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/Export/Common/建筑类型.xlsx
+++ b/Data/Export/Common/建筑类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15123E-7FC2-4DE7-837B-9BD77E0911AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A18F3B-C020-489E-A1A0-B380BACC1292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -1009,14 +1009,15 @@
     <t>actionEntities</t>
   </si>
   <si>
-    <t>[{class:"BuildingImproveFoodGain", value:150, kinds:[33]}]</t>
-  </si>
-  <si>
-    <t>[{class:"BuildingImproveGoldGain", value:150, kinds:[32]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{class:"BuildingImproveFoodGainByCityTroops", value:100, minTroops:5000, maxTroops:30000}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"BuildingImproveGoldGain", value:50, kinds:[32]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"BuildingImproveFoodGain", value:50, kinds:[33]}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1522,38 +1523,38 @@
       <pane xSplit="3" ySplit="4" topLeftCell="AA31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AD58" sqref="AD58"/>
+      <selection pane="bottomRight" activeCell="AD45" sqref="AD45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="5" width="16.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="19.5" style="2" customWidth="1"/>
+    <col min="3" max="5" width="16.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="19.44140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="17" max="18" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.25" style="2" customWidth="1"/>
-    <col min="23" max="23" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="71.875" style="2" customWidth="1"/>
-    <col min="26" max="26" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="37.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="37.875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="37.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="102.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.21875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="71.88671875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.88671875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="102.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1640,7 +1641,7 @@
       <c r="AF1" s="9"/>
       <c r="AG1" s="7"/>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1677,7 +1678,7 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1770,7 +1771,7 @@
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
     </row>
-    <row r="4" spans="1:33" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1929,7 +1930,7 @@
       <c r="Z5" s="4"/>
       <c r="AF5" s="4"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1997,7 +1998,7 @@
       <c r="Z6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -2064,7 +2065,7 @@
       <c r="Z7" s="4"/>
       <c r="AF7" s="4"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -2138,7 +2139,7 @@
       </c>
       <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -2212,7 +2213,7 @@
       </c>
       <c r="AF9" s="4"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="AF10" s="4"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -2360,7 +2361,7 @@
       </c>
       <c r="AF11" s="4"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2434,7 +2435,7 @@
       </c>
       <c r="AF12" s="4"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -2499,7 +2500,7 @@
       </c>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2564,7 +2565,7 @@
       </c>
       <c r="AF14" s="4"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2629,7 +2630,7 @@
       </c>
       <c r="AF15" s="4"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2694,7 +2695,7 @@
       </c>
       <c r="AF16" s="4"/>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2759,7 +2760,7 @@
       </c>
       <c r="AF17" s="4"/>
     </row>
-    <row r="18" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2824,7 +2825,7 @@
       </c>
       <c r="AF18" s="4"/>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2885,7 +2886,7 @@
       <c r="Z19" s="4"/>
       <c r="AF19" s="4"/>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2946,7 +2947,7 @@
       <c r="Z20" s="4"/>
       <c r="AF20" s="4"/>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -3011,7 +3012,7 @@
       </c>
       <c r="AF21" s="4"/>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -3076,7 +3077,7 @@
       </c>
       <c r="AF22" s="4"/>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -3141,7 +3142,7 @@
       </c>
       <c r="AF23" s="4"/>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -3206,7 +3207,7 @@
       </c>
       <c r="AF24" s="4"/>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -3271,7 +3272,7 @@
       </c>
       <c r="AF25" s="4"/>
     </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -3401,7 +3402,7 @@
       </c>
       <c r="AF27" s="4"/>
     </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -3462,7 +3463,7 @@
       <c r="Z28" s="4"/>
       <c r="AF28" s="4"/>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -3523,7 +3524,7 @@
       <c r="Z29" s="4"/>
       <c r="AF29" s="4"/>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -3582,7 +3583,7 @@
       <c r="Z30" s="4"/>
       <c r="AF30" s="4"/>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -3643,7 +3644,7 @@
       <c r="Z31" s="4"/>
       <c r="AF31" s="4"/>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -3702,7 +3703,7 @@
       <c r="Z32" s="4"/>
       <c r="AF32" s="4"/>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -3763,7 +3764,7 @@
       <c r="Z33" s="4"/>
       <c r="AF33" s="4"/>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -3824,7 +3825,7 @@
       <c r="Z34" s="4"/>
       <c r="AF34" s="4"/>
     </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -3889,7 +3890,7 @@
       <c r="Z35" s="4"/>
       <c r="AF35" s="4"/>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -3969,7 +3970,7 @@
       </c>
       <c r="AF36" s="4"/>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>33</v>
       </c>
@@ -4049,7 +4050,7 @@
       </c>
       <c r="AF37" s="4"/>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>34</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>35</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>36</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>37</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>38</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>39</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>40</v>
       </c>
@@ -4553,10 +4554,10 @@
         <v>256</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>41</v>
       </c>
@@ -4629,7 +4630,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>42</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>43</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <v>44</v>
       </c>
@@ -4848,7 +4849,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>45</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <v>46</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <v>47</v>
       </c>
@@ -5069,7 +5070,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
         <v>48</v>
       </c>
@@ -5144,7 +5145,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>49</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>50</v>
       </c>
@@ -5289,10 +5290,10 @@
         <v>256</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>51</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>52</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>53</v>
       </c>
@@ -5508,7 +5509,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
         <v>54</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>55</v>
       </c>
@@ -5649,7 +5650,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>56</v>
       </c>
@@ -5717,7 +5718,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
         <v>57</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>58</v>
       </c>
@@ -5856,7 +5857,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
         <v>59</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
         <v>60</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
         <v>61</v>
       </c>
@@ -6069,7 +6070,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
         <v>62</v>
       </c>
@@ -6137,7 +6138,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
         <v>63</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
         <v>64</v>
       </c>
@@ -6276,7 +6277,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -6294,7 +6295,7 @@
       <c r="Y69" s="4"/>
       <c r="AF69" s="4"/>
     </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -6312,7 +6313,7 @@
       <c r="Y70" s="4"/>
       <c r="AF70" s="4"/>
     </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -6328,7 +6329,7 @@
       <c r="Y71" s="4"/>
       <c r="AF71" s="4"/>
     </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -6344,7 +6345,7 @@
       <c r="Y72" s="4"/>
       <c r="AF72" s="4"/>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -6360,7 +6361,7 @@
       <c r="Y73" s="4"/>
       <c r="AF73" s="4"/>
     </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -6376,7 +6377,7 @@
       <c r="Y74" s="4"/>
       <c r="AF74" s="4"/>
     </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -6392,7 +6393,7 @@
       <c r="Y75" s="4"/>
       <c r="AF75" s="4"/>
     </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -6408,7 +6409,7 @@
       <c r="Y76" s="4"/>
       <c r="AF76" s="4"/>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -6424,7 +6425,7 @@
       <c r="Y77" s="4"/>
       <c r="AF77" s="4"/>
     </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -6440,7 +6441,7 @@
       <c r="Y78" s="4"/>
       <c r="AF78" s="4"/>
     </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -6456,7 +6457,7 @@
       <c r="Y79" s="4"/>
       <c r="AF79" s="4"/>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -6472,7 +6473,7 @@
       <c r="Y80" s="4"/>
       <c r="AF80" s="4"/>
     </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -6488,7 +6489,7 @@
       <c r="Y81" s="4"/>
       <c r="AF81" s="4"/>
     </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -6504,7 +6505,7 @@
       <c r="Y82" s="4"/>
       <c r="AF82" s="4"/>
     </row>
-    <row r="83" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -6520,7 +6521,7 @@
       <c r="Y83" s="4"/>
       <c r="AF83" s="4"/>
     </row>
-    <row r="84" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -6536,7 +6537,7 @@
       <c r="Y84" s="4"/>
       <c r="AF84" s="4"/>
     </row>
-    <row r="85" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -6552,7 +6553,7 @@
       <c r="Y85" s="4"/>
       <c r="AF85" s="4"/>
     </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -6568,7 +6569,7 @@
       <c r="Y86" s="4"/>
       <c r="AF86" s="4"/>
     </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6584,7 +6585,7 @@
       <c r="Y87" s="4"/>
       <c r="AF87" s="4"/>
     </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -6600,7 +6601,7 @@
       <c r="Y88" s="4"/>
       <c r="AF88" s="4"/>
     </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -6616,7 +6617,7 @@
       <c r="Y89" s="4"/>
       <c r="AF89" s="4"/>
     </row>
-    <row r="90" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -6632,7 +6633,7 @@
       <c r="Y90" s="4"/>
       <c r="AF90" s="4"/>
     </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -6648,7 +6649,7 @@
       <c r="Y91" s="4"/>
       <c r="AF91" s="4"/>
     </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6664,7 +6665,7 @@
       <c r="Y92" s="4"/>
       <c r="AF92" s="4"/>
     </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -6677,7 +6678,7 @@
       <c r="Y93" s="4"/>
       <c r="AF93" s="4"/>
     </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="P94" s="6"/>
@@ -6690,7 +6691,7 @@
       <c r="Y94" s="4"/>
       <c r="AF94" s="4"/>
     </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="P95" s="6"/>
@@ -6703,7 +6704,7 @@
       <c r="Y95" s="4"/>
       <c r="AF95" s="4"/>
     </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="P96" s="6"/>
@@ -6716,7 +6717,7 @@
       <c r="Y96" s="4"/>
       <c r="AF96" s="4"/>
     </row>
-    <row r="97" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="97" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="P97" s="6"/>
@@ -6729,7 +6730,7 @@
       <c r="Y97" s="4"/>
       <c r="AF97" s="4"/>
     </row>
-    <row r="98" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="98" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="P98" s="6"/>
@@ -6742,7 +6743,7 @@
       <c r="Y98" s="4"/>
       <c r="AF98" s="4"/>
     </row>
-    <row r="99" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="99" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="P99" s="6"/>
@@ -6755,7 +6756,7 @@
       <c r="Y99" s="4"/>
       <c r="AF99" s="4"/>
     </row>
-    <row r="100" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="100" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="P100" s="6"/>
@@ -6768,7 +6769,7 @@
       <c r="Y100" s="4"/>
       <c r="AF100" s="4"/>
     </row>
-    <row r="101" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="101" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="P101" s="6"/>
@@ -6781,7 +6782,7 @@
       <c r="Y101" s="4"/>
       <c r="AF101" s="4"/>
     </row>
-    <row r="102" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="102" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="P102" s="6"/>
@@ -6794,7 +6795,7 @@
       <c r="Y102" s="4"/>
       <c r="AF102" s="4"/>
     </row>
-    <row r="103" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="103" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="Q103" s="4"/>
@@ -6805,7 +6806,7 @@
       <c r="X103" s="4"/>
       <c r="Y103" s="4"/>
     </row>
-    <row r="104" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="104" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="Q104" s="4"/>
@@ -6816,7 +6817,7 @@
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
     </row>
-    <row r="105" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="105" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="Q105" s="4"/>
@@ -6827,7 +6828,7 @@
       <c r="X105" s="4"/>
       <c r="Y105" s="4"/>
     </row>
-    <row r="106" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="106" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="Q106" s="4"/>
@@ -6838,7 +6839,7 @@
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
     </row>
-    <row r="107" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="107" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="Q107" s="4"/>
@@ -6849,7 +6850,7 @@
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
     </row>
-    <row r="108" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="108" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="Q108" s="4"/>
@@ -6860,7 +6861,7 @@
       <c r="X108" s="4"/>
       <c r="Y108" s="4"/>
     </row>
-    <row r="109" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="109" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="Q109" s="4"/>
@@ -6871,7 +6872,7 @@
       <c r="X109" s="4"/>
       <c r="Y109" s="4"/>
     </row>
-    <row r="110" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="110" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="Q110" s="4"/>
@@ -6882,7 +6883,7 @@
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
     </row>
-    <row r="111" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="111" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="Q111" s="4"/>
@@ -6893,7 +6894,7 @@
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
     </row>
-    <row r="112" spans="5:32" x14ac:dyDescent="0.15">
+    <row r="112" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="Q112" s="4"/>
@@ -6904,7 +6905,7 @@
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
     </row>
-    <row r="113" spans="5:25" x14ac:dyDescent="0.15">
+    <row r="113" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="Q113" s="4"/>
@@ -6915,7 +6916,7 @@
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
     </row>
-    <row r="114" spans="5:25" x14ac:dyDescent="0.15">
+    <row r="114" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="Q114" s="4"/>
@@ -6926,7 +6927,7 @@
       <c r="X114" s="4"/>
       <c r="Y114" s="4"/>
     </row>
-    <row r="115" spans="5:25" x14ac:dyDescent="0.15">
+    <row r="115" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="Q115" s="4"/>
@@ -6937,7 +6938,7 @@
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
     </row>
-    <row r="116" spans="5:25" x14ac:dyDescent="0.15">
+    <row r="116" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="Q116" s="4"/>
@@ -6948,7 +6949,7 @@
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
     </row>
-    <row r="117" spans="5:25" x14ac:dyDescent="0.15">
+    <row r="117" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="Q117" s="4"/>
@@ -6959,7 +6960,7 @@
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
     </row>
-    <row r="118" spans="5:25" x14ac:dyDescent="0.15">
+    <row r="118" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="Q118" s="4"/>
@@ -6970,7 +6971,7 @@
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
     </row>
-    <row r="119" spans="5:25" x14ac:dyDescent="0.15">
+    <row r="119" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="Q119" s="4"/>
@@ -6981,7 +6982,7 @@
       <c r="X119" s="4"/>
       <c r="Y119" s="4"/>
     </row>
-    <row r="120" spans="5:25" x14ac:dyDescent="0.15">
+    <row r="120" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="Q120" s="4"/>
